--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -109,9 +108,6 @@
     <t>Maharashtra</t>
   </si>
   <si>
-    <t>netchain,1234</t>
-  </si>
-  <si>
     <t>Tech Mahindra</t>
   </si>
   <si>
@@ -157,13 +153,19 @@
     <t>8178789909</t>
   </si>
   <si>
-    <t>tata1</t>
-  </si>
-  <si>
     <t>Qwerty@123</t>
   </si>
   <si>
-    <t>netchain</t>
+    <t>ruchira94</t>
+  </si>
+  <si>
+    <t>ruchira94,1234</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>laptop</t>
   </si>
 </sst>
 </file>
@@ -516,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -530,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -541,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -552,16 +554,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -570,10 +572,10 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>2.555555</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -593,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -623,10 +625,10 @@
         <v>17</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>4.5555500000000002</v>
       </c>
       <c r="N4" t="s">
         <v>18</v>
@@ -640,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,28 +667,28 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
         <v>27</v>
@@ -695,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -707,22 +709,22 @@
         <v>411099</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="V7">
         <v>12345</v>
       </c>
       <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
         <v>40</v>
-      </c>
-      <c r="X7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -63,21 +63,6 @@
     <t>invoice desc 1</t>
   </si>
   <si>
-    <t>Bank Charges</t>
-  </si>
-  <si>
-    <t>inv desc 2</t>
-  </si>
-  <si>
-    <t>measure 1</t>
-  </si>
-  <si>
-    <t>Hi !!</t>
-  </si>
-  <si>
-    <t>invoice memo</t>
-  </si>
-  <si>
     <t>NetchainTest.InvoiceListVendor</t>
   </si>
   <si>
@@ -141,49 +126,62 @@
     <t>notes12345</t>
   </si>
   <si>
+    <t>9098989912</t>
+  </si>
+  <si>
+    <t>8178789909</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Vendor 1</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>ruchira.m</t>
+  </si>
+  <si>
+    <t>ruchira.m,1234</t>
+  </si>
+  <si>
+    <t>Amanora</t>
+  </si>
+  <si>
     <t>bangalore</t>
   </si>
   <si>
-    <t>bang dept 1</t>
-  </si>
-  <si>
-    <t>9098989912</t>
-  </si>
-  <si>
-    <t>8178789909</t>
-  </si>
-  <si>
-    <t>Qwerty@123</t>
-  </si>
-  <si>
-    <t>ruchira94</t>
-  </si>
-  <si>
-    <t>ruchira94,1234</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>laptop</t>
+    <t>NetChain2-AP New: Invoice</t>
+  </si>
+  <si>
+    <t>test product</t>
+  </si>
+  <si>
+    <t>inv desc2</t>
+  </si>
+  <si>
+    <t>measure1</t>
+  </si>
+  <si>
+    <t>message1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,17 +204,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -532,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -543,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -554,13 +549,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -595,13 +590,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -613,118 +608,124 @@
         <v>500</v>
       </c>
       <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>4.5555500000000002</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>10.44444</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
       <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R7">
         <v>411099</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="V7">
         <v>12345</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -84,15 +84,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>ltd</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
     <t>Tech Mahindra</t>
   </si>
   <si>
@@ -105,33 +96,6 @@
     <t>Ms</t>
   </si>
   <si>
-    <t>Parul</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>Tata Technologies</t>
-  </si>
-  <si>
-    <t>phase3</t>
-  </si>
-  <si>
-    <t>rmhaisurkar@gmail.com</t>
-  </si>
-  <si>
-    <t>www.tata.com</t>
-  </si>
-  <si>
-    <t>notes12345</t>
-  </si>
-  <si>
-    <t>9098989912</t>
-  </si>
-  <si>
-    <t>8178789909</t>
-  </si>
-  <si>
     <t>Qwerty@123</t>
   </si>
   <si>
@@ -172,6 +136,93 @@
   </si>
   <si>
     <t>message1</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>Inc</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>demotest@gmail.com</t>
+  </si>
+  <si>
+    <t>www.microsoft.com</t>
+  </si>
+  <si>
+    <t>other1234</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>NetChain2 – AP Vendor: New</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateVendorNeg</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t>othe55555</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100900</t>
+  </si>
+  <si>
+    <t>1-334-556-6570</t>
+  </si>
+  <si>
+    <t>1-556-778-2876</t>
+  </si>
+  <si>
+    <t>85001</t>
+  </si>
+  <si>
+    <t>1-526-272-2650</t>
+  </si>
+  <si>
+    <t>1-454-266-8970</t>
+  </si>
+  <si>
+    <t>4 Goldfield St.</t>
+  </si>
+  <si>
+    <t>70 Bowman St.</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>1-765-888-9800</t>
+  </si>
+  <si>
+    <t>1-676-999-8000</t>
+  </si>
+  <si>
+    <t>Company1</t>
+  </si>
+  <si>
+    <t>Company2</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
 </sst>
 </file>
@@ -207,9 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,51 +563,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="29" max="29" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -585,18 +638,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -608,19 +661,19 @@
         <v>500</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -629,32 +682,32 @@
         <v>10.44444</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -668,64 +721,168 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="N7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
         <v>21</v>
       </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7">
-        <v>411099</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7">
-        <v>12345</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>35</v>
+      <c r="S8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -151,12 +150,6 @@
     <t>ruchira.m,1234</t>
   </si>
   <si>
-    <t>bangalore</t>
-  </si>
-  <si>
-    <t>test product</t>
-  </si>
-  <si>
     <t>inv desc2</t>
   </si>
   <si>
@@ -178,16 +171,25 @@
     <t>G5</t>
   </si>
   <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
     <t>ADD NEW CATEGORY</t>
   </si>
   <si>
     <t>MOTO</t>
   </si>
   <si>
-    <t>shital</t>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>payable</t>
+  </si>
+  <si>
+    <t>tech m</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateInvoice2</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateInvoice3</t>
   </si>
 </sst>
 </file>
@@ -538,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -554,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>38</v>
@@ -617,13 +619,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -635,7 +637,7 @@
         <v>500</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -644,150 +646,165 @@
         <v>27</v>
       </c>
       <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>33.393360000000001</v>
+      </c>
+      <c r="N4">
+        <v>45.677999999999997</v>
+      </c>
+      <c r="O4" t="s">
         <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>10.44444</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7">
-        <v>411099</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7">
-        <v>12345</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>411099</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9">
+        <v>12345</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>200</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\CTPL-TestAutomation\CTPL-TestAutomation\CTPL-TestAutomation\NetConnect-NetChain2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15420" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -87,12 +92,6 @@
     <t>ltd</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
     <t>Tech Mahindra</t>
   </si>
   <si>
@@ -105,33 +104,6 @@
     <t>Ms</t>
   </si>
   <si>
-    <t>Parul</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>Tata Technologies</t>
-  </si>
-  <si>
-    <t>phase3</t>
-  </si>
-  <si>
-    <t>rmhaisurkar@gmail.com</t>
-  </si>
-  <si>
-    <t>www.tata.com</t>
-  </si>
-  <si>
-    <t>notes12345</t>
-  </si>
-  <si>
-    <t>9098989912</t>
-  </si>
-  <si>
-    <t>8178789909</t>
-  </si>
-  <si>
     <t>Qwerty@123</t>
   </si>
   <si>
@@ -190,12 +162,51 @@
   </si>
   <si>
     <t>NetchainTest.CreateInvoice3</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>Company1</t>
+  </si>
+  <si>
+    <t>whc road</t>
+  </si>
+  <si>
+    <t>nagpur</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>www.abcd.com</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>8989887677</t>
+  </si>
+  <si>
+    <t>9098987766</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>9098989988</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateVendorNeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,10 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -248,6 +261,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +345,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +397,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -551,40 +601,40 @@
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -614,18 +664,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -637,19 +687,19 @@
         <v>500</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>33.393360000000001</v>
@@ -658,48 +708,48 @@
         <v>45.677999999999997</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -713,95 +763,193 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9">
+        <v>440015</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9">
+        <v>12345</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10">
+        <v>440015</v>
+      </c>
+      <c r="W10" s="3">
+        <v>2</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10">
+        <v>12345</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="R9">
-        <v>411099</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9">
-        <v>12345</v>
-      </c>
-      <c r="W9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>200</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>22</v>
       </c>
     </row>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>NetchainTest.CreateVendorNeg</t>
+  </si>
+  <si>
+    <t>NetChain2 – AP Vendors</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -601,7 +604,7 @@
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -623,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -664,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -723,17 +726,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -741,7 +744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -749,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -834,8 +837,11 @@
       <c r="AB9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -920,8 +926,11 @@
       <c r="AB10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\CTPL-TestAutomation\CTPL-TestAutomation\CTPL-TestAutomation\NetConnect-NetChain2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6285"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -204,12 +199,36 @@
   </si>
   <si>
     <t>NetChain2 – AP Vendors</t>
+  </si>
+  <si>
+    <t>NetChain2 – AP Vendor: New</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateSalesOrder</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>workbooks</t>
+  </si>
+  <si>
+    <t>measure2</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>inv desc3</t>
+  </si>
+  <si>
+    <t>measure3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,26 +367,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,23 +402,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,15 +578,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="29" max="29" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,11 +716,89 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>234.44444999999999</v>
+      </c>
+      <c r="N5">
+        <v>876.9757366</v>
+      </c>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>38.741129999999998</v>
+      </c>
+      <c r="N6">
+        <v>34.987736650000002</v>
+      </c>
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -838,7 +902,7 @@
         <v>54</v>
       </c>
       <c r="AC9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,6 +1024,17 @@
       </c>
       <c r="J11">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\CTPL-TestAutomation\CTPL-TestAutomation\CTPL-TestAutomation\NetConnect-NetChain2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6285"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -104,9 +99,6 @@
     <t>Ms</t>
   </si>
   <si>
-    <t>Qwerty@123</t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -152,12 +144,6 @@
     <t>DHL</t>
   </si>
   <si>
-    <t>payable</t>
-  </si>
-  <si>
-    <t>tech m</t>
-  </si>
-  <si>
     <t>NetchainTest.CreateInvoice2</t>
   </si>
   <si>
@@ -204,12 +190,48 @@
   </si>
   <si>
     <t>NetChain2 – AP Vendors</t>
+  </si>
+  <si>
+    <t>NetChain2 – AP Vendor: New</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateSalesOrder</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>measure2</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>inv desc3</t>
+  </si>
+  <si>
+    <t>measure3</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Testing1@</t>
+  </si>
+  <si>
+    <t>TechBite</t>
+  </si>
+  <si>
+    <t>Workbooks</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,26 +370,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,23 +405,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,15 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="29" max="29" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -631,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -672,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -690,7 +679,7 @@
         <v>500</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -699,10 +688,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
       <c r="M4">
         <v>33.393360000000001</v>
@@ -711,29 +700,107 @@
         <v>45.677999999999997</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <v>234.44444999999999</v>
+      </c>
+      <c r="N5">
+        <v>876.9757366</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6">
+        <v>38.741129999999998</v>
+      </c>
+      <c r="N6">
+        <v>34.987736650000002</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,16 +833,16 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -790,16 +857,16 @@
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
@@ -808,42 +875,42 @@
         <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V9">
         <v>440015</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z9">
         <v>12345</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -855,16 +922,16 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -879,16 +946,16 @@
         <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
@@ -897,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V10">
         <v>440015</v>
@@ -912,39 +979,39 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z10">
         <v>12345</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -960,6 +1027,17 @@
       </c>
       <c r="J11">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -159,27 +159,12 @@
     <t>Company1</t>
   </si>
   <si>
-    <t>whc road</t>
-  </si>
-  <si>
-    <t>nagpur</t>
-  </si>
-  <si>
-    <t>mh</t>
-  </si>
-  <si>
     <t>www.abcd.com</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>8989887677</t>
-  </si>
-  <si>
-    <t>9098987766</t>
-  </si>
-  <si>
     <t>Tester</t>
   </si>
   <si>
@@ -226,6 +211,21 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>201-999-5654</t>
+  </si>
+  <si>
+    <t>210-339-0102</t>
+  </si>
+  <si>
+    <t>Street Sacramento</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
         <v>41</v>
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -738,7 +738,7 @@
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -750,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M5">
         <v>234.44444999999999</v>
@@ -764,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -788,13 +788,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <v>38.741129999999998</v>
@@ -839,10 +839,10 @@
         <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -875,42 +875,42 @@
         <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="V9">
-        <v>440015</v>
+        <v>99501</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Z9">
         <v>12345</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AC9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -928,10 +928,10 @@
         <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -964,37 +964,37 @@
         <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="V10">
-        <v>440015</v>
+        <v>99501</v>
       </c>
       <c r="W10" s="3">
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Z10">
         <v>12345</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AB10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AC10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,10 +1031,10 @@
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Ms</t>
   </si>
   <si>
-    <t>Qwerty@123</t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -147,12 +144,6 @@
     <t>DHL</t>
   </si>
   <si>
-    <t>payable</t>
-  </si>
-  <si>
-    <t>tech m</t>
-  </si>
-  <si>
     <t>NetchainTest.CreateInvoice2</t>
   </si>
   <si>
@@ -168,27 +159,12 @@
     <t>Company1</t>
   </si>
   <si>
-    <t>whc road</t>
-  </si>
-  <si>
-    <t>nagpur</t>
-  </si>
-  <si>
-    <t>mh</t>
-  </si>
-  <si>
     <t>www.abcd.com</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>8989887677</t>
-  </si>
-  <si>
-    <t>9098987766</t>
-  </si>
-  <si>
     <t>Tester</t>
   </si>
   <si>
@@ -210,9 +186,6 @@
     <t>Accenture</t>
   </si>
   <si>
-    <t>workbooks</t>
-  </si>
-  <si>
     <t>measure2</t>
   </si>
   <si>
@@ -223,6 +196,36 @@
   </si>
   <si>
     <t>measure3</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Testing1@</t>
+  </si>
+  <si>
+    <t>TechBite</t>
+  </si>
+  <si>
+    <t>Workbooks</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>201-999-5654</t>
+  </si>
+  <si>
+    <t>210-339-0102</t>
+  </si>
+  <si>
+    <t>Street Sacramento</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -617,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -658,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -676,7 +679,7 @@
         <v>500</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -685,10 +688,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
       <c r="M4">
         <v>33.393360000000001</v>
@@ -697,27 +700,27 @@
         <v>45.677999999999997</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -735,7 +738,7 @@
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -744,10 +747,10 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M5">
         <v>234.44444999999999</v>
@@ -758,10 +761,10 @@
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -779,19 +782,19 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <v>38.741129999999998</v>
@@ -830,16 +833,16 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -854,16 +857,16 @@
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
@@ -872,42 +875,42 @@
         <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="V9">
-        <v>440015</v>
+        <v>99501</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Z9">
         <v>12345</v>
       </c>
       <c r="AA9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" t="s">
         <v>53</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -919,16 +922,16 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -943,16 +946,16 @@
         <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
@@ -961,54 +964,54 @@
         <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="V10">
-        <v>440015</v>
+        <v>99501</v>
       </c>
       <c r="W10" s="3">
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Z10">
         <v>12345</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AB10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AC10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1028,10 +1031,10 @@
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -228,15 +228,9 @@
     <t>NetchainTest.PORuntimeProd</t>
   </si>
   <si>
-    <t>runtime prod 1</t>
-  </si>
-  <si>
     <t>new category 1</t>
   </si>
   <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>Installation</t>
   </si>
   <si>
@@ -274,6 +268,24 @@
   </si>
   <si>
     <t>NetchainTest.CreateSalesOrder2</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>runtime prod 17</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -631,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -709,10 +721,28 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
-        <v>71</v>
+      <c r="D4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,22 +1123,22 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14">
         <v>33.393360000000001</v>
@@ -1117,10 +1147,10 @@
         <v>45.677999999999997</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
         <v>63</v>
@@ -1131,25 +1161,25 @@
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15">
         <v>25.465554999999998</v>
@@ -1160,25 +1190,25 @@
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16">
         <v>10.44455</v>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -66,9 +66,6 @@
     <t>NetchainTest.InvoiceListVendor</t>
   </si>
   <si>
-    <t>NetchainTest.invListSearchBar</t>
-  </si>
-  <si>
     <t>company1</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>ltd</t>
   </si>
   <si>
-    <t>Tech Mahindra</t>
-  </si>
-  <si>
     <t>pune</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>AR.NetchainTest.CreateSalesOrder</t>
   </si>
   <si>
-    <t>Accenture</t>
-  </si>
-  <si>
     <t>measure2</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>Testing1@</t>
   </si>
   <si>
-    <t>TechBite</t>
-  </si>
-  <si>
     <t>Workbooks</t>
   </si>
   <si>
@@ -226,6 +214,99 @@
   </si>
   <si>
     <t>Alaska</t>
+  </si>
+  <si>
+    <t>AccountTest</t>
+  </si>
+  <si>
+    <t>Twowaymatch</t>
+  </si>
+  <si>
+    <t>qwerty@123</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>Vendor1</t>
+  </si>
+  <si>
+    <t>Vendor11</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateInvoiceActions</t>
+  </si>
+  <si>
+    <t>watches</t>
+  </si>
+  <si>
+    <t>inv desc1</t>
+  </si>
+  <si>
+    <t>NetchainTest.TwoWayMatch</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>NetchainTest.PORuntimeProd</t>
+  </si>
+  <si>
+    <t>po runtime prod</t>
+  </si>
+  <si>
+    <t>new category 1</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateSalesOrder1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>so desc 2</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateSalesOrder2</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>Design income</t>
+  </si>
+  <si>
+    <t>so desc 3</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>so desc 1</t>
+  </si>
+  <si>
+    <t>client message</t>
+  </si>
+  <si>
+    <t>client memo</t>
+  </si>
+  <si>
+    <t>NetchainTest.InvoiceDispute</t>
+  </si>
+  <si>
+    <t>This is comment</t>
   </si>
 </sst>
 </file>
@@ -581,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -598,10 +679,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -620,13 +713,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -658,75 +751,45 @@
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>500</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>33.393360000000001</v>
-      </c>
-      <c r="N4">
-        <v>45.677999999999997</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>2700</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -738,39 +801,57 @@
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>8.0444440000000004</v>
+      </c>
+      <c r="N5">
+        <v>45.678636699999998</v>
+      </c>
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5">
-        <v>234.44444999999999</v>
-      </c>
-      <c r="N5">
-        <v>876.9757366</v>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -782,195 +863,243 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>38.741129999999998</v>
+        <v>200.07777770000001</v>
       </c>
       <c r="N6">
-        <v>34.987736650000002</v>
+        <v>8.9757366350000005</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <v>38.741129999999998</v>
+      </c>
+      <c r="N7">
+        <v>3.98773665</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
         <v>44</v>
       </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" t="s">
-        <v>46</v>
-      </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V9">
         <v>99501</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z9">
         <v>12345</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
         <v>44</v>
       </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V10">
         <v>99501</v>
@@ -979,42 +1108,42 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z10">
         <v>12345</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -1029,15 +1158,220 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12">
+        <v>33.393360000000001</v>
+      </c>
+      <c r="I12">
+        <v>45.677999999999997</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>500.76600000000002</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="N13">
+        <v>500.86599999999999</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>8.0444440000000004</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <v>25.465554999999998</v>
+      </c>
+      <c r="I15">
+        <v>19.233000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16">
+        <v>10.44455</v>
+      </c>
+      <c r="I16">
+        <v>8.3330000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>12.88</v>
+      </c>
+      <c r="C17">
+        <v>212.33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -340,13 +341,169 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateClients</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Desire</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Shital</t>
+  </si>
+  <si>
+    <t>ruchira.mhaisurkar@connecticus.in</t>
+  </si>
+  <si>
+    <t>9876767687</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>Fees Billed</t>
+  </si>
+  <si>
+    <t>869876986</t>
+  </si>
+  <si>
+    <t>Bank To Bank</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Company2</t>
+  </si>
+  <si>
+    <t>maharashtra</t>
+  </si>
+  <si>
+    <t>576567</t>
+  </si>
+  <si>
+    <t>ruchiramhaisurkar@connecticus.in</t>
+  </si>
+  <si>
+    <t>8768768754</t>
+  </si>
+  <si>
+    <t>4576477678</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>www.accountReceviable.com</t>
+  </si>
+  <si>
+    <t>765675753</t>
+  </si>
+  <si>
+    <t>Tier-B</t>
+  </si>
+  <si>
+    <t>NetChain2 – AR Clients</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateClientsConnected</t>
+  </si>
+  <si>
+    <t>ConnectedCompany</t>
+  </si>
+  <si>
+    <t>rashmiconnecticus3@gmail.com</t>
+  </si>
+  <si>
+    <t>AP.NetchainTest.CreateVendors</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>maharastra</t>
+  </si>
+  <si>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>9098987766</t>
+  </si>
+  <si>
+    <t>8989887677</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Notepads</t>
+  </si>
+  <si>
+    <t>AP.NetchainTest.CreatePO</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Connected Ar</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>shital</t>
+  </si>
+  <si>
+    <t>UPS Ground</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.Login</t>
+  </si>
+  <si>
+    <t>CompanyConnection</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateSOConnected</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>Rashmi</t>
+  </si>
+  <si>
+    <t>APConnected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +515,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000008"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,12 +548,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -729,6 +897,12 @@
       <c r="G1" t="s">
         <v>68</v>
       </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1393,7 +1567,7 @@
         <v>8.3330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1407,7 +1581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -1449,14 +1623,427 @@
       </c>
       <c r="N18" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T19" t="s">
+        <v>122</v>
+      </c>
+      <c r="U19" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>137</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>5333.3387599999996</v>
+      </c>
+      <c r="J22">
+        <v>50.874899999999997</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24">
+        <v>5.3453299999999997</v>
+      </c>
+      <c r="I24">
+        <v>500.34559999999999</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="X21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -340,13 +340,169 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateClients</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Desire</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Shital</t>
+  </si>
+  <si>
+    <t>ruchira.mhaisurkar@connecticus.in</t>
+  </si>
+  <si>
+    <t>9876767687</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>Fees Billed</t>
+  </si>
+  <si>
+    <t>869876986</t>
+  </si>
+  <si>
+    <t>Bank To Bank</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Company2</t>
+  </si>
+  <si>
+    <t>maharashtra</t>
+  </si>
+  <si>
+    <t>576567</t>
+  </si>
+  <si>
+    <t>ruchiramhaisurkar@connecticus.in</t>
+  </si>
+  <si>
+    <t>8768768754</t>
+  </si>
+  <si>
+    <t>4576477678</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>www.accountReceviable.com</t>
+  </si>
+  <si>
+    <t>765675753</t>
+  </si>
+  <si>
+    <t>Tier-B</t>
+  </si>
+  <si>
+    <t>NetChain2 – AR Clients</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateClientsConnected</t>
+  </si>
+  <si>
+    <t>ConnectedCompany</t>
+  </si>
+  <si>
+    <t>rashmiconnecticus3@gmail.com</t>
+  </si>
+  <si>
+    <t>AP.NetchainTest.CreateVendors</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>maharastra</t>
+  </si>
+  <si>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>9098987766</t>
+  </si>
+  <si>
+    <t>8989887677</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Notepads</t>
+  </si>
+  <si>
+    <t>AP.NetchainTest.CreatePO</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Connected Ar</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>shital</t>
+  </si>
+  <si>
+    <t>UPS Ground</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.Login</t>
+  </si>
+  <si>
+    <t>CompanyConnection</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateSOConnected</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>Rashmi</t>
+  </si>
+  <si>
+    <t>APConnected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +514,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000008"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,12 +547,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -729,6 +896,12 @@
       <c r="G1" t="s">
         <v>68</v>
       </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -743,139 +916,88 @@
     </row>
     <row r="3" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>2.555555</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
+        <v>151</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4">
-        <v>1234</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4">
-        <v>2700</v>
-      </c>
       <c r="I4">
-        <v>1000</v>
+        <v>2.555555</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>1234</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5">
-        <v>8.0444440000000004</v>
-      </c>
-      <c r="N5">
-        <v>45.678636699999998</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>2700</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -896,33 +1018,48 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>200.07777770000001</v>
+        <v>8.0444440000000004</v>
       </c>
       <c r="N6">
-        <v>8.9757366350000005</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
+        <v>45.678636699999998</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -943,136 +1080,94 @@
         <v>500</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>38.741129999999998</v>
+        <v>200.07777770000001</v>
       </c>
       <c r="N7">
-        <v>3.98773665</v>
+        <v>8.9757366350000005</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8">
+        <v>38.741129999999998</v>
+      </c>
+      <c r="N8">
+        <v>3.98773665</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9">
-        <v>99501</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z9">
-        <v>12345</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1137,8 +1232,8 @@
       <c r="V10">
         <v>99501</v>
       </c>
-      <c r="W10" s="3">
-        <v>2</v>
+      <c r="W10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="X10" s="4" t="s">
         <v>61</v>
@@ -1156,138 +1251,177 @@
         <v>46</v>
       </c>
       <c r="AC10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>200</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11">
+        <v>99501</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11">
+        <v>12345</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12">
-        <v>33.393360000000001</v>
+      <c r="H12" t="s">
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>45.677999999999997</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>500.76600000000002</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13">
+        <v>33.393360000000001</v>
+      </c>
+      <c r="I13">
+        <v>45.677999999999997</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="N13">
-        <v>500.86599999999999</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1302,10 +1436,10 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>500</v>
+        <v>500.76600000000002</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1320,10 +1454,10 @@
         <v>31</v>
       </c>
       <c r="M14">
-        <v>8.0444440000000004</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>500.86599999999999</v>
       </c>
       <c r="O14" t="s">
         <v>32</v>
@@ -1331,42 +1465,63 @@
       <c r="P14" t="s">
         <v>8</v>
       </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15">
-        <v>25.465554999999998</v>
-      </c>
-      <c r="I15">
-        <v>19.233000000000001</v>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>8.0444440000000004</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -1375,88 +1530,519 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <v>25.465554999999998</v>
+      </c>
+      <c r="I16">
+        <v>19.233000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>10.44455</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>8.3330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>95</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>12.88</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>212.33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>416313</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>103</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>104</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>102</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>416318</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>105</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>106</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N19" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" t="s">
+        <v>122</v>
+      </c>
+      <c r="U20" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>5333.3387599999996</v>
+      </c>
+      <c r="J23">
+        <v>50.874899999999997</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24">
+        <v>5.3453299999999997</v>
+      </c>
+      <c r="I24">
+        <v>500.34559999999999</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="X22" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -46,9 +45,6 @@
     <t>memo1</t>
   </si>
   <si>
-    <t>Ruchira</t>
-  </si>
-  <si>
     <t>FedEx Ground</t>
   </si>
   <si>
@@ -94,9 +90,6 @@
     <t>Ms</t>
   </si>
   <si>
-    <t>Dell</t>
-  </si>
-  <si>
     <t>laptop</t>
   </si>
   <si>
@@ -190,9 +183,6 @@
     <t>measure3</t>
   </si>
   <si>
-    <t>Payable</t>
-  </si>
-  <si>
     <t>Testing1@</t>
   </si>
   <si>
@@ -424,9 +414,6 @@
     <t>ConnectedCompany</t>
   </si>
   <si>
-    <t>rashmiconnecticus3@gmail.com</t>
-  </si>
-  <si>
     <t>AP.NetchainTest.CreateVendors</t>
   </si>
   <si>
@@ -475,9 +462,6 @@
     <t>CompanyConnection</t>
   </si>
   <si>
-    <t>Qwerty@123</t>
-  </si>
-  <si>
     <t>AR.NetchainTest.CreateSOConnected</t>
   </si>
   <si>
@@ -497,6 +481,30 @@
   </si>
   <si>
     <t>APConnected</t>
+  </si>
+  <si>
+    <t>userone</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.Schedule</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>automationctpl3@gmail.com</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
 </sst>
 </file>
@@ -863,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,28 +888,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -920,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -950,33 +958,33 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>2700</v>
@@ -987,40 +995,40 @@
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5">
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5">
         <v>8.0444440000000004</v>
@@ -1029,19 +1037,19 @@
         <v>45.678636699999998</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1049,40 +1057,40 @@
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
       </c>
       <c r="G6">
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>200.07777770000001</v>
@@ -1096,40 +1104,40 @@
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
       <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>56</v>
       </c>
       <c r="M7">
         <v>38.741129999999998</v>
@@ -1140,10 +1148,10 @@
     </row>
     <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1152,161 +1160,161 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
       <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V9">
         <v>99501</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z9">
         <v>12345</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
       </c>
       <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
       <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V10">
         <v>99501</v>
@@ -1315,42 +1323,42 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z10">
         <v>12345</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -1367,25 +1375,25 @@
     </row>
     <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>33.393360000000001</v>
@@ -1394,54 +1402,54 @@
         <v>45.677999999999997</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
       </c>
       <c r="G13">
         <v>500.76600000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>8.7799999999999994</v>
@@ -1450,7 +1458,7 @@
         <v>500.86599999999999</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
         <v>8</v>
@@ -1458,40 +1466,40 @@
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
       </c>
       <c r="G14">
         <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <v>8.0444440000000004</v>
@@ -1500,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
         <v>8</v>
@@ -1511,25 +1519,25 @@
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15">
         <v>25.465554999999998</v>
@@ -1540,25 +1548,25 @@
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16">
         <v>10.44455</v>
@@ -1569,7 +1577,7 @@
     </row>
     <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>12.88</v>
@@ -1578,389 +1586,389 @@
         <v>212.33</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
       </c>
       <c r="G18">
         <v>416313</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K18">
         <v>416318</v>
       </c>
       <c r="L18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="M18" t="s">
+      <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="N18" t="s">
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>109</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>110</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>112</v>
       </c>
-      <c r="F19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
       </c>
       <c r="K19" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" t="s">
         <v>116</v>
       </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" t="s">
         <v>117</v>
       </c>
-      <c r="N19" t="s">
+      <c r="R19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O19" t="s">
+      <c r="S19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="T19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="Z19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="AA19" t="s">
         <v>122</v>
       </c>
-      <c r="T19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>22</v>
-      </c>
-      <c r="X19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="AB19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AC19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AD19" t="s">
         <v>125</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AE19" t="s">
         <v>126</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AF19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AG19" t="s">
         <v>128</v>
       </c>
-      <c r="AE19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>131</v>
-      </c>
       <c r="AH19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AI19" t="b">
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" t="s">
-        <v>115</v>
-      </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
         <v>4</v>
       </c>
       <c r="K20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" t="s">
         <v>116</v>
       </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="4" t="s">
+      <c r="P20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" t="s">
         <v>117</v>
       </c>
-      <c r="N20" t="s">
+      <c r="R20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O20" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="S20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T20" t="s">
+        <v>131</v>
+      </c>
+      <c r="U20" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="Z20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" t="s">
-        <v>134</v>
-      </c>
-      <c r="U20" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s">
-        <v>22</v>
-      </c>
-      <c r="X20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="AA20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="AC20" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AA20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AD20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE20" t="s">
         <v>126</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AF20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AG20" t="s">
         <v>128</v>
       </c>
-      <c r="AE20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>131</v>
-      </c>
       <c r="AH20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AI20" t="b">
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
       </c>
       <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O21" t="s">
+      <c r="AA21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>134</v>
-      </c>
-      <c r="R21" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W21" s="4" t="s">
+      <c r="AC21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" t="s">
         <v>139</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>140</v>
       </c>
-      <c r="Z21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>144</v>
-      </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1972,50 +1980,50 @@
         <v>50.874899999999997</v>
       </c>
       <c r="K22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="L22" t="s">
+      <c r="B23" t="s">
         <v>147</v>
       </c>
-      <c r="M22" t="s">
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="N22" t="s">
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
         <v>150</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>155</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H24">
         <v>5.3453299999999997</v>
@@ -2024,26 +2032,51 @@
         <v>500.34559999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s">
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C23" r:id="rId2"/>
-    <hyperlink ref="X21" r:id="rId3"/>
+    <hyperlink ref="AA20" r:id="rId3"/>
+    <hyperlink ref="X21" r:id="rId4"/>
+    <hyperlink ref="I1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -492,9 +492,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>automationctpl3@gmail.com</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>automationctpl4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1823,7 @@
         <v>121</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AB20" s="7" t="s">
         <v>123</v>
@@ -1924,7 +1924,7 @@
         <v>135</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>136</v>
@@ -2052,19 +2052,19 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
         <v>159</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>160</v>
-      </c>
-      <c r="E25" t="s">
-        <v>161</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15015" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="169">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -183,9 +183,6 @@
     <t>measure3</t>
   </si>
   <si>
-    <t>Testing1@</t>
-  </si>
-  <si>
     <t>Workbooks</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>AccountTest</t>
   </si>
   <si>
-    <t>Twowaymatch</t>
-  </si>
-  <si>
     <t>qwerty@123</t>
   </si>
   <si>
@@ -492,9 +486,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>automationctpl3@gmail.com</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -505,6 +496,33 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>NetchainTest.CustomWorkflow</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Product5</t>
+  </si>
+  <si>
+    <t>TwoWayMatch</t>
+  </si>
+  <si>
+    <t>automationctpl4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -871,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -888,28 +906,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -958,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -966,13 +990,13 @@
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
       </c>
       <c r="D4">
         <v>1234</v>
@@ -984,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>2700</v>
@@ -998,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1043,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R5" t="s">
         <v>37</v>
@@ -1060,7 +1084,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1078,7 +1102,7 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -1107,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1151,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1160,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,13 +1243,13 @@
         <v>19</v>
       </c>
       <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="V9">
         <v>99501</v>
@@ -1234,10 +1258,10 @@
         <v>26</v>
       </c>
       <c r="X9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="Z9">
         <v>12345</v>
@@ -1308,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="S10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="V10">
         <v>99501</v>
@@ -1323,10 +1347,10 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="Z10">
         <v>12345</v>
@@ -1378,22 +1402,22 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12">
         <v>33.393360000000001</v>
@@ -1402,13 +1426,13 @@
         <v>45.677999999999997</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
@@ -1416,10 +1440,10 @@
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1437,7 +1461,7 @@
         <v>500.76600000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
@@ -1446,7 +1470,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
         <v>29</v>
@@ -1466,10 +1490,10 @@
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1487,7 +1511,7 @@
         <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1496,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
@@ -1519,25 +1543,25 @@
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>25.465554999999998</v>
@@ -1548,25 +1572,25 @@
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16">
         <v>10.44455</v>
@@ -1577,7 +1601,7 @@
     </row>
     <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>12.88</v>
@@ -1586,77 +1610,77 @@
         <v>212.33</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
       </c>
       <c r="G18">
         <v>416313</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>416318</v>
       </c>
       <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
         <v>102</v>
-      </c>
-      <c r="M18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
-        <v>112</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1665,34 +1689,34 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" t="s">
         <v>114</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
         <v>115</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="S19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="T19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U19" t="s">
         <v>20</v>
@@ -1707,66 +1731,66 @@
         <v>21</v>
       </c>
       <c r="Y19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" t="s">
         <v>120</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AD19" t="s">
         <v>123</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AE19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>126</v>
       </c>
-      <c r="AF19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>128</v>
-      </c>
       <c r="AH19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI19" t="b">
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1775,34 +1799,34 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s">
         <v>114</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" t="s">
         <v>115</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="S20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U20" t="s">
         <v>20</v>
@@ -1817,45 +1841,45 @@
         <v>21</v>
       </c>
       <c r="Y20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AC20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" t="s">
         <v>123</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AE20" t="s">
         <v>124</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AG20" t="s">
         <v>126</v>
       </c>
-      <c r="AF20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>128</v>
-      </c>
       <c r="AH20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI20" t="b">
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1894,16 +1918,16 @@
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R21" t="s">
         <v>20</v>
@@ -1918,22 +1942,22 @@
         <v>21</v>
       </c>
       <c r="V21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>43</v>
@@ -1945,21 +1969,21 @@
         <v>49</v>
       </c>
       <c r="AE21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1968,7 +1992,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1980,103 +2004,185 @@
         <v>50.874899999999997</v>
       </c>
       <c r="K22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" t="s">
         <v>142</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>143</v>
-      </c>
-      <c r="M22" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>160</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>500</v>
+      </c>
+      <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>100</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>50</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24">
-        <v>5.3453299999999997</v>
-      </c>
-      <c r="I24">
-        <v>500.34559999999999</v>
-      </c>
-      <c r="J24" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" t="s">
         <v>145</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <v>5.3453299999999997</v>
+      </c>
+      <c r="I25">
+        <v>500.34559999999999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
         <v>159</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId2"/>
     <hyperlink ref="AA20" r:id="rId3"/>
     <hyperlink ref="X21" r:id="rId4"/>
     <hyperlink ref="I1" r:id="rId5"/>
+    <hyperlink ref="K1" r:id="rId6"/>
+    <hyperlink ref="E1" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15015" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="173">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -183,9 +183,6 @@
     <t>measure3</t>
   </si>
   <si>
-    <t>Testing1@</t>
-  </si>
-  <si>
     <t>Workbooks</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>AccountTest</t>
   </si>
   <si>
-    <t>Twowaymatch</t>
-  </si>
-  <si>
     <t>qwerty@123</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>nice</t>
   </si>
   <si>
-    <t>shital</t>
-  </si>
-  <si>
     <t>UPS Ground</t>
   </si>
   <si>
@@ -504,7 +495,46 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>automationctpl4@gmail.com</t>
+    <t>NetchainTest.CustomWorkflow</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Product5</t>
+  </si>
+  <si>
+    <t>TwoWayMatch</t>
+  </si>
+  <si>
+    <t>GangaAP</t>
+  </si>
+  <si>
+    <t>yganga946@gmail.com</t>
+  </si>
+  <si>
+    <t>Approve Invoices</t>
+  </si>
+  <si>
+    <t>Create Payment</t>
+  </si>
+  <si>
+    <t>Approve Payment</t>
+  </si>
+  <si>
+    <t>Send Payment</t>
   </si>
 </sst>
 </file>
@@ -871,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -888,29 +918,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -928,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -958,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -966,13 +1003,13 @@
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
       </c>
       <c r="D4">
         <v>1234</v>
@@ -984,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>2700</v>
@@ -998,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1043,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R5" t="s">
         <v>37</v>
@@ -1060,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1078,7 +1115,7 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -1107,7 +1144,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1151,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1160,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,13 +1256,13 @@
         <v>19</v>
       </c>
       <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="V9">
         <v>99501</v>
@@ -1234,10 +1271,10 @@
         <v>26</v>
       </c>
       <c r="X9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="Z9">
         <v>12345</v>
@@ -1308,13 +1345,13 @@
         <v>19</v>
       </c>
       <c r="S10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="V10">
         <v>99501</v>
@@ -1323,10 +1360,10 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="Z10">
         <v>12345</v>
@@ -1378,22 +1415,22 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12">
         <v>33.393360000000001</v>
@@ -1402,13 +1439,13 @@
         <v>45.677999999999997</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
@@ -1416,10 +1453,10 @@
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1437,7 +1474,7 @@
         <v>500.76600000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
@@ -1446,7 +1483,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
         <v>29</v>
@@ -1466,10 +1503,10 @@
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1487,7 +1524,7 @@
         <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1496,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
@@ -1519,25 +1556,25 @@
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>25.465554999999998</v>
@@ -1548,25 +1585,25 @@
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16">
         <v>10.44455</v>
@@ -1577,7 +1614,7 @@
     </row>
     <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>12.88</v>
@@ -1586,77 +1623,77 @@
         <v>212.33</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
       </c>
       <c r="G18">
         <v>416313</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>416318</v>
       </c>
       <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
         <v>102</v>
-      </c>
-      <c r="M18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
-        <v>112</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1665,34 +1702,34 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" t="s">
         <v>114</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
         <v>115</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="S19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="T19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U19" t="s">
         <v>20</v>
@@ -1707,66 +1744,66 @@
         <v>21</v>
       </c>
       <c r="Y19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" t="s">
         <v>120</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AD19" t="s">
         <v>123</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AE19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>126</v>
       </c>
-      <c r="AF19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>128</v>
-      </c>
       <c r="AH19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI19" t="b">
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" t="s">
-        <v>112</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1775,34 +1812,34 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s">
         <v>114</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" t="s">
         <v>115</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P20" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="S20" s="6" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="U20" t="s">
         <v>20</v>
@@ -1817,45 +1854,45 @@
         <v>21</v>
       </c>
       <c r="Y20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AC20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" t="s">
         <v>123</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AE20" t="s">
         <v>124</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AG20" t="s">
         <v>126</v>
       </c>
-      <c r="AF20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>128</v>
-      </c>
       <c r="AH20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AI20" t="b">
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1894,16 +1931,16 @@
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="R21" t="s">
         <v>20</v>
@@ -1918,22 +1955,22 @@
         <v>21</v>
       </c>
       <c r="V21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>43</v>
@@ -1945,21 +1982,21 @@
         <v>49</v>
       </c>
       <c r="AE21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1968,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1980,103 +2017,204 @@
         <v>50.874899999999997</v>
       </c>
       <c r="K22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" t="s">
         <v>142</v>
-      </c>
-      <c r="L22" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>500</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>100</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>50</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>25</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
+        <v>167</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24">
-        <v>5.3453299999999997</v>
-      </c>
-      <c r="I24">
-        <v>500.34559999999999</v>
-      </c>
-      <c r="J24" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <v>5.3453299999999997</v>
+      </c>
+      <c r="I25">
+        <v>500.34559999999999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
         <v>156</v>
       </c>
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
         <v>158</v>
-      </c>
-      <c r="D25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId2"/>
     <hyperlink ref="AA20" r:id="rId3"/>
     <hyperlink ref="X21" r:id="rId4"/>
     <hyperlink ref="I1" r:id="rId5"/>
+    <hyperlink ref="K1" r:id="rId6"/>
+    <hyperlink ref="E1" r:id="rId7"/>
+    <hyperlink ref="E24" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="175">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>Send Payment</t>
+  </si>
+  <si>
+    <t>NetchainTest.TwoWayMatch1</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateInvoice4</t>
   </si>
 </sst>
 </file>
@@ -901,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2200,6 +2206,88 @@
       </c>
       <c r="G26" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15015" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="181">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -46,9 +45,6 @@
     <t>memo1</t>
   </si>
   <si>
-    <t>Ruchira</t>
-  </si>
-  <si>
     <t>FedEx Ground</t>
   </si>
   <si>
@@ -94,9 +90,6 @@
     <t>Ms</t>
   </si>
   <si>
-    <t>Dell</t>
-  </si>
-  <si>
     <t>laptop</t>
   </si>
   <si>
@@ -190,12 +183,6 @@
     <t>measure3</t>
   </si>
   <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Testing1@</t>
-  </si>
-  <si>
     <t>Workbooks</t>
   </si>
   <si>
@@ -220,9 +207,6 @@
     <t>AccountTest</t>
   </si>
   <si>
-    <t>Twowaymatch</t>
-  </si>
-  <si>
     <t>qwerty@123</t>
   </si>
   <si>
@@ -424,9 +408,6 @@
     <t>ConnectedCompany</t>
   </si>
   <si>
-    <t>rashmiconnecticus3@gmail.com</t>
-  </si>
-  <si>
     <t>AP.NetchainTest.CreateVendors</t>
   </si>
   <si>
@@ -463,9 +444,6 @@
     <t>nice</t>
   </si>
   <si>
-    <t>shital</t>
-  </si>
-  <si>
     <t>UPS Ground</t>
   </si>
   <si>
@@ -475,9 +453,6 @@
     <t>CompanyConnection</t>
   </si>
   <si>
-    <t>Qwerty@123</t>
-  </si>
-  <si>
     <t>AR.NetchainTest.CreateSOConnected</t>
   </si>
   <si>
@@ -497,6 +472,93 @@
   </si>
   <si>
     <t>APConnected</t>
+  </si>
+  <si>
+    <t>userone</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.Schedule</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>NetchainTest.CustomWorkflow</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Product5</t>
+  </si>
+  <si>
+    <t>TwoWayMatch</t>
+  </si>
+  <si>
+    <t>GangaAP</t>
+  </si>
+  <si>
+    <t>yganga946@gmail.com</t>
+  </si>
+  <si>
+    <t>Approve Invoices</t>
+  </si>
+  <si>
+    <t>Create Payment</t>
+  </si>
+  <si>
+    <t>Approve Payment</t>
+  </si>
+  <si>
+    <t>Send Payment</t>
+  </si>
+  <si>
+    <t>NetchainTest.TwoWayMatch1</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateInvoice4</t>
+  </si>
+  <si>
+    <t>Bank to Bank</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Plants and Soil</t>
+  </si>
+  <si>
+    <t>This is a description for accounts detailsfor amount</t>
+  </si>
+  <si>
+    <t>This is description for item details. This is description for item details. This is description for item details.</t>
   </si>
 </sst>
 </file>
@@ -863,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,36 +942,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -920,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -950,33 +1019,33 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>1234</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>2700</v>
@@ -987,40 +1056,40 @@
     </row>
     <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5">
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5">
         <v>8.0444440000000004</v>
@@ -1029,19 +1098,19 @@
         <v>45.678636699999998</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1049,40 +1118,40 @@
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
       </c>
       <c r="G6">
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>200.07777770000001</v>
@@ -1096,40 +1165,40 @@
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7">
         <v>500</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
       </c>
       <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>56</v>
       </c>
       <c r="M7">
         <v>38.741129999999998</v>
@@ -1140,10 +1209,10 @@
     </row>
     <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1152,161 +1221,161 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
       <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V9">
         <v>99501</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Z9">
         <v>12345</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
       </c>
       <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
       <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
         <v>42</v>
       </c>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V10">
         <v>99501</v>
@@ -1315,42 +1384,42 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Z10">
         <v>12345</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -1367,25 +1436,25 @@
     </row>
     <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H12">
         <v>33.393360000000001</v>
@@ -1394,54 +1463,54 @@
         <v>45.677999999999997</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
       </c>
       <c r="G13">
         <v>500.76600000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>8.7799999999999994</v>
@@ -1450,7 +1519,7 @@
         <v>500.86599999999999</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
         <v>8</v>
@@ -1458,40 +1527,40 @@
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
       </c>
       <c r="G14">
         <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <v>8.0444440000000004</v>
@@ -1500,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
         <v>8</v>
@@ -1511,25 +1580,25 @@
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>25.465554999999998</v>
@@ -1540,25 +1609,25 @@
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H16">
         <v>10.44455</v>
@@ -1569,7 +1638,7 @@
     </row>
     <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>12.88</v>
@@ -1578,389 +1647,389 @@
         <v>212.33</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
       </c>
       <c r="G18">
         <v>416313</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>416318</v>
       </c>
       <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="M18" t="s">
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="N18" t="s">
+      <c r="E19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
+      <c r="G19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C19" t="s">
+      <c r="H19" t="s">
         <v>110</v>
       </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
       </c>
       <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="S19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N19" t="s">
+      <c r="T19" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="s">
         <v>118</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Z19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="AA19" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="AB19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="AC19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="T19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>22</v>
-      </c>
-      <c r="X19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="AD19" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AE19" t="s">
         <v>124</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AF19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AG19" t="s">
         <v>126</v>
       </c>
-      <c r="AC19" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>131</v>
-      </c>
       <c r="AH19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AI19" t="b">
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="H20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" t="s">
-        <v>115</v>
-      </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
         <v>4</v>
       </c>
       <c r="K20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="S20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20" t="s">
+        <v>167</v>
+      </c>
+      <c r="U20" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="s">
         <v>118</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Z20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>120</v>
-      </c>
-      <c r="R20" s="5" t="s">
+      <c r="AA20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" t="s">
-        <v>134</v>
-      </c>
-      <c r="U20" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s">
-        <v>22</v>
-      </c>
-      <c r="X20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="AC20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" t="s">
         <v>123</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="AE20" t="s">
         <v>124</v>
       </c>
-      <c r="AA20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AF20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG20" t="s">
         <v>126</v>
       </c>
-      <c r="AC20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>131</v>
-      </c>
       <c r="AH20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AI20" t="b">
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
       </c>
       <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" t="s">
         <v>137</v>
       </c>
-      <c r="O21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>134</v>
-      </c>
-      <c r="R21" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>138</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>144</v>
-      </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1972,78 +2041,322 @@
         <v>50.874899999999997</v>
       </c>
       <c r="K22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>500</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>100</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>50</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>25</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
         <v>146</v>
       </c>
-      <c r="L22" t="s">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
         <v>147</v>
       </c>
-      <c r="M22" t="s">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>148</v>
       </c>
-      <c r="N22" t="s">
+      <c r="G25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25">
+        <v>5.3453299999999997</v>
+      </c>
+      <c r="I25">
+        <v>500.34559999999999</v>
+      </c>
+      <c r="J25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="M25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>153</v>
       </c>
-      <c r="B24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26">
+        <v>5000</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>180</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24">
-        <v>5.3453299999999997</v>
-      </c>
-      <c r="I24">
-        <v>500.34559999999999</v>
-      </c>
-      <c r="J24" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" t="s">
-        <v>158</v>
-      </c>
-      <c r="M24" t="s">
-        <v>149</v>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
-    <hyperlink ref="X21" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="AA20" r:id="rId3"/>
+    <hyperlink ref="X21" r:id="rId4"/>
+    <hyperlink ref="I1" r:id="rId5"/>
+    <hyperlink ref="K1" r:id="rId6"/>
+    <hyperlink ref="E1" r:id="rId7"/>
+    <hyperlink ref="E24" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="181">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Workbooks</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>201-999-5654</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>NetchainTest.CreateSalesOrder1</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>chair</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
   </si>
   <si>
     <t>This is description for item details. This is description for item details. This is description for item details.</t>
+  </si>
+  <si>
+    <t>Techie</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -942,34 +942,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2"/>
     </row>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
       </c>
       <c r="D4">
         <v>1234</v>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>2700</v>
@@ -1059,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R5" t="s">
         <v>37</v>
@@ -1121,7 +1121,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,13 +1280,13 @@
         <v>19</v>
       </c>
       <c r="S9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="V9">
         <v>99501</v>
@@ -1295,10 +1295,10 @@
         <v>26</v>
       </c>
       <c r="X9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="Z9">
         <v>12345</v>
@@ -1369,13 +1369,13 @@
         <v>19</v>
       </c>
       <c r="S10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="V10">
         <v>99501</v>
@@ -1384,10 +1384,10 @@
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="Z10">
         <v>12345</v>
@@ -1439,22 +1439,22 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H12">
         <v>33.393360000000001</v>
@@ -1463,13 +1463,13 @@
         <v>45.677999999999997</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1498,7 +1498,7 @@
         <v>500.76600000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
         <v>29</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1548,7 +1548,7 @@
         <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1557,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
@@ -1565,8 +1565,8 @@
       <c r="M14">
         <v>8.0444440000000004</v>
       </c>
-      <c r="N14">
-        <v>10</v>
+      <c r="N14" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="O14" t="s">
         <v>30</v>
@@ -1574,31 +1574,31 @@
       <c r="P14" t="s">
         <v>8</v>
       </c>
-      <c r="Q14">
-        <v>2</v>
+      <c r="Q14" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H15">
         <v>25.465554999999998</v>
@@ -1609,25 +1609,25 @@
     </row>
     <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>10.44455</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>12.88</v>
@@ -1647,77 +1647,77 @@
         <v>212.33</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
       </c>
       <c r="G18">
         <v>416313</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>416318</v>
       </c>
       <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" t="s">
         <v>100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>104</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>105</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>110</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1726,34 +1726,34 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" t="s">
         <v>112</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" t="s">
         <v>113</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="P19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="S19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="T19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U19" t="s">
         <v>20</v>
@@ -1768,66 +1768,66 @@
         <v>21</v>
       </c>
       <c r="Y19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA19" t="s">
         <v>118</v>
       </c>
-      <c r="Z19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AD19" t="s">
         <v>121</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AE19" t="s">
         <v>122</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>124</v>
       </c>
-      <c r="AF19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>126</v>
-      </c>
       <c r="AH19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AI19" t="b">
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>106</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1836,34 +1836,34 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
         <v>112</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" t="s">
         <v>113</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="P20" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="S20" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U20" t="s">
         <v>20</v>
@@ -1878,45 +1878,45 @@
         <v>21</v>
       </c>
       <c r="Y20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Z20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB20" s="7" t="s">
+      <c r="AC20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD20" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AE20" t="s">
         <v>122</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AG20" t="s">
         <v>124</v>
       </c>
-      <c r="AF20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>126</v>
-      </c>
       <c r="AH20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AI20" t="b">
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R21" t="s">
         <v>20</v>
@@ -1979,22 +1979,22 @@
         <v>21</v>
       </c>
       <c r="V21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>43</v>
@@ -2006,21 +2006,21 @@
         <v>49</v>
       </c>
       <c r="AE21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -2029,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2041,36 +2041,36 @@
         <v>50.874899999999997</v>
       </c>
       <c r="K22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" t="s">
         <v>140</v>
-      </c>
-      <c r="L22" t="s">
-        <v>141</v>
-      </c>
-      <c r="M22" t="s">
-        <v>154</v>
-      </c>
-      <c r="N22" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -2088,7 +2088,7 @@
         <v>500</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s">
         <v>4</v>
@@ -2097,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s">
         <v>29</v>
@@ -2133,56 +2133,56 @@
         <v>25</v>
       </c>
       <c r="AA23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC23" t="s">
         <v>169</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AD23" t="s">
         <v>170</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
         <v>145</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25">
         <v>5.3453299999999997</v>
@@ -2191,69 +2191,69 @@
         <v>500.34559999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>153</v>
       </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
         <v>155</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
         <v>156</v>
       </c>
-      <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
         <v>176</v>
       </c>
-      <c r="G26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="M26" t="s">
         <v>177</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" t="s">
-        <v>178</v>
-      </c>
-      <c r="M26" t="s">
-        <v>179</v>
       </c>
       <c r="N26">
         <v>5000</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s">
         <v>4</v>
       </c>
       <c r="Q26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R26">
         <v>10</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="27" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -2285,7 +2285,7 @@
         <v>500</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
         <v>4</v>
@@ -2294,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s">
         <v>29</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="28" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15015" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="190">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -207,9 +208,6 @@
     <t>qwerty@123</t>
   </si>
   <si>
-    <t>TATA</t>
-  </si>
-  <si>
     <t>Vendor1</t>
   </si>
   <si>
@@ -246,6 +244,9 @@
     <t>NetchainTest.CreateSalesOrder1</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>chair</t>
   </si>
   <si>
@@ -558,14 +559,41 @@
     <t>Techie</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>matched</t>
+  </si>
+  <si>
+    <t>NetChain2 – AR Invoices</t>
+  </si>
+  <si>
+    <t>AP.NetchainTest.CreateCreditMemo</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>NetChain2 – AP CREATE: MEMO</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>TechBcs</t>
+  </si>
+  <si>
+    <t>TechBite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +616,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -597,7 +643,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -605,12 +651,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -620,6 +707,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -925,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1130,13 @@
     </row>
     <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
       </c>
       <c r="D4">
         <v>1234</v>
@@ -1045,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>2700</v>
@@ -1112,8 +1215,8 @@
       <c r="S5" t="s">
         <v>31</v>
       </c>
-      <c r="T5">
-        <v>1</v>
+      <c r="T5" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1221,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1542,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1477,10 +1580,10 @@
     </row>
     <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1498,7 +1601,7 @@
         <v>500.76600000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
         <v>4</v>
@@ -1507,7 +1610,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
         <v>29</v>
@@ -1527,10 +1630,10 @@
     </row>
     <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1548,7 +1651,7 @@
         <v>500</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -1557,7 +1660,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
@@ -1565,8 +1668,8 @@
       <c r="M14">
         <v>8.0444440000000004</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>175</v>
+      <c r="N14">
+        <v>10</v>
       </c>
       <c r="O14" t="s">
         <v>30</v>
@@ -1575,15 +1678,15 @@
         <v>8</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -1612,7 +1715,7 @@
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1636,7 +1739,7 @@
         <v>8.3330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1650,7 +1753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1694,7 +1797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1804,7 +1907,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -1914,7 +2017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2009,7 +2112,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -2035,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>5333.3387599999996</v>
+        <v>60.338760000000001</v>
       </c>
       <c r="J22">
         <v>50.874899999999997</v>
@@ -2052,8 +2155,17 @@
       <c r="N22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -2070,7 +2182,7 @@
         <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -2097,7 +2209,7 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P23" t="s">
         <v>29</v>
@@ -2145,7 +2257,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2162,7 +2274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -2203,7 +2315,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -2262,12 +2374,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -2285,7 +2397,7 @@
         <v>500</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
         <v>4</v>
@@ -2294,7 +2406,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s">
         <v>29</v>
@@ -2303,12 +2415,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -2344,7 +2456,64 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29" spans="1:38" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="10">
+        <v>23</v>
+      </c>
+      <c r="E29" s="10">
+        <v>25</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G29:H29"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1030,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1541,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>TechBite</t>
+  </si>
+  <si>
+    <t>NetchainTest.SetGRCustomWorkflow</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2508,6 +2511,14 @@
       <c r="AJ29" s="11"/>
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
+    </row>
+    <row r="30" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="205">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -579,13 +579,58 @@
     <t>NetChain2 – AP CREATE: MEMO</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>TechBcs</t>
   </si>
   <si>
     <t>TechBite</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.PaymentReceipt</t>
+  </si>
+  <si>
+    <t>01-30-2015</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>Payment desc</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateInvoice</t>
+  </si>
+  <si>
+    <t>prod_11111</t>
+  </si>
+  <si>
+    <t>Netchain.NewPurchaseOrder</t>
+  </si>
+  <si>
+    <t>description 1</t>
+  </si>
+  <si>
+    <t>Measure1</t>
+  </si>
+  <si>
+    <t>Purchase Order Approved Sucessfully</t>
+  </si>
+  <si>
+    <t>Line Saved</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automationctpl8@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1118,12 @@
       <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2161,7 +2211,10 @@
         <v>182</v>
       </c>
       <c r="Q22" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="R22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,10 +2513,10 @@
         <v>184</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D29" s="10">
         <v>23</v>
@@ -2509,6 +2562,159 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
     </row>
+    <row r="30" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>200</v>
+      </c>
+      <c r="R30" t="s">
+        <v>201</v>
+      </c>
+      <c r="S30">
+        <v>100</v>
+      </c>
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>200</v>
+      </c>
+      <c r="V30">
+        <v>20</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31">
+        <v>3454</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31">
+        <v>3243242</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31">
+        <v>900</v>
+      </c>
+      <c r="I31">
+        <v>400</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>500.76600000000002</v>
+      </c>
+      <c r="G32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="L32">
+        <v>500.86599999999999</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G29:H29"/>
@@ -2522,9 +2728,11 @@
     <hyperlink ref="K1" r:id="rId6"/>
     <hyperlink ref="E1" r:id="rId7"/>
     <hyperlink ref="E24" r:id="rId8"/>
+    <hyperlink ref="M1" r:id="rId9"/>
+    <hyperlink ref="L1" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14370" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="224">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -561,9 +561,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>matched</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>NetChain2 – AP CREATE: MEMO</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>TechBcs</t>
   </si>
   <si>
@@ -589,13 +583,118 @@
   </si>
   <si>
     <t>NetchainTest.SetGRCustomWorkflow</t>
+  </si>
+  <si>
+    <t>Netchain.CheckRoles</t>
+  </si>
+  <si>
+    <t>ManagerTypeOne</t>
+  </si>
+  <si>
+    <t>ManagerTypeTwo</t>
+  </si>
+  <si>
+    <t>Ascom</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>Netchain.NewPurchaseOrder</t>
+  </si>
+  <si>
+    <t>description 1</t>
+  </si>
+  <si>
+    <t>Measure1</t>
+  </si>
+  <si>
+    <t>Purchase Order Approved Sucessfully</t>
+  </si>
+  <si>
+    <t>Line Saved</t>
+  </si>
+  <si>
+    <t>Vendor 3</t>
+  </si>
+  <si>
+    <t>Acceptance Pending</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>new_memo</t>
+  </si>
+  <si>
+    <t>Discrepant</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.PaymentReceipt</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>Payment desc</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>AR.NetchainTest.CreateInvoice</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ThreeWayMatch</t>
+  </si>
+  <si>
+    <t>Vendor12</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>InvProd</t>
+  </si>
+  <si>
+    <t>NetchainTest.POdataForThreewaymatch</t>
+  </si>
+  <si>
+    <t>NetchainTest.GoodsReceipt</t>
+  </si>
+  <si>
+    <t>NetchainTest.CreateInvThreeWaymatch</t>
+  </si>
+  <si>
+    <t>message to vendor</t>
+  </si>
+  <si>
+    <t>memo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +734,32 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -699,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -719,11 +844,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,19 +1187,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="16" max="16" width="32.85546875" customWidth="1"/>
     <col min="29" max="29" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,9 +1234,20 @@
       <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="L1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1089,48 +1258,1067 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>2.555555</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="19">
+        <v>2</v>
+      </c>
+      <c r="K3" s="19">
+        <v>25</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="P3" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
+      <c r="BL3" s="22"/>
+      <c r="BM3" s="22"/>
+      <c r="BN3" s="22"/>
+      <c r="BO3" s="22"/>
+      <c r="BP3" s="22"/>
+      <c r="BQ3" s="22"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="22"/>
+      <c r="BU3" s="22"/>
+      <c r="BV3" s="22"/>
+      <c r="BW3" s="22"/>
+      <c r="BX3" s="22"/>
+      <c r="BY3" s="22"/>
+      <c r="BZ3" s="22"/>
+      <c r="CA3" s="22"/>
+      <c r="CB3" s="22"/>
+      <c r="CC3" s="22"/>
+      <c r="CD3" s="22"/>
+      <c r="CE3" s="22"/>
+      <c r="CF3" s="22"/>
+      <c r="CG3" s="22"/>
+      <c r="CH3" s="22"/>
+      <c r="CI3" s="22"/>
+      <c r="CJ3" s="22"/>
+      <c r="CK3" s="22"/>
+      <c r="CL3" s="22"/>
+      <c r="CM3" s="22"/>
+      <c r="CN3" s="22"/>
+      <c r="CO3" s="22"/>
+      <c r="CP3" s="22"/>
+      <c r="CQ3" s="22"/>
+      <c r="CR3" s="22"/>
+      <c r="CS3" s="22"/>
+      <c r="CT3" s="22"/>
+      <c r="CU3" s="22"/>
+      <c r="CV3" s="22"/>
+      <c r="CW3" s="22"/>
+      <c r="CX3" s="22"/>
+      <c r="CY3" s="22"/>
+      <c r="CZ3" s="22"/>
+      <c r="DA3" s="22"/>
+      <c r="DB3" s="22"/>
+      <c r="DC3" s="22"/>
+      <c r="DD3" s="22"/>
+      <c r="DE3" s="22"/>
+      <c r="DF3" s="22"/>
+      <c r="DG3" s="22"/>
+      <c r="DH3" s="22"/>
+      <c r="DI3" s="22"/>
+      <c r="DJ3" s="22"/>
+      <c r="DK3" s="22"/>
+      <c r="DL3" s="22"/>
+      <c r="DM3" s="22"/>
+      <c r="DN3" s="22"/>
+      <c r="DO3" s="22"/>
+      <c r="DP3" s="22"/>
+      <c r="DQ3" s="22"/>
+      <c r="DR3" s="22"/>
+      <c r="DS3" s="22"/>
+      <c r="DT3" s="22"/>
+      <c r="DU3" s="22"/>
+      <c r="DV3" s="22"/>
+      <c r="DW3" s="22"/>
+      <c r="DX3" s="22"/>
+      <c r="DY3" s="22"/>
+      <c r="DZ3" s="22"/>
+      <c r="EA3" s="22"/>
+      <c r="EB3" s="22"/>
+      <c r="EC3" s="22"/>
+      <c r="ED3" s="22"/>
+      <c r="EE3" s="22"/>
+      <c r="EF3" s="22"/>
+      <c r="EG3" s="22"/>
+      <c r="EH3" s="22"/>
+      <c r="EI3" s="22"/>
+      <c r="EJ3" s="22"/>
+      <c r="EK3" s="22"/>
+      <c r="EL3" s="22"/>
+      <c r="EM3" s="22"/>
+      <c r="EN3" s="22"/>
+      <c r="EO3" s="22"/>
+      <c r="EP3" s="22"/>
+      <c r="EQ3" s="22"/>
+      <c r="ER3" s="22"/>
+      <c r="ES3" s="22"/>
+      <c r="ET3" s="22"/>
+      <c r="EU3" s="22"/>
+      <c r="EV3" s="22"/>
+      <c r="EW3" s="22"/>
+      <c r="EX3" s="22"/>
+      <c r="EY3" s="22"/>
+      <c r="EZ3" s="22"/>
+      <c r="FA3" s="22"/>
+      <c r="FB3" s="22"/>
+      <c r="FC3" s="22"/>
+      <c r="FD3" s="22"/>
+      <c r="FE3" s="22"/>
+      <c r="FF3" s="22"/>
+      <c r="FG3" s="22"/>
+      <c r="FH3" s="22"/>
+      <c r="FI3" s="22"/>
+      <c r="FJ3" s="22"/>
+      <c r="FK3" s="22"/>
+      <c r="FL3" s="22"/>
+      <c r="FM3" s="22"/>
+      <c r="FN3" s="22"/>
+      <c r="FO3" s="22"/>
+      <c r="FP3" s="22"/>
+      <c r="FQ3" s="22"/>
+      <c r="FR3" s="22"/>
+      <c r="FS3" s="22"/>
+      <c r="FT3" s="22"/>
+      <c r="FU3" s="22"/>
+      <c r="FV3" s="22"/>
+      <c r="FW3" s="22"/>
+      <c r="FX3" s="22"/>
+      <c r="FY3" s="22"/>
+      <c r="FZ3" s="22"/>
+      <c r="GA3" s="22"/>
+      <c r="GB3" s="22"/>
+      <c r="GC3" s="22"/>
+      <c r="GD3" s="22"/>
+      <c r="GE3" s="22"/>
+      <c r="GF3" s="22"/>
+      <c r="GG3" s="22"/>
+      <c r="GH3" s="22"/>
+      <c r="GI3" s="22"/>
+      <c r="GJ3" s="22"/>
+      <c r="GK3" s="22"/>
+      <c r="GL3" s="22"/>
+      <c r="GM3" s="22"/>
+      <c r="GN3" s="22"/>
+      <c r="GO3" s="22"/>
+      <c r="GP3" s="22"/>
+      <c r="GQ3" s="22"/>
+      <c r="GR3" s="22"/>
+      <c r="GS3" s="22"/>
+      <c r="GT3" s="22"/>
+      <c r="GU3" s="22"/>
+      <c r="GV3" s="22"/>
+      <c r="GW3" s="22"/>
+      <c r="GX3" s="22"/>
+      <c r="GY3" s="22"/>
+      <c r="GZ3" s="22"/>
+      <c r="HA3" s="22"/>
+      <c r="HB3" s="22"/>
+      <c r="HC3" s="22"/>
+      <c r="HD3" s="22"/>
+      <c r="HE3" s="22"/>
+      <c r="HF3" s="22"/>
+      <c r="HG3" s="22"/>
+      <c r="HH3" s="22"/>
+      <c r="HI3" s="22"/>
+      <c r="HJ3" s="22"/>
+      <c r="HK3" s="22"/>
+      <c r="HL3" s="22"/>
+      <c r="HM3" s="22"/>
+      <c r="HN3" s="22"/>
+      <c r="HO3" s="22"/>
+      <c r="HP3" s="22"/>
+      <c r="HQ3" s="22"/>
+      <c r="HR3" s="22"/>
+      <c r="HS3" s="22"/>
+      <c r="HT3" s="22"/>
+      <c r="HU3" s="22"/>
+      <c r="HV3" s="22"/>
+      <c r="HW3" s="22"/>
+      <c r="HX3" s="22"/>
+      <c r="HY3" s="22"/>
+      <c r="HZ3" s="22"/>
+      <c r="IA3" s="22"/>
+      <c r="IB3" s="22"/>
+      <c r="IC3" s="22"/>
+      <c r="ID3" s="22"/>
+      <c r="IE3" s="22"/>
+      <c r="IF3" s="22"/>
+      <c r="IG3" s="22"/>
+      <c r="IH3" s="22"/>
+      <c r="II3" s="22"/>
+      <c r="IJ3" s="22"/>
+      <c r="IK3" s="22"/>
+      <c r="IL3" s="22"/>
+      <c r="IM3" s="22"/>
+      <c r="IN3" s="22"/>
+      <c r="IO3" s="22"/>
+      <c r="IP3" s="22"/>
+      <c r="IQ3" s="22"/>
+      <c r="IR3" s="22"/>
+      <c r="IS3" s="22"/>
+      <c r="IT3" s="22"/>
+      <c r="IU3" s="22"/>
+      <c r="IV3" s="22"/>
+      <c r="IW3" s="22"/>
+      <c r="IX3" s="22"/>
+      <c r="IY3" s="22"/>
+      <c r="IZ3" s="22"/>
+      <c r="JA3" s="22"/>
+      <c r="JB3" s="22"/>
+      <c r="JC3" s="22"/>
+      <c r="JD3" s="22"/>
+      <c r="JE3" s="22"/>
+      <c r="JF3" s="22"/>
+      <c r="JG3" s="22"/>
+      <c r="JH3" s="22"/>
+      <c r="JI3" s="22"/>
+      <c r="JJ3" s="22"/>
+      <c r="JK3" s="22"/>
+      <c r="JL3" s="22"/>
+      <c r="JM3" s="22"/>
+      <c r="JN3" s="22"/>
+      <c r="JO3" s="22"/>
+      <c r="JP3" s="22"/>
+      <c r="JQ3" s="22"/>
+      <c r="JR3" s="22"/>
+      <c r="JS3" s="22"/>
+      <c r="JT3" s="22"/>
+      <c r="JU3" s="22"/>
+      <c r="JV3" s="22"/>
+      <c r="JW3" s="22"/>
+      <c r="JX3" s="22"/>
+      <c r="JY3" s="22"/>
+      <c r="JZ3" s="22"/>
+      <c r="KA3" s="22"/>
+      <c r="KB3" s="22"/>
+      <c r="KC3" s="22"/>
+      <c r="KD3" s="22"/>
+      <c r="KE3" s="22"/>
+      <c r="KF3" s="22"/>
+      <c r="KG3" s="22"/>
+      <c r="KH3" s="22"/>
+      <c r="KI3" s="22"/>
+      <c r="KJ3" s="22"/>
+      <c r="KK3" s="22"/>
+      <c r="KL3" s="22"/>
+      <c r="KM3" s="22"/>
+      <c r="KN3" s="22"/>
+      <c r="KO3" s="22"/>
+      <c r="KP3" s="22"/>
+      <c r="KQ3" s="22"/>
+      <c r="KR3" s="22"/>
+      <c r="KS3" s="22"/>
+      <c r="KT3" s="22"/>
+      <c r="KU3" s="22"/>
+      <c r="KV3" s="22"/>
+      <c r="KW3" s="22"/>
+      <c r="KX3" s="22"/>
+      <c r="KY3" s="22"/>
+      <c r="KZ3" s="22"/>
+      <c r="LA3" s="22"/>
+      <c r="LB3" s="22"/>
+      <c r="LC3" s="22"/>
+      <c r="LD3" s="22"/>
+      <c r="LE3" s="22"/>
+      <c r="LF3" s="22"/>
+      <c r="LG3" s="22"/>
+      <c r="LH3" s="22"/>
+      <c r="LI3" s="22"/>
+      <c r="LJ3" s="22"/>
+      <c r="LK3" s="22"/>
+      <c r="LL3" s="22"/>
+      <c r="LM3" s="22"/>
+      <c r="LN3" s="22"/>
+      <c r="LO3" s="22"/>
+      <c r="LP3" s="22"/>
+      <c r="LQ3" s="22"/>
+      <c r="LR3" s="22"/>
+      <c r="LS3" s="22"/>
+      <c r="LT3" s="22"/>
+      <c r="LU3" s="22"/>
+      <c r="LV3" s="22"/>
+      <c r="LW3" s="22"/>
+      <c r="LX3" s="22"/>
+      <c r="LY3" s="22"/>
+      <c r="LZ3" s="22"/>
+      <c r="MA3" s="22"/>
+      <c r="MB3" s="22"/>
+      <c r="MC3" s="22"/>
+      <c r="MD3" s="22"/>
+      <c r="ME3" s="22"/>
+      <c r="MF3" s="22"/>
+      <c r="MG3" s="22"/>
+      <c r="MH3" s="22"/>
+      <c r="MI3" s="22"/>
+      <c r="MJ3" s="22"/>
+      <c r="MK3" s="22"/>
+      <c r="ML3" s="22"/>
+      <c r="MM3" s="22"/>
+      <c r="MN3" s="22"/>
+      <c r="MO3" s="22"/>
+      <c r="MP3" s="22"/>
+      <c r="MQ3" s="22"/>
+      <c r="MR3" s="22"/>
+      <c r="MS3" s="22"/>
+      <c r="MT3" s="22"/>
+      <c r="MU3" s="22"/>
+      <c r="MV3" s="22"/>
+      <c r="MW3" s="22"/>
+      <c r="MX3" s="22"/>
+      <c r="MY3" s="22"/>
+      <c r="MZ3" s="22"/>
+      <c r="NA3" s="22"/>
+      <c r="NB3" s="22"/>
+      <c r="NC3" s="22"/>
+      <c r="ND3" s="22"/>
+      <c r="NE3" s="22"/>
+      <c r="NF3" s="22"/>
+      <c r="NG3" s="22"/>
+      <c r="NH3" s="22"/>
+      <c r="NI3" s="22"/>
+      <c r="NJ3" s="22"/>
+      <c r="NK3" s="22"/>
+      <c r="NL3" s="22"/>
+      <c r="NM3" s="22"/>
+      <c r="NN3" s="22"/>
+      <c r="NO3" s="22"/>
+      <c r="NP3" s="22"/>
+      <c r="NQ3" s="22"/>
+      <c r="NR3" s="22"/>
+      <c r="NS3" s="22"/>
+      <c r="NT3" s="22"/>
+      <c r="NU3" s="22"/>
+      <c r="NV3" s="22"/>
+      <c r="NW3" s="22"/>
+      <c r="NX3" s="22"/>
+      <c r="NY3" s="22"/>
+      <c r="NZ3" s="22"/>
+      <c r="OA3" s="22"/>
+      <c r="OB3" s="22"/>
+      <c r="OC3" s="22"/>
+      <c r="OD3" s="22"/>
+      <c r="OE3" s="22"/>
+      <c r="OF3" s="22"/>
+      <c r="OG3" s="22"/>
+      <c r="OH3" s="22"/>
+      <c r="OI3" s="22"/>
+      <c r="OJ3" s="22"/>
+      <c r="OK3" s="22"/>
+      <c r="OL3" s="22"/>
+      <c r="OM3" s="22"/>
+      <c r="ON3" s="22"/>
+      <c r="OO3" s="22"/>
+      <c r="OP3" s="22"/>
+      <c r="OQ3" s="22"/>
+      <c r="OR3" s="22"/>
+      <c r="OS3" s="22"/>
+      <c r="OT3" s="22"/>
+      <c r="OU3" s="22"/>
+      <c r="OV3" s="22"/>
+      <c r="OW3" s="22"/>
+      <c r="OX3" s="22"/>
+      <c r="OY3" s="22"/>
+      <c r="OZ3" s="22"/>
+      <c r="PA3" s="22"/>
+      <c r="PB3" s="22"/>
+      <c r="PC3" s="22"/>
+      <c r="PD3" s="22"/>
+      <c r="PE3" s="22"/>
+      <c r="PF3" s="22"/>
+      <c r="PG3" s="22"/>
+      <c r="PH3" s="22"/>
+      <c r="PI3" s="22"/>
+      <c r="PJ3" s="22"/>
+      <c r="PK3" s="22"/>
+      <c r="PL3" s="22"/>
+      <c r="PM3" s="22"/>
+      <c r="PN3" s="22"/>
+      <c r="PO3" s="22"/>
+      <c r="PP3" s="22"/>
+      <c r="PQ3" s="22"/>
+      <c r="PR3" s="22"/>
+      <c r="PS3" s="22"/>
+      <c r="PT3" s="22"/>
+      <c r="PU3" s="22"/>
+      <c r="PV3" s="22"/>
+      <c r="PW3" s="22"/>
+      <c r="PX3" s="22"/>
+      <c r="PY3" s="22"/>
+      <c r="PZ3" s="22"/>
+      <c r="QA3" s="22"/>
+      <c r="QB3" s="22"/>
+      <c r="QC3" s="22"/>
+      <c r="QD3" s="22"/>
+      <c r="QE3" s="22"/>
+      <c r="QF3" s="22"/>
+      <c r="QG3" s="22"/>
+      <c r="QH3" s="22"/>
+      <c r="QI3" s="22"/>
+      <c r="QJ3" s="22"/>
+      <c r="QK3" s="22"/>
+      <c r="QL3" s="22"/>
+      <c r="QM3" s="22"/>
+      <c r="QN3" s="22"/>
+      <c r="QO3" s="22"/>
+      <c r="QP3" s="22"/>
+      <c r="QQ3" s="22"/>
+      <c r="QR3" s="22"/>
+      <c r="QS3" s="22"/>
+      <c r="QT3" s="22"/>
+      <c r="QU3" s="22"/>
+      <c r="QV3" s="22"/>
+      <c r="QW3" s="22"/>
+      <c r="QX3" s="22"/>
+      <c r="QY3" s="22"/>
+      <c r="QZ3" s="22"/>
+      <c r="RA3" s="22"/>
+      <c r="RB3" s="22"/>
+      <c r="RC3" s="22"/>
+      <c r="RD3" s="22"/>
+      <c r="RE3" s="22"/>
+      <c r="RF3" s="22"/>
+      <c r="RG3" s="22"/>
+      <c r="RH3" s="22"/>
+      <c r="RI3" s="22"/>
+      <c r="RJ3" s="22"/>
+      <c r="RK3" s="22"/>
+      <c r="RL3" s="22"/>
+      <c r="RM3" s="22"/>
+      <c r="RN3" s="22"/>
+      <c r="RO3" s="22"/>
+      <c r="RP3" s="22"/>
+      <c r="RQ3" s="22"/>
+      <c r="RR3" s="22"/>
+      <c r="RS3" s="22"/>
+      <c r="RT3" s="22"/>
+      <c r="RU3" s="22"/>
+      <c r="RV3" s="22"/>
+      <c r="RW3" s="22"/>
+      <c r="RX3" s="22"/>
+      <c r="RY3" s="22"/>
+      <c r="RZ3" s="22"/>
+      <c r="SA3" s="22"/>
+      <c r="SB3" s="22"/>
+      <c r="SC3" s="22"/>
+      <c r="SD3" s="22"/>
+      <c r="SE3" s="22"/>
+      <c r="SF3" s="22"/>
+      <c r="SG3" s="22"/>
+      <c r="SH3" s="22"/>
+      <c r="SI3" s="22"/>
+      <c r="SJ3" s="22"/>
+      <c r="SK3" s="22"/>
+      <c r="SL3" s="22"/>
+      <c r="SM3" s="22"/>
+      <c r="SN3" s="22"/>
+      <c r="SO3" s="22"/>
+      <c r="SP3" s="22"/>
+      <c r="SQ3" s="22"/>
+      <c r="SR3" s="22"/>
+      <c r="SS3" s="22"/>
+      <c r="ST3" s="22"/>
+      <c r="SU3" s="22"/>
+      <c r="SV3" s="22"/>
+      <c r="SW3" s="22"/>
+      <c r="SX3" s="22"/>
+      <c r="SY3" s="22"/>
+      <c r="SZ3" s="22"/>
+      <c r="TA3" s="22"/>
+      <c r="TB3" s="22"/>
+      <c r="TC3" s="22"/>
+      <c r="TD3" s="22"/>
+      <c r="TE3" s="22"/>
+      <c r="TF3" s="22"/>
+      <c r="TG3" s="22"/>
+      <c r="TH3" s="22"/>
+      <c r="TI3" s="22"/>
+      <c r="TJ3" s="22"/>
+      <c r="TK3" s="22"/>
+      <c r="TL3" s="22"/>
+      <c r="TM3" s="22"/>
+      <c r="TN3" s="22"/>
+      <c r="TO3" s="22"/>
+      <c r="TP3" s="22"/>
+      <c r="TQ3" s="22"/>
+      <c r="TR3" s="22"/>
+      <c r="TS3" s="22"/>
+      <c r="TT3" s="22"/>
+      <c r="TU3" s="22"/>
+      <c r="TV3" s="22"/>
+      <c r="TW3" s="22"/>
+      <c r="TX3" s="22"/>
+      <c r="TY3" s="22"/>
+      <c r="TZ3" s="22"/>
+      <c r="UA3" s="22"/>
+      <c r="UB3" s="22"/>
+      <c r="UC3" s="22"/>
+      <c r="UD3" s="22"/>
+      <c r="UE3" s="22"/>
+      <c r="UF3" s="22"/>
+      <c r="UG3" s="22"/>
+      <c r="UH3" s="22"/>
+      <c r="UI3" s="22"/>
+      <c r="UJ3" s="22"/>
+      <c r="UK3" s="22"/>
+      <c r="UL3" s="22"/>
+      <c r="UM3" s="22"/>
+      <c r="UN3" s="22"/>
+      <c r="UO3" s="22"/>
+      <c r="UP3" s="22"/>
+      <c r="UQ3" s="22"/>
+      <c r="UR3" s="22"/>
+      <c r="US3" s="22"/>
+      <c r="UT3" s="22"/>
+      <c r="UU3" s="22"/>
+      <c r="UV3" s="22"/>
+      <c r="UW3" s="22"/>
+      <c r="UX3" s="22"/>
+      <c r="UY3" s="22"/>
+      <c r="UZ3" s="22"/>
+      <c r="VA3" s="22"/>
+      <c r="VB3" s="22"/>
+      <c r="VC3" s="22"/>
+      <c r="VD3" s="22"/>
+      <c r="VE3" s="22"/>
+      <c r="VF3" s="22"/>
+      <c r="VG3" s="22"/>
+      <c r="VH3" s="22"/>
+      <c r="VI3" s="22"/>
+      <c r="VJ3" s="22"/>
+      <c r="VK3" s="22"/>
+      <c r="VL3" s="22"/>
+      <c r="VM3" s="22"/>
+      <c r="VN3" s="22"/>
+      <c r="VO3" s="22"/>
+      <c r="VP3" s="22"/>
+      <c r="VQ3" s="22"/>
+      <c r="VR3" s="22"/>
+      <c r="VS3" s="22"/>
+      <c r="VT3" s="22"/>
+      <c r="VU3" s="22"/>
+      <c r="VV3" s="22"/>
+      <c r="VW3" s="22"/>
+      <c r="VX3" s="22"/>
+      <c r="VY3" s="22"/>
+      <c r="VZ3" s="22"/>
+      <c r="WA3" s="22"/>
+      <c r="WB3" s="22"/>
+      <c r="WC3" s="22"/>
+      <c r="WD3" s="22"/>
+      <c r="WE3" s="22"/>
+      <c r="WF3" s="22"/>
+      <c r="WG3" s="22"/>
+      <c r="WH3" s="22"/>
+      <c r="WI3" s="22"/>
+      <c r="WJ3" s="22"/>
+      <c r="WK3" s="22"/>
+      <c r="WL3" s="22"/>
+      <c r="WM3" s="22"/>
+      <c r="WN3" s="22"/>
+      <c r="WO3" s="22"/>
+      <c r="WP3" s="22"/>
+      <c r="WQ3" s="22"/>
+      <c r="WR3" s="22"/>
+      <c r="WS3" s="22"/>
+      <c r="WT3" s="22"/>
+      <c r="WU3" s="22"/>
+      <c r="WV3" s="22"/>
+      <c r="WW3" s="22"/>
+      <c r="WX3" s="22"/>
+      <c r="WY3" s="22"/>
+      <c r="WZ3" s="22"/>
+      <c r="XA3" s="22"/>
+      <c r="XB3" s="22"/>
+      <c r="XC3" s="22"/>
+      <c r="XD3" s="22"/>
+      <c r="XE3" s="22"/>
+      <c r="XF3" s="22"/>
+      <c r="XG3" s="22"/>
+      <c r="XH3" s="22"/>
+      <c r="XI3" s="22"/>
+      <c r="XJ3" s="22"/>
+      <c r="XK3" s="22"/>
+      <c r="XL3" s="22"/>
+      <c r="XM3" s="22"/>
+      <c r="XN3" s="22"/>
+      <c r="XO3" s="22"/>
+      <c r="XP3" s="22"/>
+      <c r="XQ3" s="22"/>
+      <c r="XR3" s="22"/>
+      <c r="XS3" s="22"/>
+      <c r="XT3" s="22"/>
+      <c r="XU3" s="22"/>
+      <c r="XV3" s="22"/>
+      <c r="XW3" s="22"/>
+      <c r="XX3" s="22"/>
+      <c r="XY3" s="22"/>
+      <c r="XZ3" s="22"/>
+      <c r="YA3" s="22"/>
+      <c r="YB3" s="22"/>
+      <c r="YC3" s="22"/>
+      <c r="YD3" s="22"/>
+      <c r="YE3" s="22"/>
+      <c r="YF3" s="22"/>
+      <c r="YG3" s="22"/>
+      <c r="YH3" s="22"/>
+      <c r="YI3" s="22"/>
+      <c r="YJ3" s="22"/>
+      <c r="YK3" s="22"/>
+      <c r="YL3" s="22"/>
+      <c r="YM3" s="22"/>
+      <c r="YN3" s="22"/>
+      <c r="YO3" s="22"/>
+      <c r="YP3" s="22"/>
+      <c r="YQ3" s="22"/>
+      <c r="YR3" s="22"/>
+      <c r="YS3" s="22"/>
+      <c r="YT3" s="22"/>
+      <c r="YU3" s="22"/>
+      <c r="YV3" s="22"/>
+      <c r="YW3" s="22"/>
+      <c r="YX3" s="22"/>
+      <c r="YY3" s="22"/>
+      <c r="YZ3" s="22"/>
+      <c r="ZA3" s="22"/>
+      <c r="ZB3" s="22"/>
+      <c r="ZC3" s="22"/>
+      <c r="ZD3" s="22"/>
+      <c r="ZE3" s="22"/>
+      <c r="ZF3" s="22"/>
+      <c r="ZG3" s="22"/>
+      <c r="ZH3" s="22"/>
+      <c r="ZI3" s="22"/>
+      <c r="ZJ3" s="22"/>
+      <c r="ZK3" s="22"/>
+      <c r="ZL3" s="22"/>
+      <c r="ZM3" s="22"/>
+      <c r="ZN3" s="22"/>
+      <c r="ZO3" s="22"/>
+      <c r="ZP3" s="22"/>
+      <c r="ZQ3" s="22"/>
+      <c r="ZR3" s="22"/>
+      <c r="ZS3" s="22"/>
+      <c r="ZT3" s="22"/>
+      <c r="ZU3" s="22"/>
+      <c r="ZV3" s="22"/>
+      <c r="ZW3" s="22"/>
+      <c r="ZX3" s="22"/>
+      <c r="ZY3" s="22"/>
+      <c r="ZZ3" s="22"/>
+      <c r="AAA3" s="22"/>
+      <c r="AAB3" s="22"/>
+      <c r="AAC3" s="22"/>
+      <c r="AAD3" s="22"/>
+      <c r="AAE3" s="22"/>
+      <c r="AAF3" s="22"/>
+      <c r="AAG3" s="22"/>
+      <c r="AAH3" s="22"/>
+      <c r="AAI3" s="22"/>
+      <c r="AAJ3" s="22"/>
+      <c r="AAK3" s="22"/>
+      <c r="AAL3" s="22"/>
+      <c r="AAM3" s="22"/>
+      <c r="AAN3" s="22"/>
+      <c r="AAO3" s="22"/>
+      <c r="AAP3" s="22"/>
+      <c r="AAQ3" s="22"/>
+      <c r="AAR3" s="22"/>
+      <c r="AAS3" s="22"/>
+      <c r="AAT3" s="22"/>
+      <c r="AAU3" s="22"/>
+      <c r="AAV3" s="22"/>
+      <c r="AAW3" s="22"/>
+      <c r="AAX3" s="22"/>
+      <c r="AAY3" s="22"/>
+      <c r="AAZ3" s="22"/>
+      <c r="ABA3" s="22"/>
+      <c r="ABB3" s="22"/>
+      <c r="ABC3" s="22"/>
+      <c r="ABD3" s="22"/>
+      <c r="ABE3" s="22"/>
+      <c r="ABF3" s="22"/>
+      <c r="ABG3" s="22"/>
+      <c r="ABH3" s="22"/>
+      <c r="ABI3" s="22"/>
+      <c r="ABJ3" s="22"/>
+      <c r="ABK3" s="22"/>
+      <c r="ABL3" s="22"/>
+      <c r="ABM3" s="22"/>
+      <c r="ABN3" s="22"/>
+      <c r="ABO3" s="22"/>
+      <c r="ABP3" s="22"/>
+      <c r="ABQ3" s="22"/>
+      <c r="ABR3" s="22"/>
+      <c r="ABS3" s="22"/>
+      <c r="ABT3" s="22"/>
+      <c r="ABU3" s="22"/>
+      <c r="ABV3" s="22"/>
+      <c r="ABW3" s="22"/>
+      <c r="ABX3" s="22"/>
+      <c r="ABY3" s="22"/>
+      <c r="ABZ3" s="22"/>
+      <c r="ACA3" s="22"/>
+      <c r="ACB3" s="22"/>
+      <c r="ACC3" s="22"/>
+      <c r="ACD3" s="22"/>
+      <c r="ACE3" s="22"/>
+      <c r="ACF3" s="22"/>
+      <c r="ACG3" s="22"/>
+      <c r="ACH3" s="22"/>
+      <c r="ACI3" s="22"/>
+      <c r="ACJ3" s="22"/>
+      <c r="ACK3" s="22"/>
+      <c r="ACL3" s="22"/>
+      <c r="ACM3" s="22"/>
+      <c r="ACN3" s="22"/>
+      <c r="ACO3" s="22"/>
+      <c r="ACP3" s="22"/>
+      <c r="ACQ3" s="22"/>
+      <c r="ACR3" s="22"/>
+      <c r="ACS3" s="22"/>
+      <c r="ACT3" s="22"/>
+      <c r="ACU3" s="22"/>
+      <c r="ACV3" s="22"/>
+      <c r="ACW3" s="22"/>
+      <c r="ACX3" s="22"/>
+      <c r="ACY3" s="22"/>
+      <c r="ACZ3" s="22"/>
+      <c r="ADA3" s="22"/>
+      <c r="ADB3" s="22"/>
+      <c r="ADC3" s="22"/>
+      <c r="ADD3" s="22"/>
+      <c r="ADE3" s="22"/>
+      <c r="ADF3" s="22"/>
+      <c r="ADG3" s="22"/>
+      <c r="ADH3" s="22"/>
+      <c r="ADI3" s="22"/>
+      <c r="ADJ3" s="22"/>
+      <c r="ADK3" s="22"/>
+      <c r="ADL3" s="22"/>
+      <c r="ADM3" s="22"/>
+      <c r="ADN3" s="22"/>
+      <c r="ADO3" s="22"/>
+      <c r="ADP3" s="22"/>
+      <c r="ADQ3" s="22"/>
+      <c r="ADR3" s="22"/>
+      <c r="ADS3" s="22"/>
+      <c r="ADT3" s="22"/>
+      <c r="ADU3" s="22"/>
+      <c r="ADV3" s="22"/>
+      <c r="ADW3" s="22"/>
+      <c r="ADX3" s="22"/>
+      <c r="ADY3" s="22"/>
+      <c r="ADZ3" s="22"/>
+      <c r="AEA3" s="22"/>
+      <c r="AEB3" s="22"/>
+      <c r="AEC3" s="22"/>
+      <c r="AED3" s="22"/>
+      <c r="AEE3" s="22"/>
+      <c r="AEF3" s="22"/>
+      <c r="AEG3" s="22"/>
+      <c r="AEH3" s="22"/>
+      <c r="AEI3" s="22"/>
+      <c r="AEJ3" s="22"/>
+      <c r="AEK3" s="22"/>
+      <c r="AEL3" s="22"/>
+      <c r="AEM3" s="22"/>
+      <c r="AEN3" s="22"/>
+      <c r="AEO3" s="22"/>
+      <c r="AEP3" s="22"/>
+      <c r="AEQ3" s="22"/>
+      <c r="AER3" s="22"/>
+      <c r="AES3" s="22"/>
+      <c r="AET3" s="22"/>
+      <c r="AEU3" s="22"/>
+      <c r="AEV3" s="22"/>
+      <c r="AEW3" s="22"/>
+      <c r="AEX3" s="22"/>
+      <c r="AEY3" s="22"/>
+      <c r="AEZ3" s="22"/>
+      <c r="AFA3" s="22"/>
+      <c r="AFB3" s="22"/>
+      <c r="AFC3" s="22"/>
+      <c r="AFD3" s="22"/>
+      <c r="AFE3" s="22"/>
+      <c r="AFF3" s="22"/>
+      <c r="AFG3" s="22"/>
+      <c r="AFH3" s="22"/>
+      <c r="AFI3" s="22"/>
+      <c r="AFJ3" s="22"/>
+      <c r="AFK3" s="22"/>
+      <c r="AFL3" s="22"/>
+      <c r="AFM3" s="22"/>
+      <c r="AFN3" s="22"/>
+      <c r="AFO3" s="22"/>
+      <c r="AFP3" s="22"/>
+      <c r="AFQ3" s="22"/>
+      <c r="AFR3" s="22"/>
+      <c r="AFS3" s="22"/>
+      <c r="AFT3" s="22"/>
+      <c r="AFU3" s="22"/>
+      <c r="AFV3" s="22"/>
+      <c r="AFW3" s="22"/>
+      <c r="AFX3" s="22"/>
+      <c r="AFY3" s="22"/>
+      <c r="AFZ3" s="22"/>
+      <c r="AGA3" s="22"/>
+      <c r="AGB3" s="22"/>
+      <c r="AGC3" s="22"/>
+      <c r="AGD3" s="22"/>
+      <c r="AGE3" s="22"/>
+      <c r="AGF3" s="22"/>
+      <c r="AGG3" s="22"/>
+      <c r="AGH3" s="22"/>
+      <c r="AGI3" s="22"/>
+      <c r="AGJ3" s="22"/>
+      <c r="AGK3" s="22"/>
+      <c r="AGL3" s="22"/>
+      <c r="AGM3" s="22"/>
+      <c r="AGN3" s="22"/>
+      <c r="AGO3" s="22"/>
+      <c r="AGP3" s="22"/>
+      <c r="AGQ3" s="22"/>
+      <c r="AGR3" s="22"/>
+      <c r="AGS3" s="22"/>
+      <c r="AGT3" s="22"/>
+      <c r="AGU3" s="22"/>
+      <c r="AGV3" s="22"/>
+      <c r="AGW3" s="22"/>
+      <c r="AGX3" s="22"/>
+      <c r="AGY3" s="22"/>
+      <c r="AGZ3" s="22"/>
+      <c r="AHA3" s="22"/>
+      <c r="AHB3" s="22"/>
+      <c r="AHC3" s="22"/>
+      <c r="AHD3" s="22"/>
+      <c r="AHE3" s="22"/>
+      <c r="AHF3" s="22"/>
+      <c r="AHG3" s="22"/>
+      <c r="AHH3" s="22"/>
+      <c r="AHI3" s="22"/>
+      <c r="AHJ3" s="22"/>
+      <c r="AHK3" s="22"/>
+      <c r="AHL3" s="22"/>
+      <c r="AHM3" s="22"/>
+      <c r="AHN3" s="22"/>
+      <c r="AHO3" s="22"/>
+      <c r="AHP3" s="22"/>
+      <c r="AHQ3" s="22"/>
+      <c r="AHR3" s="22"/>
+      <c r="AHS3" s="22"/>
+      <c r="AHT3" s="22"/>
+      <c r="AHU3" s="22"/>
+      <c r="AHV3" s="22"/>
+      <c r="AHW3" s="22"/>
+      <c r="AHX3" s="22"/>
+      <c r="AHY3" s="22"/>
+      <c r="AHZ3" s="22"/>
+      <c r="AIA3" s="22"/>
+      <c r="AIB3" s="22"/>
+      <c r="AIC3" s="22"/>
+      <c r="AID3" s="22"/>
+      <c r="AIE3" s="22"/>
+      <c r="AIF3" s="22"/>
+      <c r="AIG3" s="22"/>
+      <c r="AIH3" s="22"/>
+      <c r="AII3" s="22"/>
+      <c r="AIJ3" s="22"/>
+      <c r="AIK3" s="22"/>
+      <c r="AIL3" s="22"/>
+      <c r="AIM3" s="22"/>
+      <c r="AIN3" s="22"/>
+      <c r="AIO3" s="22"/>
+      <c r="AIP3" s="22"/>
+      <c r="AIQ3" s="22"/>
+      <c r="AIR3" s="22"/>
+      <c r="AIS3" s="22"/>
+      <c r="AIT3" s="22"/>
+      <c r="AIU3" s="22"/>
+      <c r="AIV3" s="22"/>
+      <c r="AIW3" s="22"/>
+      <c r="AIX3" s="22"/>
+      <c r="AIY3" s="22"/>
+      <c r="AIZ3" s="22"/>
+      <c r="AJA3" s="22"/>
+      <c r="AJB3" s="22"/>
+      <c r="AJC3" s="22"/>
+      <c r="AJD3" s="22"/>
+      <c r="AJE3" s="22"/>
+      <c r="AJF3" s="22"/>
+      <c r="AJG3" s="22"/>
+      <c r="AJH3" s="22"/>
+      <c r="AJI3" s="22"/>
+      <c r="AJJ3" s="22"/>
+      <c r="AJK3" s="22"/>
+      <c r="AJL3" s="22"/>
+      <c r="AJM3" s="22"/>
+      <c r="AJN3" s="22"/>
+      <c r="AJO3" s="22"/>
+      <c r="AJP3" s="22"/>
+      <c r="AJQ3" s="22"/>
+      <c r="AJR3" s="22"/>
+      <c r="AJS3" s="22"/>
+      <c r="AJT3" s="22"/>
+      <c r="AJU3" s="22"/>
+      <c r="AJV3" s="22"/>
+      <c r="AJW3" s="22"/>
+      <c r="AJX3" s="22"/>
+      <c r="AJY3" s="22"/>
+      <c r="AJZ3" s="22"/>
+      <c r="AKA3" s="22"/>
+      <c r="AKB3" s="22"/>
+      <c r="AKC3" s="22"/>
+      <c r="AKD3" s="22"/>
+      <c r="AKE3" s="22"/>
+      <c r="AKF3" s="22"/>
+      <c r="AKG3" s="22"/>
+      <c r="AKH3" s="22"/>
+      <c r="AKI3" s="22"/>
+      <c r="AKJ3" s="22"/>
+      <c r="AKK3" s="22"/>
+      <c r="AKL3" s="22"/>
+      <c r="AKM3" s="22"/>
+      <c r="AKN3" s="22"/>
+      <c r="AKO3" s="22"/>
+      <c r="AKP3" s="22"/>
+      <c r="AKQ3" s="22"/>
+      <c r="AKR3" s="22"/>
+      <c r="AKS3" s="22"/>
+      <c r="AKT3" s="22"/>
+      <c r="AKU3" s="22"/>
+      <c r="AKV3" s="22"/>
+      <c r="AKW3" s="22"/>
+      <c r="AKX3" s="22"/>
+      <c r="AKY3" s="22"/>
+      <c r="AKZ3" s="22"/>
+      <c r="ALA3" s="22"/>
+      <c r="ALB3" s="22"/>
+      <c r="ALC3" s="22"/>
+      <c r="ALD3" s="22"/>
+      <c r="ALE3" s="22"/>
+      <c r="ALF3" s="22"/>
+      <c r="ALG3" s="22"/>
+      <c r="ALH3" s="22"/>
+      <c r="ALI3" s="22"/>
+      <c r="ALJ3" s="22"/>
+      <c r="ALK3" s="22"/>
+      <c r="ALL3" s="22"/>
+      <c r="ALM3" s="22"/>
+      <c r="ALN3" s="22"/>
+      <c r="ALO3" s="22"/>
+      <c r="ALP3" s="22"/>
+      <c r="ALQ3" s="22"/>
+      <c r="ALR3" s="22"/>
+      <c r="ALS3" s="22"/>
+      <c r="ALT3" s="22"/>
+      <c r="ALU3" s="22"/>
+      <c r="ALV3" s="22"/>
+      <c r="ALW3" s="22"/>
+      <c r="ALX3" s="22"/>
+      <c r="ALY3" s="22"/>
+      <c r="ALZ3" s="22"/>
+      <c r="AMA3" s="22"/>
+      <c r="AMB3" s="22"/>
+      <c r="AMC3" s="22"/>
+      <c r="AMD3" s="22"/>
+      <c r="AME3" s="22"/>
+      <c r="AMF3" s="22"/>
+      <c r="AMG3" s="22"/>
+      <c r="AMH3" s="22"/>
+      <c r="AMI3" s="22"/>
+      <c r="AMJ3" s="22"/>
     </row>
-    <row r="4" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1159,7 +2347,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +2409,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1268,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1312,7 +2500,7 @@
         <v>3.98773665</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +2517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1418,7 +2606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1507,7 +2695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1580,7 +2768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1629,61 +2817,109 @@
       <c r="P13" t="s">
         <v>8</v>
       </c>
+      <c r="Q13" t="s">
+        <v>205</v>
+      </c>
+      <c r="R13" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="19">
         <v>500</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="19">
         <v>8.0444440000000004</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="19">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>181</v>
+      <c r="Q14" s="19">
+        <v>2</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="19">
+        <v>125</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>125</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1712,7 +2948,7 @@
         <v>19.233000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -1741,7 +2977,7 @@
         <v>8.3330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1755,51 +2991,1063 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1024" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="19">
         <v>416313</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="19">
         <v>416318</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="18" t="s">
         <v>100</v>
       </c>
+      <c r="O18" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="18"/>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="18"/>
+      <c r="CK18" s="18"/>
+      <c r="CL18" s="18"/>
+      <c r="CM18" s="18"/>
+      <c r="CN18" s="18"/>
+      <c r="CO18" s="18"/>
+      <c r="CP18" s="18"/>
+      <c r="CQ18" s="18"/>
+      <c r="CR18" s="18"/>
+      <c r="CS18" s="18"/>
+      <c r="CT18" s="18"/>
+      <c r="CU18" s="18"/>
+      <c r="CV18" s="18"/>
+      <c r="CW18" s="18"/>
+      <c r="CX18" s="18"/>
+      <c r="CY18" s="18"/>
+      <c r="CZ18" s="18"/>
+      <c r="DA18" s="18"/>
+      <c r="DB18" s="18"/>
+      <c r="DC18" s="18"/>
+      <c r="DD18" s="18"/>
+      <c r="DE18" s="18"/>
+      <c r="DF18" s="18"/>
+      <c r="DG18" s="18"/>
+      <c r="DH18" s="18"/>
+      <c r="DI18" s="18"/>
+      <c r="DJ18" s="18"/>
+      <c r="DK18" s="18"/>
+      <c r="DL18" s="18"/>
+      <c r="DM18" s="18"/>
+      <c r="DN18" s="18"/>
+      <c r="DO18" s="18"/>
+      <c r="DP18" s="18"/>
+      <c r="DQ18" s="18"/>
+      <c r="DR18" s="18"/>
+      <c r="DS18" s="18"/>
+      <c r="DT18" s="18"/>
+      <c r="DU18" s="18"/>
+      <c r="DV18" s="18"/>
+      <c r="DW18" s="18"/>
+      <c r="DX18" s="18"/>
+      <c r="DY18" s="18"/>
+      <c r="DZ18" s="18"/>
+      <c r="EA18" s="18"/>
+      <c r="EB18" s="18"/>
+      <c r="EC18" s="18"/>
+      <c r="ED18" s="18"/>
+      <c r="EE18" s="18"/>
+      <c r="EF18" s="18"/>
+      <c r="EG18" s="18"/>
+      <c r="EH18" s="18"/>
+      <c r="EI18" s="18"/>
+      <c r="EJ18" s="18"/>
+      <c r="EK18" s="18"/>
+      <c r="EL18" s="18"/>
+      <c r="EM18" s="18"/>
+      <c r="EN18" s="18"/>
+      <c r="EO18" s="18"/>
+      <c r="EP18" s="18"/>
+      <c r="EQ18" s="18"/>
+      <c r="ER18" s="18"/>
+      <c r="ES18" s="18"/>
+      <c r="ET18" s="18"/>
+      <c r="EU18" s="18"/>
+      <c r="EV18" s="18"/>
+      <c r="EW18" s="18"/>
+      <c r="EX18" s="18"/>
+      <c r="EY18" s="18"/>
+      <c r="EZ18" s="18"/>
+      <c r="FA18" s="18"/>
+      <c r="FB18" s="18"/>
+      <c r="FC18" s="18"/>
+      <c r="FD18" s="18"/>
+      <c r="FE18" s="18"/>
+      <c r="FF18" s="18"/>
+      <c r="FG18" s="18"/>
+      <c r="FH18" s="18"/>
+      <c r="FI18" s="18"/>
+      <c r="FJ18" s="18"/>
+      <c r="FK18" s="18"/>
+      <c r="FL18" s="18"/>
+      <c r="FM18" s="18"/>
+      <c r="FN18" s="18"/>
+      <c r="FO18" s="18"/>
+      <c r="FP18" s="18"/>
+      <c r="FQ18" s="18"/>
+      <c r="FR18" s="18"/>
+      <c r="FS18" s="18"/>
+      <c r="FT18" s="18"/>
+      <c r="FU18" s="18"/>
+      <c r="FV18" s="18"/>
+      <c r="FW18" s="18"/>
+      <c r="FX18" s="18"/>
+      <c r="FY18" s="18"/>
+      <c r="FZ18" s="18"/>
+      <c r="GA18" s="18"/>
+      <c r="GB18" s="18"/>
+      <c r="GC18" s="18"/>
+      <c r="GD18" s="18"/>
+      <c r="GE18" s="18"/>
+      <c r="GF18" s="18"/>
+      <c r="GG18" s="18"/>
+      <c r="GH18" s="18"/>
+      <c r="GI18" s="18"/>
+      <c r="GJ18" s="18"/>
+      <c r="GK18" s="18"/>
+      <c r="GL18" s="18"/>
+      <c r="GM18" s="18"/>
+      <c r="GN18" s="18"/>
+      <c r="GO18" s="18"/>
+      <c r="GP18" s="18"/>
+      <c r="GQ18" s="18"/>
+      <c r="GR18" s="18"/>
+      <c r="GS18" s="18"/>
+      <c r="GT18" s="18"/>
+      <c r="GU18" s="18"/>
+      <c r="GV18" s="18"/>
+      <c r="GW18" s="18"/>
+      <c r="GX18" s="18"/>
+      <c r="GY18" s="18"/>
+      <c r="GZ18" s="18"/>
+      <c r="HA18" s="18"/>
+      <c r="HB18" s="18"/>
+      <c r="HC18" s="18"/>
+      <c r="HD18" s="18"/>
+      <c r="HE18" s="18"/>
+      <c r="HF18" s="18"/>
+      <c r="HG18" s="18"/>
+      <c r="HH18" s="18"/>
+      <c r="HI18" s="18"/>
+      <c r="HJ18" s="18"/>
+      <c r="HK18" s="18"/>
+      <c r="HL18" s="18"/>
+      <c r="HM18" s="18"/>
+      <c r="HN18" s="18"/>
+      <c r="HO18" s="18"/>
+      <c r="HP18" s="18"/>
+      <c r="HQ18" s="18"/>
+      <c r="HR18" s="18"/>
+      <c r="HS18" s="18"/>
+      <c r="HT18" s="18"/>
+      <c r="HU18" s="18"/>
+      <c r="HV18" s="18"/>
+      <c r="HW18" s="18"/>
+      <c r="HX18" s="18"/>
+      <c r="HY18" s="18"/>
+      <c r="HZ18" s="18"/>
+      <c r="IA18" s="18"/>
+      <c r="IB18" s="18"/>
+      <c r="IC18" s="18"/>
+      <c r="ID18" s="18"/>
+      <c r="IE18" s="18"/>
+      <c r="IF18" s="18"/>
+      <c r="IG18" s="18"/>
+      <c r="IH18" s="18"/>
+      <c r="II18" s="18"/>
+      <c r="IJ18" s="18"/>
+      <c r="IK18" s="18"/>
+      <c r="IL18" s="18"/>
+      <c r="IM18" s="18"/>
+      <c r="IN18" s="18"/>
+      <c r="IO18" s="18"/>
+      <c r="IP18" s="18"/>
+      <c r="IQ18" s="18"/>
+      <c r="IR18" s="18"/>
+      <c r="IS18" s="18"/>
+      <c r="IT18" s="18"/>
+      <c r="IU18" s="18"/>
+      <c r="IV18" s="18"/>
+      <c r="IW18" s="18"/>
+      <c r="IX18" s="18"/>
+      <c r="IY18" s="18"/>
+      <c r="IZ18" s="18"/>
+      <c r="JA18" s="18"/>
+      <c r="JB18" s="18"/>
+      <c r="JC18" s="18"/>
+      <c r="JD18" s="18"/>
+      <c r="JE18" s="18"/>
+      <c r="JF18" s="18"/>
+      <c r="JG18" s="18"/>
+      <c r="JH18" s="18"/>
+      <c r="JI18" s="18"/>
+      <c r="JJ18" s="18"/>
+      <c r="JK18" s="18"/>
+      <c r="JL18" s="18"/>
+      <c r="JM18" s="18"/>
+      <c r="JN18" s="18"/>
+      <c r="JO18" s="18"/>
+      <c r="JP18" s="18"/>
+      <c r="JQ18" s="18"/>
+      <c r="JR18" s="18"/>
+      <c r="JS18" s="18"/>
+      <c r="JT18" s="18"/>
+      <c r="JU18" s="18"/>
+      <c r="JV18" s="18"/>
+      <c r="JW18" s="18"/>
+      <c r="JX18" s="18"/>
+      <c r="JY18" s="18"/>
+      <c r="JZ18" s="18"/>
+      <c r="KA18" s="18"/>
+      <c r="KB18" s="18"/>
+      <c r="KC18" s="18"/>
+      <c r="KD18" s="18"/>
+      <c r="KE18" s="18"/>
+      <c r="KF18" s="18"/>
+      <c r="KG18" s="18"/>
+      <c r="KH18" s="18"/>
+      <c r="KI18" s="18"/>
+      <c r="KJ18" s="18"/>
+      <c r="KK18" s="18"/>
+      <c r="KL18" s="18"/>
+      <c r="KM18" s="18"/>
+      <c r="KN18" s="18"/>
+      <c r="KO18" s="18"/>
+      <c r="KP18" s="18"/>
+      <c r="KQ18" s="18"/>
+      <c r="KR18" s="18"/>
+      <c r="KS18" s="18"/>
+      <c r="KT18" s="18"/>
+      <c r="KU18" s="18"/>
+      <c r="KV18" s="18"/>
+      <c r="KW18" s="18"/>
+      <c r="KX18" s="18"/>
+      <c r="KY18" s="18"/>
+      <c r="KZ18" s="18"/>
+      <c r="LA18" s="18"/>
+      <c r="LB18" s="18"/>
+      <c r="LC18" s="18"/>
+      <c r="LD18" s="18"/>
+      <c r="LE18" s="18"/>
+      <c r="LF18" s="18"/>
+      <c r="LG18" s="18"/>
+      <c r="LH18" s="18"/>
+      <c r="LI18" s="18"/>
+      <c r="LJ18" s="18"/>
+      <c r="LK18" s="18"/>
+      <c r="LL18" s="18"/>
+      <c r="LM18" s="18"/>
+      <c r="LN18" s="18"/>
+      <c r="LO18" s="18"/>
+      <c r="LP18" s="18"/>
+      <c r="LQ18" s="18"/>
+      <c r="LR18" s="18"/>
+      <c r="LS18" s="18"/>
+      <c r="LT18" s="18"/>
+      <c r="LU18" s="18"/>
+      <c r="LV18" s="18"/>
+      <c r="LW18" s="18"/>
+      <c r="LX18" s="18"/>
+      <c r="LY18" s="18"/>
+      <c r="LZ18" s="18"/>
+      <c r="MA18" s="18"/>
+      <c r="MB18" s="18"/>
+      <c r="MC18" s="18"/>
+      <c r="MD18" s="18"/>
+      <c r="ME18" s="18"/>
+      <c r="MF18" s="18"/>
+      <c r="MG18" s="18"/>
+      <c r="MH18" s="18"/>
+      <c r="MI18" s="18"/>
+      <c r="MJ18" s="18"/>
+      <c r="MK18" s="18"/>
+      <c r="ML18" s="18"/>
+      <c r="MM18" s="18"/>
+      <c r="MN18" s="18"/>
+      <c r="MO18" s="18"/>
+      <c r="MP18" s="18"/>
+      <c r="MQ18" s="18"/>
+      <c r="MR18" s="18"/>
+      <c r="MS18" s="18"/>
+      <c r="MT18" s="18"/>
+      <c r="MU18" s="18"/>
+      <c r="MV18" s="18"/>
+      <c r="MW18" s="18"/>
+      <c r="MX18" s="18"/>
+      <c r="MY18" s="18"/>
+      <c r="MZ18" s="18"/>
+      <c r="NA18" s="18"/>
+      <c r="NB18" s="18"/>
+      <c r="NC18" s="18"/>
+      <c r="ND18" s="18"/>
+      <c r="NE18" s="18"/>
+      <c r="NF18" s="18"/>
+      <c r="NG18" s="18"/>
+      <c r="NH18" s="18"/>
+      <c r="NI18" s="18"/>
+      <c r="NJ18" s="18"/>
+      <c r="NK18" s="18"/>
+      <c r="NL18" s="18"/>
+      <c r="NM18" s="18"/>
+      <c r="NN18" s="18"/>
+      <c r="NO18" s="18"/>
+      <c r="NP18" s="18"/>
+      <c r="NQ18" s="18"/>
+      <c r="NR18" s="18"/>
+      <c r="NS18" s="18"/>
+      <c r="NT18" s="18"/>
+      <c r="NU18" s="18"/>
+      <c r="NV18" s="18"/>
+      <c r="NW18" s="18"/>
+      <c r="NX18" s="18"/>
+      <c r="NY18" s="18"/>
+      <c r="NZ18" s="18"/>
+      <c r="OA18" s="18"/>
+      <c r="OB18" s="18"/>
+      <c r="OC18" s="18"/>
+      <c r="OD18" s="18"/>
+      <c r="OE18" s="18"/>
+      <c r="OF18" s="18"/>
+      <c r="OG18" s="18"/>
+      <c r="OH18" s="18"/>
+      <c r="OI18" s="18"/>
+      <c r="OJ18" s="18"/>
+      <c r="OK18" s="18"/>
+      <c r="OL18" s="18"/>
+      <c r="OM18" s="18"/>
+      <c r="ON18" s="18"/>
+      <c r="OO18" s="18"/>
+      <c r="OP18" s="18"/>
+      <c r="OQ18" s="18"/>
+      <c r="OR18" s="18"/>
+      <c r="OS18" s="18"/>
+      <c r="OT18" s="18"/>
+      <c r="OU18" s="18"/>
+      <c r="OV18" s="18"/>
+      <c r="OW18" s="18"/>
+      <c r="OX18" s="18"/>
+      <c r="OY18" s="18"/>
+      <c r="OZ18" s="18"/>
+      <c r="PA18" s="18"/>
+      <c r="PB18" s="18"/>
+      <c r="PC18" s="18"/>
+      <c r="PD18" s="18"/>
+      <c r="PE18" s="18"/>
+      <c r="PF18" s="18"/>
+      <c r="PG18" s="18"/>
+      <c r="PH18" s="18"/>
+      <c r="PI18" s="18"/>
+      <c r="PJ18" s="18"/>
+      <c r="PK18" s="18"/>
+      <c r="PL18" s="18"/>
+      <c r="PM18" s="18"/>
+      <c r="PN18" s="18"/>
+      <c r="PO18" s="18"/>
+      <c r="PP18" s="18"/>
+      <c r="PQ18" s="18"/>
+      <c r="PR18" s="18"/>
+      <c r="PS18" s="18"/>
+      <c r="PT18" s="18"/>
+      <c r="PU18" s="18"/>
+      <c r="PV18" s="18"/>
+      <c r="PW18" s="18"/>
+      <c r="PX18" s="18"/>
+      <c r="PY18" s="18"/>
+      <c r="PZ18" s="18"/>
+      <c r="QA18" s="18"/>
+      <c r="QB18" s="18"/>
+      <c r="QC18" s="18"/>
+      <c r="QD18" s="18"/>
+      <c r="QE18" s="18"/>
+      <c r="QF18" s="18"/>
+      <c r="QG18" s="18"/>
+      <c r="QH18" s="18"/>
+      <c r="QI18" s="18"/>
+      <c r="QJ18" s="18"/>
+      <c r="QK18" s="18"/>
+      <c r="QL18" s="18"/>
+      <c r="QM18" s="18"/>
+      <c r="QN18" s="18"/>
+      <c r="QO18" s="18"/>
+      <c r="QP18" s="18"/>
+      <c r="QQ18" s="18"/>
+      <c r="QR18" s="18"/>
+      <c r="QS18" s="18"/>
+      <c r="QT18" s="18"/>
+      <c r="QU18" s="18"/>
+      <c r="QV18" s="18"/>
+      <c r="QW18" s="18"/>
+      <c r="QX18" s="18"/>
+      <c r="QY18" s="18"/>
+      <c r="QZ18" s="18"/>
+      <c r="RA18" s="18"/>
+      <c r="RB18" s="18"/>
+      <c r="RC18" s="18"/>
+      <c r="RD18" s="18"/>
+      <c r="RE18" s="18"/>
+      <c r="RF18" s="18"/>
+      <c r="RG18" s="18"/>
+      <c r="RH18" s="18"/>
+      <c r="RI18" s="18"/>
+      <c r="RJ18" s="18"/>
+      <c r="RK18" s="18"/>
+      <c r="RL18" s="18"/>
+      <c r="RM18" s="18"/>
+      <c r="RN18" s="18"/>
+      <c r="RO18" s="18"/>
+      <c r="RP18" s="18"/>
+      <c r="RQ18" s="18"/>
+      <c r="RR18" s="18"/>
+      <c r="RS18" s="18"/>
+      <c r="RT18" s="18"/>
+      <c r="RU18" s="18"/>
+      <c r="RV18" s="18"/>
+      <c r="RW18" s="18"/>
+      <c r="RX18" s="18"/>
+      <c r="RY18" s="18"/>
+      <c r="RZ18" s="18"/>
+      <c r="SA18" s="18"/>
+      <c r="SB18" s="18"/>
+      <c r="SC18" s="18"/>
+      <c r="SD18" s="18"/>
+      <c r="SE18" s="18"/>
+      <c r="SF18" s="18"/>
+      <c r="SG18" s="18"/>
+      <c r="SH18" s="18"/>
+      <c r="SI18" s="18"/>
+      <c r="SJ18" s="18"/>
+      <c r="SK18" s="18"/>
+      <c r="SL18" s="18"/>
+      <c r="SM18" s="18"/>
+      <c r="SN18" s="18"/>
+      <c r="SO18" s="18"/>
+      <c r="SP18" s="18"/>
+      <c r="SQ18" s="18"/>
+      <c r="SR18" s="18"/>
+      <c r="SS18" s="18"/>
+      <c r="ST18" s="18"/>
+      <c r="SU18" s="18"/>
+      <c r="SV18" s="18"/>
+      <c r="SW18" s="18"/>
+      <c r="SX18" s="18"/>
+      <c r="SY18" s="18"/>
+      <c r="SZ18" s="18"/>
+      <c r="TA18" s="18"/>
+      <c r="TB18" s="18"/>
+      <c r="TC18" s="18"/>
+      <c r="TD18" s="18"/>
+      <c r="TE18" s="18"/>
+      <c r="TF18" s="18"/>
+      <c r="TG18" s="18"/>
+      <c r="TH18" s="18"/>
+      <c r="TI18" s="18"/>
+      <c r="TJ18" s="18"/>
+      <c r="TK18" s="18"/>
+      <c r="TL18" s="18"/>
+      <c r="TM18" s="18"/>
+      <c r="TN18" s="18"/>
+      <c r="TO18" s="18"/>
+      <c r="TP18" s="18"/>
+      <c r="TQ18" s="18"/>
+      <c r="TR18" s="18"/>
+      <c r="TS18" s="18"/>
+      <c r="TT18" s="18"/>
+      <c r="TU18" s="18"/>
+      <c r="TV18" s="18"/>
+      <c r="TW18" s="18"/>
+      <c r="TX18" s="18"/>
+      <c r="TY18" s="18"/>
+      <c r="TZ18" s="18"/>
+      <c r="UA18" s="18"/>
+      <c r="UB18" s="18"/>
+      <c r="UC18" s="18"/>
+      <c r="UD18" s="18"/>
+      <c r="UE18" s="18"/>
+      <c r="UF18" s="18"/>
+      <c r="UG18" s="18"/>
+      <c r="UH18" s="18"/>
+      <c r="UI18" s="18"/>
+      <c r="UJ18" s="18"/>
+      <c r="UK18" s="18"/>
+      <c r="UL18" s="18"/>
+      <c r="UM18" s="18"/>
+      <c r="UN18" s="18"/>
+      <c r="UO18" s="18"/>
+      <c r="UP18" s="18"/>
+      <c r="UQ18" s="18"/>
+      <c r="UR18" s="18"/>
+      <c r="US18" s="18"/>
+      <c r="UT18" s="18"/>
+      <c r="UU18" s="18"/>
+      <c r="UV18" s="18"/>
+      <c r="UW18" s="18"/>
+      <c r="UX18" s="18"/>
+      <c r="UY18" s="18"/>
+      <c r="UZ18" s="18"/>
+      <c r="VA18" s="18"/>
+      <c r="VB18" s="18"/>
+      <c r="VC18" s="18"/>
+      <c r="VD18" s="18"/>
+      <c r="VE18" s="18"/>
+      <c r="VF18" s="18"/>
+      <c r="VG18" s="18"/>
+      <c r="VH18" s="18"/>
+      <c r="VI18" s="18"/>
+      <c r="VJ18" s="18"/>
+      <c r="VK18" s="18"/>
+      <c r="VL18" s="18"/>
+      <c r="VM18" s="18"/>
+      <c r="VN18" s="18"/>
+      <c r="VO18" s="18"/>
+      <c r="VP18" s="18"/>
+      <c r="VQ18" s="18"/>
+      <c r="VR18" s="18"/>
+      <c r="VS18" s="18"/>
+      <c r="VT18" s="18"/>
+      <c r="VU18" s="18"/>
+      <c r="VV18" s="18"/>
+      <c r="VW18" s="18"/>
+      <c r="VX18" s="18"/>
+      <c r="VY18" s="18"/>
+      <c r="VZ18" s="18"/>
+      <c r="WA18" s="18"/>
+      <c r="WB18" s="18"/>
+      <c r="WC18" s="18"/>
+      <c r="WD18" s="18"/>
+      <c r="WE18" s="18"/>
+      <c r="WF18" s="18"/>
+      <c r="WG18" s="18"/>
+      <c r="WH18" s="18"/>
+      <c r="WI18" s="18"/>
+      <c r="WJ18" s="18"/>
+      <c r="WK18" s="18"/>
+      <c r="WL18" s="18"/>
+      <c r="WM18" s="18"/>
+      <c r="WN18" s="18"/>
+      <c r="WO18" s="18"/>
+      <c r="WP18" s="18"/>
+      <c r="WQ18" s="18"/>
+      <c r="WR18" s="18"/>
+      <c r="WS18" s="18"/>
+      <c r="WT18" s="18"/>
+      <c r="WU18" s="18"/>
+      <c r="WV18" s="18"/>
+      <c r="WW18" s="18"/>
+      <c r="WX18" s="18"/>
+      <c r="WY18" s="18"/>
+      <c r="WZ18" s="18"/>
+      <c r="XA18" s="18"/>
+      <c r="XB18" s="18"/>
+      <c r="XC18" s="18"/>
+      <c r="XD18" s="18"/>
+      <c r="XE18" s="18"/>
+      <c r="XF18" s="18"/>
+      <c r="XG18" s="18"/>
+      <c r="XH18" s="18"/>
+      <c r="XI18" s="18"/>
+      <c r="XJ18" s="18"/>
+      <c r="XK18" s="18"/>
+      <c r="XL18" s="18"/>
+      <c r="XM18" s="18"/>
+      <c r="XN18" s="18"/>
+      <c r="XO18" s="18"/>
+      <c r="XP18" s="18"/>
+      <c r="XQ18" s="18"/>
+      <c r="XR18" s="18"/>
+      <c r="XS18" s="18"/>
+      <c r="XT18" s="18"/>
+      <c r="XU18" s="18"/>
+      <c r="XV18" s="18"/>
+      <c r="XW18" s="18"/>
+      <c r="XX18" s="18"/>
+      <c r="XY18" s="18"/>
+      <c r="XZ18" s="18"/>
+      <c r="YA18" s="18"/>
+      <c r="YB18" s="18"/>
+      <c r="YC18" s="18"/>
+      <c r="YD18" s="18"/>
+      <c r="YE18" s="18"/>
+      <c r="YF18" s="18"/>
+      <c r="YG18" s="18"/>
+      <c r="YH18" s="18"/>
+      <c r="YI18" s="18"/>
+      <c r="YJ18" s="18"/>
+      <c r="YK18" s="18"/>
+      <c r="YL18" s="18"/>
+      <c r="YM18" s="18"/>
+      <c r="YN18" s="18"/>
+      <c r="YO18" s="18"/>
+      <c r="YP18" s="18"/>
+      <c r="YQ18" s="18"/>
+      <c r="YR18" s="18"/>
+      <c r="YS18" s="18"/>
+      <c r="YT18" s="18"/>
+      <c r="YU18" s="18"/>
+      <c r="YV18" s="18"/>
+      <c r="YW18" s="18"/>
+      <c r="YX18" s="18"/>
+      <c r="YY18" s="18"/>
+      <c r="YZ18" s="18"/>
+      <c r="ZA18" s="18"/>
+      <c r="ZB18" s="18"/>
+      <c r="ZC18" s="18"/>
+      <c r="ZD18" s="18"/>
+      <c r="ZE18" s="18"/>
+      <c r="ZF18" s="18"/>
+      <c r="ZG18" s="18"/>
+      <c r="ZH18" s="18"/>
+      <c r="ZI18" s="18"/>
+      <c r="ZJ18" s="18"/>
+      <c r="ZK18" s="18"/>
+      <c r="ZL18" s="18"/>
+      <c r="ZM18" s="18"/>
+      <c r="ZN18" s="18"/>
+      <c r="ZO18" s="18"/>
+      <c r="ZP18" s="18"/>
+      <c r="ZQ18" s="18"/>
+      <c r="ZR18" s="18"/>
+      <c r="ZS18" s="18"/>
+      <c r="ZT18" s="18"/>
+      <c r="ZU18" s="18"/>
+      <c r="ZV18" s="18"/>
+      <c r="ZW18" s="18"/>
+      <c r="ZX18" s="18"/>
+      <c r="ZY18" s="18"/>
+      <c r="ZZ18" s="18"/>
+      <c r="AAA18" s="18"/>
+      <c r="AAB18" s="18"/>
+      <c r="AAC18" s="18"/>
+      <c r="AAD18" s="18"/>
+      <c r="AAE18" s="18"/>
+      <c r="AAF18" s="18"/>
+      <c r="AAG18" s="18"/>
+      <c r="AAH18" s="18"/>
+      <c r="AAI18" s="18"/>
+      <c r="AAJ18" s="18"/>
+      <c r="AAK18" s="18"/>
+      <c r="AAL18" s="18"/>
+      <c r="AAM18" s="18"/>
+      <c r="AAN18" s="18"/>
+      <c r="AAO18" s="18"/>
+      <c r="AAP18" s="18"/>
+      <c r="AAQ18" s="18"/>
+      <c r="AAR18" s="18"/>
+      <c r="AAS18" s="18"/>
+      <c r="AAT18" s="18"/>
+      <c r="AAU18" s="18"/>
+      <c r="AAV18" s="18"/>
+      <c r="AAW18" s="18"/>
+      <c r="AAX18" s="18"/>
+      <c r="AAY18" s="18"/>
+      <c r="AAZ18" s="18"/>
+      <c r="ABA18" s="18"/>
+      <c r="ABB18" s="18"/>
+      <c r="ABC18" s="18"/>
+      <c r="ABD18" s="18"/>
+      <c r="ABE18" s="18"/>
+      <c r="ABF18" s="18"/>
+      <c r="ABG18" s="18"/>
+      <c r="ABH18" s="18"/>
+      <c r="ABI18" s="18"/>
+      <c r="ABJ18" s="18"/>
+      <c r="ABK18" s="18"/>
+      <c r="ABL18" s="18"/>
+      <c r="ABM18" s="18"/>
+      <c r="ABN18" s="18"/>
+      <c r="ABO18" s="18"/>
+      <c r="ABP18" s="18"/>
+      <c r="ABQ18" s="18"/>
+      <c r="ABR18" s="18"/>
+      <c r="ABS18" s="18"/>
+      <c r="ABT18" s="18"/>
+      <c r="ABU18" s="18"/>
+      <c r="ABV18" s="18"/>
+      <c r="ABW18" s="18"/>
+      <c r="ABX18" s="18"/>
+      <c r="ABY18" s="18"/>
+      <c r="ABZ18" s="18"/>
+      <c r="ACA18" s="18"/>
+      <c r="ACB18" s="18"/>
+      <c r="ACC18" s="18"/>
+      <c r="ACD18" s="18"/>
+      <c r="ACE18" s="18"/>
+      <c r="ACF18" s="18"/>
+      <c r="ACG18" s="18"/>
+      <c r="ACH18" s="18"/>
+      <c r="ACI18" s="18"/>
+      <c r="ACJ18" s="18"/>
+      <c r="ACK18" s="18"/>
+      <c r="ACL18" s="18"/>
+      <c r="ACM18" s="18"/>
+      <c r="ACN18" s="18"/>
+      <c r="ACO18" s="18"/>
+      <c r="ACP18" s="18"/>
+      <c r="ACQ18" s="18"/>
+      <c r="ACR18" s="18"/>
+      <c r="ACS18" s="18"/>
+      <c r="ACT18" s="18"/>
+      <c r="ACU18" s="18"/>
+      <c r="ACV18" s="18"/>
+      <c r="ACW18" s="18"/>
+      <c r="ACX18" s="18"/>
+      <c r="ACY18" s="18"/>
+      <c r="ACZ18" s="18"/>
+      <c r="ADA18" s="18"/>
+      <c r="ADB18" s="18"/>
+      <c r="ADC18" s="18"/>
+      <c r="ADD18" s="18"/>
+      <c r="ADE18" s="18"/>
+      <c r="ADF18" s="18"/>
+      <c r="ADG18" s="18"/>
+      <c r="ADH18" s="18"/>
+      <c r="ADI18" s="18"/>
+      <c r="ADJ18" s="18"/>
+      <c r="ADK18" s="18"/>
+      <c r="ADL18" s="18"/>
+      <c r="ADM18" s="18"/>
+      <c r="ADN18" s="18"/>
+      <c r="ADO18" s="18"/>
+      <c r="ADP18" s="18"/>
+      <c r="ADQ18" s="18"/>
+      <c r="ADR18" s="18"/>
+      <c r="ADS18" s="18"/>
+      <c r="ADT18" s="18"/>
+      <c r="ADU18" s="18"/>
+      <c r="ADV18" s="18"/>
+      <c r="ADW18" s="18"/>
+      <c r="ADX18" s="18"/>
+      <c r="ADY18" s="18"/>
+      <c r="ADZ18" s="18"/>
+      <c r="AEA18" s="18"/>
+      <c r="AEB18" s="18"/>
+      <c r="AEC18" s="18"/>
+      <c r="AED18" s="18"/>
+      <c r="AEE18" s="18"/>
+      <c r="AEF18" s="18"/>
+      <c r="AEG18" s="18"/>
+      <c r="AEH18" s="18"/>
+      <c r="AEI18" s="18"/>
+      <c r="AEJ18" s="18"/>
+      <c r="AEK18" s="18"/>
+      <c r="AEL18" s="18"/>
+      <c r="AEM18" s="18"/>
+      <c r="AEN18" s="18"/>
+      <c r="AEO18" s="18"/>
+      <c r="AEP18" s="18"/>
+      <c r="AEQ18" s="18"/>
+      <c r="AER18" s="18"/>
+      <c r="AES18" s="18"/>
+      <c r="AET18" s="18"/>
+      <c r="AEU18" s="18"/>
+      <c r="AEV18" s="18"/>
+      <c r="AEW18" s="18"/>
+      <c r="AEX18" s="18"/>
+      <c r="AEY18" s="18"/>
+      <c r="AEZ18" s="18"/>
+      <c r="AFA18" s="18"/>
+      <c r="AFB18" s="18"/>
+      <c r="AFC18" s="18"/>
+      <c r="AFD18" s="18"/>
+      <c r="AFE18" s="18"/>
+      <c r="AFF18" s="18"/>
+      <c r="AFG18" s="18"/>
+      <c r="AFH18" s="18"/>
+      <c r="AFI18" s="18"/>
+      <c r="AFJ18" s="18"/>
+      <c r="AFK18" s="18"/>
+      <c r="AFL18" s="18"/>
+      <c r="AFM18" s="18"/>
+      <c r="AFN18" s="18"/>
+      <c r="AFO18" s="18"/>
+      <c r="AFP18" s="18"/>
+      <c r="AFQ18" s="18"/>
+      <c r="AFR18" s="18"/>
+      <c r="AFS18" s="18"/>
+      <c r="AFT18" s="18"/>
+      <c r="AFU18" s="18"/>
+      <c r="AFV18" s="18"/>
+      <c r="AFW18" s="18"/>
+      <c r="AFX18" s="18"/>
+      <c r="AFY18" s="18"/>
+      <c r="AFZ18" s="18"/>
+      <c r="AGA18" s="18"/>
+      <c r="AGB18" s="18"/>
+      <c r="AGC18" s="18"/>
+      <c r="AGD18" s="18"/>
+      <c r="AGE18" s="18"/>
+      <c r="AGF18" s="18"/>
+      <c r="AGG18" s="18"/>
+      <c r="AGH18" s="18"/>
+      <c r="AGI18" s="18"/>
+      <c r="AGJ18" s="18"/>
+      <c r="AGK18" s="18"/>
+      <c r="AGL18" s="18"/>
+      <c r="AGM18" s="18"/>
+      <c r="AGN18" s="18"/>
+      <c r="AGO18" s="18"/>
+      <c r="AGP18" s="18"/>
+      <c r="AGQ18" s="18"/>
+      <c r="AGR18" s="18"/>
+      <c r="AGS18" s="18"/>
+      <c r="AGT18" s="18"/>
+      <c r="AGU18" s="18"/>
+      <c r="AGV18" s="18"/>
+      <c r="AGW18" s="18"/>
+      <c r="AGX18" s="18"/>
+      <c r="AGY18" s="18"/>
+      <c r="AGZ18" s="18"/>
+      <c r="AHA18" s="18"/>
+      <c r="AHB18" s="18"/>
+      <c r="AHC18" s="18"/>
+      <c r="AHD18" s="18"/>
+      <c r="AHE18" s="18"/>
+      <c r="AHF18" s="18"/>
+      <c r="AHG18" s="18"/>
+      <c r="AHH18" s="18"/>
+      <c r="AHI18" s="18"/>
+      <c r="AHJ18" s="18"/>
+      <c r="AHK18" s="18"/>
+      <c r="AHL18" s="18"/>
+      <c r="AHM18" s="18"/>
+      <c r="AHN18" s="18"/>
+      <c r="AHO18" s="18"/>
+      <c r="AHP18" s="18"/>
+      <c r="AHQ18" s="18"/>
+      <c r="AHR18" s="18"/>
+      <c r="AHS18" s="18"/>
+      <c r="AHT18" s="18"/>
+      <c r="AHU18" s="18"/>
+      <c r="AHV18" s="18"/>
+      <c r="AHW18" s="18"/>
+      <c r="AHX18" s="18"/>
+      <c r="AHY18" s="18"/>
+      <c r="AHZ18" s="18"/>
+      <c r="AIA18" s="18"/>
+      <c r="AIB18" s="18"/>
+      <c r="AIC18" s="18"/>
+      <c r="AID18" s="18"/>
+      <c r="AIE18" s="18"/>
+      <c r="AIF18" s="18"/>
+      <c r="AIG18" s="18"/>
+      <c r="AIH18" s="18"/>
+      <c r="AII18" s="18"/>
+      <c r="AIJ18" s="18"/>
+      <c r="AIK18" s="18"/>
+      <c r="AIL18" s="18"/>
+      <c r="AIM18" s="18"/>
+      <c r="AIN18" s="18"/>
+      <c r="AIO18" s="18"/>
+      <c r="AIP18" s="18"/>
+      <c r="AIQ18" s="18"/>
+      <c r="AIR18" s="18"/>
+      <c r="AIS18" s="18"/>
+      <c r="AIT18" s="18"/>
+      <c r="AIU18" s="18"/>
+      <c r="AIV18" s="18"/>
+      <c r="AIW18" s="18"/>
+      <c r="AIX18" s="18"/>
+      <c r="AIY18" s="18"/>
+      <c r="AIZ18" s="18"/>
+      <c r="AJA18" s="18"/>
+      <c r="AJB18" s="18"/>
+      <c r="AJC18" s="18"/>
+      <c r="AJD18" s="18"/>
+      <c r="AJE18" s="18"/>
+      <c r="AJF18" s="18"/>
+      <c r="AJG18" s="18"/>
+      <c r="AJH18" s="18"/>
+      <c r="AJI18" s="18"/>
+      <c r="AJJ18" s="18"/>
+      <c r="AJK18" s="18"/>
+      <c r="AJL18" s="18"/>
+      <c r="AJM18" s="18"/>
+      <c r="AJN18" s="18"/>
+      <c r="AJO18" s="18"/>
+      <c r="AJP18" s="18"/>
+      <c r="AJQ18" s="18"/>
+      <c r="AJR18" s="18"/>
+      <c r="AJS18" s="18"/>
+      <c r="AJT18" s="18"/>
+      <c r="AJU18" s="18"/>
+      <c r="AJV18" s="18"/>
+      <c r="AJW18" s="18"/>
+      <c r="AJX18" s="18"/>
+      <c r="AJY18" s="18"/>
+      <c r="AJZ18" s="18"/>
+      <c r="AKA18" s="18"/>
+      <c r="AKB18" s="18"/>
+      <c r="AKC18" s="18"/>
+      <c r="AKD18" s="18"/>
+      <c r="AKE18" s="18"/>
+      <c r="AKF18" s="18"/>
+      <c r="AKG18" s="18"/>
+      <c r="AKH18" s="18"/>
+      <c r="AKI18" s="18"/>
+      <c r="AKJ18" s="18"/>
+      <c r="AKK18" s="18"/>
+      <c r="AKL18" s="18"/>
+      <c r="AKM18" s="18"/>
+      <c r="AKN18" s="18"/>
+      <c r="AKO18" s="18"/>
+      <c r="AKP18" s="18"/>
+      <c r="AKQ18" s="18"/>
+      <c r="AKR18" s="18"/>
+      <c r="AKS18" s="18"/>
+      <c r="AKT18" s="18"/>
+      <c r="AKU18" s="18"/>
+      <c r="AKV18" s="18"/>
+      <c r="AKW18" s="18"/>
+      <c r="AKX18" s="18"/>
+      <c r="AKY18" s="18"/>
+      <c r="AKZ18" s="18"/>
+      <c r="ALA18" s="18"/>
+      <c r="ALB18" s="18"/>
+      <c r="ALC18" s="18"/>
+      <c r="ALD18" s="18"/>
+      <c r="ALE18" s="18"/>
+      <c r="ALF18" s="18"/>
+      <c r="ALG18" s="18"/>
+      <c r="ALH18" s="18"/>
+      <c r="ALI18" s="18"/>
+      <c r="ALJ18" s="18"/>
+      <c r="ALK18" s="18"/>
+      <c r="ALL18" s="18"/>
+      <c r="ALM18" s="18"/>
+      <c r="ALN18" s="18"/>
+      <c r="ALO18" s="18"/>
+      <c r="ALP18" s="18"/>
+      <c r="ALQ18" s="18"/>
+      <c r="ALR18" s="18"/>
+      <c r="ALS18" s="18"/>
+      <c r="ALT18" s="18"/>
+      <c r="ALU18" s="18"/>
+      <c r="ALV18" s="18"/>
+      <c r="ALW18" s="18"/>
+      <c r="ALX18" s="18"/>
+      <c r="ALY18" s="18"/>
+      <c r="ALZ18" s="18"/>
+      <c r="AMA18" s="18"/>
+      <c r="AMB18" s="18"/>
+      <c r="AMC18" s="18"/>
+      <c r="AMD18" s="18"/>
+      <c r="AME18" s="18"/>
+      <c r="AMF18" s="18"/>
+      <c r="AMG18" s="18"/>
+      <c r="AMH18" s="18"/>
+      <c r="AMI18" s="18"/>
+      <c r="AMJ18" s="18"/>
     </row>
-    <row r="19" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1909,7 +4157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -2019,7 +4267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2114,7 +4362,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -2158,16 +4406,19 @@
         <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q22" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="R22" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -2259,7 +4510,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -2276,7 +4527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -2317,7 +4568,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -2376,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -2417,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1024" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -2458,29 +4709,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1024" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="10">
-        <v>23</v>
-      </c>
-      <c r="E29" s="10">
-        <v>25</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -2512,13 +4763,5387 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
     </row>
-    <row r="30" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="31" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="17">
+        <v>100</v>
+      </c>
+      <c r="J31" s="17">
+        <v>10</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="S31" s="17">
+        <v>100</v>
+      </c>
+      <c r="T31" s="17">
+        <v>20</v>
+      </c>
+      <c r="U31" s="17">
+        <v>200</v>
+      </c>
+      <c r="V31" s="17">
+        <v>20</v>
+      </c>
+      <c r="W31" s="17">
+        <v>10</v>
+      </c>
+      <c r="X31" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+    </row>
+    <row r="32" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="16">
+        <v>500</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="16">
+        <v>100</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="16">
+        <v>50</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="16">
+        <v>30</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="16">
+        <v>6</v>
+      </c>
+      <c r="S32" s="16">
+        <v>100</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+    </row>
+    <row r="33" spans="1:1024" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="17">
+        <v>3454</v>
+      </c>
+      <c r="C33" s="24">
+        <v>42034</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3243242</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="17">
+        <v>900</v>
+      </c>
+      <c r="I33" s="17">
+        <v>400</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="25"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="25"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="25"/>
+      <c r="BF33" s="25"/>
+      <c r="BG33" s="25"/>
+      <c r="BH33" s="25"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="25"/>
+      <c r="BK33" s="25"/>
+      <c r="BL33" s="25"/>
+      <c r="BM33" s="25"/>
+      <c r="BN33" s="25"/>
+      <c r="BO33" s="25"/>
+      <c r="BP33" s="25"/>
+      <c r="BQ33" s="25"/>
+      <c r="BR33" s="25"/>
+      <c r="BS33" s="25"/>
+      <c r="BT33" s="25"/>
+      <c r="BU33" s="25"/>
+      <c r="BV33" s="25"/>
+      <c r="BW33" s="25"/>
+      <c r="BX33" s="25"/>
+      <c r="BY33" s="25"/>
+      <c r="BZ33" s="25"/>
+      <c r="CA33" s="25"/>
+      <c r="CB33" s="25"/>
+      <c r="CC33" s="25"/>
+      <c r="CD33" s="25"/>
+      <c r="CE33" s="25"/>
+      <c r="CF33" s="25"/>
+      <c r="CG33" s="25"/>
+      <c r="CH33" s="25"/>
+      <c r="CI33" s="25"/>
+      <c r="CJ33" s="25"/>
+      <c r="CK33" s="25"/>
+      <c r="CL33" s="25"/>
+      <c r="CM33" s="25"/>
+      <c r="CN33" s="25"/>
+      <c r="CO33" s="25"/>
+      <c r="CP33" s="25"/>
+      <c r="CQ33" s="25"/>
+      <c r="CR33" s="25"/>
+      <c r="CS33" s="25"/>
+      <c r="CT33" s="25"/>
+      <c r="CU33" s="25"/>
+      <c r="CV33" s="25"/>
+      <c r="CW33" s="25"/>
+      <c r="CX33" s="25"/>
+      <c r="CY33" s="25"/>
+      <c r="CZ33" s="25"/>
+      <c r="DA33" s="25"/>
+      <c r="DB33" s="25"/>
+      <c r="DC33" s="25"/>
+      <c r="DD33" s="25"/>
+      <c r="DE33" s="25"/>
+      <c r="DF33" s="25"/>
+      <c r="DG33" s="25"/>
+      <c r="DH33" s="25"/>
+      <c r="DI33" s="25"/>
+      <c r="DJ33" s="25"/>
+      <c r="DK33" s="25"/>
+      <c r="DL33" s="25"/>
+      <c r="DM33" s="25"/>
+      <c r="DN33" s="25"/>
+      <c r="DO33" s="25"/>
+      <c r="DP33" s="25"/>
+      <c r="DQ33" s="25"/>
+      <c r="DR33" s="25"/>
+      <c r="DS33" s="25"/>
+      <c r="DT33" s="25"/>
+      <c r="DU33" s="25"/>
+      <c r="DV33" s="25"/>
+      <c r="DW33" s="25"/>
+      <c r="DX33" s="25"/>
+      <c r="DY33" s="25"/>
+      <c r="DZ33" s="25"/>
+      <c r="EA33" s="25"/>
+      <c r="EB33" s="25"/>
+      <c r="EC33" s="25"/>
+      <c r="ED33" s="25"/>
+      <c r="EE33" s="25"/>
+      <c r="EF33" s="25"/>
+      <c r="EG33" s="25"/>
+      <c r="EH33" s="25"/>
+      <c r="EI33" s="25"/>
+      <c r="EJ33" s="25"/>
+      <c r="EK33" s="25"/>
+      <c r="EL33" s="25"/>
+      <c r="EM33" s="25"/>
+      <c r="EN33" s="25"/>
+      <c r="EO33" s="25"/>
+      <c r="EP33" s="25"/>
+      <c r="EQ33" s="25"/>
+      <c r="ER33" s="25"/>
+      <c r="ES33" s="25"/>
+      <c r="ET33" s="25"/>
+      <c r="EU33" s="25"/>
+      <c r="EV33" s="25"/>
+      <c r="EW33" s="25"/>
+      <c r="EX33" s="25"/>
+      <c r="EY33" s="25"/>
+      <c r="EZ33" s="25"/>
+      <c r="FA33" s="25"/>
+      <c r="FB33" s="25"/>
+      <c r="FC33" s="25"/>
+      <c r="FD33" s="25"/>
+      <c r="FE33" s="25"/>
+      <c r="FF33" s="25"/>
+      <c r="FG33" s="25"/>
+      <c r="FH33" s="25"/>
+      <c r="FI33" s="25"/>
+      <c r="FJ33" s="25"/>
+      <c r="FK33" s="25"/>
+      <c r="FL33" s="25"/>
+      <c r="FM33" s="25"/>
+      <c r="FN33" s="25"/>
+      <c r="FO33" s="25"/>
+      <c r="FP33" s="25"/>
+      <c r="FQ33" s="25"/>
+      <c r="FR33" s="25"/>
+      <c r="FS33" s="25"/>
+      <c r="FT33" s="25"/>
+      <c r="FU33" s="25"/>
+      <c r="FV33" s="25"/>
+      <c r="FW33" s="25"/>
+      <c r="FX33" s="25"/>
+      <c r="FY33" s="25"/>
+      <c r="FZ33" s="25"/>
+      <c r="GA33" s="25"/>
+      <c r="GB33" s="25"/>
+      <c r="GC33" s="25"/>
+      <c r="GD33" s="25"/>
+      <c r="GE33" s="25"/>
+      <c r="GF33" s="25"/>
+      <c r="GG33" s="25"/>
+      <c r="GH33" s="25"/>
+      <c r="GI33" s="25"/>
+      <c r="GJ33" s="25"/>
+      <c r="GK33" s="25"/>
+      <c r="GL33" s="25"/>
+      <c r="GM33" s="25"/>
+      <c r="GN33" s="25"/>
+      <c r="GO33" s="25"/>
+      <c r="GP33" s="25"/>
+      <c r="GQ33" s="25"/>
+      <c r="GR33" s="25"/>
+      <c r="GS33" s="25"/>
+      <c r="GT33" s="25"/>
+      <c r="GU33" s="25"/>
+      <c r="GV33" s="25"/>
+      <c r="GW33" s="25"/>
+      <c r="GX33" s="25"/>
+      <c r="GY33" s="25"/>
+      <c r="GZ33" s="25"/>
+      <c r="HA33" s="25"/>
+      <c r="HB33" s="25"/>
+      <c r="HC33" s="25"/>
+      <c r="HD33" s="25"/>
+      <c r="HE33" s="25"/>
+      <c r="HF33" s="25"/>
+      <c r="HG33" s="25"/>
+      <c r="HH33" s="25"/>
+      <c r="HI33" s="25"/>
+      <c r="HJ33" s="25"/>
+      <c r="HK33" s="25"/>
+      <c r="HL33" s="25"/>
+      <c r="HM33" s="25"/>
+      <c r="HN33" s="25"/>
+      <c r="HO33" s="25"/>
+      <c r="HP33" s="25"/>
+      <c r="HQ33" s="25"/>
+      <c r="HR33" s="25"/>
+      <c r="HS33" s="25"/>
+      <c r="HT33" s="25"/>
+      <c r="HU33" s="25"/>
+      <c r="HV33" s="25"/>
+      <c r="HW33" s="25"/>
+      <c r="HX33" s="25"/>
+      <c r="HY33" s="25"/>
+      <c r="HZ33" s="25"/>
+      <c r="IA33" s="25"/>
+      <c r="IB33" s="25"/>
+      <c r="IC33" s="25"/>
+      <c r="ID33" s="25"/>
+      <c r="IE33" s="25"/>
+      <c r="IF33" s="25"/>
+      <c r="IG33" s="25"/>
+      <c r="IH33" s="25"/>
+      <c r="II33" s="25"/>
+      <c r="IJ33" s="25"/>
+      <c r="IK33" s="25"/>
+      <c r="IL33" s="25"/>
+      <c r="IM33" s="25"/>
+      <c r="IN33" s="25"/>
+      <c r="IO33" s="25"/>
+      <c r="IP33" s="25"/>
+      <c r="IQ33" s="25"/>
+      <c r="IR33" s="25"/>
+      <c r="IS33" s="25"/>
+      <c r="IT33" s="25"/>
+      <c r="IU33" s="25"/>
+      <c r="IV33" s="25"/>
+      <c r="IW33" s="25"/>
+      <c r="IX33" s="25"/>
+      <c r="IY33" s="25"/>
+      <c r="IZ33" s="25"/>
+      <c r="JA33" s="25"/>
+      <c r="JB33" s="25"/>
+      <c r="JC33" s="25"/>
+      <c r="JD33" s="25"/>
+      <c r="JE33" s="25"/>
+      <c r="JF33" s="25"/>
+      <c r="JG33" s="25"/>
+      <c r="JH33" s="25"/>
+      <c r="JI33" s="25"/>
+      <c r="JJ33" s="25"/>
+      <c r="JK33" s="25"/>
+      <c r="JL33" s="25"/>
+      <c r="JM33" s="25"/>
+      <c r="JN33" s="25"/>
+      <c r="JO33" s="25"/>
+      <c r="JP33" s="25"/>
+      <c r="JQ33" s="25"/>
+      <c r="JR33" s="25"/>
+      <c r="JS33" s="25"/>
+      <c r="JT33" s="25"/>
+      <c r="JU33" s="25"/>
+      <c r="JV33" s="25"/>
+      <c r="JW33" s="25"/>
+      <c r="JX33" s="25"/>
+      <c r="JY33" s="25"/>
+      <c r="JZ33" s="25"/>
+      <c r="KA33" s="25"/>
+      <c r="KB33" s="25"/>
+      <c r="KC33" s="25"/>
+      <c r="KD33" s="25"/>
+      <c r="KE33" s="25"/>
+      <c r="KF33" s="25"/>
+      <c r="KG33" s="25"/>
+      <c r="KH33" s="25"/>
+      <c r="KI33" s="25"/>
+      <c r="KJ33" s="25"/>
+      <c r="KK33" s="25"/>
+      <c r="KL33" s="25"/>
+      <c r="KM33" s="25"/>
+      <c r="KN33" s="25"/>
+      <c r="KO33" s="25"/>
+      <c r="KP33" s="25"/>
+      <c r="KQ33" s="25"/>
+      <c r="KR33" s="25"/>
+      <c r="KS33" s="25"/>
+      <c r="KT33" s="25"/>
+      <c r="KU33" s="25"/>
+      <c r="KV33" s="25"/>
+      <c r="KW33" s="25"/>
+      <c r="KX33" s="25"/>
+      <c r="KY33" s="25"/>
+      <c r="KZ33" s="25"/>
+      <c r="LA33" s="25"/>
+      <c r="LB33" s="25"/>
+      <c r="LC33" s="25"/>
+      <c r="LD33" s="25"/>
+      <c r="LE33" s="25"/>
+      <c r="LF33" s="25"/>
+      <c r="LG33" s="25"/>
+      <c r="LH33" s="25"/>
+      <c r="LI33" s="25"/>
+      <c r="LJ33" s="25"/>
+      <c r="LK33" s="25"/>
+      <c r="LL33" s="25"/>
+      <c r="LM33" s="25"/>
+      <c r="LN33" s="25"/>
+      <c r="LO33" s="25"/>
+      <c r="LP33" s="25"/>
+      <c r="LQ33" s="25"/>
+      <c r="LR33" s="25"/>
+      <c r="LS33" s="25"/>
+      <c r="LT33" s="25"/>
+      <c r="LU33" s="25"/>
+      <c r="LV33" s="25"/>
+      <c r="LW33" s="25"/>
+      <c r="LX33" s="25"/>
+      <c r="LY33" s="25"/>
+      <c r="LZ33" s="25"/>
+      <c r="MA33" s="25"/>
+      <c r="MB33" s="25"/>
+      <c r="MC33" s="25"/>
+      <c r="MD33" s="25"/>
+      <c r="ME33" s="25"/>
+      <c r="MF33" s="25"/>
+      <c r="MG33" s="25"/>
+      <c r="MH33" s="25"/>
+      <c r="MI33" s="25"/>
+      <c r="MJ33" s="25"/>
+      <c r="MK33" s="25"/>
+      <c r="ML33" s="25"/>
+      <c r="MM33" s="25"/>
+      <c r="MN33" s="25"/>
+      <c r="MO33" s="25"/>
+      <c r="MP33" s="25"/>
+      <c r="MQ33" s="25"/>
+      <c r="MR33" s="25"/>
+      <c r="MS33" s="25"/>
+      <c r="MT33" s="25"/>
+      <c r="MU33" s="25"/>
+      <c r="MV33" s="25"/>
+      <c r="MW33" s="25"/>
+      <c r="MX33" s="25"/>
+      <c r="MY33" s="25"/>
+      <c r="MZ33" s="25"/>
+      <c r="NA33" s="25"/>
+      <c r="NB33" s="25"/>
+      <c r="NC33" s="25"/>
+      <c r="ND33" s="25"/>
+      <c r="NE33" s="25"/>
+      <c r="NF33" s="25"/>
+      <c r="NG33" s="25"/>
+      <c r="NH33" s="25"/>
+      <c r="NI33" s="25"/>
+      <c r="NJ33" s="25"/>
+      <c r="NK33" s="25"/>
+      <c r="NL33" s="25"/>
+      <c r="NM33" s="25"/>
+      <c r="NN33" s="25"/>
+      <c r="NO33" s="25"/>
+      <c r="NP33" s="25"/>
+      <c r="NQ33" s="25"/>
+      <c r="NR33" s="25"/>
+      <c r="NS33" s="25"/>
+      <c r="NT33" s="25"/>
+      <c r="NU33" s="25"/>
+      <c r="NV33" s="25"/>
+      <c r="NW33" s="25"/>
+      <c r="NX33" s="25"/>
+      <c r="NY33" s="25"/>
+      <c r="NZ33" s="25"/>
+      <c r="OA33" s="25"/>
+      <c r="OB33" s="25"/>
+      <c r="OC33" s="25"/>
+      <c r="OD33" s="25"/>
+      <c r="OE33" s="25"/>
+      <c r="OF33" s="25"/>
+      <c r="OG33" s="25"/>
+      <c r="OH33" s="25"/>
+      <c r="OI33" s="25"/>
+      <c r="OJ33" s="25"/>
+      <c r="OK33" s="25"/>
+      <c r="OL33" s="25"/>
+      <c r="OM33" s="25"/>
+      <c r="ON33" s="25"/>
+      <c r="OO33" s="25"/>
+      <c r="OP33" s="25"/>
+      <c r="OQ33" s="25"/>
+      <c r="OR33" s="25"/>
+      <c r="OS33" s="25"/>
+      <c r="OT33" s="25"/>
+      <c r="OU33" s="25"/>
+      <c r="OV33" s="25"/>
+      <c r="OW33" s="25"/>
+      <c r="OX33" s="25"/>
+      <c r="OY33" s="25"/>
+      <c r="OZ33" s="25"/>
+      <c r="PA33" s="25"/>
+      <c r="PB33" s="25"/>
+      <c r="PC33" s="25"/>
+      <c r="PD33" s="25"/>
+      <c r="PE33" s="25"/>
+      <c r="PF33" s="25"/>
+      <c r="PG33" s="25"/>
+      <c r="PH33" s="25"/>
+      <c r="PI33" s="25"/>
+      <c r="PJ33" s="25"/>
+      <c r="PK33" s="25"/>
+      <c r="PL33" s="25"/>
+      <c r="PM33" s="25"/>
+      <c r="PN33" s="25"/>
+      <c r="PO33" s="25"/>
+      <c r="PP33" s="25"/>
+      <c r="PQ33" s="25"/>
+      <c r="PR33" s="25"/>
+      <c r="PS33" s="25"/>
+      <c r="PT33" s="25"/>
+      <c r="PU33" s="25"/>
+      <c r="PV33" s="25"/>
+      <c r="PW33" s="25"/>
+      <c r="PX33" s="25"/>
+      <c r="PY33" s="25"/>
+      <c r="PZ33" s="25"/>
+      <c r="QA33" s="25"/>
+      <c r="QB33" s="25"/>
+      <c r="QC33" s="25"/>
+      <c r="QD33" s="25"/>
+      <c r="QE33" s="25"/>
+      <c r="QF33" s="25"/>
+      <c r="QG33" s="25"/>
+      <c r="QH33" s="25"/>
+      <c r="QI33" s="25"/>
+      <c r="QJ33" s="25"/>
+      <c r="QK33" s="25"/>
+      <c r="QL33" s="25"/>
+      <c r="QM33" s="25"/>
+      <c r="QN33" s="25"/>
+      <c r="QO33" s="25"/>
+      <c r="QP33" s="25"/>
+      <c r="QQ33" s="25"/>
+      <c r="QR33" s="25"/>
+      <c r="QS33" s="25"/>
+      <c r="QT33" s="25"/>
+      <c r="QU33" s="25"/>
+      <c r="QV33" s="25"/>
+      <c r="QW33" s="25"/>
+      <c r="QX33" s="25"/>
+      <c r="QY33" s="25"/>
+      <c r="QZ33" s="25"/>
+      <c r="RA33" s="25"/>
+      <c r="RB33" s="25"/>
+      <c r="RC33" s="25"/>
+      <c r="RD33" s="25"/>
+      <c r="RE33" s="25"/>
+      <c r="RF33" s="25"/>
+      <c r="RG33" s="25"/>
+      <c r="RH33" s="25"/>
+      <c r="RI33" s="25"/>
+      <c r="RJ33" s="25"/>
+      <c r="RK33" s="25"/>
+      <c r="RL33" s="25"/>
+      <c r="RM33" s="25"/>
+      <c r="RN33" s="25"/>
+      <c r="RO33" s="25"/>
+      <c r="RP33" s="25"/>
+      <c r="RQ33" s="25"/>
+      <c r="RR33" s="25"/>
+      <c r="RS33" s="25"/>
+      <c r="RT33" s="25"/>
+      <c r="RU33" s="25"/>
+      <c r="RV33" s="25"/>
+      <c r="RW33" s="25"/>
+      <c r="RX33" s="25"/>
+      <c r="RY33" s="25"/>
+      <c r="RZ33" s="25"/>
+      <c r="SA33" s="25"/>
+      <c r="SB33" s="25"/>
+      <c r="SC33" s="25"/>
+      <c r="SD33" s="25"/>
+      <c r="SE33" s="25"/>
+      <c r="SF33" s="25"/>
+      <c r="SG33" s="25"/>
+      <c r="SH33" s="25"/>
+      <c r="SI33" s="25"/>
+      <c r="SJ33" s="25"/>
+      <c r="SK33" s="25"/>
+      <c r="SL33" s="25"/>
+      <c r="SM33" s="25"/>
+      <c r="SN33" s="25"/>
+      <c r="SO33" s="25"/>
+      <c r="SP33" s="25"/>
+      <c r="SQ33" s="25"/>
+      <c r="SR33" s="25"/>
+      <c r="SS33" s="25"/>
+      <c r="ST33" s="25"/>
+      <c r="SU33" s="25"/>
+      <c r="SV33" s="25"/>
+      <c r="SW33" s="25"/>
+      <c r="SX33" s="25"/>
+      <c r="SY33" s="25"/>
+      <c r="SZ33" s="25"/>
+      <c r="TA33" s="25"/>
+      <c r="TB33" s="25"/>
+      <c r="TC33" s="25"/>
+      <c r="TD33" s="25"/>
+      <c r="TE33" s="25"/>
+      <c r="TF33" s="25"/>
+      <c r="TG33" s="25"/>
+      <c r="TH33" s="25"/>
+      <c r="TI33" s="25"/>
+      <c r="TJ33" s="25"/>
+      <c r="TK33" s="25"/>
+      <c r="TL33" s="25"/>
+      <c r="TM33" s="25"/>
+      <c r="TN33" s="25"/>
+      <c r="TO33" s="25"/>
+      <c r="TP33" s="25"/>
+      <c r="TQ33" s="25"/>
+      <c r="TR33" s="25"/>
+      <c r="TS33" s="25"/>
+      <c r="TT33" s="25"/>
+      <c r="TU33" s="25"/>
+      <c r="TV33" s="25"/>
+      <c r="TW33" s="25"/>
+      <c r="TX33" s="25"/>
+      <c r="TY33" s="25"/>
+      <c r="TZ33" s="25"/>
+      <c r="UA33" s="25"/>
+      <c r="UB33" s="25"/>
+      <c r="UC33" s="25"/>
+      <c r="UD33" s="25"/>
+      <c r="UE33" s="25"/>
+      <c r="UF33" s="25"/>
+      <c r="UG33" s="25"/>
+      <c r="UH33" s="25"/>
+      <c r="UI33" s="25"/>
+      <c r="UJ33" s="25"/>
+      <c r="UK33" s="25"/>
+      <c r="UL33" s="25"/>
+      <c r="UM33" s="25"/>
+      <c r="UN33" s="25"/>
+      <c r="UO33" s="25"/>
+      <c r="UP33" s="25"/>
+      <c r="UQ33" s="25"/>
+      <c r="UR33" s="25"/>
+      <c r="US33" s="25"/>
+      <c r="UT33" s="25"/>
+      <c r="UU33" s="25"/>
+      <c r="UV33" s="25"/>
+      <c r="UW33" s="25"/>
+      <c r="UX33" s="25"/>
+      <c r="UY33" s="25"/>
+      <c r="UZ33" s="25"/>
+      <c r="VA33" s="25"/>
+      <c r="VB33" s="25"/>
+      <c r="VC33" s="25"/>
+      <c r="VD33" s="25"/>
+      <c r="VE33" s="25"/>
+      <c r="VF33" s="25"/>
+      <c r="VG33" s="25"/>
+      <c r="VH33" s="25"/>
+      <c r="VI33" s="25"/>
+      <c r="VJ33" s="25"/>
+      <c r="VK33" s="25"/>
+      <c r="VL33" s="25"/>
+      <c r="VM33" s="25"/>
+      <c r="VN33" s="25"/>
+      <c r="VO33" s="25"/>
+      <c r="VP33" s="25"/>
+      <c r="VQ33" s="25"/>
+      <c r="VR33" s="25"/>
+      <c r="VS33" s="25"/>
+      <c r="VT33" s="25"/>
+      <c r="VU33" s="25"/>
+      <c r="VV33" s="25"/>
+      <c r="VW33" s="25"/>
+      <c r="VX33" s="25"/>
+      <c r="VY33" s="25"/>
+      <c r="VZ33" s="25"/>
+      <c r="WA33" s="25"/>
+      <c r="WB33" s="25"/>
+      <c r="WC33" s="25"/>
+      <c r="WD33" s="25"/>
+      <c r="WE33" s="25"/>
+      <c r="WF33" s="25"/>
+      <c r="WG33" s="25"/>
+      <c r="WH33" s="25"/>
+      <c r="WI33" s="25"/>
+      <c r="WJ33" s="25"/>
+      <c r="WK33" s="25"/>
+      <c r="WL33" s="25"/>
+      <c r="WM33" s="25"/>
+      <c r="WN33" s="25"/>
+      <c r="WO33" s="25"/>
+      <c r="WP33" s="25"/>
+      <c r="WQ33" s="25"/>
+      <c r="WR33" s="25"/>
+      <c r="WS33" s="25"/>
+      <c r="WT33" s="25"/>
+      <c r="WU33" s="25"/>
+      <c r="WV33" s="25"/>
+      <c r="WW33" s="25"/>
+      <c r="WX33" s="25"/>
+      <c r="WY33" s="25"/>
+      <c r="WZ33" s="25"/>
+      <c r="XA33" s="25"/>
+      <c r="XB33" s="25"/>
+      <c r="XC33" s="25"/>
+      <c r="XD33" s="25"/>
+      <c r="XE33" s="25"/>
+      <c r="XF33" s="25"/>
+      <c r="XG33" s="25"/>
+      <c r="XH33" s="25"/>
+      <c r="XI33" s="25"/>
+      <c r="XJ33" s="25"/>
+      <c r="XK33" s="25"/>
+      <c r="XL33" s="25"/>
+      <c r="XM33" s="25"/>
+      <c r="XN33" s="25"/>
+      <c r="XO33" s="25"/>
+      <c r="XP33" s="25"/>
+      <c r="XQ33" s="25"/>
+      <c r="XR33" s="25"/>
+      <c r="XS33" s="25"/>
+      <c r="XT33" s="25"/>
+      <c r="XU33" s="25"/>
+      <c r="XV33" s="25"/>
+      <c r="XW33" s="25"/>
+      <c r="XX33" s="25"/>
+      <c r="XY33" s="25"/>
+      <c r="XZ33" s="25"/>
+      <c r="YA33" s="25"/>
+      <c r="YB33" s="25"/>
+      <c r="YC33" s="25"/>
+      <c r="YD33" s="25"/>
+      <c r="YE33" s="25"/>
+      <c r="YF33" s="25"/>
+      <c r="YG33" s="25"/>
+      <c r="YH33" s="25"/>
+      <c r="YI33" s="25"/>
+      <c r="YJ33" s="25"/>
+      <c r="YK33" s="25"/>
+      <c r="YL33" s="25"/>
+      <c r="YM33" s="25"/>
+      <c r="YN33" s="25"/>
+      <c r="YO33" s="25"/>
+      <c r="YP33" s="25"/>
+      <c r="YQ33" s="25"/>
+      <c r="YR33" s="25"/>
+      <c r="YS33" s="25"/>
+      <c r="YT33" s="25"/>
+      <c r="YU33" s="25"/>
+      <c r="YV33" s="25"/>
+      <c r="YW33" s="25"/>
+      <c r="YX33" s="25"/>
+      <c r="YY33" s="25"/>
+      <c r="YZ33" s="25"/>
+      <c r="ZA33" s="25"/>
+      <c r="ZB33" s="25"/>
+      <c r="ZC33" s="25"/>
+      <c r="ZD33" s="25"/>
+      <c r="ZE33" s="25"/>
+      <c r="ZF33" s="25"/>
+      <c r="ZG33" s="25"/>
+      <c r="ZH33" s="25"/>
+      <c r="ZI33" s="25"/>
+      <c r="ZJ33" s="25"/>
+      <c r="ZK33" s="25"/>
+      <c r="ZL33" s="25"/>
+      <c r="ZM33" s="25"/>
+      <c r="ZN33" s="25"/>
+      <c r="ZO33" s="25"/>
+      <c r="ZP33" s="25"/>
+      <c r="ZQ33" s="25"/>
+      <c r="ZR33" s="25"/>
+      <c r="ZS33" s="25"/>
+      <c r="ZT33" s="25"/>
+      <c r="ZU33" s="25"/>
+      <c r="ZV33" s="25"/>
+      <c r="ZW33" s="25"/>
+      <c r="ZX33" s="25"/>
+      <c r="ZY33" s="25"/>
+      <c r="ZZ33" s="25"/>
+      <c r="AAA33" s="25"/>
+      <c r="AAB33" s="25"/>
+      <c r="AAC33" s="25"/>
+      <c r="AAD33" s="25"/>
+      <c r="AAE33" s="25"/>
+      <c r="AAF33" s="25"/>
+      <c r="AAG33" s="25"/>
+      <c r="AAH33" s="25"/>
+      <c r="AAI33" s="25"/>
+      <c r="AAJ33" s="25"/>
+      <c r="AAK33" s="25"/>
+      <c r="AAL33" s="25"/>
+      <c r="AAM33" s="25"/>
+      <c r="AAN33" s="25"/>
+      <c r="AAO33" s="25"/>
+      <c r="AAP33" s="25"/>
+      <c r="AAQ33" s="25"/>
+      <c r="AAR33" s="25"/>
+      <c r="AAS33" s="25"/>
+      <c r="AAT33" s="25"/>
+      <c r="AAU33" s="25"/>
+      <c r="AAV33" s="25"/>
+      <c r="AAW33" s="25"/>
+      <c r="AAX33" s="25"/>
+      <c r="AAY33" s="25"/>
+      <c r="AAZ33" s="25"/>
+      <c r="ABA33" s="25"/>
+      <c r="ABB33" s="25"/>
+      <c r="ABC33" s="25"/>
+      <c r="ABD33" s="25"/>
+      <c r="ABE33" s="25"/>
+      <c r="ABF33" s="25"/>
+      <c r="ABG33" s="25"/>
+      <c r="ABH33" s="25"/>
+      <c r="ABI33" s="25"/>
+      <c r="ABJ33" s="25"/>
+      <c r="ABK33" s="25"/>
+      <c r="ABL33" s="25"/>
+      <c r="ABM33" s="25"/>
+      <c r="ABN33" s="25"/>
+      <c r="ABO33" s="25"/>
+      <c r="ABP33" s="25"/>
+      <c r="ABQ33" s="25"/>
+      <c r="ABR33" s="25"/>
+      <c r="ABS33" s="25"/>
+      <c r="ABT33" s="25"/>
+      <c r="ABU33" s="25"/>
+      <c r="ABV33" s="25"/>
+      <c r="ABW33" s="25"/>
+      <c r="ABX33" s="25"/>
+      <c r="ABY33" s="25"/>
+      <c r="ABZ33" s="25"/>
+      <c r="ACA33" s="25"/>
+      <c r="ACB33" s="25"/>
+      <c r="ACC33" s="25"/>
+      <c r="ACD33" s="25"/>
+      <c r="ACE33" s="25"/>
+      <c r="ACF33" s="25"/>
+      <c r="ACG33" s="25"/>
+      <c r="ACH33" s="25"/>
+      <c r="ACI33" s="25"/>
+      <c r="ACJ33" s="25"/>
+      <c r="ACK33" s="25"/>
+      <c r="ACL33" s="25"/>
+      <c r="ACM33" s="25"/>
+      <c r="ACN33" s="25"/>
+      <c r="ACO33" s="25"/>
+      <c r="ACP33" s="25"/>
+      <c r="ACQ33" s="25"/>
+      <c r="ACR33" s="25"/>
+      <c r="ACS33" s="25"/>
+      <c r="ACT33" s="25"/>
+      <c r="ACU33" s="25"/>
+      <c r="ACV33" s="25"/>
+      <c r="ACW33" s="25"/>
+      <c r="ACX33" s="25"/>
+      <c r="ACY33" s="25"/>
+      <c r="ACZ33" s="25"/>
+      <c r="ADA33" s="25"/>
+      <c r="ADB33" s="25"/>
+      <c r="ADC33" s="25"/>
+      <c r="ADD33" s="25"/>
+      <c r="ADE33" s="25"/>
+      <c r="ADF33" s="25"/>
+      <c r="ADG33" s="25"/>
+      <c r="ADH33" s="25"/>
+      <c r="ADI33" s="25"/>
+      <c r="ADJ33" s="25"/>
+      <c r="ADK33" s="25"/>
+      <c r="ADL33" s="25"/>
+      <c r="ADM33" s="25"/>
+      <c r="ADN33" s="25"/>
+      <c r="ADO33" s="25"/>
+      <c r="ADP33" s="25"/>
+      <c r="ADQ33" s="25"/>
+      <c r="ADR33" s="25"/>
+      <c r="ADS33" s="25"/>
+      <c r="ADT33" s="25"/>
+      <c r="ADU33" s="25"/>
+      <c r="ADV33" s="25"/>
+      <c r="ADW33" s="25"/>
+      <c r="ADX33" s="25"/>
+      <c r="ADY33" s="25"/>
+      <c r="ADZ33" s="25"/>
+      <c r="AEA33" s="25"/>
+      <c r="AEB33" s="25"/>
+      <c r="AEC33" s="25"/>
+      <c r="AED33" s="25"/>
+      <c r="AEE33" s="25"/>
+      <c r="AEF33" s="25"/>
+      <c r="AEG33" s="25"/>
+      <c r="AEH33" s="25"/>
+      <c r="AEI33" s="25"/>
+      <c r="AEJ33" s="25"/>
+      <c r="AEK33" s="25"/>
+      <c r="AEL33" s="25"/>
+      <c r="AEM33" s="25"/>
+      <c r="AEN33" s="25"/>
+      <c r="AEO33" s="25"/>
+      <c r="AEP33" s="25"/>
+      <c r="AEQ33" s="25"/>
+      <c r="AER33" s="25"/>
+      <c r="AES33" s="25"/>
+      <c r="AET33" s="25"/>
+      <c r="AEU33" s="25"/>
+      <c r="AEV33" s="25"/>
+      <c r="AEW33" s="25"/>
+      <c r="AEX33" s="25"/>
+      <c r="AEY33" s="25"/>
+      <c r="AEZ33" s="25"/>
+      <c r="AFA33" s="25"/>
+      <c r="AFB33" s="25"/>
+      <c r="AFC33" s="25"/>
+      <c r="AFD33" s="25"/>
+      <c r="AFE33" s="25"/>
+      <c r="AFF33" s="25"/>
+      <c r="AFG33" s="25"/>
+      <c r="AFH33" s="25"/>
+      <c r="AFI33" s="25"/>
+      <c r="AFJ33" s="25"/>
+      <c r="AFK33" s="25"/>
+      <c r="AFL33" s="25"/>
+      <c r="AFM33" s="25"/>
+      <c r="AFN33" s="25"/>
+      <c r="AFO33" s="25"/>
+      <c r="AFP33" s="25"/>
+      <c r="AFQ33" s="25"/>
+      <c r="AFR33" s="25"/>
+      <c r="AFS33" s="25"/>
+      <c r="AFT33" s="25"/>
+      <c r="AFU33" s="25"/>
+      <c r="AFV33" s="25"/>
+      <c r="AFW33" s="25"/>
+      <c r="AFX33" s="25"/>
+      <c r="AFY33" s="25"/>
+      <c r="AFZ33" s="25"/>
+      <c r="AGA33" s="25"/>
+      <c r="AGB33" s="25"/>
+      <c r="AGC33" s="25"/>
+      <c r="AGD33" s="25"/>
+      <c r="AGE33" s="25"/>
+      <c r="AGF33" s="25"/>
+      <c r="AGG33" s="25"/>
+      <c r="AGH33" s="25"/>
+      <c r="AGI33" s="25"/>
+      <c r="AGJ33" s="25"/>
+      <c r="AGK33" s="25"/>
+      <c r="AGL33" s="25"/>
+      <c r="AGM33" s="25"/>
+      <c r="AGN33" s="25"/>
+      <c r="AGO33" s="25"/>
+      <c r="AGP33" s="25"/>
+      <c r="AGQ33" s="25"/>
+      <c r="AGR33" s="25"/>
+      <c r="AGS33" s="25"/>
+      <c r="AGT33" s="25"/>
+      <c r="AGU33" s="25"/>
+      <c r="AGV33" s="25"/>
+      <c r="AGW33" s="25"/>
+      <c r="AGX33" s="25"/>
+      <c r="AGY33" s="25"/>
+      <c r="AGZ33" s="25"/>
+      <c r="AHA33" s="25"/>
+      <c r="AHB33" s="25"/>
+      <c r="AHC33" s="25"/>
+      <c r="AHD33" s="25"/>
+      <c r="AHE33" s="25"/>
+      <c r="AHF33" s="25"/>
+      <c r="AHG33" s="25"/>
+      <c r="AHH33" s="25"/>
+      <c r="AHI33" s="25"/>
+      <c r="AHJ33" s="25"/>
+      <c r="AHK33" s="25"/>
+      <c r="AHL33" s="25"/>
+      <c r="AHM33" s="25"/>
+      <c r="AHN33" s="25"/>
+      <c r="AHO33" s="25"/>
+      <c r="AHP33" s="25"/>
+      <c r="AHQ33" s="25"/>
+      <c r="AHR33" s="25"/>
+      <c r="AHS33" s="25"/>
+      <c r="AHT33" s="25"/>
+      <c r="AHU33" s="25"/>
+      <c r="AHV33" s="25"/>
+      <c r="AHW33" s="25"/>
+      <c r="AHX33" s="25"/>
+      <c r="AHY33" s="25"/>
+      <c r="AHZ33" s="25"/>
+      <c r="AIA33" s="25"/>
+      <c r="AIB33" s="25"/>
+      <c r="AIC33" s="25"/>
+      <c r="AID33" s="25"/>
+      <c r="AIE33" s="25"/>
+      <c r="AIF33" s="25"/>
+      <c r="AIG33" s="25"/>
+      <c r="AIH33" s="25"/>
+      <c r="AII33" s="25"/>
+      <c r="AIJ33" s="25"/>
+      <c r="AIK33" s="25"/>
+      <c r="AIL33" s="25"/>
+      <c r="AIM33" s="25"/>
+      <c r="AIN33" s="25"/>
+      <c r="AIO33" s="25"/>
+      <c r="AIP33" s="25"/>
+      <c r="AIQ33" s="25"/>
+      <c r="AIR33" s="25"/>
+      <c r="AIS33" s="25"/>
+      <c r="AIT33" s="25"/>
+      <c r="AIU33" s="25"/>
+      <c r="AIV33" s="25"/>
+      <c r="AIW33" s="25"/>
+      <c r="AIX33" s="25"/>
+      <c r="AIY33" s="25"/>
+      <c r="AIZ33" s="25"/>
+      <c r="AJA33" s="25"/>
+      <c r="AJB33" s="25"/>
+      <c r="AJC33" s="25"/>
+      <c r="AJD33" s="25"/>
+      <c r="AJE33" s="25"/>
+      <c r="AJF33" s="25"/>
+      <c r="AJG33" s="25"/>
+      <c r="AJH33" s="25"/>
+      <c r="AJI33" s="25"/>
+      <c r="AJJ33" s="25"/>
+      <c r="AJK33" s="25"/>
+      <c r="AJL33" s="25"/>
+      <c r="AJM33" s="25"/>
+      <c r="AJN33" s="25"/>
+      <c r="AJO33" s="25"/>
+      <c r="AJP33" s="25"/>
+      <c r="AJQ33" s="25"/>
+      <c r="AJR33" s="25"/>
+      <c r="AJS33" s="25"/>
+      <c r="AJT33" s="25"/>
+      <c r="AJU33" s="25"/>
+      <c r="AJV33" s="25"/>
+      <c r="AJW33" s="25"/>
+      <c r="AJX33" s="25"/>
+      <c r="AJY33" s="25"/>
+      <c r="AJZ33" s="25"/>
+      <c r="AKA33" s="25"/>
+      <c r="AKB33" s="25"/>
+      <c r="AKC33" s="25"/>
+      <c r="AKD33" s="25"/>
+      <c r="AKE33" s="25"/>
+      <c r="AKF33" s="25"/>
+      <c r="AKG33" s="25"/>
+      <c r="AKH33" s="25"/>
+      <c r="AKI33" s="25"/>
+      <c r="AKJ33" s="25"/>
+      <c r="AKK33" s="25"/>
+      <c r="AKL33" s="25"/>
+      <c r="AKM33" s="25"/>
+      <c r="AKN33" s="25"/>
+      <c r="AKO33" s="25"/>
+      <c r="AKP33" s="25"/>
+      <c r="AKQ33" s="25"/>
+      <c r="AKR33" s="25"/>
+      <c r="AKS33" s="25"/>
+      <c r="AKT33" s="25"/>
+      <c r="AKU33" s="25"/>
+      <c r="AKV33" s="25"/>
+      <c r="AKW33" s="25"/>
+      <c r="AKX33" s="25"/>
+      <c r="AKY33" s="25"/>
+      <c r="AKZ33" s="25"/>
+      <c r="ALA33" s="25"/>
+      <c r="ALB33" s="25"/>
+      <c r="ALC33" s="25"/>
+      <c r="ALD33" s="25"/>
+      <c r="ALE33" s="25"/>
+      <c r="ALF33" s="25"/>
+      <c r="ALG33" s="25"/>
+      <c r="ALH33" s="25"/>
+      <c r="ALI33" s="25"/>
+      <c r="ALJ33" s="25"/>
+      <c r="ALK33" s="25"/>
+      <c r="ALL33" s="25"/>
+      <c r="ALM33" s="25"/>
+      <c r="ALN33" s="25"/>
+      <c r="ALO33" s="25"/>
+      <c r="ALP33" s="25"/>
+      <c r="ALQ33" s="25"/>
+      <c r="ALR33" s="25"/>
+      <c r="ALS33" s="25"/>
+      <c r="ALT33" s="25"/>
+      <c r="ALU33" s="25"/>
+      <c r="ALV33" s="25"/>
+      <c r="ALW33" s="25"/>
+      <c r="ALX33" s="25"/>
+      <c r="ALY33" s="25"/>
+      <c r="ALZ33" s="25"/>
+      <c r="AMA33" s="25"/>
+      <c r="AMB33" s="25"/>
+      <c r="AMC33" s="25"/>
+      <c r="AMD33" s="25"/>
+      <c r="AME33" s="25"/>
+      <c r="AMF33" s="25"/>
+      <c r="AMG33" s="25"/>
+      <c r="AMH33" s="25"/>
+      <c r="AMI33" s="25"/>
+      <c r="AMJ33" s="25"/>
+    </row>
+    <row r="34" spans="1:1024" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="17">
+        <v>500.76600000000002</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="17">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="L34" s="17">
+        <v>500.86599999999999</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="25"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="25"/>
+      <c r="BE34" s="25"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="25"/>
+      <c r="BL34" s="25"/>
+      <c r="BM34" s="25"/>
+      <c r="BN34" s="25"/>
+      <c r="BO34" s="25"/>
+      <c r="BP34" s="25"/>
+      <c r="BQ34" s="25"/>
+      <c r="BR34" s="25"/>
+      <c r="BS34" s="25"/>
+      <c r="BT34" s="25"/>
+      <c r="BU34" s="25"/>
+      <c r="BV34" s="25"/>
+      <c r="BW34" s="25"/>
+      <c r="BX34" s="25"/>
+      <c r="BY34" s="25"/>
+      <c r="BZ34" s="25"/>
+      <c r="CA34" s="25"/>
+      <c r="CB34" s="25"/>
+      <c r="CC34" s="25"/>
+      <c r="CD34" s="25"/>
+      <c r="CE34" s="25"/>
+      <c r="CF34" s="25"/>
+      <c r="CG34" s="25"/>
+      <c r="CH34" s="25"/>
+      <c r="CI34" s="25"/>
+      <c r="CJ34" s="25"/>
+      <c r="CK34" s="25"/>
+      <c r="CL34" s="25"/>
+      <c r="CM34" s="25"/>
+      <c r="CN34" s="25"/>
+      <c r="CO34" s="25"/>
+      <c r="CP34" s="25"/>
+      <c r="CQ34" s="25"/>
+      <c r="CR34" s="25"/>
+      <c r="CS34" s="25"/>
+      <c r="CT34" s="25"/>
+      <c r="CU34" s="25"/>
+      <c r="CV34" s="25"/>
+      <c r="CW34" s="25"/>
+      <c r="CX34" s="25"/>
+      <c r="CY34" s="25"/>
+      <c r="CZ34" s="25"/>
+      <c r="DA34" s="25"/>
+      <c r="DB34" s="25"/>
+      <c r="DC34" s="25"/>
+      <c r="DD34" s="25"/>
+      <c r="DE34" s="25"/>
+      <c r="DF34" s="25"/>
+      <c r="DG34" s="25"/>
+      <c r="DH34" s="25"/>
+      <c r="DI34" s="25"/>
+      <c r="DJ34" s="25"/>
+      <c r="DK34" s="25"/>
+      <c r="DL34" s="25"/>
+      <c r="DM34" s="25"/>
+      <c r="DN34" s="25"/>
+      <c r="DO34" s="25"/>
+      <c r="DP34" s="25"/>
+      <c r="DQ34" s="25"/>
+      <c r="DR34" s="25"/>
+      <c r="DS34" s="25"/>
+      <c r="DT34" s="25"/>
+      <c r="DU34" s="25"/>
+      <c r="DV34" s="25"/>
+      <c r="DW34" s="25"/>
+      <c r="DX34" s="25"/>
+      <c r="DY34" s="25"/>
+      <c r="DZ34" s="25"/>
+      <c r="EA34" s="25"/>
+      <c r="EB34" s="25"/>
+      <c r="EC34" s="25"/>
+      <c r="ED34" s="25"/>
+      <c r="EE34" s="25"/>
+      <c r="EF34" s="25"/>
+      <c r="EG34" s="25"/>
+      <c r="EH34" s="25"/>
+      <c r="EI34" s="25"/>
+      <c r="EJ34" s="25"/>
+      <c r="EK34" s="25"/>
+      <c r="EL34" s="25"/>
+      <c r="EM34" s="25"/>
+      <c r="EN34" s="25"/>
+      <c r="EO34" s="25"/>
+      <c r="EP34" s="25"/>
+      <c r="EQ34" s="25"/>
+      <c r="ER34" s="25"/>
+      <c r="ES34" s="25"/>
+      <c r="ET34" s="25"/>
+      <c r="EU34" s="25"/>
+      <c r="EV34" s="25"/>
+      <c r="EW34" s="25"/>
+      <c r="EX34" s="25"/>
+      <c r="EY34" s="25"/>
+      <c r="EZ34" s="25"/>
+      <c r="FA34" s="25"/>
+      <c r="FB34" s="25"/>
+      <c r="FC34" s="25"/>
+      <c r="FD34" s="25"/>
+      <c r="FE34" s="25"/>
+      <c r="FF34" s="25"/>
+      <c r="FG34" s="25"/>
+      <c r="FH34" s="25"/>
+      <c r="FI34" s="25"/>
+      <c r="FJ34" s="25"/>
+      <c r="FK34" s="25"/>
+      <c r="FL34" s="25"/>
+      <c r="FM34" s="25"/>
+      <c r="FN34" s="25"/>
+      <c r="FO34" s="25"/>
+      <c r="FP34" s="25"/>
+      <c r="FQ34" s="25"/>
+      <c r="FR34" s="25"/>
+      <c r="FS34" s="25"/>
+      <c r="FT34" s="25"/>
+      <c r="FU34" s="25"/>
+      <c r="FV34" s="25"/>
+      <c r="FW34" s="25"/>
+      <c r="FX34" s="25"/>
+      <c r="FY34" s="25"/>
+      <c r="FZ34" s="25"/>
+      <c r="GA34" s="25"/>
+      <c r="GB34" s="25"/>
+      <c r="GC34" s="25"/>
+      <c r="GD34" s="25"/>
+      <c r="GE34" s="25"/>
+      <c r="GF34" s="25"/>
+      <c r="GG34" s="25"/>
+      <c r="GH34" s="25"/>
+      <c r="GI34" s="25"/>
+      <c r="GJ34" s="25"/>
+      <c r="GK34" s="25"/>
+      <c r="GL34" s="25"/>
+      <c r="GM34" s="25"/>
+      <c r="GN34" s="25"/>
+      <c r="GO34" s="25"/>
+      <c r="GP34" s="25"/>
+      <c r="GQ34" s="25"/>
+      <c r="GR34" s="25"/>
+      <c r="GS34" s="25"/>
+      <c r="GT34" s="25"/>
+      <c r="GU34" s="25"/>
+      <c r="GV34" s="25"/>
+      <c r="GW34" s="25"/>
+      <c r="GX34" s="25"/>
+      <c r="GY34" s="25"/>
+      <c r="GZ34" s="25"/>
+      <c r="HA34" s="25"/>
+      <c r="HB34" s="25"/>
+      <c r="HC34" s="25"/>
+      <c r="HD34" s="25"/>
+      <c r="HE34" s="25"/>
+      <c r="HF34" s="25"/>
+      <c r="HG34" s="25"/>
+      <c r="HH34" s="25"/>
+      <c r="HI34" s="25"/>
+      <c r="HJ34" s="25"/>
+      <c r="HK34" s="25"/>
+      <c r="HL34" s="25"/>
+      <c r="HM34" s="25"/>
+      <c r="HN34" s="25"/>
+      <c r="HO34" s="25"/>
+      <c r="HP34" s="25"/>
+      <c r="HQ34" s="25"/>
+      <c r="HR34" s="25"/>
+      <c r="HS34" s="25"/>
+      <c r="HT34" s="25"/>
+      <c r="HU34" s="25"/>
+      <c r="HV34" s="25"/>
+      <c r="HW34" s="25"/>
+      <c r="HX34" s="25"/>
+      <c r="HY34" s="25"/>
+      <c r="HZ34" s="25"/>
+      <c r="IA34" s="25"/>
+      <c r="IB34" s="25"/>
+      <c r="IC34" s="25"/>
+      <c r="ID34" s="25"/>
+      <c r="IE34" s="25"/>
+      <c r="IF34" s="25"/>
+      <c r="IG34" s="25"/>
+      <c r="IH34" s="25"/>
+      <c r="II34" s="25"/>
+      <c r="IJ34" s="25"/>
+      <c r="IK34" s="25"/>
+      <c r="IL34" s="25"/>
+      <c r="IM34" s="25"/>
+      <c r="IN34" s="25"/>
+      <c r="IO34" s="25"/>
+      <c r="IP34" s="25"/>
+      <c r="IQ34" s="25"/>
+      <c r="IR34" s="25"/>
+      <c r="IS34" s="25"/>
+      <c r="IT34" s="25"/>
+      <c r="IU34" s="25"/>
+      <c r="IV34" s="25"/>
+      <c r="IW34" s="25"/>
+      <c r="IX34" s="25"/>
+      <c r="IY34" s="25"/>
+      <c r="IZ34" s="25"/>
+      <c r="JA34" s="25"/>
+      <c r="JB34" s="25"/>
+      <c r="JC34" s="25"/>
+      <c r="JD34" s="25"/>
+      <c r="JE34" s="25"/>
+      <c r="JF34" s="25"/>
+      <c r="JG34" s="25"/>
+      <c r="JH34" s="25"/>
+      <c r="JI34" s="25"/>
+      <c r="JJ34" s="25"/>
+      <c r="JK34" s="25"/>
+      <c r="JL34" s="25"/>
+      <c r="JM34" s="25"/>
+      <c r="JN34" s="25"/>
+      <c r="JO34" s="25"/>
+      <c r="JP34" s="25"/>
+      <c r="JQ34" s="25"/>
+      <c r="JR34" s="25"/>
+      <c r="JS34" s="25"/>
+      <c r="JT34" s="25"/>
+      <c r="JU34" s="25"/>
+      <c r="JV34" s="25"/>
+      <c r="JW34" s="25"/>
+      <c r="JX34" s="25"/>
+      <c r="JY34" s="25"/>
+      <c r="JZ34" s="25"/>
+      <c r="KA34" s="25"/>
+      <c r="KB34" s="25"/>
+      <c r="KC34" s="25"/>
+      <c r="KD34" s="25"/>
+      <c r="KE34" s="25"/>
+      <c r="KF34" s="25"/>
+      <c r="KG34" s="25"/>
+      <c r="KH34" s="25"/>
+      <c r="KI34" s="25"/>
+      <c r="KJ34" s="25"/>
+      <c r="KK34" s="25"/>
+      <c r="KL34" s="25"/>
+      <c r="KM34" s="25"/>
+      <c r="KN34" s="25"/>
+      <c r="KO34" s="25"/>
+      <c r="KP34" s="25"/>
+      <c r="KQ34" s="25"/>
+      <c r="KR34" s="25"/>
+      <c r="KS34" s="25"/>
+      <c r="KT34" s="25"/>
+      <c r="KU34" s="25"/>
+      <c r="KV34" s="25"/>
+      <c r="KW34" s="25"/>
+      <c r="KX34" s="25"/>
+      <c r="KY34" s="25"/>
+      <c r="KZ34" s="25"/>
+      <c r="LA34" s="25"/>
+      <c r="LB34" s="25"/>
+      <c r="LC34" s="25"/>
+      <c r="LD34" s="25"/>
+      <c r="LE34" s="25"/>
+      <c r="LF34" s="25"/>
+      <c r="LG34" s="25"/>
+      <c r="LH34" s="25"/>
+      <c r="LI34" s="25"/>
+      <c r="LJ34" s="25"/>
+      <c r="LK34" s="25"/>
+      <c r="LL34" s="25"/>
+      <c r="LM34" s="25"/>
+      <c r="LN34" s="25"/>
+      <c r="LO34" s="25"/>
+      <c r="LP34" s="25"/>
+      <c r="LQ34" s="25"/>
+      <c r="LR34" s="25"/>
+      <c r="LS34" s="25"/>
+      <c r="LT34" s="25"/>
+      <c r="LU34" s="25"/>
+      <c r="LV34" s="25"/>
+      <c r="LW34" s="25"/>
+      <c r="LX34" s="25"/>
+      <c r="LY34" s="25"/>
+      <c r="LZ34" s="25"/>
+      <c r="MA34" s="25"/>
+      <c r="MB34" s="25"/>
+      <c r="MC34" s="25"/>
+      <c r="MD34" s="25"/>
+      <c r="ME34" s="25"/>
+      <c r="MF34" s="25"/>
+      <c r="MG34" s="25"/>
+      <c r="MH34" s="25"/>
+      <c r="MI34" s="25"/>
+      <c r="MJ34" s="25"/>
+      <c r="MK34" s="25"/>
+      <c r="ML34" s="25"/>
+      <c r="MM34" s="25"/>
+      <c r="MN34" s="25"/>
+      <c r="MO34" s="25"/>
+      <c r="MP34" s="25"/>
+      <c r="MQ34" s="25"/>
+      <c r="MR34" s="25"/>
+      <c r="MS34" s="25"/>
+      <c r="MT34" s="25"/>
+      <c r="MU34" s="25"/>
+      <c r="MV34" s="25"/>
+      <c r="MW34" s="25"/>
+      <c r="MX34" s="25"/>
+      <c r="MY34" s="25"/>
+      <c r="MZ34" s="25"/>
+      <c r="NA34" s="25"/>
+      <c r="NB34" s="25"/>
+      <c r="NC34" s="25"/>
+      <c r="ND34" s="25"/>
+      <c r="NE34" s="25"/>
+      <c r="NF34" s="25"/>
+      <c r="NG34" s="25"/>
+      <c r="NH34" s="25"/>
+      <c r="NI34" s="25"/>
+      <c r="NJ34" s="25"/>
+      <c r="NK34" s="25"/>
+      <c r="NL34" s="25"/>
+      <c r="NM34" s="25"/>
+      <c r="NN34" s="25"/>
+      <c r="NO34" s="25"/>
+      <c r="NP34" s="25"/>
+      <c r="NQ34" s="25"/>
+      <c r="NR34" s="25"/>
+      <c r="NS34" s="25"/>
+      <c r="NT34" s="25"/>
+      <c r="NU34" s="25"/>
+      <c r="NV34" s="25"/>
+      <c r="NW34" s="25"/>
+      <c r="NX34" s="25"/>
+      <c r="NY34" s="25"/>
+      <c r="NZ34" s="25"/>
+      <c r="OA34" s="25"/>
+      <c r="OB34" s="25"/>
+      <c r="OC34" s="25"/>
+      <c r="OD34" s="25"/>
+      <c r="OE34" s="25"/>
+      <c r="OF34" s="25"/>
+      <c r="OG34" s="25"/>
+      <c r="OH34" s="25"/>
+      <c r="OI34" s="25"/>
+      <c r="OJ34" s="25"/>
+      <c r="OK34" s="25"/>
+      <c r="OL34" s="25"/>
+      <c r="OM34" s="25"/>
+      <c r="ON34" s="25"/>
+      <c r="OO34" s="25"/>
+      <c r="OP34" s="25"/>
+      <c r="OQ34" s="25"/>
+      <c r="OR34" s="25"/>
+      <c r="OS34" s="25"/>
+      <c r="OT34" s="25"/>
+      <c r="OU34" s="25"/>
+      <c r="OV34" s="25"/>
+      <c r="OW34" s="25"/>
+      <c r="OX34" s="25"/>
+      <c r="OY34" s="25"/>
+      <c r="OZ34" s="25"/>
+      <c r="PA34" s="25"/>
+      <c r="PB34" s="25"/>
+      <c r="PC34" s="25"/>
+      <c r="PD34" s="25"/>
+      <c r="PE34" s="25"/>
+      <c r="PF34" s="25"/>
+      <c r="PG34" s="25"/>
+      <c r="PH34" s="25"/>
+      <c r="PI34" s="25"/>
+      <c r="PJ34" s="25"/>
+      <c r="PK34" s="25"/>
+      <c r="PL34" s="25"/>
+      <c r="PM34" s="25"/>
+      <c r="PN34" s="25"/>
+      <c r="PO34" s="25"/>
+      <c r="PP34" s="25"/>
+      <c r="PQ34" s="25"/>
+      <c r="PR34" s="25"/>
+      <c r="PS34" s="25"/>
+      <c r="PT34" s="25"/>
+      <c r="PU34" s="25"/>
+      <c r="PV34" s="25"/>
+      <c r="PW34" s="25"/>
+      <c r="PX34" s="25"/>
+      <c r="PY34" s="25"/>
+      <c r="PZ34" s="25"/>
+      <c r="QA34" s="25"/>
+      <c r="QB34" s="25"/>
+      <c r="QC34" s="25"/>
+      <c r="QD34" s="25"/>
+      <c r="QE34" s="25"/>
+      <c r="QF34" s="25"/>
+      <c r="QG34" s="25"/>
+      <c r="QH34" s="25"/>
+      <c r="QI34" s="25"/>
+      <c r="QJ34" s="25"/>
+      <c r="QK34" s="25"/>
+      <c r="QL34" s="25"/>
+      <c r="QM34" s="25"/>
+      <c r="QN34" s="25"/>
+      <c r="QO34" s="25"/>
+      <c r="QP34" s="25"/>
+      <c r="QQ34" s="25"/>
+      <c r="QR34" s="25"/>
+      <c r="QS34" s="25"/>
+      <c r="QT34" s="25"/>
+      <c r="QU34" s="25"/>
+      <c r="QV34" s="25"/>
+      <c r="QW34" s="25"/>
+      <c r="QX34" s="25"/>
+      <c r="QY34" s="25"/>
+      <c r="QZ34" s="25"/>
+      <c r="RA34" s="25"/>
+      <c r="RB34" s="25"/>
+      <c r="RC34" s="25"/>
+      <c r="RD34" s="25"/>
+      <c r="RE34" s="25"/>
+      <c r="RF34" s="25"/>
+      <c r="RG34" s="25"/>
+      <c r="RH34" s="25"/>
+      <c r="RI34" s="25"/>
+      <c r="RJ34" s="25"/>
+      <c r="RK34" s="25"/>
+      <c r="RL34" s="25"/>
+      <c r="RM34" s="25"/>
+      <c r="RN34" s="25"/>
+      <c r="RO34" s="25"/>
+      <c r="RP34" s="25"/>
+      <c r="RQ34" s="25"/>
+      <c r="RR34" s="25"/>
+      <c r="RS34" s="25"/>
+      <c r="RT34" s="25"/>
+      <c r="RU34" s="25"/>
+      <c r="RV34" s="25"/>
+      <c r="RW34" s="25"/>
+      <c r="RX34" s="25"/>
+      <c r="RY34" s="25"/>
+      <c r="RZ34" s="25"/>
+      <c r="SA34" s="25"/>
+      <c r="SB34" s="25"/>
+      <c r="SC34" s="25"/>
+      <c r="SD34" s="25"/>
+      <c r="SE34" s="25"/>
+      <c r="SF34" s="25"/>
+      <c r="SG34" s="25"/>
+      <c r="SH34" s="25"/>
+      <c r="SI34" s="25"/>
+      <c r="SJ34" s="25"/>
+      <c r="SK34" s="25"/>
+      <c r="SL34" s="25"/>
+      <c r="SM34" s="25"/>
+      <c r="SN34" s="25"/>
+      <c r="SO34" s="25"/>
+      <c r="SP34" s="25"/>
+      <c r="SQ34" s="25"/>
+      <c r="SR34" s="25"/>
+      <c r="SS34" s="25"/>
+      <c r="ST34" s="25"/>
+      <c r="SU34" s="25"/>
+      <c r="SV34" s="25"/>
+      <c r="SW34" s="25"/>
+      <c r="SX34" s="25"/>
+      <c r="SY34" s="25"/>
+      <c r="SZ34" s="25"/>
+      <c r="TA34" s="25"/>
+      <c r="TB34" s="25"/>
+      <c r="TC34" s="25"/>
+      <c r="TD34" s="25"/>
+      <c r="TE34" s="25"/>
+      <c r="TF34" s="25"/>
+      <c r="TG34" s="25"/>
+      <c r="TH34" s="25"/>
+      <c r="TI34" s="25"/>
+      <c r="TJ34" s="25"/>
+      <c r="TK34" s="25"/>
+      <c r="TL34" s="25"/>
+      <c r="TM34" s="25"/>
+      <c r="TN34" s="25"/>
+      <c r="TO34" s="25"/>
+      <c r="TP34" s="25"/>
+      <c r="TQ34" s="25"/>
+      <c r="TR34" s="25"/>
+      <c r="TS34" s="25"/>
+      <c r="TT34" s="25"/>
+      <c r="TU34" s="25"/>
+      <c r="TV34" s="25"/>
+      <c r="TW34" s="25"/>
+      <c r="TX34" s="25"/>
+      <c r="TY34" s="25"/>
+      <c r="TZ34" s="25"/>
+      <c r="UA34" s="25"/>
+      <c r="UB34" s="25"/>
+      <c r="UC34" s="25"/>
+      <c r="UD34" s="25"/>
+      <c r="UE34" s="25"/>
+      <c r="UF34" s="25"/>
+      <c r="UG34" s="25"/>
+      <c r="UH34" s="25"/>
+      <c r="UI34" s="25"/>
+      <c r="UJ34" s="25"/>
+      <c r="UK34" s="25"/>
+      <c r="UL34" s="25"/>
+      <c r="UM34" s="25"/>
+      <c r="UN34" s="25"/>
+      <c r="UO34" s="25"/>
+      <c r="UP34" s="25"/>
+      <c r="UQ34" s="25"/>
+      <c r="UR34" s="25"/>
+      <c r="US34" s="25"/>
+      <c r="UT34" s="25"/>
+      <c r="UU34" s="25"/>
+      <c r="UV34" s="25"/>
+      <c r="UW34" s="25"/>
+      <c r="UX34" s="25"/>
+      <c r="UY34" s="25"/>
+      <c r="UZ34" s="25"/>
+      <c r="VA34" s="25"/>
+      <c r="VB34" s="25"/>
+      <c r="VC34" s="25"/>
+      <c r="VD34" s="25"/>
+      <c r="VE34" s="25"/>
+      <c r="VF34" s="25"/>
+      <c r="VG34" s="25"/>
+      <c r="VH34" s="25"/>
+      <c r="VI34" s="25"/>
+      <c r="VJ34" s="25"/>
+      <c r="VK34" s="25"/>
+      <c r="VL34" s="25"/>
+      <c r="VM34" s="25"/>
+      <c r="VN34" s="25"/>
+      <c r="VO34" s="25"/>
+      <c r="VP34" s="25"/>
+      <c r="VQ34" s="25"/>
+      <c r="VR34" s="25"/>
+      <c r="VS34" s="25"/>
+      <c r="VT34" s="25"/>
+      <c r="VU34" s="25"/>
+      <c r="VV34" s="25"/>
+      <c r="VW34" s="25"/>
+      <c r="VX34" s="25"/>
+      <c r="VY34" s="25"/>
+      <c r="VZ34" s="25"/>
+      <c r="WA34" s="25"/>
+      <c r="WB34" s="25"/>
+      <c r="WC34" s="25"/>
+      <c r="WD34" s="25"/>
+      <c r="WE34" s="25"/>
+      <c r="WF34" s="25"/>
+      <c r="WG34" s="25"/>
+      <c r="WH34" s="25"/>
+      <c r="WI34" s="25"/>
+      <c r="WJ34" s="25"/>
+      <c r="WK34" s="25"/>
+      <c r="WL34" s="25"/>
+      <c r="WM34" s="25"/>
+      <c r="WN34" s="25"/>
+      <c r="WO34" s="25"/>
+      <c r="WP34" s="25"/>
+      <c r="WQ34" s="25"/>
+      <c r="WR34" s="25"/>
+      <c r="WS34" s="25"/>
+      <c r="WT34" s="25"/>
+      <c r="WU34" s="25"/>
+      <c r="WV34" s="25"/>
+      <c r="WW34" s="25"/>
+      <c r="WX34" s="25"/>
+      <c r="WY34" s="25"/>
+      <c r="WZ34" s="25"/>
+      <c r="XA34" s="25"/>
+      <c r="XB34" s="25"/>
+      <c r="XC34" s="25"/>
+      <c r="XD34" s="25"/>
+      <c r="XE34" s="25"/>
+      <c r="XF34" s="25"/>
+      <c r="XG34" s="25"/>
+      <c r="XH34" s="25"/>
+      <c r="XI34" s="25"/>
+      <c r="XJ34" s="25"/>
+      <c r="XK34" s="25"/>
+      <c r="XL34" s="25"/>
+      <c r="XM34" s="25"/>
+      <c r="XN34" s="25"/>
+      <c r="XO34" s="25"/>
+      <c r="XP34" s="25"/>
+      <c r="XQ34" s="25"/>
+      <c r="XR34" s="25"/>
+      <c r="XS34" s="25"/>
+      <c r="XT34" s="25"/>
+      <c r="XU34" s="25"/>
+      <c r="XV34" s="25"/>
+      <c r="XW34" s="25"/>
+      <c r="XX34" s="25"/>
+      <c r="XY34" s="25"/>
+      <c r="XZ34" s="25"/>
+      <c r="YA34" s="25"/>
+      <c r="YB34" s="25"/>
+      <c r="YC34" s="25"/>
+      <c r="YD34" s="25"/>
+      <c r="YE34" s="25"/>
+      <c r="YF34" s="25"/>
+      <c r="YG34" s="25"/>
+      <c r="YH34" s="25"/>
+      <c r="YI34" s="25"/>
+      <c r="YJ34" s="25"/>
+      <c r="YK34" s="25"/>
+      <c r="YL34" s="25"/>
+      <c r="YM34" s="25"/>
+      <c r="YN34" s="25"/>
+      <c r="YO34" s="25"/>
+      <c r="YP34" s="25"/>
+      <c r="YQ34" s="25"/>
+      <c r="YR34" s="25"/>
+      <c r="YS34" s="25"/>
+      <c r="YT34" s="25"/>
+      <c r="YU34" s="25"/>
+      <c r="YV34" s="25"/>
+      <c r="YW34" s="25"/>
+      <c r="YX34" s="25"/>
+      <c r="YY34" s="25"/>
+      <c r="YZ34" s="25"/>
+      <c r="ZA34" s="25"/>
+      <c r="ZB34" s="25"/>
+      <c r="ZC34" s="25"/>
+      <c r="ZD34" s="25"/>
+      <c r="ZE34" s="25"/>
+      <c r="ZF34" s="25"/>
+      <c r="ZG34" s="25"/>
+      <c r="ZH34" s="25"/>
+      <c r="ZI34" s="25"/>
+      <c r="ZJ34" s="25"/>
+      <c r="ZK34" s="25"/>
+      <c r="ZL34" s="25"/>
+      <c r="ZM34" s="25"/>
+      <c r="ZN34" s="25"/>
+      <c r="ZO34" s="25"/>
+      <c r="ZP34" s="25"/>
+      <c r="ZQ34" s="25"/>
+      <c r="ZR34" s="25"/>
+      <c r="ZS34" s="25"/>
+      <c r="ZT34" s="25"/>
+      <c r="ZU34" s="25"/>
+      <c r="ZV34" s="25"/>
+      <c r="ZW34" s="25"/>
+      <c r="ZX34" s="25"/>
+      <c r="ZY34" s="25"/>
+      <c r="ZZ34" s="25"/>
+      <c r="AAA34" s="25"/>
+      <c r="AAB34" s="25"/>
+      <c r="AAC34" s="25"/>
+      <c r="AAD34" s="25"/>
+      <c r="AAE34" s="25"/>
+      <c r="AAF34" s="25"/>
+      <c r="AAG34" s="25"/>
+      <c r="AAH34" s="25"/>
+      <c r="AAI34" s="25"/>
+      <c r="AAJ34" s="25"/>
+      <c r="AAK34" s="25"/>
+      <c r="AAL34" s="25"/>
+      <c r="AAM34" s="25"/>
+      <c r="AAN34" s="25"/>
+      <c r="AAO34" s="25"/>
+      <c r="AAP34" s="25"/>
+      <c r="AAQ34" s="25"/>
+      <c r="AAR34" s="25"/>
+      <c r="AAS34" s="25"/>
+      <c r="AAT34" s="25"/>
+      <c r="AAU34" s="25"/>
+      <c r="AAV34" s="25"/>
+      <c r="AAW34" s="25"/>
+      <c r="AAX34" s="25"/>
+      <c r="AAY34" s="25"/>
+      <c r="AAZ34" s="25"/>
+      <c r="ABA34" s="25"/>
+      <c r="ABB34" s="25"/>
+      <c r="ABC34" s="25"/>
+      <c r="ABD34" s="25"/>
+      <c r="ABE34" s="25"/>
+      <c r="ABF34" s="25"/>
+      <c r="ABG34" s="25"/>
+      <c r="ABH34" s="25"/>
+      <c r="ABI34" s="25"/>
+      <c r="ABJ34" s="25"/>
+      <c r="ABK34" s="25"/>
+      <c r="ABL34" s="25"/>
+      <c r="ABM34" s="25"/>
+      <c r="ABN34" s="25"/>
+      <c r="ABO34" s="25"/>
+      <c r="ABP34" s="25"/>
+      <c r="ABQ34" s="25"/>
+      <c r="ABR34" s="25"/>
+      <c r="ABS34" s="25"/>
+      <c r="ABT34" s="25"/>
+      <c r="ABU34" s="25"/>
+      <c r="ABV34" s="25"/>
+      <c r="ABW34" s="25"/>
+      <c r="ABX34" s="25"/>
+      <c r="ABY34" s="25"/>
+      <c r="ABZ34" s="25"/>
+      <c r="ACA34" s="25"/>
+      <c r="ACB34" s="25"/>
+      <c r="ACC34" s="25"/>
+      <c r="ACD34" s="25"/>
+      <c r="ACE34" s="25"/>
+      <c r="ACF34" s="25"/>
+      <c r="ACG34" s="25"/>
+      <c r="ACH34" s="25"/>
+      <c r="ACI34" s="25"/>
+      <c r="ACJ34" s="25"/>
+      <c r="ACK34" s="25"/>
+      <c r="ACL34" s="25"/>
+      <c r="ACM34" s="25"/>
+      <c r="ACN34" s="25"/>
+      <c r="ACO34" s="25"/>
+      <c r="ACP34" s="25"/>
+      <c r="ACQ34" s="25"/>
+      <c r="ACR34" s="25"/>
+      <c r="ACS34" s="25"/>
+      <c r="ACT34" s="25"/>
+      <c r="ACU34" s="25"/>
+      <c r="ACV34" s="25"/>
+      <c r="ACW34" s="25"/>
+      <c r="ACX34" s="25"/>
+      <c r="ACY34" s="25"/>
+      <c r="ACZ34" s="25"/>
+      <c r="ADA34" s="25"/>
+      <c r="ADB34" s="25"/>
+      <c r="ADC34" s="25"/>
+      <c r="ADD34" s="25"/>
+      <c r="ADE34" s="25"/>
+      <c r="ADF34" s="25"/>
+      <c r="ADG34" s="25"/>
+      <c r="ADH34" s="25"/>
+      <c r="ADI34" s="25"/>
+      <c r="ADJ34" s="25"/>
+      <c r="ADK34" s="25"/>
+      <c r="ADL34" s="25"/>
+      <c r="ADM34" s="25"/>
+      <c r="ADN34" s="25"/>
+      <c r="ADO34" s="25"/>
+      <c r="ADP34" s="25"/>
+      <c r="ADQ34" s="25"/>
+      <c r="ADR34" s="25"/>
+      <c r="ADS34" s="25"/>
+      <c r="ADT34" s="25"/>
+      <c r="ADU34" s="25"/>
+      <c r="ADV34" s="25"/>
+      <c r="ADW34" s="25"/>
+      <c r="ADX34" s="25"/>
+      <c r="ADY34" s="25"/>
+      <c r="ADZ34" s="25"/>
+      <c r="AEA34" s="25"/>
+      <c r="AEB34" s="25"/>
+      <c r="AEC34" s="25"/>
+      <c r="AED34" s="25"/>
+      <c r="AEE34" s="25"/>
+      <c r="AEF34" s="25"/>
+      <c r="AEG34" s="25"/>
+      <c r="AEH34" s="25"/>
+      <c r="AEI34" s="25"/>
+      <c r="AEJ34" s="25"/>
+      <c r="AEK34" s="25"/>
+      <c r="AEL34" s="25"/>
+      <c r="AEM34" s="25"/>
+      <c r="AEN34" s="25"/>
+      <c r="AEO34" s="25"/>
+      <c r="AEP34" s="25"/>
+      <c r="AEQ34" s="25"/>
+      <c r="AER34" s="25"/>
+      <c r="AES34" s="25"/>
+      <c r="AET34" s="25"/>
+      <c r="AEU34" s="25"/>
+      <c r="AEV34" s="25"/>
+      <c r="AEW34" s="25"/>
+      <c r="AEX34" s="25"/>
+      <c r="AEY34" s="25"/>
+      <c r="AEZ34" s="25"/>
+      <c r="AFA34" s="25"/>
+      <c r="AFB34" s="25"/>
+      <c r="AFC34" s="25"/>
+      <c r="AFD34" s="25"/>
+      <c r="AFE34" s="25"/>
+      <c r="AFF34" s="25"/>
+      <c r="AFG34" s="25"/>
+      <c r="AFH34" s="25"/>
+      <c r="AFI34" s="25"/>
+      <c r="AFJ34" s="25"/>
+      <c r="AFK34" s="25"/>
+      <c r="AFL34" s="25"/>
+      <c r="AFM34" s="25"/>
+      <c r="AFN34" s="25"/>
+      <c r="AFO34" s="25"/>
+      <c r="AFP34" s="25"/>
+      <c r="AFQ34" s="25"/>
+      <c r="AFR34" s="25"/>
+      <c r="AFS34" s="25"/>
+      <c r="AFT34" s="25"/>
+      <c r="AFU34" s="25"/>
+      <c r="AFV34" s="25"/>
+      <c r="AFW34" s="25"/>
+      <c r="AFX34" s="25"/>
+      <c r="AFY34" s="25"/>
+      <c r="AFZ34" s="25"/>
+      <c r="AGA34" s="25"/>
+      <c r="AGB34" s="25"/>
+      <c r="AGC34" s="25"/>
+      <c r="AGD34" s="25"/>
+      <c r="AGE34" s="25"/>
+      <c r="AGF34" s="25"/>
+      <c r="AGG34" s="25"/>
+      <c r="AGH34" s="25"/>
+      <c r="AGI34" s="25"/>
+      <c r="AGJ34" s="25"/>
+      <c r="AGK34" s="25"/>
+      <c r="AGL34" s="25"/>
+      <c r="AGM34" s="25"/>
+      <c r="AGN34" s="25"/>
+      <c r="AGO34" s="25"/>
+      <c r="AGP34" s="25"/>
+      <c r="AGQ34" s="25"/>
+      <c r="AGR34" s="25"/>
+      <c r="AGS34" s="25"/>
+      <c r="AGT34" s="25"/>
+      <c r="AGU34" s="25"/>
+      <c r="AGV34" s="25"/>
+      <c r="AGW34" s="25"/>
+      <c r="AGX34" s="25"/>
+      <c r="AGY34" s="25"/>
+      <c r="AGZ34" s="25"/>
+      <c r="AHA34" s="25"/>
+      <c r="AHB34" s="25"/>
+      <c r="AHC34" s="25"/>
+      <c r="AHD34" s="25"/>
+      <c r="AHE34" s="25"/>
+      <c r="AHF34" s="25"/>
+      <c r="AHG34" s="25"/>
+      <c r="AHH34" s="25"/>
+      <c r="AHI34" s="25"/>
+      <c r="AHJ34" s="25"/>
+      <c r="AHK34" s="25"/>
+      <c r="AHL34" s="25"/>
+      <c r="AHM34" s="25"/>
+      <c r="AHN34" s="25"/>
+      <c r="AHO34" s="25"/>
+      <c r="AHP34" s="25"/>
+      <c r="AHQ34" s="25"/>
+      <c r="AHR34" s="25"/>
+      <c r="AHS34" s="25"/>
+      <c r="AHT34" s="25"/>
+      <c r="AHU34" s="25"/>
+      <c r="AHV34" s="25"/>
+      <c r="AHW34" s="25"/>
+      <c r="AHX34" s="25"/>
+      <c r="AHY34" s="25"/>
+      <c r="AHZ34" s="25"/>
+      <c r="AIA34" s="25"/>
+      <c r="AIB34" s="25"/>
+      <c r="AIC34" s="25"/>
+      <c r="AID34" s="25"/>
+      <c r="AIE34" s="25"/>
+      <c r="AIF34" s="25"/>
+      <c r="AIG34" s="25"/>
+      <c r="AIH34" s="25"/>
+      <c r="AII34" s="25"/>
+      <c r="AIJ34" s="25"/>
+      <c r="AIK34" s="25"/>
+      <c r="AIL34" s="25"/>
+      <c r="AIM34" s="25"/>
+      <c r="AIN34" s="25"/>
+      <c r="AIO34" s="25"/>
+      <c r="AIP34" s="25"/>
+      <c r="AIQ34" s="25"/>
+      <c r="AIR34" s="25"/>
+      <c r="AIS34" s="25"/>
+      <c r="AIT34" s="25"/>
+      <c r="AIU34" s="25"/>
+      <c r="AIV34" s="25"/>
+      <c r="AIW34" s="25"/>
+      <c r="AIX34" s="25"/>
+      <c r="AIY34" s="25"/>
+      <c r="AIZ34" s="25"/>
+      <c r="AJA34" s="25"/>
+      <c r="AJB34" s="25"/>
+      <c r="AJC34" s="25"/>
+      <c r="AJD34" s="25"/>
+      <c r="AJE34" s="25"/>
+      <c r="AJF34" s="25"/>
+      <c r="AJG34" s="25"/>
+      <c r="AJH34" s="25"/>
+      <c r="AJI34" s="25"/>
+      <c r="AJJ34" s="25"/>
+      <c r="AJK34" s="25"/>
+      <c r="AJL34" s="25"/>
+      <c r="AJM34" s="25"/>
+      <c r="AJN34" s="25"/>
+      <c r="AJO34" s="25"/>
+      <c r="AJP34" s="25"/>
+      <c r="AJQ34" s="25"/>
+      <c r="AJR34" s="25"/>
+      <c r="AJS34" s="25"/>
+      <c r="AJT34" s="25"/>
+      <c r="AJU34" s="25"/>
+      <c r="AJV34" s="25"/>
+      <c r="AJW34" s="25"/>
+      <c r="AJX34" s="25"/>
+      <c r="AJY34" s="25"/>
+      <c r="AJZ34" s="25"/>
+      <c r="AKA34" s="25"/>
+      <c r="AKB34" s="25"/>
+      <c r="AKC34" s="25"/>
+      <c r="AKD34" s="25"/>
+      <c r="AKE34" s="25"/>
+      <c r="AKF34" s="25"/>
+      <c r="AKG34" s="25"/>
+      <c r="AKH34" s="25"/>
+      <c r="AKI34" s="25"/>
+      <c r="AKJ34" s="25"/>
+      <c r="AKK34" s="25"/>
+      <c r="AKL34" s="25"/>
+      <c r="AKM34" s="25"/>
+      <c r="AKN34" s="25"/>
+      <c r="AKO34" s="25"/>
+      <c r="AKP34" s="25"/>
+      <c r="AKQ34" s="25"/>
+      <c r="AKR34" s="25"/>
+      <c r="AKS34" s="25"/>
+      <c r="AKT34" s="25"/>
+      <c r="AKU34" s="25"/>
+      <c r="AKV34" s="25"/>
+      <c r="AKW34" s="25"/>
+      <c r="AKX34" s="25"/>
+      <c r="AKY34" s="25"/>
+      <c r="AKZ34" s="25"/>
+      <c r="ALA34" s="25"/>
+      <c r="ALB34" s="25"/>
+      <c r="ALC34" s="25"/>
+      <c r="ALD34" s="25"/>
+      <c r="ALE34" s="25"/>
+      <c r="ALF34" s="25"/>
+      <c r="ALG34" s="25"/>
+      <c r="ALH34" s="25"/>
+      <c r="ALI34" s="25"/>
+      <c r="ALJ34" s="25"/>
+      <c r="ALK34" s="25"/>
+      <c r="ALL34" s="25"/>
+      <c r="ALM34" s="25"/>
+      <c r="ALN34" s="25"/>
+      <c r="ALO34" s="25"/>
+      <c r="ALP34" s="25"/>
+      <c r="ALQ34" s="25"/>
+      <c r="ALR34" s="25"/>
+      <c r="ALS34" s="25"/>
+      <c r="ALT34" s="25"/>
+      <c r="ALU34" s="25"/>
+      <c r="ALV34" s="25"/>
+      <c r="ALW34" s="25"/>
+      <c r="ALX34" s="25"/>
+      <c r="ALY34" s="25"/>
+      <c r="ALZ34" s="25"/>
+      <c r="AMA34" s="25"/>
+      <c r="AMB34" s="25"/>
+      <c r="AMC34" s="25"/>
+      <c r="AMD34" s="25"/>
+      <c r="AME34" s="25"/>
+      <c r="AMF34" s="25"/>
+      <c r="AMG34" s="25"/>
+      <c r="AMH34" s="25"/>
+      <c r="AMI34" s="25"/>
+      <c r="AMJ34" s="25"/>
+    </row>
+    <row r="35" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="19">
+        <v>100</v>
+      </c>
+      <c r="C35" s="19">
+        <v>10</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="18"/>
+      <c r="BA35" s="18"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="18"/>
+      <c r="BE35" s="18"/>
+      <c r="BF35" s="18"/>
+      <c r="BG35" s="18"/>
+      <c r="BH35" s="18"/>
+      <c r="BI35" s="18"/>
+      <c r="BJ35" s="18"/>
+      <c r="BK35" s="18"/>
+      <c r="BL35" s="18"/>
+      <c r="BM35" s="18"/>
+      <c r="BN35" s="18"/>
+      <c r="BO35" s="18"/>
+      <c r="BP35" s="18"/>
+      <c r="BQ35" s="18"/>
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18"/>
+      <c r="BU35" s="18"/>
+      <c r="BV35" s="18"/>
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="18"/>
+      <c r="BY35" s="18"/>
+      <c r="BZ35" s="18"/>
+      <c r="CA35" s="18"/>
+      <c r="CB35" s="18"/>
+      <c r="CC35" s="18"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="18"/>
+      <c r="CF35" s="18"/>
+      <c r="CG35" s="18"/>
+      <c r="CH35" s="18"/>
+      <c r="CI35" s="18"/>
+      <c r="CJ35" s="18"/>
+      <c r="CK35" s="18"/>
+      <c r="CL35" s="18"/>
+      <c r="CM35" s="18"/>
+      <c r="CN35" s="18"/>
+      <c r="CO35" s="18"/>
+      <c r="CP35" s="18"/>
+      <c r="CQ35" s="18"/>
+      <c r="CR35" s="18"/>
+      <c r="CS35" s="18"/>
+      <c r="CT35" s="18"/>
+      <c r="CU35" s="18"/>
+      <c r="CV35" s="18"/>
+      <c r="CW35" s="18"/>
+      <c r="CX35" s="18"/>
+      <c r="CY35" s="18"/>
+      <c r="CZ35" s="18"/>
+      <c r="DA35" s="18"/>
+      <c r="DB35" s="18"/>
+      <c r="DC35" s="18"/>
+      <c r="DD35" s="18"/>
+      <c r="DE35" s="18"/>
+      <c r="DF35" s="18"/>
+      <c r="DG35" s="18"/>
+      <c r="DH35" s="18"/>
+      <c r="DI35" s="18"/>
+      <c r="DJ35" s="18"/>
+      <c r="DK35" s="18"/>
+      <c r="DL35" s="18"/>
+      <c r="DM35" s="18"/>
+      <c r="DN35" s="18"/>
+      <c r="DO35" s="18"/>
+      <c r="DP35" s="18"/>
+      <c r="DQ35" s="18"/>
+      <c r="DR35" s="18"/>
+      <c r="DS35" s="18"/>
+      <c r="DT35" s="18"/>
+      <c r="DU35" s="18"/>
+      <c r="DV35" s="18"/>
+      <c r="DW35" s="18"/>
+      <c r="DX35" s="18"/>
+      <c r="DY35" s="18"/>
+      <c r="DZ35" s="18"/>
+      <c r="EA35" s="18"/>
+      <c r="EB35" s="18"/>
+      <c r="EC35" s="18"/>
+      <c r="ED35" s="18"/>
+      <c r="EE35" s="18"/>
+      <c r="EF35" s="18"/>
+      <c r="EG35" s="18"/>
+      <c r="EH35" s="18"/>
+      <c r="EI35" s="18"/>
+      <c r="EJ35" s="18"/>
+      <c r="EK35" s="18"/>
+      <c r="EL35" s="18"/>
+      <c r="EM35" s="18"/>
+      <c r="EN35" s="18"/>
+      <c r="EO35" s="18"/>
+      <c r="EP35" s="18"/>
+      <c r="EQ35" s="18"/>
+      <c r="ER35" s="18"/>
+      <c r="ES35" s="18"/>
+      <c r="ET35" s="18"/>
+      <c r="EU35" s="18"/>
+      <c r="EV35" s="18"/>
+      <c r="EW35" s="18"/>
+      <c r="EX35" s="18"/>
+      <c r="EY35" s="18"/>
+      <c r="EZ35" s="18"/>
+      <c r="FA35" s="18"/>
+      <c r="FB35" s="18"/>
+      <c r="FC35" s="18"/>
+      <c r="FD35" s="18"/>
+      <c r="FE35" s="18"/>
+      <c r="FF35" s="18"/>
+      <c r="FG35" s="18"/>
+      <c r="FH35" s="18"/>
+      <c r="FI35" s="18"/>
+      <c r="FJ35" s="18"/>
+      <c r="FK35" s="18"/>
+      <c r="FL35" s="18"/>
+      <c r="FM35" s="18"/>
+      <c r="FN35" s="18"/>
+      <c r="FO35" s="18"/>
+      <c r="FP35" s="18"/>
+      <c r="FQ35" s="18"/>
+      <c r="FR35" s="18"/>
+      <c r="FS35" s="18"/>
+      <c r="FT35" s="18"/>
+      <c r="FU35" s="18"/>
+      <c r="FV35" s="18"/>
+      <c r="FW35" s="18"/>
+      <c r="FX35" s="18"/>
+      <c r="FY35" s="18"/>
+      <c r="FZ35" s="18"/>
+      <c r="GA35" s="18"/>
+      <c r="GB35" s="18"/>
+      <c r="GC35" s="18"/>
+      <c r="GD35" s="18"/>
+      <c r="GE35" s="18"/>
+      <c r="GF35" s="18"/>
+      <c r="GG35" s="18"/>
+      <c r="GH35" s="18"/>
+      <c r="GI35" s="18"/>
+      <c r="GJ35" s="18"/>
+      <c r="GK35" s="18"/>
+      <c r="GL35" s="18"/>
+      <c r="GM35" s="18"/>
+      <c r="GN35" s="18"/>
+      <c r="GO35" s="18"/>
+      <c r="GP35" s="18"/>
+      <c r="GQ35" s="18"/>
+      <c r="GR35" s="18"/>
+      <c r="GS35" s="18"/>
+      <c r="GT35" s="18"/>
+      <c r="GU35" s="18"/>
+      <c r="GV35" s="18"/>
+      <c r="GW35" s="18"/>
+      <c r="GX35" s="18"/>
+      <c r="GY35" s="18"/>
+      <c r="GZ35" s="18"/>
+      <c r="HA35" s="18"/>
+      <c r="HB35" s="18"/>
+      <c r="HC35" s="18"/>
+      <c r="HD35" s="18"/>
+      <c r="HE35" s="18"/>
+      <c r="HF35" s="18"/>
+      <c r="HG35" s="18"/>
+      <c r="HH35" s="18"/>
+      <c r="HI35" s="18"/>
+      <c r="HJ35" s="18"/>
+      <c r="HK35" s="18"/>
+      <c r="HL35" s="18"/>
+      <c r="HM35" s="18"/>
+      <c r="HN35" s="18"/>
+      <c r="HO35" s="18"/>
+      <c r="HP35" s="18"/>
+      <c r="HQ35" s="18"/>
+      <c r="HR35" s="18"/>
+      <c r="HS35" s="18"/>
+      <c r="HT35" s="18"/>
+      <c r="HU35" s="18"/>
+      <c r="HV35" s="18"/>
+      <c r="HW35" s="18"/>
+      <c r="HX35" s="18"/>
+      <c r="HY35" s="18"/>
+      <c r="HZ35" s="18"/>
+      <c r="IA35" s="18"/>
+      <c r="IB35" s="18"/>
+      <c r="IC35" s="18"/>
+      <c r="ID35" s="18"/>
+      <c r="IE35" s="18"/>
+      <c r="IF35" s="18"/>
+      <c r="IG35" s="18"/>
+      <c r="IH35" s="18"/>
+      <c r="II35" s="18"/>
+      <c r="IJ35" s="18"/>
+      <c r="IK35" s="18"/>
+      <c r="IL35" s="18"/>
+      <c r="IM35" s="18"/>
+      <c r="IN35" s="18"/>
+      <c r="IO35" s="18"/>
+      <c r="IP35" s="18"/>
+      <c r="IQ35" s="18"/>
+      <c r="IR35" s="18"/>
+      <c r="IS35" s="18"/>
+      <c r="IT35" s="18"/>
+      <c r="IU35" s="18"/>
+      <c r="IV35" s="18"/>
+      <c r="IW35" s="18"/>
+      <c r="IX35" s="18"/>
+      <c r="IY35" s="18"/>
+      <c r="IZ35" s="18"/>
+      <c r="JA35" s="18"/>
+      <c r="JB35" s="18"/>
+      <c r="JC35" s="18"/>
+      <c r="JD35" s="18"/>
+      <c r="JE35" s="18"/>
+      <c r="JF35" s="18"/>
+      <c r="JG35" s="18"/>
+      <c r="JH35" s="18"/>
+      <c r="JI35" s="18"/>
+      <c r="JJ35" s="18"/>
+      <c r="JK35" s="18"/>
+      <c r="JL35" s="18"/>
+      <c r="JM35" s="18"/>
+      <c r="JN35" s="18"/>
+      <c r="JO35" s="18"/>
+      <c r="JP35" s="18"/>
+      <c r="JQ35" s="18"/>
+      <c r="JR35" s="18"/>
+      <c r="JS35" s="18"/>
+      <c r="JT35" s="18"/>
+      <c r="JU35" s="18"/>
+      <c r="JV35" s="18"/>
+      <c r="JW35" s="18"/>
+      <c r="JX35" s="18"/>
+      <c r="JY35" s="18"/>
+      <c r="JZ35" s="18"/>
+      <c r="KA35" s="18"/>
+      <c r="KB35" s="18"/>
+      <c r="KC35" s="18"/>
+      <c r="KD35" s="18"/>
+      <c r="KE35" s="18"/>
+      <c r="KF35" s="18"/>
+      <c r="KG35" s="18"/>
+      <c r="KH35" s="18"/>
+      <c r="KI35" s="18"/>
+      <c r="KJ35" s="18"/>
+      <c r="KK35" s="18"/>
+      <c r="KL35" s="18"/>
+      <c r="KM35" s="18"/>
+      <c r="KN35" s="18"/>
+      <c r="KO35" s="18"/>
+      <c r="KP35" s="18"/>
+      <c r="KQ35" s="18"/>
+      <c r="KR35" s="18"/>
+      <c r="KS35" s="18"/>
+      <c r="KT35" s="18"/>
+      <c r="KU35" s="18"/>
+      <c r="KV35" s="18"/>
+      <c r="KW35" s="18"/>
+      <c r="KX35" s="18"/>
+      <c r="KY35" s="18"/>
+      <c r="KZ35" s="18"/>
+      <c r="LA35" s="18"/>
+      <c r="LB35" s="18"/>
+      <c r="LC35" s="18"/>
+      <c r="LD35" s="18"/>
+      <c r="LE35" s="18"/>
+      <c r="LF35" s="18"/>
+      <c r="LG35" s="18"/>
+      <c r="LH35" s="18"/>
+      <c r="LI35" s="18"/>
+      <c r="LJ35" s="18"/>
+      <c r="LK35" s="18"/>
+      <c r="LL35" s="18"/>
+      <c r="LM35" s="18"/>
+      <c r="LN35" s="18"/>
+      <c r="LO35" s="18"/>
+      <c r="LP35" s="18"/>
+      <c r="LQ35" s="18"/>
+      <c r="LR35" s="18"/>
+      <c r="LS35" s="18"/>
+      <c r="LT35" s="18"/>
+      <c r="LU35" s="18"/>
+      <c r="LV35" s="18"/>
+      <c r="LW35" s="18"/>
+      <c r="LX35" s="18"/>
+      <c r="LY35" s="18"/>
+      <c r="LZ35" s="18"/>
+      <c r="MA35" s="18"/>
+      <c r="MB35" s="18"/>
+      <c r="MC35" s="18"/>
+      <c r="MD35" s="18"/>
+      <c r="ME35" s="18"/>
+      <c r="MF35" s="18"/>
+      <c r="MG35" s="18"/>
+      <c r="MH35" s="18"/>
+      <c r="MI35" s="18"/>
+      <c r="MJ35" s="18"/>
+      <c r="MK35" s="18"/>
+      <c r="ML35" s="18"/>
+      <c r="MM35" s="18"/>
+      <c r="MN35" s="18"/>
+      <c r="MO35" s="18"/>
+      <c r="MP35" s="18"/>
+      <c r="MQ35" s="18"/>
+      <c r="MR35" s="18"/>
+      <c r="MS35" s="18"/>
+      <c r="MT35" s="18"/>
+      <c r="MU35" s="18"/>
+      <c r="MV35" s="18"/>
+      <c r="MW35" s="18"/>
+      <c r="MX35" s="18"/>
+      <c r="MY35" s="18"/>
+      <c r="MZ35" s="18"/>
+      <c r="NA35" s="18"/>
+      <c r="NB35" s="18"/>
+      <c r="NC35" s="18"/>
+      <c r="ND35" s="18"/>
+      <c r="NE35" s="18"/>
+      <c r="NF35" s="18"/>
+      <c r="NG35" s="18"/>
+      <c r="NH35" s="18"/>
+      <c r="NI35" s="18"/>
+      <c r="NJ35" s="18"/>
+      <c r="NK35" s="18"/>
+      <c r="NL35" s="18"/>
+      <c r="NM35" s="18"/>
+      <c r="NN35" s="18"/>
+      <c r="NO35" s="18"/>
+      <c r="NP35" s="18"/>
+      <c r="NQ35" s="18"/>
+      <c r="NR35" s="18"/>
+      <c r="NS35" s="18"/>
+      <c r="NT35" s="18"/>
+      <c r="NU35" s="18"/>
+      <c r="NV35" s="18"/>
+      <c r="NW35" s="18"/>
+      <c r="NX35" s="18"/>
+      <c r="NY35" s="18"/>
+      <c r="NZ35" s="18"/>
+      <c r="OA35" s="18"/>
+      <c r="OB35" s="18"/>
+      <c r="OC35" s="18"/>
+      <c r="OD35" s="18"/>
+      <c r="OE35" s="18"/>
+      <c r="OF35" s="18"/>
+      <c r="OG35" s="18"/>
+      <c r="OH35" s="18"/>
+      <c r="OI35" s="18"/>
+      <c r="OJ35" s="18"/>
+      <c r="OK35" s="18"/>
+      <c r="OL35" s="18"/>
+      <c r="OM35" s="18"/>
+      <c r="ON35" s="18"/>
+      <c r="OO35" s="18"/>
+      <c r="OP35" s="18"/>
+      <c r="OQ35" s="18"/>
+      <c r="OR35" s="18"/>
+      <c r="OS35" s="18"/>
+      <c r="OT35" s="18"/>
+      <c r="OU35" s="18"/>
+      <c r="OV35" s="18"/>
+      <c r="OW35" s="18"/>
+      <c r="OX35" s="18"/>
+      <c r="OY35" s="18"/>
+      <c r="OZ35" s="18"/>
+      <c r="PA35" s="18"/>
+      <c r="PB35" s="18"/>
+      <c r="PC35" s="18"/>
+      <c r="PD35" s="18"/>
+      <c r="PE35" s="18"/>
+      <c r="PF35" s="18"/>
+      <c r="PG35" s="18"/>
+      <c r="PH35" s="18"/>
+      <c r="PI35" s="18"/>
+      <c r="PJ35" s="18"/>
+      <c r="PK35" s="18"/>
+      <c r="PL35" s="18"/>
+      <c r="PM35" s="18"/>
+      <c r="PN35" s="18"/>
+      <c r="PO35" s="18"/>
+      <c r="PP35" s="18"/>
+      <c r="PQ35" s="18"/>
+      <c r="PR35" s="18"/>
+      <c r="PS35" s="18"/>
+      <c r="PT35" s="18"/>
+      <c r="PU35" s="18"/>
+      <c r="PV35" s="18"/>
+      <c r="PW35" s="18"/>
+      <c r="PX35" s="18"/>
+      <c r="PY35" s="18"/>
+      <c r="PZ35" s="18"/>
+      <c r="QA35" s="18"/>
+      <c r="QB35" s="18"/>
+      <c r="QC35" s="18"/>
+      <c r="QD35" s="18"/>
+      <c r="QE35" s="18"/>
+      <c r="QF35" s="18"/>
+      <c r="QG35" s="18"/>
+      <c r="QH35" s="18"/>
+      <c r="QI35" s="18"/>
+      <c r="QJ35" s="18"/>
+      <c r="QK35" s="18"/>
+      <c r="QL35" s="18"/>
+      <c r="QM35" s="18"/>
+      <c r="QN35" s="18"/>
+      <c r="QO35" s="18"/>
+      <c r="QP35" s="18"/>
+      <c r="QQ35" s="18"/>
+      <c r="QR35" s="18"/>
+      <c r="QS35" s="18"/>
+      <c r="QT35" s="18"/>
+      <c r="QU35" s="18"/>
+      <c r="QV35" s="18"/>
+      <c r="QW35" s="18"/>
+      <c r="QX35" s="18"/>
+      <c r="QY35" s="18"/>
+      <c r="QZ35" s="18"/>
+      <c r="RA35" s="18"/>
+      <c r="RB35" s="18"/>
+      <c r="RC35" s="18"/>
+      <c r="RD35" s="18"/>
+      <c r="RE35" s="18"/>
+      <c r="RF35" s="18"/>
+      <c r="RG35" s="18"/>
+      <c r="RH35" s="18"/>
+      <c r="RI35" s="18"/>
+      <c r="RJ35" s="18"/>
+      <c r="RK35" s="18"/>
+      <c r="RL35" s="18"/>
+      <c r="RM35" s="18"/>
+      <c r="RN35" s="18"/>
+      <c r="RO35" s="18"/>
+      <c r="RP35" s="18"/>
+      <c r="RQ35" s="18"/>
+      <c r="RR35" s="18"/>
+      <c r="RS35" s="18"/>
+      <c r="RT35" s="18"/>
+      <c r="RU35" s="18"/>
+      <c r="RV35" s="18"/>
+      <c r="RW35" s="18"/>
+      <c r="RX35" s="18"/>
+      <c r="RY35" s="18"/>
+      <c r="RZ35" s="18"/>
+      <c r="SA35" s="18"/>
+      <c r="SB35" s="18"/>
+      <c r="SC35" s="18"/>
+      <c r="SD35" s="18"/>
+      <c r="SE35" s="18"/>
+      <c r="SF35" s="18"/>
+      <c r="SG35" s="18"/>
+      <c r="SH35" s="18"/>
+      <c r="SI35" s="18"/>
+      <c r="SJ35" s="18"/>
+      <c r="SK35" s="18"/>
+      <c r="SL35" s="18"/>
+      <c r="SM35" s="18"/>
+      <c r="SN35" s="18"/>
+      <c r="SO35" s="18"/>
+      <c r="SP35" s="18"/>
+      <c r="SQ35" s="18"/>
+      <c r="SR35" s="18"/>
+      <c r="SS35" s="18"/>
+      <c r="ST35" s="18"/>
+      <c r="SU35" s="18"/>
+      <c r="SV35" s="18"/>
+      <c r="SW35" s="18"/>
+      <c r="SX35" s="18"/>
+      <c r="SY35" s="18"/>
+      <c r="SZ35" s="18"/>
+      <c r="TA35" s="18"/>
+      <c r="TB35" s="18"/>
+      <c r="TC35" s="18"/>
+      <c r="TD35" s="18"/>
+      <c r="TE35" s="18"/>
+      <c r="TF35" s="18"/>
+      <c r="TG35" s="18"/>
+      <c r="TH35" s="18"/>
+      <c r="TI35" s="18"/>
+      <c r="TJ35" s="18"/>
+      <c r="TK35" s="18"/>
+      <c r="TL35" s="18"/>
+      <c r="TM35" s="18"/>
+      <c r="TN35" s="18"/>
+      <c r="TO35" s="18"/>
+      <c r="TP35" s="18"/>
+      <c r="TQ35" s="18"/>
+      <c r="TR35" s="18"/>
+      <c r="TS35" s="18"/>
+      <c r="TT35" s="18"/>
+      <c r="TU35" s="18"/>
+      <c r="TV35" s="18"/>
+      <c r="TW35" s="18"/>
+      <c r="TX35" s="18"/>
+      <c r="TY35" s="18"/>
+      <c r="TZ35" s="18"/>
+      <c r="UA35" s="18"/>
+      <c r="UB35" s="18"/>
+      <c r="UC35" s="18"/>
+      <c r="UD35" s="18"/>
+      <c r="UE35" s="18"/>
+      <c r="UF35" s="18"/>
+      <c r="UG35" s="18"/>
+      <c r="UH35" s="18"/>
+      <c r="UI35" s="18"/>
+      <c r="UJ35" s="18"/>
+      <c r="UK35" s="18"/>
+      <c r="UL35" s="18"/>
+      <c r="UM35" s="18"/>
+      <c r="UN35" s="18"/>
+      <c r="UO35" s="18"/>
+      <c r="UP35" s="18"/>
+      <c r="UQ35" s="18"/>
+      <c r="UR35" s="18"/>
+      <c r="US35" s="18"/>
+      <c r="UT35" s="18"/>
+      <c r="UU35" s="18"/>
+      <c r="UV35" s="18"/>
+      <c r="UW35" s="18"/>
+      <c r="UX35" s="18"/>
+      <c r="UY35" s="18"/>
+      <c r="UZ35" s="18"/>
+      <c r="VA35" s="18"/>
+      <c r="VB35" s="18"/>
+      <c r="VC35" s="18"/>
+      <c r="VD35" s="18"/>
+      <c r="VE35" s="18"/>
+      <c r="VF35" s="18"/>
+      <c r="VG35" s="18"/>
+      <c r="VH35" s="18"/>
+      <c r="VI35" s="18"/>
+      <c r="VJ35" s="18"/>
+      <c r="VK35" s="18"/>
+      <c r="VL35" s="18"/>
+      <c r="VM35" s="18"/>
+      <c r="VN35" s="18"/>
+      <c r="VO35" s="18"/>
+      <c r="VP35" s="18"/>
+      <c r="VQ35" s="18"/>
+      <c r="VR35" s="18"/>
+      <c r="VS35" s="18"/>
+      <c r="VT35" s="18"/>
+      <c r="VU35" s="18"/>
+      <c r="VV35" s="18"/>
+      <c r="VW35" s="18"/>
+      <c r="VX35" s="18"/>
+      <c r="VY35" s="18"/>
+      <c r="VZ35" s="18"/>
+      <c r="WA35" s="18"/>
+      <c r="WB35" s="18"/>
+      <c r="WC35" s="18"/>
+      <c r="WD35" s="18"/>
+      <c r="WE35" s="18"/>
+      <c r="WF35" s="18"/>
+      <c r="WG35" s="18"/>
+      <c r="WH35" s="18"/>
+      <c r="WI35" s="18"/>
+      <c r="WJ35" s="18"/>
+      <c r="WK35" s="18"/>
+      <c r="WL35" s="18"/>
+      <c r="WM35" s="18"/>
+      <c r="WN35" s="18"/>
+      <c r="WO35" s="18"/>
+      <c r="WP35" s="18"/>
+      <c r="WQ35" s="18"/>
+      <c r="WR35" s="18"/>
+      <c r="WS35" s="18"/>
+      <c r="WT35" s="18"/>
+      <c r="WU35" s="18"/>
+      <c r="WV35" s="18"/>
+      <c r="WW35" s="18"/>
+      <c r="WX35" s="18"/>
+      <c r="WY35" s="18"/>
+      <c r="WZ35" s="18"/>
+      <c r="XA35" s="18"/>
+      <c r="XB35" s="18"/>
+      <c r="XC35" s="18"/>
+      <c r="XD35" s="18"/>
+      <c r="XE35" s="18"/>
+      <c r="XF35" s="18"/>
+      <c r="XG35" s="18"/>
+      <c r="XH35" s="18"/>
+      <c r="XI35" s="18"/>
+      <c r="XJ35" s="18"/>
+      <c r="XK35" s="18"/>
+      <c r="XL35" s="18"/>
+      <c r="XM35" s="18"/>
+      <c r="XN35" s="18"/>
+      <c r="XO35" s="18"/>
+      <c r="XP35" s="18"/>
+      <c r="XQ35" s="18"/>
+      <c r="XR35" s="18"/>
+      <c r="XS35" s="18"/>
+      <c r="XT35" s="18"/>
+      <c r="XU35" s="18"/>
+      <c r="XV35" s="18"/>
+      <c r="XW35" s="18"/>
+      <c r="XX35" s="18"/>
+      <c r="XY35" s="18"/>
+      <c r="XZ35" s="18"/>
+      <c r="YA35" s="18"/>
+      <c r="YB35" s="18"/>
+      <c r="YC35" s="18"/>
+      <c r="YD35" s="18"/>
+      <c r="YE35" s="18"/>
+      <c r="YF35" s="18"/>
+      <c r="YG35" s="18"/>
+      <c r="YH35" s="18"/>
+      <c r="YI35" s="18"/>
+      <c r="YJ35" s="18"/>
+      <c r="YK35" s="18"/>
+      <c r="YL35" s="18"/>
+      <c r="YM35" s="18"/>
+      <c r="YN35" s="18"/>
+      <c r="YO35" s="18"/>
+      <c r="YP35" s="18"/>
+      <c r="YQ35" s="18"/>
+      <c r="YR35" s="18"/>
+      <c r="YS35" s="18"/>
+      <c r="YT35" s="18"/>
+      <c r="YU35" s="18"/>
+      <c r="YV35" s="18"/>
+      <c r="YW35" s="18"/>
+      <c r="YX35" s="18"/>
+      <c r="YY35" s="18"/>
+      <c r="YZ35" s="18"/>
+      <c r="ZA35" s="18"/>
+      <c r="ZB35" s="18"/>
+      <c r="ZC35" s="18"/>
+      <c r="ZD35" s="18"/>
+      <c r="ZE35" s="18"/>
+      <c r="ZF35" s="18"/>
+      <c r="ZG35" s="18"/>
+      <c r="ZH35" s="18"/>
+      <c r="ZI35" s="18"/>
+      <c r="ZJ35" s="18"/>
+      <c r="ZK35" s="18"/>
+      <c r="ZL35" s="18"/>
+      <c r="ZM35" s="18"/>
+      <c r="ZN35" s="18"/>
+      <c r="ZO35" s="18"/>
+      <c r="ZP35" s="18"/>
+      <c r="ZQ35" s="18"/>
+      <c r="ZR35" s="18"/>
+      <c r="ZS35" s="18"/>
+      <c r="ZT35" s="18"/>
+      <c r="ZU35" s="18"/>
+      <c r="ZV35" s="18"/>
+      <c r="ZW35" s="18"/>
+      <c r="ZX35" s="18"/>
+      <c r="ZY35" s="18"/>
+      <c r="ZZ35" s="18"/>
+      <c r="AAA35" s="18"/>
+      <c r="AAB35" s="18"/>
+      <c r="AAC35" s="18"/>
+      <c r="AAD35" s="18"/>
+      <c r="AAE35" s="18"/>
+      <c r="AAF35" s="18"/>
+      <c r="AAG35" s="18"/>
+      <c r="AAH35" s="18"/>
+      <c r="AAI35" s="18"/>
+      <c r="AAJ35" s="18"/>
+      <c r="AAK35" s="18"/>
+      <c r="AAL35" s="18"/>
+      <c r="AAM35" s="18"/>
+      <c r="AAN35" s="18"/>
+      <c r="AAO35" s="18"/>
+      <c r="AAP35" s="18"/>
+      <c r="AAQ35" s="18"/>
+      <c r="AAR35" s="18"/>
+      <c r="AAS35" s="18"/>
+      <c r="AAT35" s="18"/>
+      <c r="AAU35" s="18"/>
+      <c r="AAV35" s="18"/>
+      <c r="AAW35" s="18"/>
+      <c r="AAX35" s="18"/>
+      <c r="AAY35" s="18"/>
+      <c r="AAZ35" s="18"/>
+      <c r="ABA35" s="18"/>
+      <c r="ABB35" s="18"/>
+      <c r="ABC35" s="18"/>
+      <c r="ABD35" s="18"/>
+      <c r="ABE35" s="18"/>
+      <c r="ABF35" s="18"/>
+      <c r="ABG35" s="18"/>
+      <c r="ABH35" s="18"/>
+      <c r="ABI35" s="18"/>
+      <c r="ABJ35" s="18"/>
+      <c r="ABK35" s="18"/>
+      <c r="ABL35" s="18"/>
+      <c r="ABM35" s="18"/>
+      <c r="ABN35" s="18"/>
+      <c r="ABO35" s="18"/>
+      <c r="ABP35" s="18"/>
+      <c r="ABQ35" s="18"/>
+      <c r="ABR35" s="18"/>
+      <c r="ABS35" s="18"/>
+      <c r="ABT35" s="18"/>
+      <c r="ABU35" s="18"/>
+      <c r="ABV35" s="18"/>
+      <c r="ABW35" s="18"/>
+      <c r="ABX35" s="18"/>
+      <c r="ABY35" s="18"/>
+      <c r="ABZ35" s="18"/>
+      <c r="ACA35" s="18"/>
+      <c r="ACB35" s="18"/>
+      <c r="ACC35" s="18"/>
+      <c r="ACD35" s="18"/>
+      <c r="ACE35" s="18"/>
+      <c r="ACF35" s="18"/>
+      <c r="ACG35" s="18"/>
+      <c r="ACH35" s="18"/>
+      <c r="ACI35" s="18"/>
+      <c r="ACJ35" s="18"/>
+      <c r="ACK35" s="18"/>
+      <c r="ACL35" s="18"/>
+      <c r="ACM35" s="18"/>
+      <c r="ACN35" s="18"/>
+      <c r="ACO35" s="18"/>
+      <c r="ACP35" s="18"/>
+      <c r="ACQ35" s="18"/>
+      <c r="ACR35" s="18"/>
+      <c r="ACS35" s="18"/>
+      <c r="ACT35" s="18"/>
+      <c r="ACU35" s="18"/>
+      <c r="ACV35" s="18"/>
+      <c r="ACW35" s="18"/>
+      <c r="ACX35" s="18"/>
+      <c r="ACY35" s="18"/>
+      <c r="ACZ35" s="18"/>
+      <c r="ADA35" s="18"/>
+      <c r="ADB35" s="18"/>
+      <c r="ADC35" s="18"/>
+      <c r="ADD35" s="18"/>
+      <c r="ADE35" s="18"/>
+      <c r="ADF35" s="18"/>
+      <c r="ADG35" s="18"/>
+      <c r="ADH35" s="18"/>
+      <c r="ADI35" s="18"/>
+      <c r="ADJ35" s="18"/>
+      <c r="ADK35" s="18"/>
+      <c r="ADL35" s="18"/>
+      <c r="ADM35" s="18"/>
+      <c r="ADN35" s="18"/>
+      <c r="ADO35" s="18"/>
+      <c r="ADP35" s="18"/>
+      <c r="ADQ35" s="18"/>
+      <c r="ADR35" s="18"/>
+      <c r="ADS35" s="18"/>
+      <c r="ADT35" s="18"/>
+      <c r="ADU35" s="18"/>
+      <c r="ADV35" s="18"/>
+      <c r="ADW35" s="18"/>
+      <c r="ADX35" s="18"/>
+      <c r="ADY35" s="18"/>
+      <c r="ADZ35" s="18"/>
+      <c r="AEA35" s="18"/>
+      <c r="AEB35" s="18"/>
+      <c r="AEC35" s="18"/>
+      <c r="AED35" s="18"/>
+      <c r="AEE35" s="18"/>
+      <c r="AEF35" s="18"/>
+      <c r="AEG35" s="18"/>
+      <c r="AEH35" s="18"/>
+      <c r="AEI35" s="18"/>
+      <c r="AEJ35" s="18"/>
+      <c r="AEK35" s="18"/>
+      <c r="AEL35" s="18"/>
+      <c r="AEM35" s="18"/>
+      <c r="AEN35" s="18"/>
+      <c r="AEO35" s="18"/>
+      <c r="AEP35" s="18"/>
+      <c r="AEQ35" s="18"/>
+      <c r="AER35" s="18"/>
+      <c r="AES35" s="18"/>
+      <c r="AET35" s="18"/>
+      <c r="AEU35" s="18"/>
+      <c r="AEV35" s="18"/>
+      <c r="AEW35" s="18"/>
+      <c r="AEX35" s="18"/>
+      <c r="AEY35" s="18"/>
+      <c r="AEZ35" s="18"/>
+      <c r="AFA35" s="18"/>
+      <c r="AFB35" s="18"/>
+      <c r="AFC35" s="18"/>
+      <c r="AFD35" s="18"/>
+      <c r="AFE35" s="18"/>
+      <c r="AFF35" s="18"/>
+      <c r="AFG35" s="18"/>
+      <c r="AFH35" s="18"/>
+      <c r="AFI35" s="18"/>
+      <c r="AFJ35" s="18"/>
+      <c r="AFK35" s="18"/>
+      <c r="AFL35" s="18"/>
+      <c r="AFM35" s="18"/>
+      <c r="AFN35" s="18"/>
+      <c r="AFO35" s="18"/>
+      <c r="AFP35" s="18"/>
+      <c r="AFQ35" s="18"/>
+      <c r="AFR35" s="18"/>
+      <c r="AFS35" s="18"/>
+      <c r="AFT35" s="18"/>
+      <c r="AFU35" s="18"/>
+      <c r="AFV35" s="18"/>
+      <c r="AFW35" s="18"/>
+      <c r="AFX35" s="18"/>
+      <c r="AFY35" s="18"/>
+      <c r="AFZ35" s="18"/>
+      <c r="AGA35" s="18"/>
+      <c r="AGB35" s="18"/>
+      <c r="AGC35" s="18"/>
+      <c r="AGD35" s="18"/>
+      <c r="AGE35" s="18"/>
+      <c r="AGF35" s="18"/>
+      <c r="AGG35" s="18"/>
+      <c r="AGH35" s="18"/>
+      <c r="AGI35" s="18"/>
+      <c r="AGJ35" s="18"/>
+      <c r="AGK35" s="18"/>
+      <c r="AGL35" s="18"/>
+      <c r="AGM35" s="18"/>
+      <c r="AGN35" s="18"/>
+      <c r="AGO35" s="18"/>
+      <c r="AGP35" s="18"/>
+      <c r="AGQ35" s="18"/>
+      <c r="AGR35" s="18"/>
+      <c r="AGS35" s="18"/>
+      <c r="AGT35" s="18"/>
+      <c r="AGU35" s="18"/>
+      <c r="AGV35" s="18"/>
+      <c r="AGW35" s="18"/>
+      <c r="AGX35" s="18"/>
+      <c r="AGY35" s="18"/>
+      <c r="AGZ35" s="18"/>
+      <c r="AHA35" s="18"/>
+      <c r="AHB35" s="18"/>
+      <c r="AHC35" s="18"/>
+      <c r="AHD35" s="18"/>
+      <c r="AHE35" s="18"/>
+      <c r="AHF35" s="18"/>
+      <c r="AHG35" s="18"/>
+      <c r="AHH35" s="18"/>
+      <c r="AHI35" s="18"/>
+      <c r="AHJ35" s="18"/>
+      <c r="AHK35" s="18"/>
+      <c r="AHL35" s="18"/>
+      <c r="AHM35" s="18"/>
+      <c r="AHN35" s="18"/>
+      <c r="AHO35" s="18"/>
+      <c r="AHP35" s="18"/>
+      <c r="AHQ35" s="18"/>
+      <c r="AHR35" s="18"/>
+      <c r="AHS35" s="18"/>
+      <c r="AHT35" s="18"/>
+      <c r="AHU35" s="18"/>
+      <c r="AHV35" s="18"/>
+      <c r="AHW35" s="18"/>
+      <c r="AHX35" s="18"/>
+      <c r="AHY35" s="18"/>
+      <c r="AHZ35" s="18"/>
+      <c r="AIA35" s="18"/>
+      <c r="AIB35" s="18"/>
+      <c r="AIC35" s="18"/>
+      <c r="AID35" s="18"/>
+      <c r="AIE35" s="18"/>
+      <c r="AIF35" s="18"/>
+      <c r="AIG35" s="18"/>
+      <c r="AIH35" s="18"/>
+      <c r="AII35" s="18"/>
+      <c r="AIJ35" s="18"/>
+      <c r="AIK35" s="18"/>
+      <c r="AIL35" s="18"/>
+      <c r="AIM35" s="18"/>
+      <c r="AIN35" s="18"/>
+      <c r="AIO35" s="18"/>
+      <c r="AIP35" s="18"/>
+      <c r="AIQ35" s="18"/>
+      <c r="AIR35" s="18"/>
+      <c r="AIS35" s="18"/>
+      <c r="AIT35" s="18"/>
+      <c r="AIU35" s="18"/>
+      <c r="AIV35" s="18"/>
+      <c r="AIW35" s="18"/>
+      <c r="AIX35" s="18"/>
+      <c r="AIY35" s="18"/>
+      <c r="AIZ35" s="18"/>
+      <c r="AJA35" s="18"/>
+      <c r="AJB35" s="18"/>
+      <c r="AJC35" s="18"/>
+      <c r="AJD35" s="18"/>
+      <c r="AJE35" s="18"/>
+      <c r="AJF35" s="18"/>
+      <c r="AJG35" s="18"/>
+      <c r="AJH35" s="18"/>
+      <c r="AJI35" s="18"/>
+      <c r="AJJ35" s="18"/>
+      <c r="AJK35" s="18"/>
+      <c r="AJL35" s="18"/>
+      <c r="AJM35" s="18"/>
+      <c r="AJN35" s="18"/>
+      <c r="AJO35" s="18"/>
+      <c r="AJP35" s="18"/>
+      <c r="AJQ35" s="18"/>
+      <c r="AJR35" s="18"/>
+      <c r="AJS35" s="18"/>
+      <c r="AJT35" s="18"/>
+      <c r="AJU35" s="18"/>
+      <c r="AJV35" s="18"/>
+      <c r="AJW35" s="18"/>
+      <c r="AJX35" s="18"/>
+      <c r="AJY35" s="18"/>
+      <c r="AJZ35" s="18"/>
+      <c r="AKA35" s="18"/>
+      <c r="AKB35" s="18"/>
+      <c r="AKC35" s="18"/>
+      <c r="AKD35" s="18"/>
+      <c r="AKE35" s="18"/>
+      <c r="AKF35" s="18"/>
+      <c r="AKG35" s="18"/>
+      <c r="AKH35" s="18"/>
+      <c r="AKI35" s="18"/>
+      <c r="AKJ35" s="18"/>
+      <c r="AKK35" s="18"/>
+      <c r="AKL35" s="18"/>
+      <c r="AKM35" s="18"/>
+      <c r="AKN35" s="18"/>
+      <c r="AKO35" s="18"/>
+      <c r="AKP35" s="18"/>
+      <c r="AKQ35" s="18"/>
+      <c r="AKR35" s="18"/>
+      <c r="AKS35" s="18"/>
+      <c r="AKT35" s="18"/>
+      <c r="AKU35" s="18"/>
+      <c r="AKV35" s="18"/>
+      <c r="AKW35" s="18"/>
+      <c r="AKX35" s="18"/>
+      <c r="AKY35" s="18"/>
+      <c r="AKZ35" s="18"/>
+      <c r="ALA35" s="18"/>
+      <c r="ALB35" s="18"/>
+      <c r="ALC35" s="18"/>
+      <c r="ALD35" s="18"/>
+      <c r="ALE35" s="18"/>
+      <c r="ALF35" s="18"/>
+      <c r="ALG35" s="18"/>
+      <c r="ALH35" s="18"/>
+      <c r="ALI35" s="18"/>
+      <c r="ALJ35" s="18"/>
+      <c r="ALK35" s="18"/>
+      <c r="ALL35" s="18"/>
+      <c r="ALM35" s="18"/>
+      <c r="ALN35" s="18"/>
+      <c r="ALO35" s="18"/>
+      <c r="ALP35" s="18"/>
+      <c r="ALQ35" s="18"/>
+      <c r="ALR35" s="18"/>
+      <c r="ALS35" s="18"/>
+      <c r="ALT35" s="18"/>
+      <c r="ALU35" s="18"/>
+      <c r="ALV35" s="18"/>
+      <c r="ALW35" s="18"/>
+      <c r="ALX35" s="18"/>
+      <c r="ALY35" s="18"/>
+      <c r="ALZ35" s="18"/>
+      <c r="AMA35" s="18"/>
+      <c r="AMB35" s="18"/>
+      <c r="AMC35" s="18"/>
+      <c r="AMD35" s="18"/>
+      <c r="AME35" s="18"/>
+      <c r="AMF35" s="18"/>
+      <c r="AMG35" s="18"/>
+      <c r="AMH35" s="18"/>
+      <c r="AMI35" s="18"/>
+      <c r="AMJ35" s="18"/>
+    </row>
+    <row r="36" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="19">
+        <v>50</v>
+      </c>
+      <c r="E36" s="19">
+        <v>50</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="18"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="18"/>
+      <c r="BE36" s="18"/>
+      <c r="BF36" s="18"/>
+      <c r="BG36" s="18"/>
+      <c r="BH36" s="18"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="18"/>
+      <c r="BK36" s="18"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="18"/>
+      <c r="BN36" s="18"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="18"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BU36" s="18"/>
+      <c r="BV36" s="18"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="18"/>
+      <c r="BY36" s="18"/>
+      <c r="BZ36" s="18"/>
+      <c r="CA36" s="18"/>
+      <c r="CB36" s="18"/>
+      <c r="CC36" s="18"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="18"/>
+      <c r="CF36" s="18"/>
+      <c r="CG36" s="18"/>
+      <c r="CH36" s="18"/>
+      <c r="CI36" s="18"/>
+      <c r="CJ36" s="18"/>
+      <c r="CK36" s="18"/>
+      <c r="CL36" s="18"/>
+      <c r="CM36" s="18"/>
+      <c r="CN36" s="18"/>
+      <c r="CO36" s="18"/>
+      <c r="CP36" s="18"/>
+      <c r="CQ36" s="18"/>
+      <c r="CR36" s="18"/>
+      <c r="CS36" s="18"/>
+      <c r="CT36" s="18"/>
+      <c r="CU36" s="18"/>
+      <c r="CV36" s="18"/>
+      <c r="CW36" s="18"/>
+      <c r="CX36" s="18"/>
+      <c r="CY36" s="18"/>
+      <c r="CZ36" s="18"/>
+      <c r="DA36" s="18"/>
+      <c r="DB36" s="18"/>
+      <c r="DC36" s="18"/>
+      <c r="DD36" s="18"/>
+      <c r="DE36" s="18"/>
+      <c r="DF36" s="18"/>
+      <c r="DG36" s="18"/>
+      <c r="DH36" s="18"/>
+      <c r="DI36" s="18"/>
+      <c r="DJ36" s="18"/>
+      <c r="DK36" s="18"/>
+      <c r="DL36" s="18"/>
+      <c r="DM36" s="18"/>
+      <c r="DN36" s="18"/>
+      <c r="DO36" s="18"/>
+      <c r="DP36" s="18"/>
+      <c r="DQ36" s="18"/>
+      <c r="DR36" s="18"/>
+      <c r="DS36" s="18"/>
+      <c r="DT36" s="18"/>
+      <c r="DU36" s="18"/>
+      <c r="DV36" s="18"/>
+      <c r="DW36" s="18"/>
+      <c r="DX36" s="18"/>
+      <c r="DY36" s="18"/>
+      <c r="DZ36" s="18"/>
+      <c r="EA36" s="18"/>
+      <c r="EB36" s="18"/>
+      <c r="EC36" s="18"/>
+      <c r="ED36" s="18"/>
+      <c r="EE36" s="18"/>
+      <c r="EF36" s="18"/>
+      <c r="EG36" s="18"/>
+      <c r="EH36" s="18"/>
+      <c r="EI36" s="18"/>
+      <c r="EJ36" s="18"/>
+      <c r="EK36" s="18"/>
+      <c r="EL36" s="18"/>
+      <c r="EM36" s="18"/>
+      <c r="EN36" s="18"/>
+      <c r="EO36" s="18"/>
+      <c r="EP36" s="18"/>
+      <c r="EQ36" s="18"/>
+      <c r="ER36" s="18"/>
+      <c r="ES36" s="18"/>
+      <c r="ET36" s="18"/>
+      <c r="EU36" s="18"/>
+      <c r="EV36" s="18"/>
+      <c r="EW36" s="18"/>
+      <c r="EX36" s="18"/>
+      <c r="EY36" s="18"/>
+      <c r="EZ36" s="18"/>
+      <c r="FA36" s="18"/>
+      <c r="FB36" s="18"/>
+      <c r="FC36" s="18"/>
+      <c r="FD36" s="18"/>
+      <c r="FE36" s="18"/>
+      <c r="FF36" s="18"/>
+      <c r="FG36" s="18"/>
+      <c r="FH36" s="18"/>
+      <c r="FI36" s="18"/>
+      <c r="FJ36" s="18"/>
+      <c r="FK36" s="18"/>
+      <c r="FL36" s="18"/>
+      <c r="FM36" s="18"/>
+      <c r="FN36" s="18"/>
+      <c r="FO36" s="18"/>
+      <c r="FP36" s="18"/>
+      <c r="FQ36" s="18"/>
+      <c r="FR36" s="18"/>
+      <c r="FS36" s="18"/>
+      <c r="FT36" s="18"/>
+      <c r="FU36" s="18"/>
+      <c r="FV36" s="18"/>
+      <c r="FW36" s="18"/>
+      <c r="FX36" s="18"/>
+      <c r="FY36" s="18"/>
+      <c r="FZ36" s="18"/>
+      <c r="GA36" s="18"/>
+      <c r="GB36" s="18"/>
+      <c r="GC36" s="18"/>
+      <c r="GD36" s="18"/>
+      <c r="GE36" s="18"/>
+      <c r="GF36" s="18"/>
+      <c r="GG36" s="18"/>
+      <c r="GH36" s="18"/>
+      <c r="GI36" s="18"/>
+      <c r="GJ36" s="18"/>
+      <c r="GK36" s="18"/>
+      <c r="GL36" s="18"/>
+      <c r="GM36" s="18"/>
+      <c r="GN36" s="18"/>
+      <c r="GO36" s="18"/>
+      <c r="GP36" s="18"/>
+      <c r="GQ36" s="18"/>
+      <c r="GR36" s="18"/>
+      <c r="GS36" s="18"/>
+      <c r="GT36" s="18"/>
+      <c r="GU36" s="18"/>
+      <c r="GV36" s="18"/>
+      <c r="GW36" s="18"/>
+      <c r="GX36" s="18"/>
+      <c r="GY36" s="18"/>
+      <c r="GZ36" s="18"/>
+      <c r="HA36" s="18"/>
+      <c r="HB36" s="18"/>
+      <c r="HC36" s="18"/>
+      <c r="HD36" s="18"/>
+      <c r="HE36" s="18"/>
+      <c r="HF36" s="18"/>
+      <c r="HG36" s="18"/>
+      <c r="HH36" s="18"/>
+      <c r="HI36" s="18"/>
+      <c r="HJ36" s="18"/>
+      <c r="HK36" s="18"/>
+      <c r="HL36" s="18"/>
+      <c r="HM36" s="18"/>
+      <c r="HN36" s="18"/>
+      <c r="HO36" s="18"/>
+      <c r="HP36" s="18"/>
+      <c r="HQ36" s="18"/>
+      <c r="HR36" s="18"/>
+      <c r="HS36" s="18"/>
+      <c r="HT36" s="18"/>
+      <c r="HU36" s="18"/>
+      <c r="HV36" s="18"/>
+      <c r="HW36" s="18"/>
+      <c r="HX36" s="18"/>
+      <c r="HY36" s="18"/>
+      <c r="HZ36" s="18"/>
+      <c r="IA36" s="18"/>
+      <c r="IB36" s="18"/>
+      <c r="IC36" s="18"/>
+      <c r="ID36" s="18"/>
+      <c r="IE36" s="18"/>
+      <c r="IF36" s="18"/>
+      <c r="IG36" s="18"/>
+      <c r="IH36" s="18"/>
+      <c r="II36" s="18"/>
+      <c r="IJ36" s="18"/>
+      <c r="IK36" s="18"/>
+      <c r="IL36" s="18"/>
+      <c r="IM36" s="18"/>
+      <c r="IN36" s="18"/>
+      <c r="IO36" s="18"/>
+      <c r="IP36" s="18"/>
+      <c r="IQ36" s="18"/>
+      <c r="IR36" s="18"/>
+      <c r="IS36" s="18"/>
+      <c r="IT36" s="18"/>
+      <c r="IU36" s="18"/>
+      <c r="IV36" s="18"/>
+      <c r="IW36" s="18"/>
+      <c r="IX36" s="18"/>
+      <c r="IY36" s="18"/>
+      <c r="IZ36" s="18"/>
+      <c r="JA36" s="18"/>
+      <c r="JB36" s="18"/>
+      <c r="JC36" s="18"/>
+      <c r="JD36" s="18"/>
+      <c r="JE36" s="18"/>
+      <c r="JF36" s="18"/>
+      <c r="JG36" s="18"/>
+      <c r="JH36" s="18"/>
+      <c r="JI36" s="18"/>
+      <c r="JJ36" s="18"/>
+      <c r="JK36" s="18"/>
+      <c r="JL36" s="18"/>
+      <c r="JM36" s="18"/>
+      <c r="JN36" s="18"/>
+      <c r="JO36" s="18"/>
+      <c r="JP36" s="18"/>
+      <c r="JQ36" s="18"/>
+      <c r="JR36" s="18"/>
+      <c r="JS36" s="18"/>
+      <c r="JT36" s="18"/>
+      <c r="JU36" s="18"/>
+      <c r="JV36" s="18"/>
+      <c r="JW36" s="18"/>
+      <c r="JX36" s="18"/>
+      <c r="JY36" s="18"/>
+      <c r="JZ36" s="18"/>
+      <c r="KA36" s="18"/>
+      <c r="KB36" s="18"/>
+      <c r="KC36" s="18"/>
+      <c r="KD36" s="18"/>
+      <c r="KE36" s="18"/>
+      <c r="KF36" s="18"/>
+      <c r="KG36" s="18"/>
+      <c r="KH36" s="18"/>
+      <c r="KI36" s="18"/>
+      <c r="KJ36" s="18"/>
+      <c r="KK36" s="18"/>
+      <c r="KL36" s="18"/>
+      <c r="KM36" s="18"/>
+      <c r="KN36" s="18"/>
+      <c r="KO36" s="18"/>
+      <c r="KP36" s="18"/>
+      <c r="KQ36" s="18"/>
+      <c r="KR36" s="18"/>
+      <c r="KS36" s="18"/>
+      <c r="KT36" s="18"/>
+      <c r="KU36" s="18"/>
+      <c r="KV36" s="18"/>
+      <c r="KW36" s="18"/>
+      <c r="KX36" s="18"/>
+      <c r="KY36" s="18"/>
+      <c r="KZ36" s="18"/>
+      <c r="LA36" s="18"/>
+      <c r="LB36" s="18"/>
+      <c r="LC36" s="18"/>
+      <c r="LD36" s="18"/>
+      <c r="LE36" s="18"/>
+      <c r="LF36" s="18"/>
+      <c r="LG36" s="18"/>
+      <c r="LH36" s="18"/>
+      <c r="LI36" s="18"/>
+      <c r="LJ36" s="18"/>
+      <c r="LK36" s="18"/>
+      <c r="LL36" s="18"/>
+      <c r="LM36" s="18"/>
+      <c r="LN36" s="18"/>
+      <c r="LO36" s="18"/>
+      <c r="LP36" s="18"/>
+      <c r="LQ36" s="18"/>
+      <c r="LR36" s="18"/>
+      <c r="LS36" s="18"/>
+      <c r="LT36" s="18"/>
+      <c r="LU36" s="18"/>
+      <c r="LV36" s="18"/>
+      <c r="LW36" s="18"/>
+      <c r="LX36" s="18"/>
+      <c r="LY36" s="18"/>
+      <c r="LZ36" s="18"/>
+      <c r="MA36" s="18"/>
+      <c r="MB36" s="18"/>
+      <c r="MC36" s="18"/>
+      <c r="MD36" s="18"/>
+      <c r="ME36" s="18"/>
+      <c r="MF36" s="18"/>
+      <c r="MG36" s="18"/>
+      <c r="MH36" s="18"/>
+      <c r="MI36" s="18"/>
+      <c r="MJ36" s="18"/>
+      <c r="MK36" s="18"/>
+      <c r="ML36" s="18"/>
+      <c r="MM36" s="18"/>
+      <c r="MN36" s="18"/>
+      <c r="MO36" s="18"/>
+      <c r="MP36" s="18"/>
+      <c r="MQ36" s="18"/>
+      <c r="MR36" s="18"/>
+      <c r="MS36" s="18"/>
+      <c r="MT36" s="18"/>
+      <c r="MU36" s="18"/>
+      <c r="MV36" s="18"/>
+      <c r="MW36" s="18"/>
+      <c r="MX36" s="18"/>
+      <c r="MY36" s="18"/>
+      <c r="MZ36" s="18"/>
+      <c r="NA36" s="18"/>
+      <c r="NB36" s="18"/>
+      <c r="NC36" s="18"/>
+      <c r="ND36" s="18"/>
+      <c r="NE36" s="18"/>
+      <c r="NF36" s="18"/>
+      <c r="NG36" s="18"/>
+      <c r="NH36" s="18"/>
+      <c r="NI36" s="18"/>
+      <c r="NJ36" s="18"/>
+      <c r="NK36" s="18"/>
+      <c r="NL36" s="18"/>
+      <c r="NM36" s="18"/>
+      <c r="NN36" s="18"/>
+      <c r="NO36" s="18"/>
+      <c r="NP36" s="18"/>
+      <c r="NQ36" s="18"/>
+      <c r="NR36" s="18"/>
+      <c r="NS36" s="18"/>
+      <c r="NT36" s="18"/>
+      <c r="NU36" s="18"/>
+      <c r="NV36" s="18"/>
+      <c r="NW36" s="18"/>
+      <c r="NX36" s="18"/>
+      <c r="NY36" s="18"/>
+      <c r="NZ36" s="18"/>
+      <c r="OA36" s="18"/>
+      <c r="OB36" s="18"/>
+      <c r="OC36" s="18"/>
+      <c r="OD36" s="18"/>
+      <c r="OE36" s="18"/>
+      <c r="OF36" s="18"/>
+      <c r="OG36" s="18"/>
+      <c r="OH36" s="18"/>
+      <c r="OI36" s="18"/>
+      <c r="OJ36" s="18"/>
+      <c r="OK36" s="18"/>
+      <c r="OL36" s="18"/>
+      <c r="OM36" s="18"/>
+      <c r="ON36" s="18"/>
+      <c r="OO36" s="18"/>
+      <c r="OP36" s="18"/>
+      <c r="OQ36" s="18"/>
+      <c r="OR36" s="18"/>
+      <c r="OS36" s="18"/>
+      <c r="OT36" s="18"/>
+      <c r="OU36" s="18"/>
+      <c r="OV36" s="18"/>
+      <c r="OW36" s="18"/>
+      <c r="OX36" s="18"/>
+      <c r="OY36" s="18"/>
+      <c r="OZ36" s="18"/>
+      <c r="PA36" s="18"/>
+      <c r="PB36" s="18"/>
+      <c r="PC36" s="18"/>
+      <c r="PD36" s="18"/>
+      <c r="PE36" s="18"/>
+      <c r="PF36" s="18"/>
+      <c r="PG36" s="18"/>
+      <c r="PH36" s="18"/>
+      <c r="PI36" s="18"/>
+      <c r="PJ36" s="18"/>
+      <c r="PK36" s="18"/>
+      <c r="PL36" s="18"/>
+      <c r="PM36" s="18"/>
+      <c r="PN36" s="18"/>
+      <c r="PO36" s="18"/>
+      <c r="PP36" s="18"/>
+      <c r="PQ36" s="18"/>
+      <c r="PR36" s="18"/>
+      <c r="PS36" s="18"/>
+      <c r="PT36" s="18"/>
+      <c r="PU36" s="18"/>
+      <c r="PV36" s="18"/>
+      <c r="PW36" s="18"/>
+      <c r="PX36" s="18"/>
+      <c r="PY36" s="18"/>
+      <c r="PZ36" s="18"/>
+      <c r="QA36" s="18"/>
+      <c r="QB36" s="18"/>
+      <c r="QC36" s="18"/>
+      <c r="QD36" s="18"/>
+      <c r="QE36" s="18"/>
+      <c r="QF36" s="18"/>
+      <c r="QG36" s="18"/>
+      <c r="QH36" s="18"/>
+      <c r="QI36" s="18"/>
+      <c r="QJ36" s="18"/>
+      <c r="QK36" s="18"/>
+      <c r="QL36" s="18"/>
+      <c r="QM36" s="18"/>
+      <c r="QN36" s="18"/>
+      <c r="QO36" s="18"/>
+      <c r="QP36" s="18"/>
+      <c r="QQ36" s="18"/>
+      <c r="QR36" s="18"/>
+      <c r="QS36" s="18"/>
+      <c r="QT36" s="18"/>
+      <c r="QU36" s="18"/>
+      <c r="QV36" s="18"/>
+      <c r="QW36" s="18"/>
+      <c r="QX36" s="18"/>
+      <c r="QY36" s="18"/>
+      <c r="QZ36" s="18"/>
+      <c r="RA36" s="18"/>
+      <c r="RB36" s="18"/>
+      <c r="RC36" s="18"/>
+      <c r="RD36" s="18"/>
+      <c r="RE36" s="18"/>
+      <c r="RF36" s="18"/>
+      <c r="RG36" s="18"/>
+      <c r="RH36" s="18"/>
+      <c r="RI36" s="18"/>
+      <c r="RJ36" s="18"/>
+      <c r="RK36" s="18"/>
+      <c r="RL36" s="18"/>
+      <c r="RM36" s="18"/>
+      <c r="RN36" s="18"/>
+      <c r="RO36" s="18"/>
+      <c r="RP36" s="18"/>
+      <c r="RQ36" s="18"/>
+      <c r="RR36" s="18"/>
+      <c r="RS36" s="18"/>
+      <c r="RT36" s="18"/>
+      <c r="RU36" s="18"/>
+      <c r="RV36" s="18"/>
+      <c r="RW36" s="18"/>
+      <c r="RX36" s="18"/>
+      <c r="RY36" s="18"/>
+      <c r="RZ36" s="18"/>
+      <c r="SA36" s="18"/>
+      <c r="SB36" s="18"/>
+      <c r="SC36" s="18"/>
+      <c r="SD36" s="18"/>
+      <c r="SE36" s="18"/>
+      <c r="SF36" s="18"/>
+      <c r="SG36" s="18"/>
+      <c r="SH36" s="18"/>
+      <c r="SI36" s="18"/>
+      <c r="SJ36" s="18"/>
+      <c r="SK36" s="18"/>
+      <c r="SL36" s="18"/>
+      <c r="SM36" s="18"/>
+      <c r="SN36" s="18"/>
+      <c r="SO36" s="18"/>
+      <c r="SP36" s="18"/>
+      <c r="SQ36" s="18"/>
+      <c r="SR36" s="18"/>
+      <c r="SS36" s="18"/>
+      <c r="ST36" s="18"/>
+      <c r="SU36" s="18"/>
+      <c r="SV36" s="18"/>
+      <c r="SW36" s="18"/>
+      <c r="SX36" s="18"/>
+      <c r="SY36" s="18"/>
+      <c r="SZ36" s="18"/>
+      <c r="TA36" s="18"/>
+      <c r="TB36" s="18"/>
+      <c r="TC36" s="18"/>
+      <c r="TD36" s="18"/>
+      <c r="TE36" s="18"/>
+      <c r="TF36" s="18"/>
+      <c r="TG36" s="18"/>
+      <c r="TH36" s="18"/>
+      <c r="TI36" s="18"/>
+      <c r="TJ36" s="18"/>
+      <c r="TK36" s="18"/>
+      <c r="TL36" s="18"/>
+      <c r="TM36" s="18"/>
+      <c r="TN36" s="18"/>
+      <c r="TO36" s="18"/>
+      <c r="TP36" s="18"/>
+      <c r="TQ36" s="18"/>
+      <c r="TR36" s="18"/>
+      <c r="TS36" s="18"/>
+      <c r="TT36" s="18"/>
+      <c r="TU36" s="18"/>
+      <c r="TV36" s="18"/>
+      <c r="TW36" s="18"/>
+      <c r="TX36" s="18"/>
+      <c r="TY36" s="18"/>
+      <c r="TZ36" s="18"/>
+      <c r="UA36" s="18"/>
+      <c r="UB36" s="18"/>
+      <c r="UC36" s="18"/>
+      <c r="UD36" s="18"/>
+      <c r="UE36" s="18"/>
+      <c r="UF36" s="18"/>
+      <c r="UG36" s="18"/>
+      <c r="UH36" s="18"/>
+      <c r="UI36" s="18"/>
+      <c r="UJ36" s="18"/>
+      <c r="UK36" s="18"/>
+      <c r="UL36" s="18"/>
+      <c r="UM36" s="18"/>
+      <c r="UN36" s="18"/>
+      <c r="UO36" s="18"/>
+      <c r="UP36" s="18"/>
+      <c r="UQ36" s="18"/>
+      <c r="UR36" s="18"/>
+      <c r="US36" s="18"/>
+      <c r="UT36" s="18"/>
+      <c r="UU36" s="18"/>
+      <c r="UV36" s="18"/>
+      <c r="UW36" s="18"/>
+      <c r="UX36" s="18"/>
+      <c r="UY36" s="18"/>
+      <c r="UZ36" s="18"/>
+      <c r="VA36" s="18"/>
+      <c r="VB36" s="18"/>
+      <c r="VC36" s="18"/>
+      <c r="VD36" s="18"/>
+      <c r="VE36" s="18"/>
+      <c r="VF36" s="18"/>
+      <c r="VG36" s="18"/>
+      <c r="VH36" s="18"/>
+      <c r="VI36" s="18"/>
+      <c r="VJ36" s="18"/>
+      <c r="VK36" s="18"/>
+      <c r="VL36" s="18"/>
+      <c r="VM36" s="18"/>
+      <c r="VN36" s="18"/>
+      <c r="VO36" s="18"/>
+      <c r="VP36" s="18"/>
+      <c r="VQ36" s="18"/>
+      <c r="VR36" s="18"/>
+      <c r="VS36" s="18"/>
+      <c r="VT36" s="18"/>
+      <c r="VU36" s="18"/>
+      <c r="VV36" s="18"/>
+      <c r="VW36" s="18"/>
+      <c r="VX36" s="18"/>
+      <c r="VY36" s="18"/>
+      <c r="VZ36" s="18"/>
+      <c r="WA36" s="18"/>
+      <c r="WB36" s="18"/>
+      <c r="WC36" s="18"/>
+      <c r="WD36" s="18"/>
+      <c r="WE36" s="18"/>
+      <c r="WF36" s="18"/>
+      <c r="WG36" s="18"/>
+      <c r="WH36" s="18"/>
+      <c r="WI36" s="18"/>
+      <c r="WJ36" s="18"/>
+      <c r="WK36" s="18"/>
+      <c r="WL36" s="18"/>
+      <c r="WM36" s="18"/>
+      <c r="WN36" s="18"/>
+      <c r="WO36" s="18"/>
+      <c r="WP36" s="18"/>
+      <c r="WQ36" s="18"/>
+      <c r="WR36" s="18"/>
+      <c r="WS36" s="18"/>
+      <c r="WT36" s="18"/>
+      <c r="WU36" s="18"/>
+      <c r="WV36" s="18"/>
+      <c r="WW36" s="18"/>
+      <c r="WX36" s="18"/>
+      <c r="WY36" s="18"/>
+      <c r="WZ36" s="18"/>
+      <c r="XA36" s="18"/>
+      <c r="XB36" s="18"/>
+      <c r="XC36" s="18"/>
+      <c r="XD36" s="18"/>
+      <c r="XE36" s="18"/>
+      <c r="XF36" s="18"/>
+      <c r="XG36" s="18"/>
+      <c r="XH36" s="18"/>
+      <c r="XI36" s="18"/>
+      <c r="XJ36" s="18"/>
+      <c r="XK36" s="18"/>
+      <c r="XL36" s="18"/>
+      <c r="XM36" s="18"/>
+      <c r="XN36" s="18"/>
+      <c r="XO36" s="18"/>
+      <c r="XP36" s="18"/>
+      <c r="XQ36" s="18"/>
+      <c r="XR36" s="18"/>
+      <c r="XS36" s="18"/>
+      <c r="XT36" s="18"/>
+      <c r="XU36" s="18"/>
+      <c r="XV36" s="18"/>
+      <c r="XW36" s="18"/>
+      <c r="XX36" s="18"/>
+      <c r="XY36" s="18"/>
+      <c r="XZ36" s="18"/>
+      <c r="YA36" s="18"/>
+      <c r="YB36" s="18"/>
+      <c r="YC36" s="18"/>
+      <c r="YD36" s="18"/>
+      <c r="YE36" s="18"/>
+      <c r="YF36" s="18"/>
+      <c r="YG36" s="18"/>
+      <c r="YH36" s="18"/>
+      <c r="YI36" s="18"/>
+      <c r="YJ36" s="18"/>
+      <c r="YK36" s="18"/>
+      <c r="YL36" s="18"/>
+      <c r="YM36" s="18"/>
+      <c r="YN36" s="18"/>
+      <c r="YO36" s="18"/>
+      <c r="YP36" s="18"/>
+      <c r="YQ36" s="18"/>
+      <c r="YR36" s="18"/>
+      <c r="YS36" s="18"/>
+      <c r="YT36" s="18"/>
+      <c r="YU36" s="18"/>
+      <c r="YV36" s="18"/>
+      <c r="YW36" s="18"/>
+      <c r="YX36" s="18"/>
+      <c r="YY36" s="18"/>
+      <c r="YZ36" s="18"/>
+      <c r="ZA36" s="18"/>
+      <c r="ZB36" s="18"/>
+      <c r="ZC36" s="18"/>
+      <c r="ZD36" s="18"/>
+      <c r="ZE36" s="18"/>
+      <c r="ZF36" s="18"/>
+      <c r="ZG36" s="18"/>
+      <c r="ZH36" s="18"/>
+      <c r="ZI36" s="18"/>
+      <c r="ZJ36" s="18"/>
+      <c r="ZK36" s="18"/>
+      <c r="ZL36" s="18"/>
+      <c r="ZM36" s="18"/>
+      <c r="ZN36" s="18"/>
+      <c r="ZO36" s="18"/>
+      <c r="ZP36" s="18"/>
+      <c r="ZQ36" s="18"/>
+      <c r="ZR36" s="18"/>
+      <c r="ZS36" s="18"/>
+      <c r="ZT36" s="18"/>
+      <c r="ZU36" s="18"/>
+      <c r="ZV36" s="18"/>
+      <c r="ZW36" s="18"/>
+      <c r="ZX36" s="18"/>
+      <c r="ZY36" s="18"/>
+      <c r="ZZ36" s="18"/>
+      <c r="AAA36" s="18"/>
+      <c r="AAB36" s="18"/>
+      <c r="AAC36" s="18"/>
+      <c r="AAD36" s="18"/>
+      <c r="AAE36" s="18"/>
+      <c r="AAF36" s="18"/>
+      <c r="AAG36" s="18"/>
+      <c r="AAH36" s="18"/>
+      <c r="AAI36" s="18"/>
+      <c r="AAJ36" s="18"/>
+      <c r="AAK36" s="18"/>
+      <c r="AAL36" s="18"/>
+      <c r="AAM36" s="18"/>
+      <c r="AAN36" s="18"/>
+      <c r="AAO36" s="18"/>
+      <c r="AAP36" s="18"/>
+      <c r="AAQ36" s="18"/>
+      <c r="AAR36" s="18"/>
+      <c r="AAS36" s="18"/>
+      <c r="AAT36" s="18"/>
+      <c r="AAU36" s="18"/>
+      <c r="AAV36" s="18"/>
+      <c r="AAW36" s="18"/>
+      <c r="AAX36" s="18"/>
+      <c r="AAY36" s="18"/>
+      <c r="AAZ36" s="18"/>
+      <c r="ABA36" s="18"/>
+      <c r="ABB36" s="18"/>
+      <c r="ABC36" s="18"/>
+      <c r="ABD36" s="18"/>
+      <c r="ABE36" s="18"/>
+      <c r="ABF36" s="18"/>
+      <c r="ABG36" s="18"/>
+      <c r="ABH36" s="18"/>
+      <c r="ABI36" s="18"/>
+      <c r="ABJ36" s="18"/>
+      <c r="ABK36" s="18"/>
+      <c r="ABL36" s="18"/>
+      <c r="ABM36" s="18"/>
+      <c r="ABN36" s="18"/>
+      <c r="ABO36" s="18"/>
+      <c r="ABP36" s="18"/>
+      <c r="ABQ36" s="18"/>
+      <c r="ABR36" s="18"/>
+      <c r="ABS36" s="18"/>
+      <c r="ABT36" s="18"/>
+      <c r="ABU36" s="18"/>
+      <c r="ABV36" s="18"/>
+      <c r="ABW36" s="18"/>
+      <c r="ABX36" s="18"/>
+      <c r="ABY36" s="18"/>
+      <c r="ABZ36" s="18"/>
+      <c r="ACA36" s="18"/>
+      <c r="ACB36" s="18"/>
+      <c r="ACC36" s="18"/>
+      <c r="ACD36" s="18"/>
+      <c r="ACE36" s="18"/>
+      <c r="ACF36" s="18"/>
+      <c r="ACG36" s="18"/>
+      <c r="ACH36" s="18"/>
+      <c r="ACI36" s="18"/>
+      <c r="ACJ36" s="18"/>
+      <c r="ACK36" s="18"/>
+      <c r="ACL36" s="18"/>
+      <c r="ACM36" s="18"/>
+      <c r="ACN36" s="18"/>
+      <c r="ACO36" s="18"/>
+      <c r="ACP36" s="18"/>
+      <c r="ACQ36" s="18"/>
+      <c r="ACR36" s="18"/>
+      <c r="ACS36" s="18"/>
+      <c r="ACT36" s="18"/>
+      <c r="ACU36" s="18"/>
+      <c r="ACV36" s="18"/>
+      <c r="ACW36" s="18"/>
+      <c r="ACX36" s="18"/>
+      <c r="ACY36" s="18"/>
+      <c r="ACZ36" s="18"/>
+      <c r="ADA36" s="18"/>
+      <c r="ADB36" s="18"/>
+      <c r="ADC36" s="18"/>
+      <c r="ADD36" s="18"/>
+      <c r="ADE36" s="18"/>
+      <c r="ADF36" s="18"/>
+      <c r="ADG36" s="18"/>
+      <c r="ADH36" s="18"/>
+      <c r="ADI36" s="18"/>
+      <c r="ADJ36" s="18"/>
+      <c r="ADK36" s="18"/>
+      <c r="ADL36" s="18"/>
+      <c r="ADM36" s="18"/>
+      <c r="ADN36" s="18"/>
+      <c r="ADO36" s="18"/>
+      <c r="ADP36" s="18"/>
+      <c r="ADQ36" s="18"/>
+      <c r="ADR36" s="18"/>
+      <c r="ADS36" s="18"/>
+      <c r="ADT36" s="18"/>
+      <c r="ADU36" s="18"/>
+      <c r="ADV36" s="18"/>
+      <c r="ADW36" s="18"/>
+      <c r="ADX36" s="18"/>
+      <c r="ADY36" s="18"/>
+      <c r="ADZ36" s="18"/>
+      <c r="AEA36" s="18"/>
+      <c r="AEB36" s="18"/>
+      <c r="AEC36" s="18"/>
+      <c r="AED36" s="18"/>
+      <c r="AEE36" s="18"/>
+      <c r="AEF36" s="18"/>
+      <c r="AEG36" s="18"/>
+      <c r="AEH36" s="18"/>
+      <c r="AEI36" s="18"/>
+      <c r="AEJ36" s="18"/>
+      <c r="AEK36" s="18"/>
+      <c r="AEL36" s="18"/>
+      <c r="AEM36" s="18"/>
+      <c r="AEN36" s="18"/>
+      <c r="AEO36" s="18"/>
+      <c r="AEP36" s="18"/>
+      <c r="AEQ36" s="18"/>
+      <c r="AER36" s="18"/>
+      <c r="AES36" s="18"/>
+      <c r="AET36" s="18"/>
+      <c r="AEU36" s="18"/>
+      <c r="AEV36" s="18"/>
+      <c r="AEW36" s="18"/>
+      <c r="AEX36" s="18"/>
+      <c r="AEY36" s="18"/>
+      <c r="AEZ36" s="18"/>
+      <c r="AFA36" s="18"/>
+      <c r="AFB36" s="18"/>
+      <c r="AFC36" s="18"/>
+      <c r="AFD36" s="18"/>
+      <c r="AFE36" s="18"/>
+      <c r="AFF36" s="18"/>
+      <c r="AFG36" s="18"/>
+      <c r="AFH36" s="18"/>
+      <c r="AFI36" s="18"/>
+      <c r="AFJ36" s="18"/>
+      <c r="AFK36" s="18"/>
+      <c r="AFL36" s="18"/>
+      <c r="AFM36" s="18"/>
+      <c r="AFN36" s="18"/>
+      <c r="AFO36" s="18"/>
+      <c r="AFP36" s="18"/>
+      <c r="AFQ36" s="18"/>
+      <c r="AFR36" s="18"/>
+      <c r="AFS36" s="18"/>
+      <c r="AFT36" s="18"/>
+      <c r="AFU36" s="18"/>
+      <c r="AFV36" s="18"/>
+      <c r="AFW36" s="18"/>
+      <c r="AFX36" s="18"/>
+      <c r="AFY36" s="18"/>
+      <c r="AFZ36" s="18"/>
+      <c r="AGA36" s="18"/>
+      <c r="AGB36" s="18"/>
+      <c r="AGC36" s="18"/>
+      <c r="AGD36" s="18"/>
+      <c r="AGE36" s="18"/>
+      <c r="AGF36" s="18"/>
+      <c r="AGG36" s="18"/>
+      <c r="AGH36" s="18"/>
+      <c r="AGI36" s="18"/>
+      <c r="AGJ36" s="18"/>
+      <c r="AGK36" s="18"/>
+      <c r="AGL36" s="18"/>
+      <c r="AGM36" s="18"/>
+      <c r="AGN36" s="18"/>
+      <c r="AGO36" s="18"/>
+      <c r="AGP36" s="18"/>
+      <c r="AGQ36" s="18"/>
+      <c r="AGR36" s="18"/>
+      <c r="AGS36" s="18"/>
+      <c r="AGT36" s="18"/>
+      <c r="AGU36" s="18"/>
+      <c r="AGV36" s="18"/>
+      <c r="AGW36" s="18"/>
+      <c r="AGX36" s="18"/>
+      <c r="AGY36" s="18"/>
+      <c r="AGZ36" s="18"/>
+      <c r="AHA36" s="18"/>
+      <c r="AHB36" s="18"/>
+      <c r="AHC36" s="18"/>
+      <c r="AHD36" s="18"/>
+      <c r="AHE36" s="18"/>
+      <c r="AHF36" s="18"/>
+      <c r="AHG36" s="18"/>
+      <c r="AHH36" s="18"/>
+      <c r="AHI36" s="18"/>
+      <c r="AHJ36" s="18"/>
+      <c r="AHK36" s="18"/>
+      <c r="AHL36" s="18"/>
+      <c r="AHM36" s="18"/>
+      <c r="AHN36" s="18"/>
+      <c r="AHO36" s="18"/>
+      <c r="AHP36" s="18"/>
+      <c r="AHQ36" s="18"/>
+      <c r="AHR36" s="18"/>
+      <c r="AHS36" s="18"/>
+      <c r="AHT36" s="18"/>
+      <c r="AHU36" s="18"/>
+      <c r="AHV36" s="18"/>
+      <c r="AHW36" s="18"/>
+      <c r="AHX36" s="18"/>
+      <c r="AHY36" s="18"/>
+      <c r="AHZ36" s="18"/>
+      <c r="AIA36" s="18"/>
+      <c r="AIB36" s="18"/>
+      <c r="AIC36" s="18"/>
+      <c r="AID36" s="18"/>
+      <c r="AIE36" s="18"/>
+      <c r="AIF36" s="18"/>
+      <c r="AIG36" s="18"/>
+      <c r="AIH36" s="18"/>
+      <c r="AII36" s="18"/>
+      <c r="AIJ36" s="18"/>
+      <c r="AIK36" s="18"/>
+      <c r="AIL36" s="18"/>
+      <c r="AIM36" s="18"/>
+      <c r="AIN36" s="18"/>
+      <c r="AIO36" s="18"/>
+      <c r="AIP36" s="18"/>
+      <c r="AIQ36" s="18"/>
+      <c r="AIR36" s="18"/>
+      <c r="AIS36" s="18"/>
+      <c r="AIT36" s="18"/>
+      <c r="AIU36" s="18"/>
+      <c r="AIV36" s="18"/>
+      <c r="AIW36" s="18"/>
+      <c r="AIX36" s="18"/>
+      <c r="AIY36" s="18"/>
+      <c r="AIZ36" s="18"/>
+      <c r="AJA36" s="18"/>
+      <c r="AJB36" s="18"/>
+      <c r="AJC36" s="18"/>
+      <c r="AJD36" s="18"/>
+      <c r="AJE36" s="18"/>
+      <c r="AJF36" s="18"/>
+      <c r="AJG36" s="18"/>
+      <c r="AJH36" s="18"/>
+      <c r="AJI36" s="18"/>
+      <c r="AJJ36" s="18"/>
+      <c r="AJK36" s="18"/>
+      <c r="AJL36" s="18"/>
+      <c r="AJM36" s="18"/>
+      <c r="AJN36" s="18"/>
+      <c r="AJO36" s="18"/>
+      <c r="AJP36" s="18"/>
+      <c r="AJQ36" s="18"/>
+      <c r="AJR36" s="18"/>
+      <c r="AJS36" s="18"/>
+      <c r="AJT36" s="18"/>
+      <c r="AJU36" s="18"/>
+      <c r="AJV36" s="18"/>
+      <c r="AJW36" s="18"/>
+      <c r="AJX36" s="18"/>
+      <c r="AJY36" s="18"/>
+      <c r="AJZ36" s="18"/>
+      <c r="AKA36" s="18"/>
+      <c r="AKB36" s="18"/>
+      <c r="AKC36" s="18"/>
+      <c r="AKD36" s="18"/>
+      <c r="AKE36" s="18"/>
+      <c r="AKF36" s="18"/>
+      <c r="AKG36" s="18"/>
+      <c r="AKH36" s="18"/>
+      <c r="AKI36" s="18"/>
+      <c r="AKJ36" s="18"/>
+      <c r="AKK36" s="18"/>
+      <c r="AKL36" s="18"/>
+      <c r="AKM36" s="18"/>
+      <c r="AKN36" s="18"/>
+      <c r="AKO36" s="18"/>
+      <c r="AKP36" s="18"/>
+      <c r="AKQ36" s="18"/>
+      <c r="AKR36" s="18"/>
+      <c r="AKS36" s="18"/>
+      <c r="AKT36" s="18"/>
+      <c r="AKU36" s="18"/>
+      <c r="AKV36" s="18"/>
+      <c r="AKW36" s="18"/>
+      <c r="AKX36" s="18"/>
+      <c r="AKY36" s="18"/>
+      <c r="AKZ36" s="18"/>
+      <c r="ALA36" s="18"/>
+      <c r="ALB36" s="18"/>
+      <c r="ALC36" s="18"/>
+      <c r="ALD36" s="18"/>
+      <c r="ALE36" s="18"/>
+      <c r="ALF36" s="18"/>
+      <c r="ALG36" s="18"/>
+      <c r="ALH36" s="18"/>
+      <c r="ALI36" s="18"/>
+      <c r="ALJ36" s="18"/>
+      <c r="ALK36" s="18"/>
+      <c r="ALL36" s="18"/>
+      <c r="ALM36" s="18"/>
+      <c r="ALN36" s="18"/>
+      <c r="ALO36" s="18"/>
+      <c r="ALP36" s="18"/>
+      <c r="ALQ36" s="18"/>
+      <c r="ALR36" s="18"/>
+      <c r="ALS36" s="18"/>
+      <c r="ALT36" s="18"/>
+      <c r="ALU36" s="18"/>
+      <c r="ALV36" s="18"/>
+      <c r="ALW36" s="18"/>
+      <c r="ALX36" s="18"/>
+      <c r="ALY36" s="18"/>
+      <c r="ALZ36" s="18"/>
+      <c r="AMA36" s="18"/>
+      <c r="AMB36" s="18"/>
+      <c r="AMC36" s="18"/>
+      <c r="AMD36" s="18"/>
+      <c r="AME36" s="18"/>
+      <c r="AMF36" s="18"/>
+      <c r="AMG36" s="18"/>
+      <c r="AMH36" s="18"/>
+      <c r="AMI36" s="18"/>
+      <c r="AMJ36" s="18"/>
+    </row>
+    <row r="37" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="19">
+        <v>2</v>
+      </c>
+      <c r="I37" s="19">
+        <v>50</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+      <c r="AZ37" s="18"/>
+      <c r="BA37" s="18"/>
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="18"/>
+      <c r="BD37" s="18"/>
+      <c r="BE37" s="18"/>
+      <c r="BF37" s="18"/>
+      <c r="BG37" s="18"/>
+      <c r="BH37" s="18"/>
+      <c r="BI37" s="18"/>
+      <c r="BJ37" s="18"/>
+      <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="18"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="18"/>
+      <c r="BQ37" s="18"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="18"/>
+      <c r="BU37" s="18"/>
+      <c r="BV37" s="18"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="18"/>
+      <c r="BY37" s="18"/>
+      <c r="BZ37" s="18"/>
+      <c r="CA37" s="18"/>
+      <c r="CB37" s="18"/>
+      <c r="CC37" s="18"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="18"/>
+      <c r="CF37" s="18"/>
+      <c r="CG37" s="18"/>
+      <c r="CH37" s="18"/>
+      <c r="CI37" s="18"/>
+      <c r="CJ37" s="18"/>
+      <c r="CK37" s="18"/>
+      <c r="CL37" s="18"/>
+      <c r="CM37" s="18"/>
+      <c r="CN37" s="18"/>
+      <c r="CO37" s="18"/>
+      <c r="CP37" s="18"/>
+      <c r="CQ37" s="18"/>
+      <c r="CR37" s="18"/>
+      <c r="CS37" s="18"/>
+      <c r="CT37" s="18"/>
+      <c r="CU37" s="18"/>
+      <c r="CV37" s="18"/>
+      <c r="CW37" s="18"/>
+      <c r="CX37" s="18"/>
+      <c r="CY37" s="18"/>
+      <c r="CZ37" s="18"/>
+      <c r="DA37" s="18"/>
+      <c r="DB37" s="18"/>
+      <c r="DC37" s="18"/>
+      <c r="DD37" s="18"/>
+      <c r="DE37" s="18"/>
+      <c r="DF37" s="18"/>
+      <c r="DG37" s="18"/>
+      <c r="DH37" s="18"/>
+      <c r="DI37" s="18"/>
+      <c r="DJ37" s="18"/>
+      <c r="DK37" s="18"/>
+      <c r="DL37" s="18"/>
+      <c r="DM37" s="18"/>
+      <c r="DN37" s="18"/>
+      <c r="DO37" s="18"/>
+      <c r="DP37" s="18"/>
+      <c r="DQ37" s="18"/>
+      <c r="DR37" s="18"/>
+      <c r="DS37" s="18"/>
+      <c r="DT37" s="18"/>
+      <c r="DU37" s="18"/>
+      <c r="DV37" s="18"/>
+      <c r="DW37" s="18"/>
+      <c r="DX37" s="18"/>
+      <c r="DY37" s="18"/>
+      <c r="DZ37" s="18"/>
+      <c r="EA37" s="18"/>
+      <c r="EB37" s="18"/>
+      <c r="EC37" s="18"/>
+      <c r="ED37" s="18"/>
+      <c r="EE37" s="18"/>
+      <c r="EF37" s="18"/>
+      <c r="EG37" s="18"/>
+      <c r="EH37" s="18"/>
+      <c r="EI37" s="18"/>
+      <c r="EJ37" s="18"/>
+      <c r="EK37" s="18"/>
+      <c r="EL37" s="18"/>
+      <c r="EM37" s="18"/>
+      <c r="EN37" s="18"/>
+      <c r="EO37" s="18"/>
+      <c r="EP37" s="18"/>
+      <c r="EQ37" s="18"/>
+      <c r="ER37" s="18"/>
+      <c r="ES37" s="18"/>
+      <c r="ET37" s="18"/>
+      <c r="EU37" s="18"/>
+      <c r="EV37" s="18"/>
+      <c r="EW37" s="18"/>
+      <c r="EX37" s="18"/>
+      <c r="EY37" s="18"/>
+      <c r="EZ37" s="18"/>
+      <c r="FA37" s="18"/>
+      <c r="FB37" s="18"/>
+      <c r="FC37" s="18"/>
+      <c r="FD37" s="18"/>
+      <c r="FE37" s="18"/>
+      <c r="FF37" s="18"/>
+      <c r="FG37" s="18"/>
+      <c r="FH37" s="18"/>
+      <c r="FI37" s="18"/>
+      <c r="FJ37" s="18"/>
+      <c r="FK37" s="18"/>
+      <c r="FL37" s="18"/>
+      <c r="FM37" s="18"/>
+      <c r="FN37" s="18"/>
+      <c r="FO37" s="18"/>
+      <c r="FP37" s="18"/>
+      <c r="FQ37" s="18"/>
+      <c r="FR37" s="18"/>
+      <c r="FS37" s="18"/>
+      <c r="FT37" s="18"/>
+      <c r="FU37" s="18"/>
+      <c r="FV37" s="18"/>
+      <c r="FW37" s="18"/>
+      <c r="FX37" s="18"/>
+      <c r="FY37" s="18"/>
+      <c r="FZ37" s="18"/>
+      <c r="GA37" s="18"/>
+      <c r="GB37" s="18"/>
+      <c r="GC37" s="18"/>
+      <c r="GD37" s="18"/>
+      <c r="GE37" s="18"/>
+      <c r="GF37" s="18"/>
+      <c r="GG37" s="18"/>
+      <c r="GH37" s="18"/>
+      <c r="GI37" s="18"/>
+      <c r="GJ37" s="18"/>
+      <c r="GK37" s="18"/>
+      <c r="GL37" s="18"/>
+      <c r="GM37" s="18"/>
+      <c r="GN37" s="18"/>
+      <c r="GO37" s="18"/>
+      <c r="GP37" s="18"/>
+      <c r="GQ37" s="18"/>
+      <c r="GR37" s="18"/>
+      <c r="GS37" s="18"/>
+      <c r="GT37" s="18"/>
+      <c r="GU37" s="18"/>
+      <c r="GV37" s="18"/>
+      <c r="GW37" s="18"/>
+      <c r="GX37" s="18"/>
+      <c r="GY37" s="18"/>
+      <c r="GZ37" s="18"/>
+      <c r="HA37" s="18"/>
+      <c r="HB37" s="18"/>
+      <c r="HC37" s="18"/>
+      <c r="HD37" s="18"/>
+      <c r="HE37" s="18"/>
+      <c r="HF37" s="18"/>
+      <c r="HG37" s="18"/>
+      <c r="HH37" s="18"/>
+      <c r="HI37" s="18"/>
+      <c r="HJ37" s="18"/>
+      <c r="HK37" s="18"/>
+      <c r="HL37" s="18"/>
+      <c r="HM37" s="18"/>
+      <c r="HN37" s="18"/>
+      <c r="HO37" s="18"/>
+      <c r="HP37" s="18"/>
+      <c r="HQ37" s="18"/>
+      <c r="HR37" s="18"/>
+      <c r="HS37" s="18"/>
+      <c r="HT37" s="18"/>
+      <c r="HU37" s="18"/>
+      <c r="HV37" s="18"/>
+      <c r="HW37" s="18"/>
+      <c r="HX37" s="18"/>
+      <c r="HY37" s="18"/>
+      <c r="HZ37" s="18"/>
+      <c r="IA37" s="18"/>
+      <c r="IB37" s="18"/>
+      <c r="IC37" s="18"/>
+      <c r="ID37" s="18"/>
+      <c r="IE37" s="18"/>
+      <c r="IF37" s="18"/>
+      <c r="IG37" s="18"/>
+      <c r="IH37" s="18"/>
+      <c r="II37" s="18"/>
+      <c r="IJ37" s="18"/>
+      <c r="IK37" s="18"/>
+      <c r="IL37" s="18"/>
+      <c r="IM37" s="18"/>
+      <c r="IN37" s="18"/>
+      <c r="IO37" s="18"/>
+      <c r="IP37" s="18"/>
+      <c r="IQ37" s="18"/>
+      <c r="IR37" s="18"/>
+      <c r="IS37" s="18"/>
+      <c r="IT37" s="18"/>
+      <c r="IU37" s="18"/>
+      <c r="IV37" s="18"/>
+      <c r="IW37" s="18"/>
+      <c r="IX37" s="18"/>
+      <c r="IY37" s="18"/>
+      <c r="IZ37" s="18"/>
+      <c r="JA37" s="18"/>
+      <c r="JB37" s="18"/>
+      <c r="JC37" s="18"/>
+      <c r="JD37" s="18"/>
+      <c r="JE37" s="18"/>
+      <c r="JF37" s="18"/>
+      <c r="JG37" s="18"/>
+      <c r="JH37" s="18"/>
+      <c r="JI37" s="18"/>
+      <c r="JJ37" s="18"/>
+      <c r="JK37" s="18"/>
+      <c r="JL37" s="18"/>
+      <c r="JM37" s="18"/>
+      <c r="JN37" s="18"/>
+      <c r="JO37" s="18"/>
+      <c r="JP37" s="18"/>
+      <c r="JQ37" s="18"/>
+      <c r="JR37" s="18"/>
+      <c r="JS37" s="18"/>
+      <c r="JT37" s="18"/>
+      <c r="JU37" s="18"/>
+      <c r="JV37" s="18"/>
+      <c r="JW37" s="18"/>
+      <c r="JX37" s="18"/>
+      <c r="JY37" s="18"/>
+      <c r="JZ37" s="18"/>
+      <c r="KA37" s="18"/>
+      <c r="KB37" s="18"/>
+      <c r="KC37" s="18"/>
+      <c r="KD37" s="18"/>
+      <c r="KE37" s="18"/>
+      <c r="KF37" s="18"/>
+      <c r="KG37" s="18"/>
+      <c r="KH37" s="18"/>
+      <c r="KI37" s="18"/>
+      <c r="KJ37" s="18"/>
+      <c r="KK37" s="18"/>
+      <c r="KL37" s="18"/>
+      <c r="KM37" s="18"/>
+      <c r="KN37" s="18"/>
+      <c r="KO37" s="18"/>
+      <c r="KP37" s="18"/>
+      <c r="KQ37" s="18"/>
+      <c r="KR37" s="18"/>
+      <c r="KS37" s="18"/>
+      <c r="KT37" s="18"/>
+      <c r="KU37" s="18"/>
+      <c r="KV37" s="18"/>
+      <c r="KW37" s="18"/>
+      <c r="KX37" s="18"/>
+      <c r="KY37" s="18"/>
+      <c r="KZ37" s="18"/>
+      <c r="LA37" s="18"/>
+      <c r="LB37" s="18"/>
+      <c r="LC37" s="18"/>
+      <c r="LD37" s="18"/>
+      <c r="LE37" s="18"/>
+      <c r="LF37" s="18"/>
+      <c r="LG37" s="18"/>
+      <c r="LH37" s="18"/>
+      <c r="LI37" s="18"/>
+      <c r="LJ37" s="18"/>
+      <c r="LK37" s="18"/>
+      <c r="LL37" s="18"/>
+      <c r="LM37" s="18"/>
+      <c r="LN37" s="18"/>
+      <c r="LO37" s="18"/>
+      <c r="LP37" s="18"/>
+      <c r="LQ37" s="18"/>
+      <c r="LR37" s="18"/>
+      <c r="LS37" s="18"/>
+      <c r="LT37" s="18"/>
+      <c r="LU37" s="18"/>
+      <c r="LV37" s="18"/>
+      <c r="LW37" s="18"/>
+      <c r="LX37" s="18"/>
+      <c r="LY37" s="18"/>
+      <c r="LZ37" s="18"/>
+      <c r="MA37" s="18"/>
+      <c r="MB37" s="18"/>
+      <c r="MC37" s="18"/>
+      <c r="MD37" s="18"/>
+      <c r="ME37" s="18"/>
+      <c r="MF37" s="18"/>
+      <c r="MG37" s="18"/>
+      <c r="MH37" s="18"/>
+      <c r="MI37" s="18"/>
+      <c r="MJ37" s="18"/>
+      <c r="MK37" s="18"/>
+      <c r="ML37" s="18"/>
+      <c r="MM37" s="18"/>
+      <c r="MN37" s="18"/>
+      <c r="MO37" s="18"/>
+      <c r="MP37" s="18"/>
+      <c r="MQ37" s="18"/>
+      <c r="MR37" s="18"/>
+      <c r="MS37" s="18"/>
+      <c r="MT37" s="18"/>
+      <c r="MU37" s="18"/>
+      <c r="MV37" s="18"/>
+      <c r="MW37" s="18"/>
+      <c r="MX37" s="18"/>
+      <c r="MY37" s="18"/>
+      <c r="MZ37" s="18"/>
+      <c r="NA37" s="18"/>
+      <c r="NB37" s="18"/>
+      <c r="NC37" s="18"/>
+      <c r="ND37" s="18"/>
+      <c r="NE37" s="18"/>
+      <c r="NF37" s="18"/>
+      <c r="NG37" s="18"/>
+      <c r="NH37" s="18"/>
+      <c r="NI37" s="18"/>
+      <c r="NJ37" s="18"/>
+      <c r="NK37" s="18"/>
+      <c r="NL37" s="18"/>
+      <c r="NM37" s="18"/>
+      <c r="NN37" s="18"/>
+      <c r="NO37" s="18"/>
+      <c r="NP37" s="18"/>
+      <c r="NQ37" s="18"/>
+      <c r="NR37" s="18"/>
+      <c r="NS37" s="18"/>
+      <c r="NT37" s="18"/>
+      <c r="NU37" s="18"/>
+      <c r="NV37" s="18"/>
+      <c r="NW37" s="18"/>
+      <c r="NX37" s="18"/>
+      <c r="NY37" s="18"/>
+      <c r="NZ37" s="18"/>
+      <c r="OA37" s="18"/>
+      <c r="OB37" s="18"/>
+      <c r="OC37" s="18"/>
+      <c r="OD37" s="18"/>
+      <c r="OE37" s="18"/>
+      <c r="OF37" s="18"/>
+      <c r="OG37" s="18"/>
+      <c r="OH37" s="18"/>
+      <c r="OI37" s="18"/>
+      <c r="OJ37" s="18"/>
+      <c r="OK37" s="18"/>
+      <c r="OL37" s="18"/>
+      <c r="OM37" s="18"/>
+      <c r="ON37" s="18"/>
+      <c r="OO37" s="18"/>
+      <c r="OP37" s="18"/>
+      <c r="OQ37" s="18"/>
+      <c r="OR37" s="18"/>
+      <c r="OS37" s="18"/>
+      <c r="OT37" s="18"/>
+      <c r="OU37" s="18"/>
+      <c r="OV37" s="18"/>
+      <c r="OW37" s="18"/>
+      <c r="OX37" s="18"/>
+      <c r="OY37" s="18"/>
+      <c r="OZ37" s="18"/>
+      <c r="PA37" s="18"/>
+      <c r="PB37" s="18"/>
+      <c r="PC37" s="18"/>
+      <c r="PD37" s="18"/>
+      <c r="PE37" s="18"/>
+      <c r="PF37" s="18"/>
+      <c r="PG37" s="18"/>
+      <c r="PH37" s="18"/>
+      <c r="PI37" s="18"/>
+      <c r="PJ37" s="18"/>
+      <c r="PK37" s="18"/>
+      <c r="PL37" s="18"/>
+      <c r="PM37" s="18"/>
+      <c r="PN37" s="18"/>
+      <c r="PO37" s="18"/>
+      <c r="PP37" s="18"/>
+      <c r="PQ37" s="18"/>
+      <c r="PR37" s="18"/>
+      <c r="PS37" s="18"/>
+      <c r="PT37" s="18"/>
+      <c r="PU37" s="18"/>
+      <c r="PV37" s="18"/>
+      <c r="PW37" s="18"/>
+      <c r="PX37" s="18"/>
+      <c r="PY37" s="18"/>
+      <c r="PZ37" s="18"/>
+      <c r="QA37" s="18"/>
+      <c r="QB37" s="18"/>
+      <c r="QC37" s="18"/>
+      <c r="QD37" s="18"/>
+      <c r="QE37" s="18"/>
+      <c r="QF37" s="18"/>
+      <c r="QG37" s="18"/>
+      <c r="QH37" s="18"/>
+      <c r="QI37" s="18"/>
+      <c r="QJ37" s="18"/>
+      <c r="QK37" s="18"/>
+      <c r="QL37" s="18"/>
+      <c r="QM37" s="18"/>
+      <c r="QN37" s="18"/>
+      <c r="QO37" s="18"/>
+      <c r="QP37" s="18"/>
+      <c r="QQ37" s="18"/>
+      <c r="QR37" s="18"/>
+      <c r="QS37" s="18"/>
+      <c r="QT37" s="18"/>
+      <c r="QU37" s="18"/>
+      <c r="QV37" s="18"/>
+      <c r="QW37" s="18"/>
+      <c r="QX37" s="18"/>
+      <c r="QY37" s="18"/>
+      <c r="QZ37" s="18"/>
+      <c r="RA37" s="18"/>
+      <c r="RB37" s="18"/>
+      <c r="RC37" s="18"/>
+      <c r="RD37" s="18"/>
+      <c r="RE37" s="18"/>
+      <c r="RF37" s="18"/>
+      <c r="RG37" s="18"/>
+      <c r="RH37" s="18"/>
+      <c r="RI37" s="18"/>
+      <c r="RJ37" s="18"/>
+      <c r="RK37" s="18"/>
+      <c r="RL37" s="18"/>
+      <c r="RM37" s="18"/>
+      <c r="RN37" s="18"/>
+      <c r="RO37" s="18"/>
+      <c r="RP37" s="18"/>
+      <c r="RQ37" s="18"/>
+      <c r="RR37" s="18"/>
+      <c r="RS37" s="18"/>
+      <c r="RT37" s="18"/>
+      <c r="RU37" s="18"/>
+      <c r="RV37" s="18"/>
+      <c r="RW37" s="18"/>
+      <c r="RX37" s="18"/>
+      <c r="RY37" s="18"/>
+      <c r="RZ37" s="18"/>
+      <c r="SA37" s="18"/>
+      <c r="SB37" s="18"/>
+      <c r="SC37" s="18"/>
+      <c r="SD37" s="18"/>
+      <c r="SE37" s="18"/>
+      <c r="SF37" s="18"/>
+      <c r="SG37" s="18"/>
+      <c r="SH37" s="18"/>
+      <c r="SI37" s="18"/>
+      <c r="SJ37" s="18"/>
+      <c r="SK37" s="18"/>
+      <c r="SL37" s="18"/>
+      <c r="SM37" s="18"/>
+      <c r="SN37" s="18"/>
+      <c r="SO37" s="18"/>
+      <c r="SP37" s="18"/>
+      <c r="SQ37" s="18"/>
+      <c r="SR37" s="18"/>
+      <c r="SS37" s="18"/>
+      <c r="ST37" s="18"/>
+      <c r="SU37" s="18"/>
+      <c r="SV37" s="18"/>
+      <c r="SW37" s="18"/>
+      <c r="SX37" s="18"/>
+      <c r="SY37" s="18"/>
+      <c r="SZ37" s="18"/>
+      <c r="TA37" s="18"/>
+      <c r="TB37" s="18"/>
+      <c r="TC37" s="18"/>
+      <c r="TD37" s="18"/>
+      <c r="TE37" s="18"/>
+      <c r="TF37" s="18"/>
+      <c r="TG37" s="18"/>
+      <c r="TH37" s="18"/>
+      <c r="TI37" s="18"/>
+      <c r="TJ37" s="18"/>
+      <c r="TK37" s="18"/>
+      <c r="TL37" s="18"/>
+      <c r="TM37" s="18"/>
+      <c r="TN37" s="18"/>
+      <c r="TO37" s="18"/>
+      <c r="TP37" s="18"/>
+      <c r="TQ37" s="18"/>
+      <c r="TR37" s="18"/>
+      <c r="TS37" s="18"/>
+      <c r="TT37" s="18"/>
+      <c r="TU37" s="18"/>
+      <c r="TV37" s="18"/>
+      <c r="TW37" s="18"/>
+      <c r="TX37" s="18"/>
+      <c r="TY37" s="18"/>
+      <c r="TZ37" s="18"/>
+      <c r="UA37" s="18"/>
+      <c r="UB37" s="18"/>
+      <c r="UC37" s="18"/>
+      <c r="UD37" s="18"/>
+      <c r="UE37" s="18"/>
+      <c r="UF37" s="18"/>
+      <c r="UG37" s="18"/>
+      <c r="UH37" s="18"/>
+      <c r="UI37" s="18"/>
+      <c r="UJ37" s="18"/>
+      <c r="UK37" s="18"/>
+      <c r="UL37" s="18"/>
+      <c r="UM37" s="18"/>
+      <c r="UN37" s="18"/>
+      <c r="UO37" s="18"/>
+      <c r="UP37" s="18"/>
+      <c r="UQ37" s="18"/>
+      <c r="UR37" s="18"/>
+      <c r="US37" s="18"/>
+      <c r="UT37" s="18"/>
+      <c r="UU37" s="18"/>
+      <c r="UV37" s="18"/>
+      <c r="UW37" s="18"/>
+      <c r="UX37" s="18"/>
+      <c r="UY37" s="18"/>
+      <c r="UZ37" s="18"/>
+      <c r="VA37" s="18"/>
+      <c r="VB37" s="18"/>
+      <c r="VC37" s="18"/>
+      <c r="VD37" s="18"/>
+      <c r="VE37" s="18"/>
+      <c r="VF37" s="18"/>
+      <c r="VG37" s="18"/>
+      <c r="VH37" s="18"/>
+      <c r="VI37" s="18"/>
+      <c r="VJ37" s="18"/>
+      <c r="VK37" s="18"/>
+      <c r="VL37" s="18"/>
+      <c r="VM37" s="18"/>
+      <c r="VN37" s="18"/>
+      <c r="VO37" s="18"/>
+      <c r="VP37" s="18"/>
+      <c r="VQ37" s="18"/>
+      <c r="VR37" s="18"/>
+      <c r="VS37" s="18"/>
+      <c r="VT37" s="18"/>
+      <c r="VU37" s="18"/>
+      <c r="VV37" s="18"/>
+      <c r="VW37" s="18"/>
+      <c r="VX37" s="18"/>
+      <c r="VY37" s="18"/>
+      <c r="VZ37" s="18"/>
+      <c r="WA37" s="18"/>
+      <c r="WB37" s="18"/>
+      <c r="WC37" s="18"/>
+      <c r="WD37" s="18"/>
+      <c r="WE37" s="18"/>
+      <c r="WF37" s="18"/>
+      <c r="WG37" s="18"/>
+      <c r="WH37" s="18"/>
+      <c r="WI37" s="18"/>
+      <c r="WJ37" s="18"/>
+      <c r="WK37" s="18"/>
+      <c r="WL37" s="18"/>
+      <c r="WM37" s="18"/>
+      <c r="WN37" s="18"/>
+      <c r="WO37" s="18"/>
+      <c r="WP37" s="18"/>
+      <c r="WQ37" s="18"/>
+      <c r="WR37" s="18"/>
+      <c r="WS37" s="18"/>
+      <c r="WT37" s="18"/>
+      <c r="WU37" s="18"/>
+      <c r="WV37" s="18"/>
+      <c r="WW37" s="18"/>
+      <c r="WX37" s="18"/>
+      <c r="WY37" s="18"/>
+      <c r="WZ37" s="18"/>
+      <c r="XA37" s="18"/>
+      <c r="XB37" s="18"/>
+      <c r="XC37" s="18"/>
+      <c r="XD37" s="18"/>
+      <c r="XE37" s="18"/>
+      <c r="XF37" s="18"/>
+      <c r="XG37" s="18"/>
+      <c r="XH37" s="18"/>
+      <c r="XI37" s="18"/>
+      <c r="XJ37" s="18"/>
+      <c r="XK37" s="18"/>
+      <c r="XL37" s="18"/>
+      <c r="XM37" s="18"/>
+      <c r="XN37" s="18"/>
+      <c r="XO37" s="18"/>
+      <c r="XP37" s="18"/>
+      <c r="XQ37" s="18"/>
+      <c r="XR37" s="18"/>
+      <c r="XS37" s="18"/>
+      <c r="XT37" s="18"/>
+      <c r="XU37" s="18"/>
+      <c r="XV37" s="18"/>
+      <c r="XW37" s="18"/>
+      <c r="XX37" s="18"/>
+      <c r="XY37" s="18"/>
+      <c r="XZ37" s="18"/>
+      <c r="YA37" s="18"/>
+      <c r="YB37" s="18"/>
+      <c r="YC37" s="18"/>
+      <c r="YD37" s="18"/>
+      <c r="YE37" s="18"/>
+      <c r="YF37" s="18"/>
+      <c r="YG37" s="18"/>
+      <c r="YH37" s="18"/>
+      <c r="YI37" s="18"/>
+      <c r="YJ37" s="18"/>
+      <c r="YK37" s="18"/>
+      <c r="YL37" s="18"/>
+      <c r="YM37" s="18"/>
+      <c r="YN37" s="18"/>
+      <c r="YO37" s="18"/>
+      <c r="YP37" s="18"/>
+      <c r="YQ37" s="18"/>
+      <c r="YR37" s="18"/>
+      <c r="YS37" s="18"/>
+      <c r="YT37" s="18"/>
+      <c r="YU37" s="18"/>
+      <c r="YV37" s="18"/>
+      <c r="YW37" s="18"/>
+      <c r="YX37" s="18"/>
+      <c r="YY37" s="18"/>
+      <c r="YZ37" s="18"/>
+      <c r="ZA37" s="18"/>
+      <c r="ZB37" s="18"/>
+      <c r="ZC37" s="18"/>
+      <c r="ZD37" s="18"/>
+      <c r="ZE37" s="18"/>
+      <c r="ZF37" s="18"/>
+      <c r="ZG37" s="18"/>
+      <c r="ZH37" s="18"/>
+      <c r="ZI37" s="18"/>
+      <c r="ZJ37" s="18"/>
+      <c r="ZK37" s="18"/>
+      <c r="ZL37" s="18"/>
+      <c r="ZM37" s="18"/>
+      <c r="ZN37" s="18"/>
+      <c r="ZO37" s="18"/>
+      <c r="ZP37" s="18"/>
+      <c r="ZQ37" s="18"/>
+      <c r="ZR37" s="18"/>
+      <c r="ZS37" s="18"/>
+      <c r="ZT37" s="18"/>
+      <c r="ZU37" s="18"/>
+      <c r="ZV37" s="18"/>
+      <c r="ZW37" s="18"/>
+      <c r="ZX37" s="18"/>
+      <c r="ZY37" s="18"/>
+      <c r="ZZ37" s="18"/>
+      <c r="AAA37" s="18"/>
+      <c r="AAB37" s="18"/>
+      <c r="AAC37" s="18"/>
+      <c r="AAD37" s="18"/>
+      <c r="AAE37" s="18"/>
+      <c r="AAF37" s="18"/>
+      <c r="AAG37" s="18"/>
+      <c r="AAH37" s="18"/>
+      <c r="AAI37" s="18"/>
+      <c r="AAJ37" s="18"/>
+      <c r="AAK37" s="18"/>
+      <c r="AAL37" s="18"/>
+      <c r="AAM37" s="18"/>
+      <c r="AAN37" s="18"/>
+      <c r="AAO37" s="18"/>
+      <c r="AAP37" s="18"/>
+      <c r="AAQ37" s="18"/>
+      <c r="AAR37" s="18"/>
+      <c r="AAS37" s="18"/>
+      <c r="AAT37" s="18"/>
+      <c r="AAU37" s="18"/>
+      <c r="AAV37" s="18"/>
+      <c r="AAW37" s="18"/>
+      <c r="AAX37" s="18"/>
+      <c r="AAY37" s="18"/>
+      <c r="AAZ37" s="18"/>
+      <c r="ABA37" s="18"/>
+      <c r="ABB37" s="18"/>
+      <c r="ABC37" s="18"/>
+      <c r="ABD37" s="18"/>
+      <c r="ABE37" s="18"/>
+      <c r="ABF37" s="18"/>
+      <c r="ABG37" s="18"/>
+      <c r="ABH37" s="18"/>
+      <c r="ABI37" s="18"/>
+      <c r="ABJ37" s="18"/>
+      <c r="ABK37" s="18"/>
+      <c r="ABL37" s="18"/>
+      <c r="ABM37" s="18"/>
+      <c r="ABN37" s="18"/>
+      <c r="ABO37" s="18"/>
+      <c r="ABP37" s="18"/>
+      <c r="ABQ37" s="18"/>
+      <c r="ABR37" s="18"/>
+      <c r="ABS37" s="18"/>
+      <c r="ABT37" s="18"/>
+      <c r="ABU37" s="18"/>
+      <c r="ABV37" s="18"/>
+      <c r="ABW37" s="18"/>
+      <c r="ABX37" s="18"/>
+      <c r="ABY37" s="18"/>
+      <c r="ABZ37" s="18"/>
+      <c r="ACA37" s="18"/>
+      <c r="ACB37" s="18"/>
+      <c r="ACC37" s="18"/>
+      <c r="ACD37" s="18"/>
+      <c r="ACE37" s="18"/>
+      <c r="ACF37" s="18"/>
+      <c r="ACG37" s="18"/>
+      <c r="ACH37" s="18"/>
+      <c r="ACI37" s="18"/>
+      <c r="ACJ37" s="18"/>
+      <c r="ACK37" s="18"/>
+      <c r="ACL37" s="18"/>
+      <c r="ACM37" s="18"/>
+      <c r="ACN37" s="18"/>
+      <c r="ACO37" s="18"/>
+      <c r="ACP37" s="18"/>
+      <c r="ACQ37" s="18"/>
+      <c r="ACR37" s="18"/>
+      <c r="ACS37" s="18"/>
+      <c r="ACT37" s="18"/>
+      <c r="ACU37" s="18"/>
+      <c r="ACV37" s="18"/>
+      <c r="ACW37" s="18"/>
+      <c r="ACX37" s="18"/>
+      <c r="ACY37" s="18"/>
+      <c r="ACZ37" s="18"/>
+      <c r="ADA37" s="18"/>
+      <c r="ADB37" s="18"/>
+      <c r="ADC37" s="18"/>
+      <c r="ADD37" s="18"/>
+      <c r="ADE37" s="18"/>
+      <c r="ADF37" s="18"/>
+      <c r="ADG37" s="18"/>
+      <c r="ADH37" s="18"/>
+      <c r="ADI37" s="18"/>
+      <c r="ADJ37" s="18"/>
+      <c r="ADK37" s="18"/>
+      <c r="ADL37" s="18"/>
+      <c r="ADM37" s="18"/>
+      <c r="ADN37" s="18"/>
+      <c r="ADO37" s="18"/>
+      <c r="ADP37" s="18"/>
+      <c r="ADQ37" s="18"/>
+      <c r="ADR37" s="18"/>
+      <c r="ADS37" s="18"/>
+      <c r="ADT37" s="18"/>
+      <c r="ADU37" s="18"/>
+      <c r="ADV37" s="18"/>
+      <c r="ADW37" s="18"/>
+      <c r="ADX37" s="18"/>
+      <c r="ADY37" s="18"/>
+      <c r="ADZ37" s="18"/>
+      <c r="AEA37" s="18"/>
+      <c r="AEB37" s="18"/>
+      <c r="AEC37" s="18"/>
+      <c r="AED37" s="18"/>
+      <c r="AEE37" s="18"/>
+      <c r="AEF37" s="18"/>
+      <c r="AEG37" s="18"/>
+      <c r="AEH37" s="18"/>
+      <c r="AEI37" s="18"/>
+      <c r="AEJ37" s="18"/>
+      <c r="AEK37" s="18"/>
+      <c r="AEL37" s="18"/>
+      <c r="AEM37" s="18"/>
+      <c r="AEN37" s="18"/>
+      <c r="AEO37" s="18"/>
+      <c r="AEP37" s="18"/>
+      <c r="AEQ37" s="18"/>
+      <c r="AER37" s="18"/>
+      <c r="AES37" s="18"/>
+      <c r="AET37" s="18"/>
+      <c r="AEU37" s="18"/>
+      <c r="AEV37" s="18"/>
+      <c r="AEW37" s="18"/>
+      <c r="AEX37" s="18"/>
+      <c r="AEY37" s="18"/>
+      <c r="AEZ37" s="18"/>
+      <c r="AFA37" s="18"/>
+      <c r="AFB37" s="18"/>
+      <c r="AFC37" s="18"/>
+      <c r="AFD37" s="18"/>
+      <c r="AFE37" s="18"/>
+      <c r="AFF37" s="18"/>
+      <c r="AFG37" s="18"/>
+      <c r="AFH37" s="18"/>
+      <c r="AFI37" s="18"/>
+      <c r="AFJ37" s="18"/>
+      <c r="AFK37" s="18"/>
+      <c r="AFL37" s="18"/>
+      <c r="AFM37" s="18"/>
+      <c r="AFN37" s="18"/>
+      <c r="AFO37" s="18"/>
+      <c r="AFP37" s="18"/>
+      <c r="AFQ37" s="18"/>
+      <c r="AFR37" s="18"/>
+      <c r="AFS37" s="18"/>
+      <c r="AFT37" s="18"/>
+      <c r="AFU37" s="18"/>
+      <c r="AFV37" s="18"/>
+      <c r="AFW37" s="18"/>
+      <c r="AFX37" s="18"/>
+      <c r="AFY37" s="18"/>
+      <c r="AFZ37" s="18"/>
+      <c r="AGA37" s="18"/>
+      <c r="AGB37" s="18"/>
+      <c r="AGC37" s="18"/>
+      <c r="AGD37" s="18"/>
+      <c r="AGE37" s="18"/>
+      <c r="AGF37" s="18"/>
+      <c r="AGG37" s="18"/>
+      <c r="AGH37" s="18"/>
+      <c r="AGI37" s="18"/>
+      <c r="AGJ37" s="18"/>
+      <c r="AGK37" s="18"/>
+      <c r="AGL37" s="18"/>
+      <c r="AGM37" s="18"/>
+      <c r="AGN37" s="18"/>
+      <c r="AGO37" s="18"/>
+      <c r="AGP37" s="18"/>
+      <c r="AGQ37" s="18"/>
+      <c r="AGR37" s="18"/>
+      <c r="AGS37" s="18"/>
+      <c r="AGT37" s="18"/>
+      <c r="AGU37" s="18"/>
+      <c r="AGV37" s="18"/>
+      <c r="AGW37" s="18"/>
+      <c r="AGX37" s="18"/>
+      <c r="AGY37" s="18"/>
+      <c r="AGZ37" s="18"/>
+      <c r="AHA37" s="18"/>
+      <c r="AHB37" s="18"/>
+      <c r="AHC37" s="18"/>
+      <c r="AHD37" s="18"/>
+      <c r="AHE37" s="18"/>
+      <c r="AHF37" s="18"/>
+      <c r="AHG37" s="18"/>
+      <c r="AHH37" s="18"/>
+      <c r="AHI37" s="18"/>
+      <c r="AHJ37" s="18"/>
+      <c r="AHK37" s="18"/>
+      <c r="AHL37" s="18"/>
+      <c r="AHM37" s="18"/>
+      <c r="AHN37" s="18"/>
+      <c r="AHO37" s="18"/>
+      <c r="AHP37" s="18"/>
+      <c r="AHQ37" s="18"/>
+      <c r="AHR37" s="18"/>
+      <c r="AHS37" s="18"/>
+      <c r="AHT37" s="18"/>
+      <c r="AHU37" s="18"/>
+      <c r="AHV37" s="18"/>
+      <c r="AHW37" s="18"/>
+      <c r="AHX37" s="18"/>
+      <c r="AHY37" s="18"/>
+      <c r="AHZ37" s="18"/>
+      <c r="AIA37" s="18"/>
+      <c r="AIB37" s="18"/>
+      <c r="AIC37" s="18"/>
+      <c r="AID37" s="18"/>
+      <c r="AIE37" s="18"/>
+      <c r="AIF37" s="18"/>
+      <c r="AIG37" s="18"/>
+      <c r="AIH37" s="18"/>
+      <c r="AII37" s="18"/>
+      <c r="AIJ37" s="18"/>
+      <c r="AIK37" s="18"/>
+      <c r="AIL37" s="18"/>
+      <c r="AIM37" s="18"/>
+      <c r="AIN37" s="18"/>
+      <c r="AIO37" s="18"/>
+      <c r="AIP37" s="18"/>
+      <c r="AIQ37" s="18"/>
+      <c r="AIR37" s="18"/>
+      <c r="AIS37" s="18"/>
+      <c r="AIT37" s="18"/>
+      <c r="AIU37" s="18"/>
+      <c r="AIV37" s="18"/>
+      <c r="AIW37" s="18"/>
+      <c r="AIX37" s="18"/>
+      <c r="AIY37" s="18"/>
+      <c r="AIZ37" s="18"/>
+      <c r="AJA37" s="18"/>
+      <c r="AJB37" s="18"/>
+      <c r="AJC37" s="18"/>
+      <c r="AJD37" s="18"/>
+      <c r="AJE37" s="18"/>
+      <c r="AJF37" s="18"/>
+      <c r="AJG37" s="18"/>
+      <c r="AJH37" s="18"/>
+      <c r="AJI37" s="18"/>
+      <c r="AJJ37" s="18"/>
+      <c r="AJK37" s="18"/>
+      <c r="AJL37" s="18"/>
+      <c r="AJM37" s="18"/>
+      <c r="AJN37" s="18"/>
+      <c r="AJO37" s="18"/>
+      <c r="AJP37" s="18"/>
+      <c r="AJQ37" s="18"/>
+      <c r="AJR37" s="18"/>
+      <c r="AJS37" s="18"/>
+      <c r="AJT37" s="18"/>
+      <c r="AJU37" s="18"/>
+      <c r="AJV37" s="18"/>
+      <c r="AJW37" s="18"/>
+      <c r="AJX37" s="18"/>
+      <c r="AJY37" s="18"/>
+      <c r="AJZ37" s="18"/>
+      <c r="AKA37" s="18"/>
+      <c r="AKB37" s="18"/>
+      <c r="AKC37" s="18"/>
+      <c r="AKD37" s="18"/>
+      <c r="AKE37" s="18"/>
+      <c r="AKF37" s="18"/>
+      <c r="AKG37" s="18"/>
+      <c r="AKH37" s="18"/>
+      <c r="AKI37" s="18"/>
+      <c r="AKJ37" s="18"/>
+      <c r="AKK37" s="18"/>
+      <c r="AKL37" s="18"/>
+      <c r="AKM37" s="18"/>
+      <c r="AKN37" s="18"/>
+      <c r="AKO37" s="18"/>
+      <c r="AKP37" s="18"/>
+      <c r="AKQ37" s="18"/>
+      <c r="AKR37" s="18"/>
+      <c r="AKS37" s="18"/>
+      <c r="AKT37" s="18"/>
+      <c r="AKU37" s="18"/>
+      <c r="AKV37" s="18"/>
+      <c r="AKW37" s="18"/>
+      <c r="AKX37" s="18"/>
+      <c r="AKY37" s="18"/>
+      <c r="AKZ37" s="18"/>
+      <c r="ALA37" s="18"/>
+      <c r="ALB37" s="18"/>
+      <c r="ALC37" s="18"/>
+      <c r="ALD37" s="18"/>
+      <c r="ALE37" s="18"/>
+      <c r="ALF37" s="18"/>
+      <c r="ALG37" s="18"/>
+      <c r="ALH37" s="18"/>
+      <c r="ALI37" s="18"/>
+      <c r="ALJ37" s="18"/>
+      <c r="ALK37" s="18"/>
+      <c r="ALL37" s="18"/>
+      <c r="ALM37" s="18"/>
+      <c r="ALN37" s="18"/>
+      <c r="ALO37" s="18"/>
+      <c r="ALP37" s="18"/>
+      <c r="ALQ37" s="18"/>
+      <c r="ALR37" s="18"/>
+      <c r="ALS37" s="18"/>
+      <c r="ALT37" s="18"/>
+      <c r="ALU37" s="18"/>
+      <c r="ALV37" s="18"/>
+      <c r="ALW37" s="18"/>
+      <c r="ALX37" s="18"/>
+      <c r="ALY37" s="18"/>
+      <c r="ALZ37" s="18"/>
+      <c r="AMA37" s="18"/>
+      <c r="AMB37" s="18"/>
+      <c r="AMC37" s="18"/>
+      <c r="AMD37" s="18"/>
+      <c r="AME37" s="18"/>
+      <c r="AMF37" s="18"/>
+      <c r="AMG37" s="18"/>
+      <c r="AMH37" s="18"/>
+      <c r="AMI37" s="18"/>
+      <c r="AMJ37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2533,9 +10158,12 @@
     <hyperlink ref="K1" r:id="rId6"/>
     <hyperlink ref="E1" r:id="rId7"/>
     <hyperlink ref="E24" r:id="rId8"/>
+    <hyperlink ref="L1" r:id="rId9" display="mailto:automationctpl8@gmail.com"/>
+    <hyperlink ref="M1" r:id="rId10" display="mailto:qwerty@123"/>
+    <hyperlink ref="O1" r:id="rId11" display="mailto:qwerty@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14370" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15180" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="238">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -372,9 +372,6 @@
     <t>576567</t>
   </si>
   <si>
-    <t>ruchiramhaisurkar@connecticus.in</t>
-  </si>
-  <si>
     <t>8768768754</t>
   </si>
   <si>
@@ -573,12 +570,6 @@
     <t>refund</t>
   </si>
   <si>
-    <t>NetChain2 – AP CREATE: MEMO</t>
-  </si>
-  <si>
-    <t>TechBcs</t>
-  </si>
-  <si>
     <t>TechBite</t>
   </si>
   <si>
@@ -688,6 +679,57 @@
   </si>
   <si>
     <t>memo</t>
+  </si>
+  <si>
+    <t>NetChain2 – AP Credit Memo</t>
+  </si>
+  <si>
+    <t>BlueStar</t>
+  </si>
+  <si>
+    <t>AP.NetchainTest.Createpayment</t>
+  </si>
+  <si>
+    <t>payment desc 1</t>
+  </si>
+  <si>
+    <t>payment decs 2</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>rashmi.joshi@connecticus.in</t>
+  </si>
+  <si>
+    <t>rashmiconnecticus@gmail.com</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Accept Invoice</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Approval Pending</t>
+  </si>
+  <si>
+    <t>Approve Invoice</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Payment Pending</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -824,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -861,12 +903,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -881,6 +917,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1187,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>62</v>
@@ -1217,33 +1263,45 @@
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>62</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1263,13 +1321,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>24</v>
@@ -1284,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J3" s="19">
         <v>2</v>
@@ -1305,1018 +1363,1018 @@
         <v>9</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="22"/>
-      <c r="BL3" s="22"/>
-      <c r="BM3" s="22"/>
-      <c r="BN3" s="22"/>
-      <c r="BO3" s="22"/>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="22"/>
-      <c r="BR3" s="22"/>
-      <c r="BS3" s="22"/>
-      <c r="BT3" s="22"/>
-      <c r="BU3" s="22"/>
-      <c r="BV3" s="22"/>
-      <c r="BW3" s="22"/>
-      <c r="BX3" s="22"/>
-      <c r="BY3" s="22"/>
-      <c r="BZ3" s="22"/>
-      <c r="CA3" s="22"/>
-      <c r="CB3" s="22"/>
-      <c r="CC3" s="22"/>
-      <c r="CD3" s="22"/>
-      <c r="CE3" s="22"/>
-      <c r="CF3" s="22"/>
-      <c r="CG3" s="22"/>
-      <c r="CH3" s="22"/>
-      <c r="CI3" s="22"/>
-      <c r="CJ3" s="22"/>
-      <c r="CK3" s="22"/>
-      <c r="CL3" s="22"/>
-      <c r="CM3" s="22"/>
-      <c r="CN3" s="22"/>
-      <c r="CO3" s="22"/>
-      <c r="CP3" s="22"/>
-      <c r="CQ3" s="22"/>
-      <c r="CR3" s="22"/>
-      <c r="CS3" s="22"/>
-      <c r="CT3" s="22"/>
-      <c r="CU3" s="22"/>
-      <c r="CV3" s="22"/>
-      <c r="CW3" s="22"/>
-      <c r="CX3" s="22"/>
-      <c r="CY3" s="22"/>
-      <c r="CZ3" s="22"/>
-      <c r="DA3" s="22"/>
-      <c r="DB3" s="22"/>
-      <c r="DC3" s="22"/>
-      <c r="DD3" s="22"/>
-      <c r="DE3" s="22"/>
-      <c r="DF3" s="22"/>
-      <c r="DG3" s="22"/>
-      <c r="DH3" s="22"/>
-      <c r="DI3" s="22"/>
-      <c r="DJ3" s="22"/>
-      <c r="DK3" s="22"/>
-      <c r="DL3" s="22"/>
-      <c r="DM3" s="22"/>
-      <c r="DN3" s="22"/>
-      <c r="DO3" s="22"/>
-      <c r="DP3" s="22"/>
-      <c r="DQ3" s="22"/>
-      <c r="DR3" s="22"/>
-      <c r="DS3" s="22"/>
-      <c r="DT3" s="22"/>
-      <c r="DU3" s="22"/>
-      <c r="DV3" s="22"/>
-      <c r="DW3" s="22"/>
-      <c r="DX3" s="22"/>
-      <c r="DY3" s="22"/>
-      <c r="DZ3" s="22"/>
-      <c r="EA3" s="22"/>
-      <c r="EB3" s="22"/>
-      <c r="EC3" s="22"/>
-      <c r="ED3" s="22"/>
-      <c r="EE3" s="22"/>
-      <c r="EF3" s="22"/>
-      <c r="EG3" s="22"/>
-      <c r="EH3" s="22"/>
-      <c r="EI3" s="22"/>
-      <c r="EJ3" s="22"/>
-      <c r="EK3" s="22"/>
-      <c r="EL3" s="22"/>
-      <c r="EM3" s="22"/>
-      <c r="EN3" s="22"/>
-      <c r="EO3" s="22"/>
-      <c r="EP3" s="22"/>
-      <c r="EQ3" s="22"/>
-      <c r="ER3" s="22"/>
-      <c r="ES3" s="22"/>
-      <c r="ET3" s="22"/>
-      <c r="EU3" s="22"/>
-      <c r="EV3" s="22"/>
-      <c r="EW3" s="22"/>
-      <c r="EX3" s="22"/>
-      <c r="EY3" s="22"/>
-      <c r="EZ3" s="22"/>
-      <c r="FA3" s="22"/>
-      <c r="FB3" s="22"/>
-      <c r="FC3" s="22"/>
-      <c r="FD3" s="22"/>
-      <c r="FE3" s="22"/>
-      <c r="FF3" s="22"/>
-      <c r="FG3" s="22"/>
-      <c r="FH3" s="22"/>
-      <c r="FI3" s="22"/>
-      <c r="FJ3" s="22"/>
-      <c r="FK3" s="22"/>
-      <c r="FL3" s="22"/>
-      <c r="FM3" s="22"/>
-      <c r="FN3" s="22"/>
-      <c r="FO3" s="22"/>
-      <c r="FP3" s="22"/>
-      <c r="FQ3" s="22"/>
-      <c r="FR3" s="22"/>
-      <c r="FS3" s="22"/>
-      <c r="FT3" s="22"/>
-      <c r="FU3" s="22"/>
-      <c r="FV3" s="22"/>
-      <c r="FW3" s="22"/>
-      <c r="FX3" s="22"/>
-      <c r="FY3" s="22"/>
-      <c r="FZ3" s="22"/>
-      <c r="GA3" s="22"/>
-      <c r="GB3" s="22"/>
-      <c r="GC3" s="22"/>
-      <c r="GD3" s="22"/>
-      <c r="GE3" s="22"/>
-      <c r="GF3" s="22"/>
-      <c r="GG3" s="22"/>
-      <c r="GH3" s="22"/>
-      <c r="GI3" s="22"/>
-      <c r="GJ3" s="22"/>
-      <c r="GK3" s="22"/>
-      <c r="GL3" s="22"/>
-      <c r="GM3" s="22"/>
-      <c r="GN3" s="22"/>
-      <c r="GO3" s="22"/>
-      <c r="GP3" s="22"/>
-      <c r="GQ3" s="22"/>
-      <c r="GR3" s="22"/>
-      <c r="GS3" s="22"/>
-      <c r="GT3" s="22"/>
-      <c r="GU3" s="22"/>
-      <c r="GV3" s="22"/>
-      <c r="GW3" s="22"/>
-      <c r="GX3" s="22"/>
-      <c r="GY3" s="22"/>
-      <c r="GZ3" s="22"/>
-      <c r="HA3" s="22"/>
-      <c r="HB3" s="22"/>
-      <c r="HC3" s="22"/>
-      <c r="HD3" s="22"/>
-      <c r="HE3" s="22"/>
-      <c r="HF3" s="22"/>
-      <c r="HG3" s="22"/>
-      <c r="HH3" s="22"/>
-      <c r="HI3" s="22"/>
-      <c r="HJ3" s="22"/>
-      <c r="HK3" s="22"/>
-      <c r="HL3" s="22"/>
-      <c r="HM3" s="22"/>
-      <c r="HN3" s="22"/>
-      <c r="HO3" s="22"/>
-      <c r="HP3" s="22"/>
-      <c r="HQ3" s="22"/>
-      <c r="HR3" s="22"/>
-      <c r="HS3" s="22"/>
-      <c r="HT3" s="22"/>
-      <c r="HU3" s="22"/>
-      <c r="HV3" s="22"/>
-      <c r="HW3" s="22"/>
-      <c r="HX3" s="22"/>
-      <c r="HY3" s="22"/>
-      <c r="HZ3" s="22"/>
-      <c r="IA3" s="22"/>
-      <c r="IB3" s="22"/>
-      <c r="IC3" s="22"/>
-      <c r="ID3" s="22"/>
-      <c r="IE3" s="22"/>
-      <c r="IF3" s="22"/>
-      <c r="IG3" s="22"/>
-      <c r="IH3" s="22"/>
-      <c r="II3" s="22"/>
-      <c r="IJ3" s="22"/>
-      <c r="IK3" s="22"/>
-      <c r="IL3" s="22"/>
-      <c r="IM3" s="22"/>
-      <c r="IN3" s="22"/>
-      <c r="IO3" s="22"/>
-      <c r="IP3" s="22"/>
-      <c r="IQ3" s="22"/>
-      <c r="IR3" s="22"/>
-      <c r="IS3" s="22"/>
-      <c r="IT3" s="22"/>
-      <c r="IU3" s="22"/>
-      <c r="IV3" s="22"/>
-      <c r="IW3" s="22"/>
-      <c r="IX3" s="22"/>
-      <c r="IY3" s="22"/>
-      <c r="IZ3" s="22"/>
-      <c r="JA3" s="22"/>
-      <c r="JB3" s="22"/>
-      <c r="JC3" s="22"/>
-      <c r="JD3" s="22"/>
-      <c r="JE3" s="22"/>
-      <c r="JF3" s="22"/>
-      <c r="JG3" s="22"/>
-      <c r="JH3" s="22"/>
-      <c r="JI3" s="22"/>
-      <c r="JJ3" s="22"/>
-      <c r="JK3" s="22"/>
-      <c r="JL3" s="22"/>
-      <c r="JM3" s="22"/>
-      <c r="JN3" s="22"/>
-      <c r="JO3" s="22"/>
-      <c r="JP3" s="22"/>
-      <c r="JQ3" s="22"/>
-      <c r="JR3" s="22"/>
-      <c r="JS3" s="22"/>
-      <c r="JT3" s="22"/>
-      <c r="JU3" s="22"/>
-      <c r="JV3" s="22"/>
-      <c r="JW3" s="22"/>
-      <c r="JX3" s="22"/>
-      <c r="JY3" s="22"/>
-      <c r="JZ3" s="22"/>
-      <c r="KA3" s="22"/>
-      <c r="KB3" s="22"/>
-      <c r="KC3" s="22"/>
-      <c r="KD3" s="22"/>
-      <c r="KE3" s="22"/>
-      <c r="KF3" s="22"/>
-      <c r="KG3" s="22"/>
-      <c r="KH3" s="22"/>
-      <c r="KI3" s="22"/>
-      <c r="KJ3" s="22"/>
-      <c r="KK3" s="22"/>
-      <c r="KL3" s="22"/>
-      <c r="KM3" s="22"/>
-      <c r="KN3" s="22"/>
-      <c r="KO3" s="22"/>
-      <c r="KP3" s="22"/>
-      <c r="KQ3" s="22"/>
-      <c r="KR3" s="22"/>
-      <c r="KS3" s="22"/>
-      <c r="KT3" s="22"/>
-      <c r="KU3" s="22"/>
-      <c r="KV3" s="22"/>
-      <c r="KW3" s="22"/>
-      <c r="KX3" s="22"/>
-      <c r="KY3" s="22"/>
-      <c r="KZ3" s="22"/>
-      <c r="LA3" s="22"/>
-      <c r="LB3" s="22"/>
-      <c r="LC3" s="22"/>
-      <c r="LD3" s="22"/>
-      <c r="LE3" s="22"/>
-      <c r="LF3" s="22"/>
-      <c r="LG3" s="22"/>
-      <c r="LH3" s="22"/>
-      <c r="LI3" s="22"/>
-      <c r="LJ3" s="22"/>
-      <c r="LK3" s="22"/>
-      <c r="LL3" s="22"/>
-      <c r="LM3" s="22"/>
-      <c r="LN3" s="22"/>
-      <c r="LO3" s="22"/>
-      <c r="LP3" s="22"/>
-      <c r="LQ3" s="22"/>
-      <c r="LR3" s="22"/>
-      <c r="LS3" s="22"/>
-      <c r="LT3" s="22"/>
-      <c r="LU3" s="22"/>
-      <c r="LV3" s="22"/>
-      <c r="LW3" s="22"/>
-      <c r="LX3" s="22"/>
-      <c r="LY3" s="22"/>
-      <c r="LZ3" s="22"/>
-      <c r="MA3" s="22"/>
-      <c r="MB3" s="22"/>
-      <c r="MC3" s="22"/>
-      <c r="MD3" s="22"/>
-      <c r="ME3" s="22"/>
-      <c r="MF3" s="22"/>
-      <c r="MG3" s="22"/>
-      <c r="MH3" s="22"/>
-      <c r="MI3" s="22"/>
-      <c r="MJ3" s="22"/>
-      <c r="MK3" s="22"/>
-      <c r="ML3" s="22"/>
-      <c r="MM3" s="22"/>
-      <c r="MN3" s="22"/>
-      <c r="MO3" s="22"/>
-      <c r="MP3" s="22"/>
-      <c r="MQ3" s="22"/>
-      <c r="MR3" s="22"/>
-      <c r="MS3" s="22"/>
-      <c r="MT3" s="22"/>
-      <c r="MU3" s="22"/>
-      <c r="MV3" s="22"/>
-      <c r="MW3" s="22"/>
-      <c r="MX3" s="22"/>
-      <c r="MY3" s="22"/>
-      <c r="MZ3" s="22"/>
-      <c r="NA3" s="22"/>
-      <c r="NB3" s="22"/>
-      <c r="NC3" s="22"/>
-      <c r="ND3" s="22"/>
-      <c r="NE3" s="22"/>
-      <c r="NF3" s="22"/>
-      <c r="NG3" s="22"/>
-      <c r="NH3" s="22"/>
-      <c r="NI3" s="22"/>
-      <c r="NJ3" s="22"/>
-      <c r="NK3" s="22"/>
-      <c r="NL3" s="22"/>
-      <c r="NM3" s="22"/>
-      <c r="NN3" s="22"/>
-      <c r="NO3" s="22"/>
-      <c r="NP3" s="22"/>
-      <c r="NQ3" s="22"/>
-      <c r="NR3" s="22"/>
-      <c r="NS3" s="22"/>
-      <c r="NT3" s="22"/>
-      <c r="NU3" s="22"/>
-      <c r="NV3" s="22"/>
-      <c r="NW3" s="22"/>
-      <c r="NX3" s="22"/>
-      <c r="NY3" s="22"/>
-      <c r="NZ3" s="22"/>
-      <c r="OA3" s="22"/>
-      <c r="OB3" s="22"/>
-      <c r="OC3" s="22"/>
-      <c r="OD3" s="22"/>
-      <c r="OE3" s="22"/>
-      <c r="OF3" s="22"/>
-      <c r="OG3" s="22"/>
-      <c r="OH3" s="22"/>
-      <c r="OI3" s="22"/>
-      <c r="OJ3" s="22"/>
-      <c r="OK3" s="22"/>
-      <c r="OL3" s="22"/>
-      <c r="OM3" s="22"/>
-      <c r="ON3" s="22"/>
-      <c r="OO3" s="22"/>
-      <c r="OP3" s="22"/>
-      <c r="OQ3" s="22"/>
-      <c r="OR3" s="22"/>
-      <c r="OS3" s="22"/>
-      <c r="OT3" s="22"/>
-      <c r="OU3" s="22"/>
-      <c r="OV3" s="22"/>
-      <c r="OW3" s="22"/>
-      <c r="OX3" s="22"/>
-      <c r="OY3" s="22"/>
-      <c r="OZ3" s="22"/>
-      <c r="PA3" s="22"/>
-      <c r="PB3" s="22"/>
-      <c r="PC3" s="22"/>
-      <c r="PD3" s="22"/>
-      <c r="PE3" s="22"/>
-      <c r="PF3" s="22"/>
-      <c r="PG3" s="22"/>
-      <c r="PH3" s="22"/>
-      <c r="PI3" s="22"/>
-      <c r="PJ3" s="22"/>
-      <c r="PK3" s="22"/>
-      <c r="PL3" s="22"/>
-      <c r="PM3" s="22"/>
-      <c r="PN3" s="22"/>
-      <c r="PO3" s="22"/>
-      <c r="PP3" s="22"/>
-      <c r="PQ3" s="22"/>
-      <c r="PR3" s="22"/>
-      <c r="PS3" s="22"/>
-      <c r="PT3" s="22"/>
-      <c r="PU3" s="22"/>
-      <c r="PV3" s="22"/>
-      <c r="PW3" s="22"/>
-      <c r="PX3" s="22"/>
-      <c r="PY3" s="22"/>
-      <c r="PZ3" s="22"/>
-      <c r="QA3" s="22"/>
-      <c r="QB3" s="22"/>
-      <c r="QC3" s="22"/>
-      <c r="QD3" s="22"/>
-      <c r="QE3" s="22"/>
-      <c r="QF3" s="22"/>
-      <c r="QG3" s="22"/>
-      <c r="QH3" s="22"/>
-      <c r="QI3" s="22"/>
-      <c r="QJ3" s="22"/>
-      <c r="QK3" s="22"/>
-      <c r="QL3" s="22"/>
-      <c r="QM3" s="22"/>
-      <c r="QN3" s="22"/>
-      <c r="QO3" s="22"/>
-      <c r="QP3" s="22"/>
-      <c r="QQ3" s="22"/>
-      <c r="QR3" s="22"/>
-      <c r="QS3" s="22"/>
-      <c r="QT3" s="22"/>
-      <c r="QU3" s="22"/>
-      <c r="QV3" s="22"/>
-      <c r="QW3" s="22"/>
-      <c r="QX3" s="22"/>
-      <c r="QY3" s="22"/>
-      <c r="QZ3" s="22"/>
-      <c r="RA3" s="22"/>
-      <c r="RB3" s="22"/>
-      <c r="RC3" s="22"/>
-      <c r="RD3" s="22"/>
-      <c r="RE3" s="22"/>
-      <c r="RF3" s="22"/>
-      <c r="RG3" s="22"/>
-      <c r="RH3" s="22"/>
-      <c r="RI3" s="22"/>
-      <c r="RJ3" s="22"/>
-      <c r="RK3" s="22"/>
-      <c r="RL3" s="22"/>
-      <c r="RM3" s="22"/>
-      <c r="RN3" s="22"/>
-      <c r="RO3" s="22"/>
-      <c r="RP3" s="22"/>
-      <c r="RQ3" s="22"/>
-      <c r="RR3" s="22"/>
-      <c r="RS3" s="22"/>
-      <c r="RT3" s="22"/>
-      <c r="RU3" s="22"/>
-      <c r="RV3" s="22"/>
-      <c r="RW3" s="22"/>
-      <c r="RX3" s="22"/>
-      <c r="RY3" s="22"/>
-      <c r="RZ3" s="22"/>
-      <c r="SA3" s="22"/>
-      <c r="SB3" s="22"/>
-      <c r="SC3" s="22"/>
-      <c r="SD3" s="22"/>
-      <c r="SE3" s="22"/>
-      <c r="SF3" s="22"/>
-      <c r="SG3" s="22"/>
-      <c r="SH3" s="22"/>
-      <c r="SI3" s="22"/>
-      <c r="SJ3" s="22"/>
-      <c r="SK3" s="22"/>
-      <c r="SL3" s="22"/>
-      <c r="SM3" s="22"/>
-      <c r="SN3" s="22"/>
-      <c r="SO3" s="22"/>
-      <c r="SP3" s="22"/>
-      <c r="SQ3" s="22"/>
-      <c r="SR3" s="22"/>
-      <c r="SS3" s="22"/>
-      <c r="ST3" s="22"/>
-      <c r="SU3" s="22"/>
-      <c r="SV3" s="22"/>
-      <c r="SW3" s="22"/>
-      <c r="SX3" s="22"/>
-      <c r="SY3" s="22"/>
-      <c r="SZ3" s="22"/>
-      <c r="TA3" s="22"/>
-      <c r="TB3" s="22"/>
-      <c r="TC3" s="22"/>
-      <c r="TD3" s="22"/>
-      <c r="TE3" s="22"/>
-      <c r="TF3" s="22"/>
-      <c r="TG3" s="22"/>
-      <c r="TH3" s="22"/>
-      <c r="TI3" s="22"/>
-      <c r="TJ3" s="22"/>
-      <c r="TK3" s="22"/>
-      <c r="TL3" s="22"/>
-      <c r="TM3" s="22"/>
-      <c r="TN3" s="22"/>
-      <c r="TO3" s="22"/>
-      <c r="TP3" s="22"/>
-      <c r="TQ3" s="22"/>
-      <c r="TR3" s="22"/>
-      <c r="TS3" s="22"/>
-      <c r="TT3" s="22"/>
-      <c r="TU3" s="22"/>
-      <c r="TV3" s="22"/>
-      <c r="TW3" s="22"/>
-      <c r="TX3" s="22"/>
-      <c r="TY3" s="22"/>
-      <c r="TZ3" s="22"/>
-      <c r="UA3" s="22"/>
-      <c r="UB3" s="22"/>
-      <c r="UC3" s="22"/>
-      <c r="UD3" s="22"/>
-      <c r="UE3" s="22"/>
-      <c r="UF3" s="22"/>
-      <c r="UG3" s="22"/>
-      <c r="UH3" s="22"/>
-      <c r="UI3" s="22"/>
-      <c r="UJ3" s="22"/>
-      <c r="UK3" s="22"/>
-      <c r="UL3" s="22"/>
-      <c r="UM3" s="22"/>
-      <c r="UN3" s="22"/>
-      <c r="UO3" s="22"/>
-      <c r="UP3" s="22"/>
-      <c r="UQ3" s="22"/>
-      <c r="UR3" s="22"/>
-      <c r="US3" s="22"/>
-      <c r="UT3" s="22"/>
-      <c r="UU3" s="22"/>
-      <c r="UV3" s="22"/>
-      <c r="UW3" s="22"/>
-      <c r="UX3" s="22"/>
-      <c r="UY3" s="22"/>
-      <c r="UZ3" s="22"/>
-      <c r="VA3" s="22"/>
-      <c r="VB3" s="22"/>
-      <c r="VC3" s="22"/>
-      <c r="VD3" s="22"/>
-      <c r="VE3" s="22"/>
-      <c r="VF3" s="22"/>
-      <c r="VG3" s="22"/>
-      <c r="VH3" s="22"/>
-      <c r="VI3" s="22"/>
-      <c r="VJ3" s="22"/>
-      <c r="VK3" s="22"/>
-      <c r="VL3" s="22"/>
-      <c r="VM3" s="22"/>
-      <c r="VN3" s="22"/>
-      <c r="VO3" s="22"/>
-      <c r="VP3" s="22"/>
-      <c r="VQ3" s="22"/>
-      <c r="VR3" s="22"/>
-      <c r="VS3" s="22"/>
-      <c r="VT3" s="22"/>
-      <c r="VU3" s="22"/>
-      <c r="VV3" s="22"/>
-      <c r="VW3" s="22"/>
-      <c r="VX3" s="22"/>
-      <c r="VY3" s="22"/>
-      <c r="VZ3" s="22"/>
-      <c r="WA3" s="22"/>
-      <c r="WB3" s="22"/>
-      <c r="WC3" s="22"/>
-      <c r="WD3" s="22"/>
-      <c r="WE3" s="22"/>
-      <c r="WF3" s="22"/>
-      <c r="WG3" s="22"/>
-      <c r="WH3" s="22"/>
-      <c r="WI3" s="22"/>
-      <c r="WJ3" s="22"/>
-      <c r="WK3" s="22"/>
-      <c r="WL3" s="22"/>
-      <c r="WM3" s="22"/>
-      <c r="WN3" s="22"/>
-      <c r="WO3" s="22"/>
-      <c r="WP3" s="22"/>
-      <c r="WQ3" s="22"/>
-      <c r="WR3" s="22"/>
-      <c r="WS3" s="22"/>
-      <c r="WT3" s="22"/>
-      <c r="WU3" s="22"/>
-      <c r="WV3" s="22"/>
-      <c r="WW3" s="22"/>
-      <c r="WX3" s="22"/>
-      <c r="WY3" s="22"/>
-      <c r="WZ3" s="22"/>
-      <c r="XA3" s="22"/>
-      <c r="XB3" s="22"/>
-      <c r="XC3" s="22"/>
-      <c r="XD3" s="22"/>
-      <c r="XE3" s="22"/>
-      <c r="XF3" s="22"/>
-      <c r="XG3" s="22"/>
-      <c r="XH3" s="22"/>
-      <c r="XI3" s="22"/>
-      <c r="XJ3" s="22"/>
-      <c r="XK3" s="22"/>
-      <c r="XL3" s="22"/>
-      <c r="XM3" s="22"/>
-      <c r="XN3" s="22"/>
-      <c r="XO3" s="22"/>
-      <c r="XP3" s="22"/>
-      <c r="XQ3" s="22"/>
-      <c r="XR3" s="22"/>
-      <c r="XS3" s="22"/>
-      <c r="XT3" s="22"/>
-      <c r="XU3" s="22"/>
-      <c r="XV3" s="22"/>
-      <c r="XW3" s="22"/>
-      <c r="XX3" s="22"/>
-      <c r="XY3" s="22"/>
-      <c r="XZ3" s="22"/>
-      <c r="YA3" s="22"/>
-      <c r="YB3" s="22"/>
-      <c r="YC3" s="22"/>
-      <c r="YD3" s="22"/>
-      <c r="YE3" s="22"/>
-      <c r="YF3" s="22"/>
-      <c r="YG3" s="22"/>
-      <c r="YH3" s="22"/>
-      <c r="YI3" s="22"/>
-      <c r="YJ3" s="22"/>
-      <c r="YK3" s="22"/>
-      <c r="YL3" s="22"/>
-      <c r="YM3" s="22"/>
-      <c r="YN3" s="22"/>
-      <c r="YO3" s="22"/>
-      <c r="YP3" s="22"/>
-      <c r="YQ3" s="22"/>
-      <c r="YR3" s="22"/>
-      <c r="YS3" s="22"/>
-      <c r="YT3" s="22"/>
-      <c r="YU3" s="22"/>
-      <c r="YV3" s="22"/>
-      <c r="YW3" s="22"/>
-      <c r="YX3" s="22"/>
-      <c r="YY3" s="22"/>
-      <c r="YZ3" s="22"/>
-      <c r="ZA3" s="22"/>
-      <c r="ZB3" s="22"/>
-      <c r="ZC3" s="22"/>
-      <c r="ZD3" s="22"/>
-      <c r="ZE3" s="22"/>
-      <c r="ZF3" s="22"/>
-      <c r="ZG3" s="22"/>
-      <c r="ZH3" s="22"/>
-      <c r="ZI3" s="22"/>
-      <c r="ZJ3" s="22"/>
-      <c r="ZK3" s="22"/>
-      <c r="ZL3" s="22"/>
-      <c r="ZM3" s="22"/>
-      <c r="ZN3" s="22"/>
-      <c r="ZO3" s="22"/>
-      <c r="ZP3" s="22"/>
-      <c r="ZQ3" s="22"/>
-      <c r="ZR3" s="22"/>
-      <c r="ZS3" s="22"/>
-      <c r="ZT3" s="22"/>
-      <c r="ZU3" s="22"/>
-      <c r="ZV3" s="22"/>
-      <c r="ZW3" s="22"/>
-      <c r="ZX3" s="22"/>
-      <c r="ZY3" s="22"/>
-      <c r="ZZ3" s="22"/>
-      <c r="AAA3" s="22"/>
-      <c r="AAB3" s="22"/>
-      <c r="AAC3" s="22"/>
-      <c r="AAD3" s="22"/>
-      <c r="AAE3" s="22"/>
-      <c r="AAF3" s="22"/>
-      <c r="AAG3" s="22"/>
-      <c r="AAH3" s="22"/>
-      <c r="AAI3" s="22"/>
-      <c r="AAJ3" s="22"/>
-      <c r="AAK3" s="22"/>
-      <c r="AAL3" s="22"/>
-      <c r="AAM3" s="22"/>
-      <c r="AAN3" s="22"/>
-      <c r="AAO3" s="22"/>
-      <c r="AAP3" s="22"/>
-      <c r="AAQ3" s="22"/>
-      <c r="AAR3" s="22"/>
-      <c r="AAS3" s="22"/>
-      <c r="AAT3" s="22"/>
-      <c r="AAU3" s="22"/>
-      <c r="AAV3" s="22"/>
-      <c r="AAW3" s="22"/>
-      <c r="AAX3" s="22"/>
-      <c r="AAY3" s="22"/>
-      <c r="AAZ3" s="22"/>
-      <c r="ABA3" s="22"/>
-      <c r="ABB3" s="22"/>
-      <c r="ABC3" s="22"/>
-      <c r="ABD3" s="22"/>
-      <c r="ABE3" s="22"/>
-      <c r="ABF3" s="22"/>
-      <c r="ABG3" s="22"/>
-      <c r="ABH3" s="22"/>
-      <c r="ABI3" s="22"/>
-      <c r="ABJ3" s="22"/>
-      <c r="ABK3" s="22"/>
-      <c r="ABL3" s="22"/>
-      <c r="ABM3" s="22"/>
-      <c r="ABN3" s="22"/>
-      <c r="ABO3" s="22"/>
-      <c r="ABP3" s="22"/>
-      <c r="ABQ3" s="22"/>
-      <c r="ABR3" s="22"/>
-      <c r="ABS3" s="22"/>
-      <c r="ABT3" s="22"/>
-      <c r="ABU3" s="22"/>
-      <c r="ABV3" s="22"/>
-      <c r="ABW3" s="22"/>
-      <c r="ABX3" s="22"/>
-      <c r="ABY3" s="22"/>
-      <c r="ABZ3" s="22"/>
-      <c r="ACA3" s="22"/>
-      <c r="ACB3" s="22"/>
-      <c r="ACC3" s="22"/>
-      <c r="ACD3" s="22"/>
-      <c r="ACE3" s="22"/>
-      <c r="ACF3" s="22"/>
-      <c r="ACG3" s="22"/>
-      <c r="ACH3" s="22"/>
-      <c r="ACI3" s="22"/>
-      <c r="ACJ3" s="22"/>
-      <c r="ACK3" s="22"/>
-      <c r="ACL3" s="22"/>
-      <c r="ACM3" s="22"/>
-      <c r="ACN3" s="22"/>
-      <c r="ACO3" s="22"/>
-      <c r="ACP3" s="22"/>
-      <c r="ACQ3" s="22"/>
-      <c r="ACR3" s="22"/>
-      <c r="ACS3" s="22"/>
-      <c r="ACT3" s="22"/>
-      <c r="ACU3" s="22"/>
-      <c r="ACV3" s="22"/>
-      <c r="ACW3" s="22"/>
-      <c r="ACX3" s="22"/>
-      <c r="ACY3" s="22"/>
-      <c r="ACZ3" s="22"/>
-      <c r="ADA3" s="22"/>
-      <c r="ADB3" s="22"/>
-      <c r="ADC3" s="22"/>
-      <c r="ADD3" s="22"/>
-      <c r="ADE3" s="22"/>
-      <c r="ADF3" s="22"/>
-      <c r="ADG3" s="22"/>
-      <c r="ADH3" s="22"/>
-      <c r="ADI3" s="22"/>
-      <c r="ADJ3" s="22"/>
-      <c r="ADK3" s="22"/>
-      <c r="ADL3" s="22"/>
-      <c r="ADM3" s="22"/>
-      <c r="ADN3" s="22"/>
-      <c r="ADO3" s="22"/>
-      <c r="ADP3" s="22"/>
-      <c r="ADQ3" s="22"/>
-      <c r="ADR3" s="22"/>
-      <c r="ADS3" s="22"/>
-      <c r="ADT3" s="22"/>
-      <c r="ADU3" s="22"/>
-      <c r="ADV3" s="22"/>
-      <c r="ADW3" s="22"/>
-      <c r="ADX3" s="22"/>
-      <c r="ADY3" s="22"/>
-      <c r="ADZ3" s="22"/>
-      <c r="AEA3" s="22"/>
-      <c r="AEB3" s="22"/>
-      <c r="AEC3" s="22"/>
-      <c r="AED3" s="22"/>
-      <c r="AEE3" s="22"/>
-      <c r="AEF3" s="22"/>
-      <c r="AEG3" s="22"/>
-      <c r="AEH3" s="22"/>
-      <c r="AEI3" s="22"/>
-      <c r="AEJ3" s="22"/>
-      <c r="AEK3" s="22"/>
-      <c r="AEL3" s="22"/>
-      <c r="AEM3" s="22"/>
-      <c r="AEN3" s="22"/>
-      <c r="AEO3" s="22"/>
-      <c r="AEP3" s="22"/>
-      <c r="AEQ3" s="22"/>
-      <c r="AER3" s="22"/>
-      <c r="AES3" s="22"/>
-      <c r="AET3" s="22"/>
-      <c r="AEU3" s="22"/>
-      <c r="AEV3" s="22"/>
-      <c r="AEW3" s="22"/>
-      <c r="AEX3" s="22"/>
-      <c r="AEY3" s="22"/>
-      <c r="AEZ3" s="22"/>
-      <c r="AFA3" s="22"/>
-      <c r="AFB3" s="22"/>
-      <c r="AFC3" s="22"/>
-      <c r="AFD3" s="22"/>
-      <c r="AFE3" s="22"/>
-      <c r="AFF3" s="22"/>
-      <c r="AFG3" s="22"/>
-      <c r="AFH3" s="22"/>
-      <c r="AFI3" s="22"/>
-      <c r="AFJ3" s="22"/>
-      <c r="AFK3" s="22"/>
-      <c r="AFL3" s="22"/>
-      <c r="AFM3" s="22"/>
-      <c r="AFN3" s="22"/>
-      <c r="AFO3" s="22"/>
-      <c r="AFP3" s="22"/>
-      <c r="AFQ3" s="22"/>
-      <c r="AFR3" s="22"/>
-      <c r="AFS3" s="22"/>
-      <c r="AFT3" s="22"/>
-      <c r="AFU3" s="22"/>
-      <c r="AFV3" s="22"/>
-      <c r="AFW3" s="22"/>
-      <c r="AFX3" s="22"/>
-      <c r="AFY3" s="22"/>
-      <c r="AFZ3" s="22"/>
-      <c r="AGA3" s="22"/>
-      <c r="AGB3" s="22"/>
-      <c r="AGC3" s="22"/>
-      <c r="AGD3" s="22"/>
-      <c r="AGE3" s="22"/>
-      <c r="AGF3" s="22"/>
-      <c r="AGG3" s="22"/>
-      <c r="AGH3" s="22"/>
-      <c r="AGI3" s="22"/>
-      <c r="AGJ3" s="22"/>
-      <c r="AGK3" s="22"/>
-      <c r="AGL3" s="22"/>
-      <c r="AGM3" s="22"/>
-      <c r="AGN3" s="22"/>
-      <c r="AGO3" s="22"/>
-      <c r="AGP3" s="22"/>
-      <c r="AGQ3" s="22"/>
-      <c r="AGR3" s="22"/>
-      <c r="AGS3" s="22"/>
-      <c r="AGT3" s="22"/>
-      <c r="AGU3" s="22"/>
-      <c r="AGV3" s="22"/>
-      <c r="AGW3" s="22"/>
-      <c r="AGX3" s="22"/>
-      <c r="AGY3" s="22"/>
-      <c r="AGZ3" s="22"/>
-      <c r="AHA3" s="22"/>
-      <c r="AHB3" s="22"/>
-      <c r="AHC3" s="22"/>
-      <c r="AHD3" s="22"/>
-      <c r="AHE3" s="22"/>
-      <c r="AHF3" s="22"/>
-      <c r="AHG3" s="22"/>
-      <c r="AHH3" s="22"/>
-      <c r="AHI3" s="22"/>
-      <c r="AHJ3" s="22"/>
-      <c r="AHK3" s="22"/>
-      <c r="AHL3" s="22"/>
-      <c r="AHM3" s="22"/>
-      <c r="AHN3" s="22"/>
-      <c r="AHO3" s="22"/>
-      <c r="AHP3" s="22"/>
-      <c r="AHQ3" s="22"/>
-      <c r="AHR3" s="22"/>
-      <c r="AHS3" s="22"/>
-      <c r="AHT3" s="22"/>
-      <c r="AHU3" s="22"/>
-      <c r="AHV3" s="22"/>
-      <c r="AHW3" s="22"/>
-      <c r="AHX3" s="22"/>
-      <c r="AHY3" s="22"/>
-      <c r="AHZ3" s="22"/>
-      <c r="AIA3" s="22"/>
-      <c r="AIB3" s="22"/>
-      <c r="AIC3" s="22"/>
-      <c r="AID3" s="22"/>
-      <c r="AIE3" s="22"/>
-      <c r="AIF3" s="22"/>
-      <c r="AIG3" s="22"/>
-      <c r="AIH3" s="22"/>
-      <c r="AII3" s="22"/>
-      <c r="AIJ3" s="22"/>
-      <c r="AIK3" s="22"/>
-      <c r="AIL3" s="22"/>
-      <c r="AIM3" s="22"/>
-      <c r="AIN3" s="22"/>
-      <c r="AIO3" s="22"/>
-      <c r="AIP3" s="22"/>
-      <c r="AIQ3" s="22"/>
-      <c r="AIR3" s="22"/>
-      <c r="AIS3" s="22"/>
-      <c r="AIT3" s="22"/>
-      <c r="AIU3" s="22"/>
-      <c r="AIV3" s="22"/>
-      <c r="AIW3" s="22"/>
-      <c r="AIX3" s="22"/>
-      <c r="AIY3" s="22"/>
-      <c r="AIZ3" s="22"/>
-      <c r="AJA3" s="22"/>
-      <c r="AJB3" s="22"/>
-      <c r="AJC3" s="22"/>
-      <c r="AJD3" s="22"/>
-      <c r="AJE3" s="22"/>
-      <c r="AJF3" s="22"/>
-      <c r="AJG3" s="22"/>
-      <c r="AJH3" s="22"/>
-      <c r="AJI3" s="22"/>
-      <c r="AJJ3" s="22"/>
-      <c r="AJK3" s="22"/>
-      <c r="AJL3" s="22"/>
-      <c r="AJM3" s="22"/>
-      <c r="AJN3" s="22"/>
-      <c r="AJO3" s="22"/>
-      <c r="AJP3" s="22"/>
-      <c r="AJQ3" s="22"/>
-      <c r="AJR3" s="22"/>
-      <c r="AJS3" s="22"/>
-      <c r="AJT3" s="22"/>
-      <c r="AJU3" s="22"/>
-      <c r="AJV3" s="22"/>
-      <c r="AJW3" s="22"/>
-      <c r="AJX3" s="22"/>
-      <c r="AJY3" s="22"/>
-      <c r="AJZ3" s="22"/>
-      <c r="AKA3" s="22"/>
-      <c r="AKB3" s="22"/>
-      <c r="AKC3" s="22"/>
-      <c r="AKD3" s="22"/>
-      <c r="AKE3" s="22"/>
-      <c r="AKF3" s="22"/>
-      <c r="AKG3" s="22"/>
-      <c r="AKH3" s="22"/>
-      <c r="AKI3" s="22"/>
-      <c r="AKJ3" s="22"/>
-      <c r="AKK3" s="22"/>
-      <c r="AKL3" s="22"/>
-      <c r="AKM3" s="22"/>
-      <c r="AKN3" s="22"/>
-      <c r="AKO3" s="22"/>
-      <c r="AKP3" s="22"/>
-      <c r="AKQ3" s="22"/>
-      <c r="AKR3" s="22"/>
-      <c r="AKS3" s="22"/>
-      <c r="AKT3" s="22"/>
-      <c r="AKU3" s="22"/>
-      <c r="AKV3" s="22"/>
-      <c r="AKW3" s="22"/>
-      <c r="AKX3" s="22"/>
-      <c r="AKY3" s="22"/>
-      <c r="AKZ3" s="22"/>
-      <c r="ALA3" s="22"/>
-      <c r="ALB3" s="22"/>
-      <c r="ALC3" s="22"/>
-      <c r="ALD3" s="22"/>
-      <c r="ALE3" s="22"/>
-      <c r="ALF3" s="22"/>
-      <c r="ALG3" s="22"/>
-      <c r="ALH3" s="22"/>
-      <c r="ALI3" s="22"/>
-      <c r="ALJ3" s="22"/>
-      <c r="ALK3" s="22"/>
-      <c r="ALL3" s="22"/>
-      <c r="ALM3" s="22"/>
-      <c r="ALN3" s="22"/>
-      <c r="ALO3" s="22"/>
-      <c r="ALP3" s="22"/>
-      <c r="ALQ3" s="22"/>
-      <c r="ALR3" s="22"/>
-      <c r="ALS3" s="22"/>
-      <c r="ALT3" s="22"/>
-      <c r="ALU3" s="22"/>
-      <c r="ALV3" s="22"/>
-      <c r="ALW3" s="22"/>
-      <c r="ALX3" s="22"/>
-      <c r="ALY3" s="22"/>
-      <c r="ALZ3" s="22"/>
-      <c r="AMA3" s="22"/>
-      <c r="AMB3" s="22"/>
-      <c r="AMC3" s="22"/>
-      <c r="AMD3" s="22"/>
-      <c r="AME3" s="22"/>
-      <c r="AMF3" s="22"/>
-      <c r="AMG3" s="22"/>
-      <c r="AMH3" s="22"/>
-      <c r="AMI3" s="22"/>
-      <c r="AMJ3" s="22"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="20"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BW3" s="20"/>
+      <c r="BX3" s="20"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
+      <c r="CA3" s="20"/>
+      <c r="CB3" s="20"/>
+      <c r="CC3" s="20"/>
+      <c r="CD3" s="20"/>
+      <c r="CE3" s="20"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
+      <c r="CH3" s="20"/>
+      <c r="CI3" s="20"/>
+      <c r="CJ3" s="20"/>
+      <c r="CK3" s="20"/>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
+      <c r="CS3" s="20"/>
+      <c r="CT3" s="20"/>
+      <c r="CU3" s="20"/>
+      <c r="CV3" s="20"/>
+      <c r="CW3" s="20"/>
+      <c r="CX3" s="20"/>
+      <c r="CY3" s="20"/>
+      <c r="CZ3" s="20"/>
+      <c r="DA3" s="20"/>
+      <c r="DB3" s="20"/>
+      <c r="DC3" s="20"/>
+      <c r="DD3" s="20"/>
+      <c r="DE3" s="20"/>
+      <c r="DF3" s="20"/>
+      <c r="DG3" s="20"/>
+      <c r="DH3" s="20"/>
+      <c r="DI3" s="20"/>
+      <c r="DJ3" s="20"/>
+      <c r="DK3" s="20"/>
+      <c r="DL3" s="20"/>
+      <c r="DM3" s="20"/>
+      <c r="DN3" s="20"/>
+      <c r="DO3" s="20"/>
+      <c r="DP3" s="20"/>
+      <c r="DQ3" s="20"/>
+      <c r="DR3" s="20"/>
+      <c r="DS3" s="20"/>
+      <c r="DT3" s="20"/>
+      <c r="DU3" s="20"/>
+      <c r="DV3" s="20"/>
+      <c r="DW3" s="20"/>
+      <c r="DX3" s="20"/>
+      <c r="DY3" s="20"/>
+      <c r="DZ3" s="20"/>
+      <c r="EA3" s="20"/>
+      <c r="EB3" s="20"/>
+      <c r="EC3" s="20"/>
+      <c r="ED3" s="20"/>
+      <c r="EE3" s="20"/>
+      <c r="EF3" s="20"/>
+      <c r="EG3" s="20"/>
+      <c r="EH3" s="20"/>
+      <c r="EI3" s="20"/>
+      <c r="EJ3" s="20"/>
+      <c r="EK3" s="20"/>
+      <c r="EL3" s="20"/>
+      <c r="EM3" s="20"/>
+      <c r="EN3" s="20"/>
+      <c r="EO3" s="20"/>
+      <c r="EP3" s="20"/>
+      <c r="EQ3" s="20"/>
+      <c r="ER3" s="20"/>
+      <c r="ES3" s="20"/>
+      <c r="ET3" s="20"/>
+      <c r="EU3" s="20"/>
+      <c r="EV3" s="20"/>
+      <c r="EW3" s="20"/>
+      <c r="EX3" s="20"/>
+      <c r="EY3" s="20"/>
+      <c r="EZ3" s="20"/>
+      <c r="FA3" s="20"/>
+      <c r="FB3" s="20"/>
+      <c r="FC3" s="20"/>
+      <c r="FD3" s="20"/>
+      <c r="FE3" s="20"/>
+      <c r="FF3" s="20"/>
+      <c r="FG3" s="20"/>
+      <c r="FH3" s="20"/>
+      <c r="FI3" s="20"/>
+      <c r="FJ3" s="20"/>
+      <c r="FK3" s="20"/>
+      <c r="FL3" s="20"/>
+      <c r="FM3" s="20"/>
+      <c r="FN3" s="20"/>
+      <c r="FO3" s="20"/>
+      <c r="FP3" s="20"/>
+      <c r="FQ3" s="20"/>
+      <c r="FR3" s="20"/>
+      <c r="FS3" s="20"/>
+      <c r="FT3" s="20"/>
+      <c r="FU3" s="20"/>
+      <c r="FV3" s="20"/>
+      <c r="FW3" s="20"/>
+      <c r="FX3" s="20"/>
+      <c r="FY3" s="20"/>
+      <c r="FZ3" s="20"/>
+      <c r="GA3" s="20"/>
+      <c r="GB3" s="20"/>
+      <c r="GC3" s="20"/>
+      <c r="GD3" s="20"/>
+      <c r="GE3" s="20"/>
+      <c r="GF3" s="20"/>
+      <c r="GG3" s="20"/>
+      <c r="GH3" s="20"/>
+      <c r="GI3" s="20"/>
+      <c r="GJ3" s="20"/>
+      <c r="GK3" s="20"/>
+      <c r="GL3" s="20"/>
+      <c r="GM3" s="20"/>
+      <c r="GN3" s="20"/>
+      <c r="GO3" s="20"/>
+      <c r="GP3" s="20"/>
+      <c r="GQ3" s="20"/>
+      <c r="GR3" s="20"/>
+      <c r="GS3" s="20"/>
+      <c r="GT3" s="20"/>
+      <c r="GU3" s="20"/>
+      <c r="GV3" s="20"/>
+      <c r="GW3" s="20"/>
+      <c r="GX3" s="20"/>
+      <c r="GY3" s="20"/>
+      <c r="GZ3" s="20"/>
+      <c r="HA3" s="20"/>
+      <c r="HB3" s="20"/>
+      <c r="HC3" s="20"/>
+      <c r="HD3" s="20"/>
+      <c r="HE3" s="20"/>
+      <c r="HF3" s="20"/>
+      <c r="HG3" s="20"/>
+      <c r="HH3" s="20"/>
+      <c r="HI3" s="20"/>
+      <c r="HJ3" s="20"/>
+      <c r="HK3" s="20"/>
+      <c r="HL3" s="20"/>
+      <c r="HM3" s="20"/>
+      <c r="HN3" s="20"/>
+      <c r="HO3" s="20"/>
+      <c r="HP3" s="20"/>
+      <c r="HQ3" s="20"/>
+      <c r="HR3" s="20"/>
+      <c r="HS3" s="20"/>
+      <c r="HT3" s="20"/>
+      <c r="HU3" s="20"/>
+      <c r="HV3" s="20"/>
+      <c r="HW3" s="20"/>
+      <c r="HX3" s="20"/>
+      <c r="HY3" s="20"/>
+      <c r="HZ3" s="20"/>
+      <c r="IA3" s="20"/>
+      <c r="IB3" s="20"/>
+      <c r="IC3" s="20"/>
+      <c r="ID3" s="20"/>
+      <c r="IE3" s="20"/>
+      <c r="IF3" s="20"/>
+      <c r="IG3" s="20"/>
+      <c r="IH3" s="20"/>
+      <c r="II3" s="20"/>
+      <c r="IJ3" s="20"/>
+      <c r="IK3" s="20"/>
+      <c r="IL3" s="20"/>
+      <c r="IM3" s="20"/>
+      <c r="IN3" s="20"/>
+      <c r="IO3" s="20"/>
+      <c r="IP3" s="20"/>
+      <c r="IQ3" s="20"/>
+      <c r="IR3" s="20"/>
+      <c r="IS3" s="20"/>
+      <c r="IT3" s="20"/>
+      <c r="IU3" s="20"/>
+      <c r="IV3" s="20"/>
+      <c r="IW3" s="20"/>
+      <c r="IX3" s="20"/>
+      <c r="IY3" s="20"/>
+      <c r="IZ3" s="20"/>
+      <c r="JA3" s="20"/>
+      <c r="JB3" s="20"/>
+      <c r="JC3" s="20"/>
+      <c r="JD3" s="20"/>
+      <c r="JE3" s="20"/>
+      <c r="JF3" s="20"/>
+      <c r="JG3" s="20"/>
+      <c r="JH3" s="20"/>
+      <c r="JI3" s="20"/>
+      <c r="JJ3" s="20"/>
+      <c r="JK3" s="20"/>
+      <c r="JL3" s="20"/>
+      <c r="JM3" s="20"/>
+      <c r="JN3" s="20"/>
+      <c r="JO3" s="20"/>
+      <c r="JP3" s="20"/>
+      <c r="JQ3" s="20"/>
+      <c r="JR3" s="20"/>
+      <c r="JS3" s="20"/>
+      <c r="JT3" s="20"/>
+      <c r="JU3" s="20"/>
+      <c r="JV3" s="20"/>
+      <c r="JW3" s="20"/>
+      <c r="JX3" s="20"/>
+      <c r="JY3" s="20"/>
+      <c r="JZ3" s="20"/>
+      <c r="KA3" s="20"/>
+      <c r="KB3" s="20"/>
+      <c r="KC3" s="20"/>
+      <c r="KD3" s="20"/>
+      <c r="KE3" s="20"/>
+      <c r="KF3" s="20"/>
+      <c r="KG3" s="20"/>
+      <c r="KH3" s="20"/>
+      <c r="KI3" s="20"/>
+      <c r="KJ3" s="20"/>
+      <c r="KK3" s="20"/>
+      <c r="KL3" s="20"/>
+      <c r="KM3" s="20"/>
+      <c r="KN3" s="20"/>
+      <c r="KO3" s="20"/>
+      <c r="KP3" s="20"/>
+      <c r="KQ3" s="20"/>
+      <c r="KR3" s="20"/>
+      <c r="KS3" s="20"/>
+      <c r="KT3" s="20"/>
+      <c r="KU3" s="20"/>
+      <c r="KV3" s="20"/>
+      <c r="KW3" s="20"/>
+      <c r="KX3" s="20"/>
+      <c r="KY3" s="20"/>
+      <c r="KZ3" s="20"/>
+      <c r="LA3" s="20"/>
+      <c r="LB3" s="20"/>
+      <c r="LC3" s="20"/>
+      <c r="LD3" s="20"/>
+      <c r="LE3" s="20"/>
+      <c r="LF3" s="20"/>
+      <c r="LG3" s="20"/>
+      <c r="LH3" s="20"/>
+      <c r="LI3" s="20"/>
+      <c r="LJ3" s="20"/>
+      <c r="LK3" s="20"/>
+      <c r="LL3" s="20"/>
+      <c r="LM3" s="20"/>
+      <c r="LN3" s="20"/>
+      <c r="LO3" s="20"/>
+      <c r="LP3" s="20"/>
+      <c r="LQ3" s="20"/>
+      <c r="LR3" s="20"/>
+      <c r="LS3" s="20"/>
+      <c r="LT3" s="20"/>
+      <c r="LU3" s="20"/>
+      <c r="LV3" s="20"/>
+      <c r="LW3" s="20"/>
+      <c r="LX3" s="20"/>
+      <c r="LY3" s="20"/>
+      <c r="LZ3" s="20"/>
+      <c r="MA3" s="20"/>
+      <c r="MB3" s="20"/>
+      <c r="MC3" s="20"/>
+      <c r="MD3" s="20"/>
+      <c r="ME3" s="20"/>
+      <c r="MF3" s="20"/>
+      <c r="MG3" s="20"/>
+      <c r="MH3" s="20"/>
+      <c r="MI3" s="20"/>
+      <c r="MJ3" s="20"/>
+      <c r="MK3" s="20"/>
+      <c r="ML3" s="20"/>
+      <c r="MM3" s="20"/>
+      <c r="MN3" s="20"/>
+      <c r="MO3" s="20"/>
+      <c r="MP3" s="20"/>
+      <c r="MQ3" s="20"/>
+      <c r="MR3" s="20"/>
+      <c r="MS3" s="20"/>
+      <c r="MT3" s="20"/>
+      <c r="MU3" s="20"/>
+      <c r="MV3" s="20"/>
+      <c r="MW3" s="20"/>
+      <c r="MX3" s="20"/>
+      <c r="MY3" s="20"/>
+      <c r="MZ3" s="20"/>
+      <c r="NA3" s="20"/>
+      <c r="NB3" s="20"/>
+      <c r="NC3" s="20"/>
+      <c r="ND3" s="20"/>
+      <c r="NE3" s="20"/>
+      <c r="NF3" s="20"/>
+      <c r="NG3" s="20"/>
+      <c r="NH3" s="20"/>
+      <c r="NI3" s="20"/>
+      <c r="NJ3" s="20"/>
+      <c r="NK3" s="20"/>
+      <c r="NL3" s="20"/>
+      <c r="NM3" s="20"/>
+      <c r="NN3" s="20"/>
+      <c r="NO3" s="20"/>
+      <c r="NP3" s="20"/>
+      <c r="NQ3" s="20"/>
+      <c r="NR3" s="20"/>
+      <c r="NS3" s="20"/>
+      <c r="NT3" s="20"/>
+      <c r="NU3" s="20"/>
+      <c r="NV3" s="20"/>
+      <c r="NW3" s="20"/>
+      <c r="NX3" s="20"/>
+      <c r="NY3" s="20"/>
+      <c r="NZ3" s="20"/>
+      <c r="OA3" s="20"/>
+      <c r="OB3" s="20"/>
+      <c r="OC3" s="20"/>
+      <c r="OD3" s="20"/>
+      <c r="OE3" s="20"/>
+      <c r="OF3" s="20"/>
+      <c r="OG3" s="20"/>
+      <c r="OH3" s="20"/>
+      <c r="OI3" s="20"/>
+      <c r="OJ3" s="20"/>
+      <c r="OK3" s="20"/>
+      <c r="OL3" s="20"/>
+      <c r="OM3" s="20"/>
+      <c r="ON3" s="20"/>
+      <c r="OO3" s="20"/>
+      <c r="OP3" s="20"/>
+      <c r="OQ3" s="20"/>
+      <c r="OR3" s="20"/>
+      <c r="OS3" s="20"/>
+      <c r="OT3" s="20"/>
+      <c r="OU3" s="20"/>
+      <c r="OV3" s="20"/>
+      <c r="OW3" s="20"/>
+      <c r="OX3" s="20"/>
+      <c r="OY3" s="20"/>
+      <c r="OZ3" s="20"/>
+      <c r="PA3" s="20"/>
+      <c r="PB3" s="20"/>
+      <c r="PC3" s="20"/>
+      <c r="PD3" s="20"/>
+      <c r="PE3" s="20"/>
+      <c r="PF3" s="20"/>
+      <c r="PG3" s="20"/>
+      <c r="PH3" s="20"/>
+      <c r="PI3" s="20"/>
+      <c r="PJ3" s="20"/>
+      <c r="PK3" s="20"/>
+      <c r="PL3" s="20"/>
+      <c r="PM3" s="20"/>
+      <c r="PN3" s="20"/>
+      <c r="PO3" s="20"/>
+      <c r="PP3" s="20"/>
+      <c r="PQ3" s="20"/>
+      <c r="PR3" s="20"/>
+      <c r="PS3" s="20"/>
+      <c r="PT3" s="20"/>
+      <c r="PU3" s="20"/>
+      <c r="PV3" s="20"/>
+      <c r="PW3" s="20"/>
+      <c r="PX3" s="20"/>
+      <c r="PY3" s="20"/>
+      <c r="PZ3" s="20"/>
+      <c r="QA3" s="20"/>
+      <c r="QB3" s="20"/>
+      <c r="QC3" s="20"/>
+      <c r="QD3" s="20"/>
+      <c r="QE3" s="20"/>
+      <c r="QF3" s="20"/>
+      <c r="QG3" s="20"/>
+      <c r="QH3" s="20"/>
+      <c r="QI3" s="20"/>
+      <c r="QJ3" s="20"/>
+      <c r="QK3" s="20"/>
+      <c r="QL3" s="20"/>
+      <c r="QM3" s="20"/>
+      <c r="QN3" s="20"/>
+      <c r="QO3" s="20"/>
+      <c r="QP3" s="20"/>
+      <c r="QQ3" s="20"/>
+      <c r="QR3" s="20"/>
+      <c r="QS3" s="20"/>
+      <c r="QT3" s="20"/>
+      <c r="QU3" s="20"/>
+      <c r="QV3" s="20"/>
+      <c r="QW3" s="20"/>
+      <c r="QX3" s="20"/>
+      <c r="QY3" s="20"/>
+      <c r="QZ3" s="20"/>
+      <c r="RA3" s="20"/>
+      <c r="RB3" s="20"/>
+      <c r="RC3" s="20"/>
+      <c r="RD3" s="20"/>
+      <c r="RE3" s="20"/>
+      <c r="RF3" s="20"/>
+      <c r="RG3" s="20"/>
+      <c r="RH3" s="20"/>
+      <c r="RI3" s="20"/>
+      <c r="RJ3" s="20"/>
+      <c r="RK3" s="20"/>
+      <c r="RL3" s="20"/>
+      <c r="RM3" s="20"/>
+      <c r="RN3" s="20"/>
+      <c r="RO3" s="20"/>
+      <c r="RP3" s="20"/>
+      <c r="RQ3" s="20"/>
+      <c r="RR3" s="20"/>
+      <c r="RS3" s="20"/>
+      <c r="RT3" s="20"/>
+      <c r="RU3" s="20"/>
+      <c r="RV3" s="20"/>
+      <c r="RW3" s="20"/>
+      <c r="RX3" s="20"/>
+      <c r="RY3" s="20"/>
+      <c r="RZ3" s="20"/>
+      <c r="SA3" s="20"/>
+      <c r="SB3" s="20"/>
+      <c r="SC3" s="20"/>
+      <c r="SD3" s="20"/>
+      <c r="SE3" s="20"/>
+      <c r="SF3" s="20"/>
+      <c r="SG3" s="20"/>
+      <c r="SH3" s="20"/>
+      <c r="SI3" s="20"/>
+      <c r="SJ3" s="20"/>
+      <c r="SK3" s="20"/>
+      <c r="SL3" s="20"/>
+      <c r="SM3" s="20"/>
+      <c r="SN3" s="20"/>
+      <c r="SO3" s="20"/>
+      <c r="SP3" s="20"/>
+      <c r="SQ3" s="20"/>
+      <c r="SR3" s="20"/>
+      <c r="SS3" s="20"/>
+      <c r="ST3" s="20"/>
+      <c r="SU3" s="20"/>
+      <c r="SV3" s="20"/>
+      <c r="SW3" s="20"/>
+      <c r="SX3" s="20"/>
+      <c r="SY3" s="20"/>
+      <c r="SZ3" s="20"/>
+      <c r="TA3" s="20"/>
+      <c r="TB3" s="20"/>
+      <c r="TC3" s="20"/>
+      <c r="TD3" s="20"/>
+      <c r="TE3" s="20"/>
+      <c r="TF3" s="20"/>
+      <c r="TG3" s="20"/>
+      <c r="TH3" s="20"/>
+      <c r="TI3" s="20"/>
+      <c r="TJ3" s="20"/>
+      <c r="TK3" s="20"/>
+      <c r="TL3" s="20"/>
+      <c r="TM3" s="20"/>
+      <c r="TN3" s="20"/>
+      <c r="TO3" s="20"/>
+      <c r="TP3" s="20"/>
+      <c r="TQ3" s="20"/>
+      <c r="TR3" s="20"/>
+      <c r="TS3" s="20"/>
+      <c r="TT3" s="20"/>
+      <c r="TU3" s="20"/>
+      <c r="TV3" s="20"/>
+      <c r="TW3" s="20"/>
+      <c r="TX3" s="20"/>
+      <c r="TY3" s="20"/>
+      <c r="TZ3" s="20"/>
+      <c r="UA3" s="20"/>
+      <c r="UB3" s="20"/>
+      <c r="UC3" s="20"/>
+      <c r="UD3" s="20"/>
+      <c r="UE3" s="20"/>
+      <c r="UF3" s="20"/>
+      <c r="UG3" s="20"/>
+      <c r="UH3" s="20"/>
+      <c r="UI3" s="20"/>
+      <c r="UJ3" s="20"/>
+      <c r="UK3" s="20"/>
+      <c r="UL3" s="20"/>
+      <c r="UM3" s="20"/>
+      <c r="UN3" s="20"/>
+      <c r="UO3" s="20"/>
+      <c r="UP3" s="20"/>
+      <c r="UQ3" s="20"/>
+      <c r="UR3" s="20"/>
+      <c r="US3" s="20"/>
+      <c r="UT3" s="20"/>
+      <c r="UU3" s="20"/>
+      <c r="UV3" s="20"/>
+      <c r="UW3" s="20"/>
+      <c r="UX3" s="20"/>
+      <c r="UY3" s="20"/>
+      <c r="UZ3" s="20"/>
+      <c r="VA3" s="20"/>
+      <c r="VB3" s="20"/>
+      <c r="VC3" s="20"/>
+      <c r="VD3" s="20"/>
+      <c r="VE3" s="20"/>
+      <c r="VF3" s="20"/>
+      <c r="VG3" s="20"/>
+      <c r="VH3" s="20"/>
+      <c r="VI3" s="20"/>
+      <c r="VJ3" s="20"/>
+      <c r="VK3" s="20"/>
+      <c r="VL3" s="20"/>
+      <c r="VM3" s="20"/>
+      <c r="VN3" s="20"/>
+      <c r="VO3" s="20"/>
+      <c r="VP3" s="20"/>
+      <c r="VQ3" s="20"/>
+      <c r="VR3" s="20"/>
+      <c r="VS3" s="20"/>
+      <c r="VT3" s="20"/>
+      <c r="VU3" s="20"/>
+      <c r="VV3" s="20"/>
+      <c r="VW3" s="20"/>
+      <c r="VX3" s="20"/>
+      <c r="VY3" s="20"/>
+      <c r="VZ3" s="20"/>
+      <c r="WA3" s="20"/>
+      <c r="WB3" s="20"/>
+      <c r="WC3" s="20"/>
+      <c r="WD3" s="20"/>
+      <c r="WE3" s="20"/>
+      <c r="WF3" s="20"/>
+      <c r="WG3" s="20"/>
+      <c r="WH3" s="20"/>
+      <c r="WI3" s="20"/>
+      <c r="WJ3" s="20"/>
+      <c r="WK3" s="20"/>
+      <c r="WL3" s="20"/>
+      <c r="WM3" s="20"/>
+      <c r="WN3" s="20"/>
+      <c r="WO3" s="20"/>
+      <c r="WP3" s="20"/>
+      <c r="WQ3" s="20"/>
+      <c r="WR3" s="20"/>
+      <c r="WS3" s="20"/>
+      <c r="WT3" s="20"/>
+      <c r="WU3" s="20"/>
+      <c r="WV3" s="20"/>
+      <c r="WW3" s="20"/>
+      <c r="WX3" s="20"/>
+      <c r="WY3" s="20"/>
+      <c r="WZ3" s="20"/>
+      <c r="XA3" s="20"/>
+      <c r="XB3" s="20"/>
+      <c r="XC3" s="20"/>
+      <c r="XD3" s="20"/>
+      <c r="XE3" s="20"/>
+      <c r="XF3" s="20"/>
+      <c r="XG3" s="20"/>
+      <c r="XH3" s="20"/>
+      <c r="XI3" s="20"/>
+      <c r="XJ3" s="20"/>
+      <c r="XK3" s="20"/>
+      <c r="XL3" s="20"/>
+      <c r="XM3" s="20"/>
+      <c r="XN3" s="20"/>
+      <c r="XO3" s="20"/>
+      <c r="XP3" s="20"/>
+      <c r="XQ3" s="20"/>
+      <c r="XR3" s="20"/>
+      <c r="XS3" s="20"/>
+      <c r="XT3" s="20"/>
+      <c r="XU3" s="20"/>
+      <c r="XV3" s="20"/>
+      <c r="XW3" s="20"/>
+      <c r="XX3" s="20"/>
+      <c r="XY3" s="20"/>
+      <c r="XZ3" s="20"/>
+      <c r="YA3" s="20"/>
+      <c r="YB3" s="20"/>
+      <c r="YC3" s="20"/>
+      <c r="YD3" s="20"/>
+      <c r="YE3" s="20"/>
+      <c r="YF3" s="20"/>
+      <c r="YG3" s="20"/>
+      <c r="YH3" s="20"/>
+      <c r="YI3" s="20"/>
+      <c r="YJ3" s="20"/>
+      <c r="YK3" s="20"/>
+      <c r="YL3" s="20"/>
+      <c r="YM3" s="20"/>
+      <c r="YN3" s="20"/>
+      <c r="YO3" s="20"/>
+      <c r="YP3" s="20"/>
+      <c r="YQ3" s="20"/>
+      <c r="YR3" s="20"/>
+      <c r="YS3" s="20"/>
+      <c r="YT3" s="20"/>
+      <c r="YU3" s="20"/>
+      <c r="YV3" s="20"/>
+      <c r="YW3" s="20"/>
+      <c r="YX3" s="20"/>
+      <c r="YY3" s="20"/>
+      <c r="YZ3" s="20"/>
+      <c r="ZA3" s="20"/>
+      <c r="ZB3" s="20"/>
+      <c r="ZC3" s="20"/>
+      <c r="ZD3" s="20"/>
+      <c r="ZE3" s="20"/>
+      <c r="ZF3" s="20"/>
+      <c r="ZG3" s="20"/>
+      <c r="ZH3" s="20"/>
+      <c r="ZI3" s="20"/>
+      <c r="ZJ3" s="20"/>
+      <c r="ZK3" s="20"/>
+      <c r="ZL3" s="20"/>
+      <c r="ZM3" s="20"/>
+      <c r="ZN3" s="20"/>
+      <c r="ZO3" s="20"/>
+      <c r="ZP3" s="20"/>
+      <c r="ZQ3" s="20"/>
+      <c r="ZR3" s="20"/>
+      <c r="ZS3" s="20"/>
+      <c r="ZT3" s="20"/>
+      <c r="ZU3" s="20"/>
+      <c r="ZV3" s="20"/>
+      <c r="ZW3" s="20"/>
+      <c r="ZX3" s="20"/>
+      <c r="ZY3" s="20"/>
+      <c r="ZZ3" s="20"/>
+      <c r="AAA3" s="20"/>
+      <c r="AAB3" s="20"/>
+      <c r="AAC3" s="20"/>
+      <c r="AAD3" s="20"/>
+      <c r="AAE3" s="20"/>
+      <c r="AAF3" s="20"/>
+      <c r="AAG3" s="20"/>
+      <c r="AAH3" s="20"/>
+      <c r="AAI3" s="20"/>
+      <c r="AAJ3" s="20"/>
+      <c r="AAK3" s="20"/>
+      <c r="AAL3" s="20"/>
+      <c r="AAM3" s="20"/>
+      <c r="AAN3" s="20"/>
+      <c r="AAO3" s="20"/>
+      <c r="AAP3" s="20"/>
+      <c r="AAQ3" s="20"/>
+      <c r="AAR3" s="20"/>
+      <c r="AAS3" s="20"/>
+      <c r="AAT3" s="20"/>
+      <c r="AAU3" s="20"/>
+      <c r="AAV3" s="20"/>
+      <c r="AAW3" s="20"/>
+      <c r="AAX3" s="20"/>
+      <c r="AAY3" s="20"/>
+      <c r="AAZ3" s="20"/>
+      <c r="ABA3" s="20"/>
+      <c r="ABB3" s="20"/>
+      <c r="ABC3" s="20"/>
+      <c r="ABD3" s="20"/>
+      <c r="ABE3" s="20"/>
+      <c r="ABF3" s="20"/>
+      <c r="ABG3" s="20"/>
+      <c r="ABH3" s="20"/>
+      <c r="ABI3" s="20"/>
+      <c r="ABJ3" s="20"/>
+      <c r="ABK3" s="20"/>
+      <c r="ABL3" s="20"/>
+      <c r="ABM3" s="20"/>
+      <c r="ABN3" s="20"/>
+      <c r="ABO3" s="20"/>
+      <c r="ABP3" s="20"/>
+      <c r="ABQ3" s="20"/>
+      <c r="ABR3" s="20"/>
+      <c r="ABS3" s="20"/>
+      <c r="ABT3" s="20"/>
+      <c r="ABU3" s="20"/>
+      <c r="ABV3" s="20"/>
+      <c r="ABW3" s="20"/>
+      <c r="ABX3" s="20"/>
+      <c r="ABY3" s="20"/>
+      <c r="ABZ3" s="20"/>
+      <c r="ACA3" s="20"/>
+      <c r="ACB3" s="20"/>
+      <c r="ACC3" s="20"/>
+      <c r="ACD3" s="20"/>
+      <c r="ACE3" s="20"/>
+      <c r="ACF3" s="20"/>
+      <c r="ACG3" s="20"/>
+      <c r="ACH3" s="20"/>
+      <c r="ACI3" s="20"/>
+      <c r="ACJ3" s="20"/>
+      <c r="ACK3" s="20"/>
+      <c r="ACL3" s="20"/>
+      <c r="ACM3" s="20"/>
+      <c r="ACN3" s="20"/>
+      <c r="ACO3" s="20"/>
+      <c r="ACP3" s="20"/>
+      <c r="ACQ3" s="20"/>
+      <c r="ACR3" s="20"/>
+      <c r="ACS3" s="20"/>
+      <c r="ACT3" s="20"/>
+      <c r="ACU3" s="20"/>
+      <c r="ACV3" s="20"/>
+      <c r="ACW3" s="20"/>
+      <c r="ACX3" s="20"/>
+      <c r="ACY3" s="20"/>
+      <c r="ACZ3" s="20"/>
+      <c r="ADA3" s="20"/>
+      <c r="ADB3" s="20"/>
+      <c r="ADC3" s="20"/>
+      <c r="ADD3" s="20"/>
+      <c r="ADE3" s="20"/>
+      <c r="ADF3" s="20"/>
+      <c r="ADG3" s="20"/>
+      <c r="ADH3" s="20"/>
+      <c r="ADI3" s="20"/>
+      <c r="ADJ3" s="20"/>
+      <c r="ADK3" s="20"/>
+      <c r="ADL3" s="20"/>
+      <c r="ADM3" s="20"/>
+      <c r="ADN3" s="20"/>
+      <c r="ADO3" s="20"/>
+      <c r="ADP3" s="20"/>
+      <c r="ADQ3" s="20"/>
+      <c r="ADR3" s="20"/>
+      <c r="ADS3" s="20"/>
+      <c r="ADT3" s="20"/>
+      <c r="ADU3" s="20"/>
+      <c r="ADV3" s="20"/>
+      <c r="ADW3" s="20"/>
+      <c r="ADX3" s="20"/>
+      <c r="ADY3" s="20"/>
+      <c r="ADZ3" s="20"/>
+      <c r="AEA3" s="20"/>
+      <c r="AEB3" s="20"/>
+      <c r="AEC3" s="20"/>
+      <c r="AED3" s="20"/>
+      <c r="AEE3" s="20"/>
+      <c r="AEF3" s="20"/>
+      <c r="AEG3" s="20"/>
+      <c r="AEH3" s="20"/>
+      <c r="AEI3" s="20"/>
+      <c r="AEJ3" s="20"/>
+      <c r="AEK3" s="20"/>
+      <c r="AEL3" s="20"/>
+      <c r="AEM3" s="20"/>
+      <c r="AEN3" s="20"/>
+      <c r="AEO3" s="20"/>
+      <c r="AEP3" s="20"/>
+      <c r="AEQ3" s="20"/>
+      <c r="AER3" s="20"/>
+      <c r="AES3" s="20"/>
+      <c r="AET3" s="20"/>
+      <c r="AEU3" s="20"/>
+      <c r="AEV3" s="20"/>
+      <c r="AEW3" s="20"/>
+      <c r="AEX3" s="20"/>
+      <c r="AEY3" s="20"/>
+      <c r="AEZ3" s="20"/>
+      <c r="AFA3" s="20"/>
+      <c r="AFB3" s="20"/>
+      <c r="AFC3" s="20"/>
+      <c r="AFD3" s="20"/>
+      <c r="AFE3" s="20"/>
+      <c r="AFF3" s="20"/>
+      <c r="AFG3" s="20"/>
+      <c r="AFH3" s="20"/>
+      <c r="AFI3" s="20"/>
+      <c r="AFJ3" s="20"/>
+      <c r="AFK3" s="20"/>
+      <c r="AFL3" s="20"/>
+      <c r="AFM3" s="20"/>
+      <c r="AFN3" s="20"/>
+      <c r="AFO3" s="20"/>
+      <c r="AFP3" s="20"/>
+      <c r="AFQ3" s="20"/>
+      <c r="AFR3" s="20"/>
+      <c r="AFS3" s="20"/>
+      <c r="AFT3" s="20"/>
+      <c r="AFU3" s="20"/>
+      <c r="AFV3" s="20"/>
+      <c r="AFW3" s="20"/>
+      <c r="AFX3" s="20"/>
+      <c r="AFY3" s="20"/>
+      <c r="AFZ3" s="20"/>
+      <c r="AGA3" s="20"/>
+      <c r="AGB3" s="20"/>
+      <c r="AGC3" s="20"/>
+      <c r="AGD3" s="20"/>
+      <c r="AGE3" s="20"/>
+      <c r="AGF3" s="20"/>
+      <c r="AGG3" s="20"/>
+      <c r="AGH3" s="20"/>
+      <c r="AGI3" s="20"/>
+      <c r="AGJ3" s="20"/>
+      <c r="AGK3" s="20"/>
+      <c r="AGL3" s="20"/>
+      <c r="AGM3" s="20"/>
+      <c r="AGN3" s="20"/>
+      <c r="AGO3" s="20"/>
+      <c r="AGP3" s="20"/>
+      <c r="AGQ3" s="20"/>
+      <c r="AGR3" s="20"/>
+      <c r="AGS3" s="20"/>
+      <c r="AGT3" s="20"/>
+      <c r="AGU3" s="20"/>
+      <c r="AGV3" s="20"/>
+      <c r="AGW3" s="20"/>
+      <c r="AGX3" s="20"/>
+      <c r="AGY3" s="20"/>
+      <c r="AGZ3" s="20"/>
+      <c r="AHA3" s="20"/>
+      <c r="AHB3" s="20"/>
+      <c r="AHC3" s="20"/>
+      <c r="AHD3" s="20"/>
+      <c r="AHE3" s="20"/>
+      <c r="AHF3" s="20"/>
+      <c r="AHG3" s="20"/>
+      <c r="AHH3" s="20"/>
+      <c r="AHI3" s="20"/>
+      <c r="AHJ3" s="20"/>
+      <c r="AHK3" s="20"/>
+      <c r="AHL3" s="20"/>
+      <c r="AHM3" s="20"/>
+      <c r="AHN3" s="20"/>
+      <c r="AHO3" s="20"/>
+      <c r="AHP3" s="20"/>
+      <c r="AHQ3" s="20"/>
+      <c r="AHR3" s="20"/>
+      <c r="AHS3" s="20"/>
+      <c r="AHT3" s="20"/>
+      <c r="AHU3" s="20"/>
+      <c r="AHV3" s="20"/>
+      <c r="AHW3" s="20"/>
+      <c r="AHX3" s="20"/>
+      <c r="AHY3" s="20"/>
+      <c r="AHZ3" s="20"/>
+      <c r="AIA3" s="20"/>
+      <c r="AIB3" s="20"/>
+      <c r="AIC3" s="20"/>
+      <c r="AID3" s="20"/>
+      <c r="AIE3" s="20"/>
+      <c r="AIF3" s="20"/>
+      <c r="AIG3" s="20"/>
+      <c r="AIH3" s="20"/>
+      <c r="AII3" s="20"/>
+      <c r="AIJ3" s="20"/>
+      <c r="AIK3" s="20"/>
+      <c r="AIL3" s="20"/>
+      <c r="AIM3" s="20"/>
+      <c r="AIN3" s="20"/>
+      <c r="AIO3" s="20"/>
+      <c r="AIP3" s="20"/>
+      <c r="AIQ3" s="20"/>
+      <c r="AIR3" s="20"/>
+      <c r="AIS3" s="20"/>
+      <c r="AIT3" s="20"/>
+      <c r="AIU3" s="20"/>
+      <c r="AIV3" s="20"/>
+      <c r="AIW3" s="20"/>
+      <c r="AIX3" s="20"/>
+      <c r="AIY3" s="20"/>
+      <c r="AIZ3" s="20"/>
+      <c r="AJA3" s="20"/>
+      <c r="AJB3" s="20"/>
+      <c r="AJC3" s="20"/>
+      <c r="AJD3" s="20"/>
+      <c r="AJE3" s="20"/>
+      <c r="AJF3" s="20"/>
+      <c r="AJG3" s="20"/>
+      <c r="AJH3" s="20"/>
+      <c r="AJI3" s="20"/>
+      <c r="AJJ3" s="20"/>
+      <c r="AJK3" s="20"/>
+      <c r="AJL3" s="20"/>
+      <c r="AJM3" s="20"/>
+      <c r="AJN3" s="20"/>
+      <c r="AJO3" s="20"/>
+      <c r="AJP3" s="20"/>
+      <c r="AJQ3" s="20"/>
+      <c r="AJR3" s="20"/>
+      <c r="AJS3" s="20"/>
+      <c r="AJT3" s="20"/>
+      <c r="AJU3" s="20"/>
+      <c r="AJV3" s="20"/>
+      <c r="AJW3" s="20"/>
+      <c r="AJX3" s="20"/>
+      <c r="AJY3" s="20"/>
+      <c r="AJZ3" s="20"/>
+      <c r="AKA3" s="20"/>
+      <c r="AKB3" s="20"/>
+      <c r="AKC3" s="20"/>
+      <c r="AKD3" s="20"/>
+      <c r="AKE3" s="20"/>
+      <c r="AKF3" s="20"/>
+      <c r="AKG3" s="20"/>
+      <c r="AKH3" s="20"/>
+      <c r="AKI3" s="20"/>
+      <c r="AKJ3" s="20"/>
+      <c r="AKK3" s="20"/>
+      <c r="AKL3" s="20"/>
+      <c r="AKM3" s="20"/>
+      <c r="AKN3" s="20"/>
+      <c r="AKO3" s="20"/>
+      <c r="AKP3" s="20"/>
+      <c r="AKQ3" s="20"/>
+      <c r="AKR3" s="20"/>
+      <c r="AKS3" s="20"/>
+      <c r="AKT3" s="20"/>
+      <c r="AKU3" s="20"/>
+      <c r="AKV3" s="20"/>
+      <c r="AKW3" s="20"/>
+      <c r="AKX3" s="20"/>
+      <c r="AKY3" s="20"/>
+      <c r="AKZ3" s="20"/>
+      <c r="ALA3" s="20"/>
+      <c r="ALB3" s="20"/>
+      <c r="ALC3" s="20"/>
+      <c r="ALD3" s="20"/>
+      <c r="ALE3" s="20"/>
+      <c r="ALF3" s="20"/>
+      <c r="ALG3" s="20"/>
+      <c r="ALH3" s="20"/>
+      <c r="ALI3" s="20"/>
+      <c r="ALJ3" s="20"/>
+      <c r="ALK3" s="20"/>
+      <c r="ALL3" s="20"/>
+      <c r="ALM3" s="20"/>
+      <c r="ALN3" s="20"/>
+      <c r="ALO3" s="20"/>
+      <c r="ALP3" s="20"/>
+      <c r="ALQ3" s="20"/>
+      <c r="ALR3" s="20"/>
+      <c r="ALS3" s="20"/>
+      <c r="ALT3" s="20"/>
+      <c r="ALU3" s="20"/>
+      <c r="ALV3" s="20"/>
+      <c r="ALW3" s="20"/>
+      <c r="ALX3" s="20"/>
+      <c r="ALY3" s="20"/>
+      <c r="ALZ3" s="20"/>
+      <c r="AMA3" s="20"/>
+      <c r="AMB3" s="20"/>
+      <c r="AMC3" s="20"/>
+      <c r="AMD3" s="20"/>
+      <c r="AME3" s="20"/>
+      <c r="AMF3" s="20"/>
+      <c r="AMG3" s="20"/>
+      <c r="AMH3" s="20"/>
+      <c r="AMI3" s="20"/>
+      <c r="AMJ3" s="20"/>
     </row>
     <row r="4" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2352,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2397,7 +2455,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R5" t="s">
         <v>37</v>
@@ -2406,7 +2464,7 @@
         <v>31</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,7 +2472,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2461,7 +2519,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2585,7 +2643,7 @@
         <v>99501</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="X9" s="4" t="s">
         <v>56</v>
@@ -2673,9 +2731,7 @@
       <c r="V10">
         <v>99501</v>
       </c>
-      <c r="W10" s="3">
-        <v>2</v>
-      </c>
+      <c r="W10" s="3"/>
       <c r="X10" s="4" t="s">
         <v>56</v>
       </c>
@@ -2762,7 +2818,7 @@
         <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
@@ -2818,10 +2874,10 @@
         <v>8</v>
       </c>
       <c r="Q13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2877,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S14" s="18" t="s">
         <v>11</v>
@@ -2904,7 +2960,7 @@
         <v>16</v>
       </c>
       <c r="AA14" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AB14" s="19">
         <v>125</v>
@@ -2916,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="AE14" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,7 +3091,7 @@
         <v>100</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
@@ -4127,25 +4183,25 @@
         <v>117</v>
       </c>
       <c r="AA19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AB19" s="7" t="s">
+      <c r="AC19" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AD19" t="s">
         <v>120</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>121</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AF19" s="4" t="s">
+      <c r="AG19" t="s">
         <v>123</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>124</v>
       </c>
       <c r="AH19" t="s">
         <v>106</v>
@@ -4154,12 +4210,12 @@
         <v>1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
@@ -4213,10 +4269,10 @@
         <v>114</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U20" t="s">
         <v>20</v>
@@ -4237,25 +4293,25 @@
         <v>117</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC20" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AD20" t="s">
         <v>120</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>121</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AF20" s="4" t="s">
+      <c r="AG20" t="s">
         <v>123</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>124</v>
       </c>
       <c r="AH20" t="s">
         <v>106</v>
@@ -4264,12 +4320,12 @@
         <v>1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -4308,16 +4364,16 @@
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R21" t="s">
         <v>20</v>
@@ -4332,22 +4388,22 @@
         <v>21</v>
       </c>
       <c r="V21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="X21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Z21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>43</v>
@@ -4359,21 +4415,21 @@
         <v>49</v>
       </c>
       <c r="AE21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -4382,7 +4438,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -4394,45 +4450,45 @@
         <v>50.874899999999997</v>
       </c>
       <c r="K22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" t="s">
         <v>138</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" t="s">
         <v>139</v>
       </c>
-      <c r="M22" t="s">
-        <v>152</v>
-      </c>
-      <c r="N22" t="s">
-        <v>140</v>
-      </c>
       <c r="O22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="F23" t="s">
         <v>64</v>
@@ -4453,7 +4509,7 @@
         <v>500</v>
       </c>
       <c r="L23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s">
         <v>4</v>
@@ -4498,30 +4554,30 @@
         <v>25</v>
       </c>
       <c r="AA23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB23" t="s">
         <v>167</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>168</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>169</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -4529,25 +4585,25 @@
     </row>
     <row r="25" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
         <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H25">
         <v>5.3453299999999997</v>
@@ -4556,57 +4612,57 @@
         <v>500.34559999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
         <v>153</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>154</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
       <c r="L26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" t="s">
         <v>176</v>
-      </c>
-      <c r="M26" t="s">
-        <v>177</v>
       </c>
       <c r="N26">
         <v>5000</v>
@@ -4618,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R26">
         <v>10</v>
@@ -4629,7 +4685,7 @@
     </row>
     <row r="27" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
@@ -4670,10 +4726,10 @@
     </row>
     <row r="28" spans="1:1024" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -4711,27 +4767,27 @@
     </row>
     <row r="29" spans="1:1024" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="21"/>
+      <c r="G29" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="28"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -4765,7 +4821,7 @@
     </row>
     <row r="30" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -4773,7 +4829,7 @@
     </row>
     <row r="31" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>63</v>
@@ -4791,10 +4847,10 @@
         <v>52</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I31" s="17">
         <v>100</v>
@@ -4818,13 +4874,13 @@
         <v>11</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S31" s="17">
         <v>100</v>
@@ -4842,56 +4898,56 @@
         <v>10</v>
       </c>
       <c r="X31" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y31" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Z31" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
     </row>
     <row r="32" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="B32" s="16">
-        <v>500</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" s="16">
-        <v>100</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="16">
-        <v>50</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="16">
-        <v>30</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N32" s="16" t="s">
         <v>4</v>
@@ -4918,33 +4974,63 @@
         <v>8</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y32" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB32" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC32" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:1024" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B33" s="17">
         <v>3454</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>42034</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E33" s="17">
         <v>3243242</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>59</v>
@@ -4956,7 +5042,7 @@
         <v>400</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>21</v>
@@ -4966,1018 +5052,1018 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="25"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="25"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
-      <c r="AY33" s="25"/>
-      <c r="AZ33" s="25"/>
-      <c r="BA33" s="25"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="25"/>
-      <c r="BD33" s="25"/>
-      <c r="BE33" s="25"/>
-      <c r="BF33" s="25"/>
-      <c r="BG33" s="25"/>
-      <c r="BH33" s="25"/>
-      <c r="BI33" s="25"/>
-      <c r="BJ33" s="25"/>
-      <c r="BK33" s="25"/>
-      <c r="BL33" s="25"/>
-      <c r="BM33" s="25"/>
-      <c r="BN33" s="25"/>
-      <c r="BO33" s="25"/>
-      <c r="BP33" s="25"/>
-      <c r="BQ33" s="25"/>
-      <c r="BR33" s="25"/>
-      <c r="BS33" s="25"/>
-      <c r="BT33" s="25"/>
-      <c r="BU33" s="25"/>
-      <c r="BV33" s="25"/>
-      <c r="BW33" s="25"/>
-      <c r="BX33" s="25"/>
-      <c r="BY33" s="25"/>
-      <c r="BZ33" s="25"/>
-      <c r="CA33" s="25"/>
-      <c r="CB33" s="25"/>
-      <c r="CC33" s="25"/>
-      <c r="CD33" s="25"/>
-      <c r="CE33" s="25"/>
-      <c r="CF33" s="25"/>
-      <c r="CG33" s="25"/>
-      <c r="CH33" s="25"/>
-      <c r="CI33" s="25"/>
-      <c r="CJ33" s="25"/>
-      <c r="CK33" s="25"/>
-      <c r="CL33" s="25"/>
-      <c r="CM33" s="25"/>
-      <c r="CN33" s="25"/>
-      <c r="CO33" s="25"/>
-      <c r="CP33" s="25"/>
-      <c r="CQ33" s="25"/>
-      <c r="CR33" s="25"/>
-      <c r="CS33" s="25"/>
-      <c r="CT33" s="25"/>
-      <c r="CU33" s="25"/>
-      <c r="CV33" s="25"/>
-      <c r="CW33" s="25"/>
-      <c r="CX33" s="25"/>
-      <c r="CY33" s="25"/>
-      <c r="CZ33" s="25"/>
-      <c r="DA33" s="25"/>
-      <c r="DB33" s="25"/>
-      <c r="DC33" s="25"/>
-      <c r="DD33" s="25"/>
-      <c r="DE33" s="25"/>
-      <c r="DF33" s="25"/>
-      <c r="DG33" s="25"/>
-      <c r="DH33" s="25"/>
-      <c r="DI33" s="25"/>
-      <c r="DJ33" s="25"/>
-      <c r="DK33" s="25"/>
-      <c r="DL33" s="25"/>
-      <c r="DM33" s="25"/>
-      <c r="DN33" s="25"/>
-      <c r="DO33" s="25"/>
-      <c r="DP33" s="25"/>
-      <c r="DQ33" s="25"/>
-      <c r="DR33" s="25"/>
-      <c r="DS33" s="25"/>
-      <c r="DT33" s="25"/>
-      <c r="DU33" s="25"/>
-      <c r="DV33" s="25"/>
-      <c r="DW33" s="25"/>
-      <c r="DX33" s="25"/>
-      <c r="DY33" s="25"/>
-      <c r="DZ33" s="25"/>
-      <c r="EA33" s="25"/>
-      <c r="EB33" s="25"/>
-      <c r="EC33" s="25"/>
-      <c r="ED33" s="25"/>
-      <c r="EE33" s="25"/>
-      <c r="EF33" s="25"/>
-      <c r="EG33" s="25"/>
-      <c r="EH33" s="25"/>
-      <c r="EI33" s="25"/>
-      <c r="EJ33" s="25"/>
-      <c r="EK33" s="25"/>
-      <c r="EL33" s="25"/>
-      <c r="EM33" s="25"/>
-      <c r="EN33" s="25"/>
-      <c r="EO33" s="25"/>
-      <c r="EP33" s="25"/>
-      <c r="EQ33" s="25"/>
-      <c r="ER33" s="25"/>
-      <c r="ES33" s="25"/>
-      <c r="ET33" s="25"/>
-      <c r="EU33" s="25"/>
-      <c r="EV33" s="25"/>
-      <c r="EW33" s="25"/>
-      <c r="EX33" s="25"/>
-      <c r="EY33" s="25"/>
-      <c r="EZ33" s="25"/>
-      <c r="FA33" s="25"/>
-      <c r="FB33" s="25"/>
-      <c r="FC33" s="25"/>
-      <c r="FD33" s="25"/>
-      <c r="FE33" s="25"/>
-      <c r="FF33" s="25"/>
-      <c r="FG33" s="25"/>
-      <c r="FH33" s="25"/>
-      <c r="FI33" s="25"/>
-      <c r="FJ33" s="25"/>
-      <c r="FK33" s="25"/>
-      <c r="FL33" s="25"/>
-      <c r="FM33" s="25"/>
-      <c r="FN33" s="25"/>
-      <c r="FO33" s="25"/>
-      <c r="FP33" s="25"/>
-      <c r="FQ33" s="25"/>
-      <c r="FR33" s="25"/>
-      <c r="FS33" s="25"/>
-      <c r="FT33" s="25"/>
-      <c r="FU33" s="25"/>
-      <c r="FV33" s="25"/>
-      <c r="FW33" s="25"/>
-      <c r="FX33" s="25"/>
-      <c r="FY33" s="25"/>
-      <c r="FZ33" s="25"/>
-      <c r="GA33" s="25"/>
-      <c r="GB33" s="25"/>
-      <c r="GC33" s="25"/>
-      <c r="GD33" s="25"/>
-      <c r="GE33" s="25"/>
-      <c r="GF33" s="25"/>
-      <c r="GG33" s="25"/>
-      <c r="GH33" s="25"/>
-      <c r="GI33" s="25"/>
-      <c r="GJ33" s="25"/>
-      <c r="GK33" s="25"/>
-      <c r="GL33" s="25"/>
-      <c r="GM33" s="25"/>
-      <c r="GN33" s="25"/>
-      <c r="GO33" s="25"/>
-      <c r="GP33" s="25"/>
-      <c r="GQ33" s="25"/>
-      <c r="GR33" s="25"/>
-      <c r="GS33" s="25"/>
-      <c r="GT33" s="25"/>
-      <c r="GU33" s="25"/>
-      <c r="GV33" s="25"/>
-      <c r="GW33" s="25"/>
-      <c r="GX33" s="25"/>
-      <c r="GY33" s="25"/>
-      <c r="GZ33" s="25"/>
-      <c r="HA33" s="25"/>
-      <c r="HB33" s="25"/>
-      <c r="HC33" s="25"/>
-      <c r="HD33" s="25"/>
-      <c r="HE33" s="25"/>
-      <c r="HF33" s="25"/>
-      <c r="HG33" s="25"/>
-      <c r="HH33" s="25"/>
-      <c r="HI33" s="25"/>
-      <c r="HJ33" s="25"/>
-      <c r="HK33" s="25"/>
-      <c r="HL33" s="25"/>
-      <c r="HM33" s="25"/>
-      <c r="HN33" s="25"/>
-      <c r="HO33" s="25"/>
-      <c r="HP33" s="25"/>
-      <c r="HQ33" s="25"/>
-      <c r="HR33" s="25"/>
-      <c r="HS33" s="25"/>
-      <c r="HT33" s="25"/>
-      <c r="HU33" s="25"/>
-      <c r="HV33" s="25"/>
-      <c r="HW33" s="25"/>
-      <c r="HX33" s="25"/>
-      <c r="HY33" s="25"/>
-      <c r="HZ33" s="25"/>
-      <c r="IA33" s="25"/>
-      <c r="IB33" s="25"/>
-      <c r="IC33" s="25"/>
-      <c r="ID33" s="25"/>
-      <c r="IE33" s="25"/>
-      <c r="IF33" s="25"/>
-      <c r="IG33" s="25"/>
-      <c r="IH33" s="25"/>
-      <c r="II33" s="25"/>
-      <c r="IJ33" s="25"/>
-      <c r="IK33" s="25"/>
-      <c r="IL33" s="25"/>
-      <c r="IM33" s="25"/>
-      <c r="IN33" s="25"/>
-      <c r="IO33" s="25"/>
-      <c r="IP33" s="25"/>
-      <c r="IQ33" s="25"/>
-      <c r="IR33" s="25"/>
-      <c r="IS33" s="25"/>
-      <c r="IT33" s="25"/>
-      <c r="IU33" s="25"/>
-      <c r="IV33" s="25"/>
-      <c r="IW33" s="25"/>
-      <c r="IX33" s="25"/>
-      <c r="IY33" s="25"/>
-      <c r="IZ33" s="25"/>
-      <c r="JA33" s="25"/>
-      <c r="JB33" s="25"/>
-      <c r="JC33" s="25"/>
-      <c r="JD33" s="25"/>
-      <c r="JE33" s="25"/>
-      <c r="JF33" s="25"/>
-      <c r="JG33" s="25"/>
-      <c r="JH33" s="25"/>
-      <c r="JI33" s="25"/>
-      <c r="JJ33" s="25"/>
-      <c r="JK33" s="25"/>
-      <c r="JL33" s="25"/>
-      <c r="JM33" s="25"/>
-      <c r="JN33" s="25"/>
-      <c r="JO33" s="25"/>
-      <c r="JP33" s="25"/>
-      <c r="JQ33" s="25"/>
-      <c r="JR33" s="25"/>
-      <c r="JS33" s="25"/>
-      <c r="JT33" s="25"/>
-      <c r="JU33" s="25"/>
-      <c r="JV33" s="25"/>
-      <c r="JW33" s="25"/>
-      <c r="JX33" s="25"/>
-      <c r="JY33" s="25"/>
-      <c r="JZ33" s="25"/>
-      <c r="KA33" s="25"/>
-      <c r="KB33" s="25"/>
-      <c r="KC33" s="25"/>
-      <c r="KD33" s="25"/>
-      <c r="KE33" s="25"/>
-      <c r="KF33" s="25"/>
-      <c r="KG33" s="25"/>
-      <c r="KH33" s="25"/>
-      <c r="KI33" s="25"/>
-      <c r="KJ33" s="25"/>
-      <c r="KK33" s="25"/>
-      <c r="KL33" s="25"/>
-      <c r="KM33" s="25"/>
-      <c r="KN33" s="25"/>
-      <c r="KO33" s="25"/>
-      <c r="KP33" s="25"/>
-      <c r="KQ33" s="25"/>
-      <c r="KR33" s="25"/>
-      <c r="KS33" s="25"/>
-      <c r="KT33" s="25"/>
-      <c r="KU33" s="25"/>
-      <c r="KV33" s="25"/>
-      <c r="KW33" s="25"/>
-      <c r="KX33" s="25"/>
-      <c r="KY33" s="25"/>
-      <c r="KZ33" s="25"/>
-      <c r="LA33" s="25"/>
-      <c r="LB33" s="25"/>
-      <c r="LC33" s="25"/>
-      <c r="LD33" s="25"/>
-      <c r="LE33" s="25"/>
-      <c r="LF33" s="25"/>
-      <c r="LG33" s="25"/>
-      <c r="LH33" s="25"/>
-      <c r="LI33" s="25"/>
-      <c r="LJ33" s="25"/>
-      <c r="LK33" s="25"/>
-      <c r="LL33" s="25"/>
-      <c r="LM33" s="25"/>
-      <c r="LN33" s="25"/>
-      <c r="LO33" s="25"/>
-      <c r="LP33" s="25"/>
-      <c r="LQ33" s="25"/>
-      <c r="LR33" s="25"/>
-      <c r="LS33" s="25"/>
-      <c r="LT33" s="25"/>
-      <c r="LU33" s="25"/>
-      <c r="LV33" s="25"/>
-      <c r="LW33" s="25"/>
-      <c r="LX33" s="25"/>
-      <c r="LY33" s="25"/>
-      <c r="LZ33" s="25"/>
-      <c r="MA33" s="25"/>
-      <c r="MB33" s="25"/>
-      <c r="MC33" s="25"/>
-      <c r="MD33" s="25"/>
-      <c r="ME33" s="25"/>
-      <c r="MF33" s="25"/>
-      <c r="MG33" s="25"/>
-      <c r="MH33" s="25"/>
-      <c r="MI33" s="25"/>
-      <c r="MJ33" s="25"/>
-      <c r="MK33" s="25"/>
-      <c r="ML33" s="25"/>
-      <c r="MM33" s="25"/>
-      <c r="MN33" s="25"/>
-      <c r="MO33" s="25"/>
-      <c r="MP33" s="25"/>
-      <c r="MQ33" s="25"/>
-      <c r="MR33" s="25"/>
-      <c r="MS33" s="25"/>
-      <c r="MT33" s="25"/>
-      <c r="MU33" s="25"/>
-      <c r="MV33" s="25"/>
-      <c r="MW33" s="25"/>
-      <c r="MX33" s="25"/>
-      <c r="MY33" s="25"/>
-      <c r="MZ33" s="25"/>
-      <c r="NA33" s="25"/>
-      <c r="NB33" s="25"/>
-      <c r="NC33" s="25"/>
-      <c r="ND33" s="25"/>
-      <c r="NE33" s="25"/>
-      <c r="NF33" s="25"/>
-      <c r="NG33" s="25"/>
-      <c r="NH33" s="25"/>
-      <c r="NI33" s="25"/>
-      <c r="NJ33" s="25"/>
-      <c r="NK33" s="25"/>
-      <c r="NL33" s="25"/>
-      <c r="NM33" s="25"/>
-      <c r="NN33" s="25"/>
-      <c r="NO33" s="25"/>
-      <c r="NP33" s="25"/>
-      <c r="NQ33" s="25"/>
-      <c r="NR33" s="25"/>
-      <c r="NS33" s="25"/>
-      <c r="NT33" s="25"/>
-      <c r="NU33" s="25"/>
-      <c r="NV33" s="25"/>
-      <c r="NW33" s="25"/>
-      <c r="NX33" s="25"/>
-      <c r="NY33" s="25"/>
-      <c r="NZ33" s="25"/>
-      <c r="OA33" s="25"/>
-      <c r="OB33" s="25"/>
-      <c r="OC33" s="25"/>
-      <c r="OD33" s="25"/>
-      <c r="OE33" s="25"/>
-      <c r="OF33" s="25"/>
-      <c r="OG33" s="25"/>
-      <c r="OH33" s="25"/>
-      <c r="OI33" s="25"/>
-      <c r="OJ33" s="25"/>
-      <c r="OK33" s="25"/>
-      <c r="OL33" s="25"/>
-      <c r="OM33" s="25"/>
-      <c r="ON33" s="25"/>
-      <c r="OO33" s="25"/>
-      <c r="OP33" s="25"/>
-      <c r="OQ33" s="25"/>
-      <c r="OR33" s="25"/>
-      <c r="OS33" s="25"/>
-      <c r="OT33" s="25"/>
-      <c r="OU33" s="25"/>
-      <c r="OV33" s="25"/>
-      <c r="OW33" s="25"/>
-      <c r="OX33" s="25"/>
-      <c r="OY33" s="25"/>
-      <c r="OZ33" s="25"/>
-      <c r="PA33" s="25"/>
-      <c r="PB33" s="25"/>
-      <c r="PC33" s="25"/>
-      <c r="PD33" s="25"/>
-      <c r="PE33" s="25"/>
-      <c r="PF33" s="25"/>
-      <c r="PG33" s="25"/>
-      <c r="PH33" s="25"/>
-      <c r="PI33" s="25"/>
-      <c r="PJ33" s="25"/>
-      <c r="PK33" s="25"/>
-      <c r="PL33" s="25"/>
-      <c r="PM33" s="25"/>
-      <c r="PN33" s="25"/>
-      <c r="PO33" s="25"/>
-      <c r="PP33" s="25"/>
-      <c r="PQ33" s="25"/>
-      <c r="PR33" s="25"/>
-      <c r="PS33" s="25"/>
-      <c r="PT33" s="25"/>
-      <c r="PU33" s="25"/>
-      <c r="PV33" s="25"/>
-      <c r="PW33" s="25"/>
-      <c r="PX33" s="25"/>
-      <c r="PY33" s="25"/>
-      <c r="PZ33" s="25"/>
-      <c r="QA33" s="25"/>
-      <c r="QB33" s="25"/>
-      <c r="QC33" s="25"/>
-      <c r="QD33" s="25"/>
-      <c r="QE33" s="25"/>
-      <c r="QF33" s="25"/>
-      <c r="QG33" s="25"/>
-      <c r="QH33" s="25"/>
-      <c r="QI33" s="25"/>
-      <c r="QJ33" s="25"/>
-      <c r="QK33" s="25"/>
-      <c r="QL33" s="25"/>
-      <c r="QM33" s="25"/>
-      <c r="QN33" s="25"/>
-      <c r="QO33" s="25"/>
-      <c r="QP33" s="25"/>
-      <c r="QQ33" s="25"/>
-      <c r="QR33" s="25"/>
-      <c r="QS33" s="25"/>
-      <c r="QT33" s="25"/>
-      <c r="QU33" s="25"/>
-      <c r="QV33" s="25"/>
-      <c r="QW33" s="25"/>
-      <c r="QX33" s="25"/>
-      <c r="QY33" s="25"/>
-      <c r="QZ33" s="25"/>
-      <c r="RA33" s="25"/>
-      <c r="RB33" s="25"/>
-      <c r="RC33" s="25"/>
-      <c r="RD33" s="25"/>
-      <c r="RE33" s="25"/>
-      <c r="RF33" s="25"/>
-      <c r="RG33" s="25"/>
-      <c r="RH33" s="25"/>
-      <c r="RI33" s="25"/>
-      <c r="RJ33" s="25"/>
-      <c r="RK33" s="25"/>
-      <c r="RL33" s="25"/>
-      <c r="RM33" s="25"/>
-      <c r="RN33" s="25"/>
-      <c r="RO33" s="25"/>
-      <c r="RP33" s="25"/>
-      <c r="RQ33" s="25"/>
-      <c r="RR33" s="25"/>
-      <c r="RS33" s="25"/>
-      <c r="RT33" s="25"/>
-      <c r="RU33" s="25"/>
-      <c r="RV33" s="25"/>
-      <c r="RW33" s="25"/>
-      <c r="RX33" s="25"/>
-      <c r="RY33" s="25"/>
-      <c r="RZ33" s="25"/>
-      <c r="SA33" s="25"/>
-      <c r="SB33" s="25"/>
-      <c r="SC33" s="25"/>
-      <c r="SD33" s="25"/>
-      <c r="SE33" s="25"/>
-      <c r="SF33" s="25"/>
-      <c r="SG33" s="25"/>
-      <c r="SH33" s="25"/>
-      <c r="SI33" s="25"/>
-      <c r="SJ33" s="25"/>
-      <c r="SK33" s="25"/>
-      <c r="SL33" s="25"/>
-      <c r="SM33" s="25"/>
-      <c r="SN33" s="25"/>
-      <c r="SO33" s="25"/>
-      <c r="SP33" s="25"/>
-      <c r="SQ33" s="25"/>
-      <c r="SR33" s="25"/>
-      <c r="SS33" s="25"/>
-      <c r="ST33" s="25"/>
-      <c r="SU33" s="25"/>
-      <c r="SV33" s="25"/>
-      <c r="SW33" s="25"/>
-      <c r="SX33" s="25"/>
-      <c r="SY33" s="25"/>
-      <c r="SZ33" s="25"/>
-      <c r="TA33" s="25"/>
-      <c r="TB33" s="25"/>
-      <c r="TC33" s="25"/>
-      <c r="TD33" s="25"/>
-      <c r="TE33" s="25"/>
-      <c r="TF33" s="25"/>
-      <c r="TG33" s="25"/>
-      <c r="TH33" s="25"/>
-      <c r="TI33" s="25"/>
-      <c r="TJ33" s="25"/>
-      <c r="TK33" s="25"/>
-      <c r="TL33" s="25"/>
-      <c r="TM33" s="25"/>
-      <c r="TN33" s="25"/>
-      <c r="TO33" s="25"/>
-      <c r="TP33" s="25"/>
-      <c r="TQ33" s="25"/>
-      <c r="TR33" s="25"/>
-      <c r="TS33" s="25"/>
-      <c r="TT33" s="25"/>
-      <c r="TU33" s="25"/>
-      <c r="TV33" s="25"/>
-      <c r="TW33" s="25"/>
-      <c r="TX33" s="25"/>
-      <c r="TY33" s="25"/>
-      <c r="TZ33" s="25"/>
-      <c r="UA33" s="25"/>
-      <c r="UB33" s="25"/>
-      <c r="UC33" s="25"/>
-      <c r="UD33" s="25"/>
-      <c r="UE33" s="25"/>
-      <c r="UF33" s="25"/>
-      <c r="UG33" s="25"/>
-      <c r="UH33" s="25"/>
-      <c r="UI33" s="25"/>
-      <c r="UJ33" s="25"/>
-      <c r="UK33" s="25"/>
-      <c r="UL33" s="25"/>
-      <c r="UM33" s="25"/>
-      <c r="UN33" s="25"/>
-      <c r="UO33" s="25"/>
-      <c r="UP33" s="25"/>
-      <c r="UQ33" s="25"/>
-      <c r="UR33" s="25"/>
-      <c r="US33" s="25"/>
-      <c r="UT33" s="25"/>
-      <c r="UU33" s="25"/>
-      <c r="UV33" s="25"/>
-      <c r="UW33" s="25"/>
-      <c r="UX33" s="25"/>
-      <c r="UY33" s="25"/>
-      <c r="UZ33" s="25"/>
-      <c r="VA33" s="25"/>
-      <c r="VB33" s="25"/>
-      <c r="VC33" s="25"/>
-      <c r="VD33" s="25"/>
-      <c r="VE33" s="25"/>
-      <c r="VF33" s="25"/>
-      <c r="VG33" s="25"/>
-      <c r="VH33" s="25"/>
-      <c r="VI33" s="25"/>
-      <c r="VJ33" s="25"/>
-      <c r="VK33" s="25"/>
-      <c r="VL33" s="25"/>
-      <c r="VM33" s="25"/>
-      <c r="VN33" s="25"/>
-      <c r="VO33" s="25"/>
-      <c r="VP33" s="25"/>
-      <c r="VQ33" s="25"/>
-      <c r="VR33" s="25"/>
-      <c r="VS33" s="25"/>
-      <c r="VT33" s="25"/>
-      <c r="VU33" s="25"/>
-      <c r="VV33" s="25"/>
-      <c r="VW33" s="25"/>
-      <c r="VX33" s="25"/>
-      <c r="VY33" s="25"/>
-      <c r="VZ33" s="25"/>
-      <c r="WA33" s="25"/>
-      <c r="WB33" s="25"/>
-      <c r="WC33" s="25"/>
-      <c r="WD33" s="25"/>
-      <c r="WE33" s="25"/>
-      <c r="WF33" s="25"/>
-      <c r="WG33" s="25"/>
-      <c r="WH33" s="25"/>
-      <c r="WI33" s="25"/>
-      <c r="WJ33" s="25"/>
-      <c r="WK33" s="25"/>
-      <c r="WL33" s="25"/>
-      <c r="WM33" s="25"/>
-      <c r="WN33" s="25"/>
-      <c r="WO33" s="25"/>
-      <c r="WP33" s="25"/>
-      <c r="WQ33" s="25"/>
-      <c r="WR33" s="25"/>
-      <c r="WS33" s="25"/>
-      <c r="WT33" s="25"/>
-      <c r="WU33" s="25"/>
-      <c r="WV33" s="25"/>
-      <c r="WW33" s="25"/>
-      <c r="WX33" s="25"/>
-      <c r="WY33" s="25"/>
-      <c r="WZ33" s="25"/>
-      <c r="XA33" s="25"/>
-      <c r="XB33" s="25"/>
-      <c r="XC33" s="25"/>
-      <c r="XD33" s="25"/>
-      <c r="XE33" s="25"/>
-      <c r="XF33" s="25"/>
-      <c r="XG33" s="25"/>
-      <c r="XH33" s="25"/>
-      <c r="XI33" s="25"/>
-      <c r="XJ33" s="25"/>
-      <c r="XK33" s="25"/>
-      <c r="XL33" s="25"/>
-      <c r="XM33" s="25"/>
-      <c r="XN33" s="25"/>
-      <c r="XO33" s="25"/>
-      <c r="XP33" s="25"/>
-      <c r="XQ33" s="25"/>
-      <c r="XR33" s="25"/>
-      <c r="XS33" s="25"/>
-      <c r="XT33" s="25"/>
-      <c r="XU33" s="25"/>
-      <c r="XV33" s="25"/>
-      <c r="XW33" s="25"/>
-      <c r="XX33" s="25"/>
-      <c r="XY33" s="25"/>
-      <c r="XZ33" s="25"/>
-      <c r="YA33" s="25"/>
-      <c r="YB33" s="25"/>
-      <c r="YC33" s="25"/>
-      <c r="YD33" s="25"/>
-      <c r="YE33" s="25"/>
-      <c r="YF33" s="25"/>
-      <c r="YG33" s="25"/>
-      <c r="YH33" s="25"/>
-      <c r="YI33" s="25"/>
-      <c r="YJ33" s="25"/>
-      <c r="YK33" s="25"/>
-      <c r="YL33" s="25"/>
-      <c r="YM33" s="25"/>
-      <c r="YN33" s="25"/>
-      <c r="YO33" s="25"/>
-      <c r="YP33" s="25"/>
-      <c r="YQ33" s="25"/>
-      <c r="YR33" s="25"/>
-      <c r="YS33" s="25"/>
-      <c r="YT33" s="25"/>
-      <c r="YU33" s="25"/>
-      <c r="YV33" s="25"/>
-      <c r="YW33" s="25"/>
-      <c r="YX33" s="25"/>
-      <c r="YY33" s="25"/>
-      <c r="YZ33" s="25"/>
-      <c r="ZA33" s="25"/>
-      <c r="ZB33" s="25"/>
-      <c r="ZC33" s="25"/>
-      <c r="ZD33" s="25"/>
-      <c r="ZE33" s="25"/>
-      <c r="ZF33" s="25"/>
-      <c r="ZG33" s="25"/>
-      <c r="ZH33" s="25"/>
-      <c r="ZI33" s="25"/>
-      <c r="ZJ33" s="25"/>
-      <c r="ZK33" s="25"/>
-      <c r="ZL33" s="25"/>
-      <c r="ZM33" s="25"/>
-      <c r="ZN33" s="25"/>
-      <c r="ZO33" s="25"/>
-      <c r="ZP33" s="25"/>
-      <c r="ZQ33" s="25"/>
-      <c r="ZR33" s="25"/>
-      <c r="ZS33" s="25"/>
-      <c r="ZT33" s="25"/>
-      <c r="ZU33" s="25"/>
-      <c r="ZV33" s="25"/>
-      <c r="ZW33" s="25"/>
-      <c r="ZX33" s="25"/>
-      <c r="ZY33" s="25"/>
-      <c r="ZZ33" s="25"/>
-      <c r="AAA33" s="25"/>
-      <c r="AAB33" s="25"/>
-      <c r="AAC33" s="25"/>
-      <c r="AAD33" s="25"/>
-      <c r="AAE33" s="25"/>
-      <c r="AAF33" s="25"/>
-      <c r="AAG33" s="25"/>
-      <c r="AAH33" s="25"/>
-      <c r="AAI33" s="25"/>
-      <c r="AAJ33" s="25"/>
-      <c r="AAK33" s="25"/>
-      <c r="AAL33" s="25"/>
-      <c r="AAM33" s="25"/>
-      <c r="AAN33" s="25"/>
-      <c r="AAO33" s="25"/>
-      <c r="AAP33" s="25"/>
-      <c r="AAQ33" s="25"/>
-      <c r="AAR33" s="25"/>
-      <c r="AAS33" s="25"/>
-      <c r="AAT33" s="25"/>
-      <c r="AAU33" s="25"/>
-      <c r="AAV33" s="25"/>
-      <c r="AAW33" s="25"/>
-      <c r="AAX33" s="25"/>
-      <c r="AAY33" s="25"/>
-      <c r="AAZ33" s="25"/>
-      <c r="ABA33" s="25"/>
-      <c r="ABB33" s="25"/>
-      <c r="ABC33" s="25"/>
-      <c r="ABD33" s="25"/>
-      <c r="ABE33" s="25"/>
-      <c r="ABF33" s="25"/>
-      <c r="ABG33" s="25"/>
-      <c r="ABH33" s="25"/>
-      <c r="ABI33" s="25"/>
-      <c r="ABJ33" s="25"/>
-      <c r="ABK33" s="25"/>
-      <c r="ABL33" s="25"/>
-      <c r="ABM33" s="25"/>
-      <c r="ABN33" s="25"/>
-      <c r="ABO33" s="25"/>
-      <c r="ABP33" s="25"/>
-      <c r="ABQ33" s="25"/>
-      <c r="ABR33" s="25"/>
-      <c r="ABS33" s="25"/>
-      <c r="ABT33" s="25"/>
-      <c r="ABU33" s="25"/>
-      <c r="ABV33" s="25"/>
-      <c r="ABW33" s="25"/>
-      <c r="ABX33" s="25"/>
-      <c r="ABY33" s="25"/>
-      <c r="ABZ33" s="25"/>
-      <c r="ACA33" s="25"/>
-      <c r="ACB33" s="25"/>
-      <c r="ACC33" s="25"/>
-      <c r="ACD33" s="25"/>
-      <c r="ACE33" s="25"/>
-      <c r="ACF33" s="25"/>
-      <c r="ACG33" s="25"/>
-      <c r="ACH33" s="25"/>
-      <c r="ACI33" s="25"/>
-      <c r="ACJ33" s="25"/>
-      <c r="ACK33" s="25"/>
-      <c r="ACL33" s="25"/>
-      <c r="ACM33" s="25"/>
-      <c r="ACN33" s="25"/>
-      <c r="ACO33" s="25"/>
-      <c r="ACP33" s="25"/>
-      <c r="ACQ33" s="25"/>
-      <c r="ACR33" s="25"/>
-      <c r="ACS33" s="25"/>
-      <c r="ACT33" s="25"/>
-      <c r="ACU33" s="25"/>
-      <c r="ACV33" s="25"/>
-      <c r="ACW33" s="25"/>
-      <c r="ACX33" s="25"/>
-      <c r="ACY33" s="25"/>
-      <c r="ACZ33" s="25"/>
-      <c r="ADA33" s="25"/>
-      <c r="ADB33" s="25"/>
-      <c r="ADC33" s="25"/>
-      <c r="ADD33" s="25"/>
-      <c r="ADE33" s="25"/>
-      <c r="ADF33" s="25"/>
-      <c r="ADG33" s="25"/>
-      <c r="ADH33" s="25"/>
-      <c r="ADI33" s="25"/>
-      <c r="ADJ33" s="25"/>
-      <c r="ADK33" s="25"/>
-      <c r="ADL33" s="25"/>
-      <c r="ADM33" s="25"/>
-      <c r="ADN33" s="25"/>
-      <c r="ADO33" s="25"/>
-      <c r="ADP33" s="25"/>
-      <c r="ADQ33" s="25"/>
-      <c r="ADR33" s="25"/>
-      <c r="ADS33" s="25"/>
-      <c r="ADT33" s="25"/>
-      <c r="ADU33" s="25"/>
-      <c r="ADV33" s="25"/>
-      <c r="ADW33" s="25"/>
-      <c r="ADX33" s="25"/>
-      <c r="ADY33" s="25"/>
-      <c r="ADZ33" s="25"/>
-      <c r="AEA33" s="25"/>
-      <c r="AEB33" s="25"/>
-      <c r="AEC33" s="25"/>
-      <c r="AED33" s="25"/>
-      <c r="AEE33" s="25"/>
-      <c r="AEF33" s="25"/>
-      <c r="AEG33" s="25"/>
-      <c r="AEH33" s="25"/>
-      <c r="AEI33" s="25"/>
-      <c r="AEJ33" s="25"/>
-      <c r="AEK33" s="25"/>
-      <c r="AEL33" s="25"/>
-      <c r="AEM33" s="25"/>
-      <c r="AEN33" s="25"/>
-      <c r="AEO33" s="25"/>
-      <c r="AEP33" s="25"/>
-      <c r="AEQ33" s="25"/>
-      <c r="AER33" s="25"/>
-      <c r="AES33" s="25"/>
-      <c r="AET33" s="25"/>
-      <c r="AEU33" s="25"/>
-      <c r="AEV33" s="25"/>
-      <c r="AEW33" s="25"/>
-      <c r="AEX33" s="25"/>
-      <c r="AEY33" s="25"/>
-      <c r="AEZ33" s="25"/>
-      <c r="AFA33" s="25"/>
-      <c r="AFB33" s="25"/>
-      <c r="AFC33" s="25"/>
-      <c r="AFD33" s="25"/>
-      <c r="AFE33" s="25"/>
-      <c r="AFF33" s="25"/>
-      <c r="AFG33" s="25"/>
-      <c r="AFH33" s="25"/>
-      <c r="AFI33" s="25"/>
-      <c r="AFJ33" s="25"/>
-      <c r="AFK33" s="25"/>
-      <c r="AFL33" s="25"/>
-      <c r="AFM33" s="25"/>
-      <c r="AFN33" s="25"/>
-      <c r="AFO33" s="25"/>
-      <c r="AFP33" s="25"/>
-      <c r="AFQ33" s="25"/>
-      <c r="AFR33" s="25"/>
-      <c r="AFS33" s="25"/>
-      <c r="AFT33" s="25"/>
-      <c r="AFU33" s="25"/>
-      <c r="AFV33" s="25"/>
-      <c r="AFW33" s="25"/>
-      <c r="AFX33" s="25"/>
-      <c r="AFY33" s="25"/>
-      <c r="AFZ33" s="25"/>
-      <c r="AGA33" s="25"/>
-      <c r="AGB33" s="25"/>
-      <c r="AGC33" s="25"/>
-      <c r="AGD33" s="25"/>
-      <c r="AGE33" s="25"/>
-      <c r="AGF33" s="25"/>
-      <c r="AGG33" s="25"/>
-      <c r="AGH33" s="25"/>
-      <c r="AGI33" s="25"/>
-      <c r="AGJ33" s="25"/>
-      <c r="AGK33" s="25"/>
-      <c r="AGL33" s="25"/>
-      <c r="AGM33" s="25"/>
-      <c r="AGN33" s="25"/>
-      <c r="AGO33" s="25"/>
-      <c r="AGP33" s="25"/>
-      <c r="AGQ33" s="25"/>
-      <c r="AGR33" s="25"/>
-      <c r="AGS33" s="25"/>
-      <c r="AGT33" s="25"/>
-      <c r="AGU33" s="25"/>
-      <c r="AGV33" s="25"/>
-      <c r="AGW33" s="25"/>
-      <c r="AGX33" s="25"/>
-      <c r="AGY33" s="25"/>
-      <c r="AGZ33" s="25"/>
-      <c r="AHA33" s="25"/>
-      <c r="AHB33" s="25"/>
-      <c r="AHC33" s="25"/>
-      <c r="AHD33" s="25"/>
-      <c r="AHE33" s="25"/>
-      <c r="AHF33" s="25"/>
-      <c r="AHG33" s="25"/>
-      <c r="AHH33" s="25"/>
-      <c r="AHI33" s="25"/>
-      <c r="AHJ33" s="25"/>
-      <c r="AHK33" s="25"/>
-      <c r="AHL33" s="25"/>
-      <c r="AHM33" s="25"/>
-      <c r="AHN33" s="25"/>
-      <c r="AHO33" s="25"/>
-      <c r="AHP33" s="25"/>
-      <c r="AHQ33" s="25"/>
-      <c r="AHR33" s="25"/>
-      <c r="AHS33" s="25"/>
-      <c r="AHT33" s="25"/>
-      <c r="AHU33" s="25"/>
-      <c r="AHV33" s="25"/>
-      <c r="AHW33" s="25"/>
-      <c r="AHX33" s="25"/>
-      <c r="AHY33" s="25"/>
-      <c r="AHZ33" s="25"/>
-      <c r="AIA33" s="25"/>
-      <c r="AIB33" s="25"/>
-      <c r="AIC33" s="25"/>
-      <c r="AID33" s="25"/>
-      <c r="AIE33" s="25"/>
-      <c r="AIF33" s="25"/>
-      <c r="AIG33" s="25"/>
-      <c r="AIH33" s="25"/>
-      <c r="AII33" s="25"/>
-      <c r="AIJ33" s="25"/>
-      <c r="AIK33" s="25"/>
-      <c r="AIL33" s="25"/>
-      <c r="AIM33" s="25"/>
-      <c r="AIN33" s="25"/>
-      <c r="AIO33" s="25"/>
-      <c r="AIP33" s="25"/>
-      <c r="AIQ33" s="25"/>
-      <c r="AIR33" s="25"/>
-      <c r="AIS33" s="25"/>
-      <c r="AIT33" s="25"/>
-      <c r="AIU33" s="25"/>
-      <c r="AIV33" s="25"/>
-      <c r="AIW33" s="25"/>
-      <c r="AIX33" s="25"/>
-      <c r="AIY33" s="25"/>
-      <c r="AIZ33" s="25"/>
-      <c r="AJA33" s="25"/>
-      <c r="AJB33" s="25"/>
-      <c r="AJC33" s="25"/>
-      <c r="AJD33" s="25"/>
-      <c r="AJE33" s="25"/>
-      <c r="AJF33" s="25"/>
-      <c r="AJG33" s="25"/>
-      <c r="AJH33" s="25"/>
-      <c r="AJI33" s="25"/>
-      <c r="AJJ33" s="25"/>
-      <c r="AJK33" s="25"/>
-      <c r="AJL33" s="25"/>
-      <c r="AJM33" s="25"/>
-      <c r="AJN33" s="25"/>
-      <c r="AJO33" s="25"/>
-      <c r="AJP33" s="25"/>
-      <c r="AJQ33" s="25"/>
-      <c r="AJR33" s="25"/>
-      <c r="AJS33" s="25"/>
-      <c r="AJT33" s="25"/>
-      <c r="AJU33" s="25"/>
-      <c r="AJV33" s="25"/>
-      <c r="AJW33" s="25"/>
-      <c r="AJX33" s="25"/>
-      <c r="AJY33" s="25"/>
-      <c r="AJZ33" s="25"/>
-      <c r="AKA33" s="25"/>
-      <c r="AKB33" s="25"/>
-      <c r="AKC33" s="25"/>
-      <c r="AKD33" s="25"/>
-      <c r="AKE33" s="25"/>
-      <c r="AKF33" s="25"/>
-      <c r="AKG33" s="25"/>
-      <c r="AKH33" s="25"/>
-      <c r="AKI33" s="25"/>
-      <c r="AKJ33" s="25"/>
-      <c r="AKK33" s="25"/>
-      <c r="AKL33" s="25"/>
-      <c r="AKM33" s="25"/>
-      <c r="AKN33" s="25"/>
-      <c r="AKO33" s="25"/>
-      <c r="AKP33" s="25"/>
-      <c r="AKQ33" s="25"/>
-      <c r="AKR33" s="25"/>
-      <c r="AKS33" s="25"/>
-      <c r="AKT33" s="25"/>
-      <c r="AKU33" s="25"/>
-      <c r="AKV33" s="25"/>
-      <c r="AKW33" s="25"/>
-      <c r="AKX33" s="25"/>
-      <c r="AKY33" s="25"/>
-      <c r="AKZ33" s="25"/>
-      <c r="ALA33" s="25"/>
-      <c r="ALB33" s="25"/>
-      <c r="ALC33" s="25"/>
-      <c r="ALD33" s="25"/>
-      <c r="ALE33" s="25"/>
-      <c r="ALF33" s="25"/>
-      <c r="ALG33" s="25"/>
-      <c r="ALH33" s="25"/>
-      <c r="ALI33" s="25"/>
-      <c r="ALJ33" s="25"/>
-      <c r="ALK33" s="25"/>
-      <c r="ALL33" s="25"/>
-      <c r="ALM33" s="25"/>
-      <c r="ALN33" s="25"/>
-      <c r="ALO33" s="25"/>
-      <c r="ALP33" s="25"/>
-      <c r="ALQ33" s="25"/>
-      <c r="ALR33" s="25"/>
-      <c r="ALS33" s="25"/>
-      <c r="ALT33" s="25"/>
-      <c r="ALU33" s="25"/>
-      <c r="ALV33" s="25"/>
-      <c r="ALW33" s="25"/>
-      <c r="ALX33" s="25"/>
-      <c r="ALY33" s="25"/>
-      <c r="ALZ33" s="25"/>
-      <c r="AMA33" s="25"/>
-      <c r="AMB33" s="25"/>
-      <c r="AMC33" s="25"/>
-      <c r="AMD33" s="25"/>
-      <c r="AME33" s="25"/>
-      <c r="AMF33" s="25"/>
-      <c r="AMG33" s="25"/>
-      <c r="AMH33" s="25"/>
-      <c r="AMI33" s="25"/>
-      <c r="AMJ33" s="25"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="23"/>
+      <c r="BK33" s="23"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="23"/>
+      <c r="BN33" s="23"/>
+      <c r="BO33" s="23"/>
+      <c r="BP33" s="23"/>
+      <c r="BQ33" s="23"/>
+      <c r="BR33" s="23"/>
+      <c r="BS33" s="23"/>
+      <c r="BT33" s="23"/>
+      <c r="BU33" s="23"/>
+      <c r="BV33" s="23"/>
+      <c r="BW33" s="23"/>
+      <c r="BX33" s="23"/>
+      <c r="BY33" s="23"/>
+      <c r="BZ33" s="23"/>
+      <c r="CA33" s="23"/>
+      <c r="CB33" s="23"/>
+      <c r="CC33" s="23"/>
+      <c r="CD33" s="23"/>
+      <c r="CE33" s="23"/>
+      <c r="CF33" s="23"/>
+      <c r="CG33" s="23"/>
+      <c r="CH33" s="23"/>
+      <c r="CI33" s="23"/>
+      <c r="CJ33" s="23"/>
+      <c r="CK33" s="23"/>
+      <c r="CL33" s="23"/>
+      <c r="CM33" s="23"/>
+      <c r="CN33" s="23"/>
+      <c r="CO33" s="23"/>
+      <c r="CP33" s="23"/>
+      <c r="CQ33" s="23"/>
+      <c r="CR33" s="23"/>
+      <c r="CS33" s="23"/>
+      <c r="CT33" s="23"/>
+      <c r="CU33" s="23"/>
+      <c r="CV33" s="23"/>
+      <c r="CW33" s="23"/>
+      <c r="CX33" s="23"/>
+      <c r="CY33" s="23"/>
+      <c r="CZ33" s="23"/>
+      <c r="DA33" s="23"/>
+      <c r="DB33" s="23"/>
+      <c r="DC33" s="23"/>
+      <c r="DD33" s="23"/>
+      <c r="DE33" s="23"/>
+      <c r="DF33" s="23"/>
+      <c r="DG33" s="23"/>
+      <c r="DH33" s="23"/>
+      <c r="DI33" s="23"/>
+      <c r="DJ33" s="23"/>
+      <c r="DK33" s="23"/>
+      <c r="DL33" s="23"/>
+      <c r="DM33" s="23"/>
+      <c r="DN33" s="23"/>
+      <c r="DO33" s="23"/>
+      <c r="DP33" s="23"/>
+      <c r="DQ33" s="23"/>
+      <c r="DR33" s="23"/>
+      <c r="DS33" s="23"/>
+      <c r="DT33" s="23"/>
+      <c r="DU33" s="23"/>
+      <c r="DV33" s="23"/>
+      <c r="DW33" s="23"/>
+      <c r="DX33" s="23"/>
+      <c r="DY33" s="23"/>
+      <c r="DZ33" s="23"/>
+      <c r="EA33" s="23"/>
+      <c r="EB33" s="23"/>
+      <c r="EC33" s="23"/>
+      <c r="ED33" s="23"/>
+      <c r="EE33" s="23"/>
+      <c r="EF33" s="23"/>
+      <c r="EG33" s="23"/>
+      <c r="EH33" s="23"/>
+      <c r="EI33" s="23"/>
+      <c r="EJ33" s="23"/>
+      <c r="EK33" s="23"/>
+      <c r="EL33" s="23"/>
+      <c r="EM33" s="23"/>
+      <c r="EN33" s="23"/>
+      <c r="EO33" s="23"/>
+      <c r="EP33" s="23"/>
+      <c r="EQ33" s="23"/>
+      <c r="ER33" s="23"/>
+      <c r="ES33" s="23"/>
+      <c r="ET33" s="23"/>
+      <c r="EU33" s="23"/>
+      <c r="EV33" s="23"/>
+      <c r="EW33" s="23"/>
+      <c r="EX33" s="23"/>
+      <c r="EY33" s="23"/>
+      <c r="EZ33" s="23"/>
+      <c r="FA33" s="23"/>
+      <c r="FB33" s="23"/>
+      <c r="FC33" s="23"/>
+      <c r="FD33" s="23"/>
+      <c r="FE33" s="23"/>
+      <c r="FF33" s="23"/>
+      <c r="FG33" s="23"/>
+      <c r="FH33" s="23"/>
+      <c r="FI33" s="23"/>
+      <c r="FJ33" s="23"/>
+      <c r="FK33" s="23"/>
+      <c r="FL33" s="23"/>
+      <c r="FM33" s="23"/>
+      <c r="FN33" s="23"/>
+      <c r="FO33" s="23"/>
+      <c r="FP33" s="23"/>
+      <c r="FQ33" s="23"/>
+      <c r="FR33" s="23"/>
+      <c r="FS33" s="23"/>
+      <c r="FT33" s="23"/>
+      <c r="FU33" s="23"/>
+      <c r="FV33" s="23"/>
+      <c r="FW33" s="23"/>
+      <c r="FX33" s="23"/>
+      <c r="FY33" s="23"/>
+      <c r="FZ33" s="23"/>
+      <c r="GA33" s="23"/>
+      <c r="GB33" s="23"/>
+      <c r="GC33" s="23"/>
+      <c r="GD33" s="23"/>
+      <c r="GE33" s="23"/>
+      <c r="GF33" s="23"/>
+      <c r="GG33" s="23"/>
+      <c r="GH33" s="23"/>
+      <c r="GI33" s="23"/>
+      <c r="GJ33" s="23"/>
+      <c r="GK33" s="23"/>
+      <c r="GL33" s="23"/>
+      <c r="GM33" s="23"/>
+      <c r="GN33" s="23"/>
+      <c r="GO33" s="23"/>
+      <c r="GP33" s="23"/>
+      <c r="GQ33" s="23"/>
+      <c r="GR33" s="23"/>
+      <c r="GS33" s="23"/>
+      <c r="GT33" s="23"/>
+      <c r="GU33" s="23"/>
+      <c r="GV33" s="23"/>
+      <c r="GW33" s="23"/>
+      <c r="GX33" s="23"/>
+      <c r="GY33" s="23"/>
+      <c r="GZ33" s="23"/>
+      <c r="HA33" s="23"/>
+      <c r="HB33" s="23"/>
+      <c r="HC33" s="23"/>
+      <c r="HD33" s="23"/>
+      <c r="HE33" s="23"/>
+      <c r="HF33" s="23"/>
+      <c r="HG33" s="23"/>
+      <c r="HH33" s="23"/>
+      <c r="HI33" s="23"/>
+      <c r="HJ33" s="23"/>
+      <c r="HK33" s="23"/>
+      <c r="HL33" s="23"/>
+      <c r="HM33" s="23"/>
+      <c r="HN33" s="23"/>
+      <c r="HO33" s="23"/>
+      <c r="HP33" s="23"/>
+      <c r="HQ33" s="23"/>
+      <c r="HR33" s="23"/>
+      <c r="HS33" s="23"/>
+      <c r="HT33" s="23"/>
+      <c r="HU33" s="23"/>
+      <c r="HV33" s="23"/>
+      <c r="HW33" s="23"/>
+      <c r="HX33" s="23"/>
+      <c r="HY33" s="23"/>
+      <c r="HZ33" s="23"/>
+      <c r="IA33" s="23"/>
+      <c r="IB33" s="23"/>
+      <c r="IC33" s="23"/>
+      <c r="ID33" s="23"/>
+      <c r="IE33" s="23"/>
+      <c r="IF33" s="23"/>
+      <c r="IG33" s="23"/>
+      <c r="IH33" s="23"/>
+      <c r="II33" s="23"/>
+      <c r="IJ33" s="23"/>
+      <c r="IK33" s="23"/>
+      <c r="IL33" s="23"/>
+      <c r="IM33" s="23"/>
+      <c r="IN33" s="23"/>
+      <c r="IO33" s="23"/>
+      <c r="IP33" s="23"/>
+      <c r="IQ33" s="23"/>
+      <c r="IR33" s="23"/>
+      <c r="IS33" s="23"/>
+      <c r="IT33" s="23"/>
+      <c r="IU33" s="23"/>
+      <c r="IV33" s="23"/>
+      <c r="IW33" s="23"/>
+      <c r="IX33" s="23"/>
+      <c r="IY33" s="23"/>
+      <c r="IZ33" s="23"/>
+      <c r="JA33" s="23"/>
+      <c r="JB33" s="23"/>
+      <c r="JC33" s="23"/>
+      <c r="JD33" s="23"/>
+      <c r="JE33" s="23"/>
+      <c r="JF33" s="23"/>
+      <c r="JG33" s="23"/>
+      <c r="JH33" s="23"/>
+      <c r="JI33" s="23"/>
+      <c r="JJ33" s="23"/>
+      <c r="JK33" s="23"/>
+      <c r="JL33" s="23"/>
+      <c r="JM33" s="23"/>
+      <c r="JN33" s="23"/>
+      <c r="JO33" s="23"/>
+      <c r="JP33" s="23"/>
+      <c r="JQ33" s="23"/>
+      <c r="JR33" s="23"/>
+      <c r="JS33" s="23"/>
+      <c r="JT33" s="23"/>
+      <c r="JU33" s="23"/>
+      <c r="JV33" s="23"/>
+      <c r="JW33" s="23"/>
+      <c r="JX33" s="23"/>
+      <c r="JY33" s="23"/>
+      <c r="JZ33" s="23"/>
+      <c r="KA33" s="23"/>
+      <c r="KB33" s="23"/>
+      <c r="KC33" s="23"/>
+      <c r="KD33" s="23"/>
+      <c r="KE33" s="23"/>
+      <c r="KF33" s="23"/>
+      <c r="KG33" s="23"/>
+      <c r="KH33" s="23"/>
+      <c r="KI33" s="23"/>
+      <c r="KJ33" s="23"/>
+      <c r="KK33" s="23"/>
+      <c r="KL33" s="23"/>
+      <c r="KM33" s="23"/>
+      <c r="KN33" s="23"/>
+      <c r="KO33" s="23"/>
+      <c r="KP33" s="23"/>
+      <c r="KQ33" s="23"/>
+      <c r="KR33" s="23"/>
+      <c r="KS33" s="23"/>
+      <c r="KT33" s="23"/>
+      <c r="KU33" s="23"/>
+      <c r="KV33" s="23"/>
+      <c r="KW33" s="23"/>
+      <c r="KX33" s="23"/>
+      <c r="KY33" s="23"/>
+      <c r="KZ33" s="23"/>
+      <c r="LA33" s="23"/>
+      <c r="LB33" s="23"/>
+      <c r="LC33" s="23"/>
+      <c r="LD33" s="23"/>
+      <c r="LE33" s="23"/>
+      <c r="LF33" s="23"/>
+      <c r="LG33" s="23"/>
+      <c r="LH33" s="23"/>
+      <c r="LI33" s="23"/>
+      <c r="LJ33" s="23"/>
+      <c r="LK33" s="23"/>
+      <c r="LL33" s="23"/>
+      <c r="LM33" s="23"/>
+      <c r="LN33" s="23"/>
+      <c r="LO33" s="23"/>
+      <c r="LP33" s="23"/>
+      <c r="LQ33" s="23"/>
+      <c r="LR33" s="23"/>
+      <c r="LS33" s="23"/>
+      <c r="LT33" s="23"/>
+      <c r="LU33" s="23"/>
+      <c r="LV33" s="23"/>
+      <c r="LW33" s="23"/>
+      <c r="LX33" s="23"/>
+      <c r="LY33" s="23"/>
+      <c r="LZ33" s="23"/>
+      <c r="MA33" s="23"/>
+      <c r="MB33" s="23"/>
+      <c r="MC33" s="23"/>
+      <c r="MD33" s="23"/>
+      <c r="ME33" s="23"/>
+      <c r="MF33" s="23"/>
+      <c r="MG33" s="23"/>
+      <c r="MH33" s="23"/>
+      <c r="MI33" s="23"/>
+      <c r="MJ33" s="23"/>
+      <c r="MK33" s="23"/>
+      <c r="ML33" s="23"/>
+      <c r="MM33" s="23"/>
+      <c r="MN33" s="23"/>
+      <c r="MO33" s="23"/>
+      <c r="MP33" s="23"/>
+      <c r="MQ33" s="23"/>
+      <c r="MR33" s="23"/>
+      <c r="MS33" s="23"/>
+      <c r="MT33" s="23"/>
+      <c r="MU33" s="23"/>
+      <c r="MV33" s="23"/>
+      <c r="MW33" s="23"/>
+      <c r="MX33" s="23"/>
+      <c r="MY33" s="23"/>
+      <c r="MZ33" s="23"/>
+      <c r="NA33" s="23"/>
+      <c r="NB33" s="23"/>
+      <c r="NC33" s="23"/>
+      <c r="ND33" s="23"/>
+      <c r="NE33" s="23"/>
+      <c r="NF33" s="23"/>
+      <c r="NG33" s="23"/>
+      <c r="NH33" s="23"/>
+      <c r="NI33" s="23"/>
+      <c r="NJ33" s="23"/>
+      <c r="NK33" s="23"/>
+      <c r="NL33" s="23"/>
+      <c r="NM33" s="23"/>
+      <c r="NN33" s="23"/>
+      <c r="NO33" s="23"/>
+      <c r="NP33" s="23"/>
+      <c r="NQ33" s="23"/>
+      <c r="NR33" s="23"/>
+      <c r="NS33" s="23"/>
+      <c r="NT33" s="23"/>
+      <c r="NU33" s="23"/>
+      <c r="NV33" s="23"/>
+      <c r="NW33" s="23"/>
+      <c r="NX33" s="23"/>
+      <c r="NY33" s="23"/>
+      <c r="NZ33" s="23"/>
+      <c r="OA33" s="23"/>
+      <c r="OB33" s="23"/>
+      <c r="OC33" s="23"/>
+      <c r="OD33" s="23"/>
+      <c r="OE33" s="23"/>
+      <c r="OF33" s="23"/>
+      <c r="OG33" s="23"/>
+      <c r="OH33" s="23"/>
+      <c r="OI33" s="23"/>
+      <c r="OJ33" s="23"/>
+      <c r="OK33" s="23"/>
+      <c r="OL33" s="23"/>
+      <c r="OM33" s="23"/>
+      <c r="ON33" s="23"/>
+      <c r="OO33" s="23"/>
+      <c r="OP33" s="23"/>
+      <c r="OQ33" s="23"/>
+      <c r="OR33" s="23"/>
+      <c r="OS33" s="23"/>
+      <c r="OT33" s="23"/>
+      <c r="OU33" s="23"/>
+      <c r="OV33" s="23"/>
+      <c r="OW33" s="23"/>
+      <c r="OX33" s="23"/>
+      <c r="OY33" s="23"/>
+      <c r="OZ33" s="23"/>
+      <c r="PA33" s="23"/>
+      <c r="PB33" s="23"/>
+      <c r="PC33" s="23"/>
+      <c r="PD33" s="23"/>
+      <c r="PE33" s="23"/>
+      <c r="PF33" s="23"/>
+      <c r="PG33" s="23"/>
+      <c r="PH33" s="23"/>
+      <c r="PI33" s="23"/>
+      <c r="PJ33" s="23"/>
+      <c r="PK33" s="23"/>
+      <c r="PL33" s="23"/>
+      <c r="PM33" s="23"/>
+      <c r="PN33" s="23"/>
+      <c r="PO33" s="23"/>
+      <c r="PP33" s="23"/>
+      <c r="PQ33" s="23"/>
+      <c r="PR33" s="23"/>
+      <c r="PS33" s="23"/>
+      <c r="PT33" s="23"/>
+      <c r="PU33" s="23"/>
+      <c r="PV33" s="23"/>
+      <c r="PW33" s="23"/>
+      <c r="PX33" s="23"/>
+      <c r="PY33" s="23"/>
+      <c r="PZ33" s="23"/>
+      <c r="QA33" s="23"/>
+      <c r="QB33" s="23"/>
+      <c r="QC33" s="23"/>
+      <c r="QD33" s="23"/>
+      <c r="QE33" s="23"/>
+      <c r="QF33" s="23"/>
+      <c r="QG33" s="23"/>
+      <c r="QH33" s="23"/>
+      <c r="QI33" s="23"/>
+      <c r="QJ33" s="23"/>
+      <c r="QK33" s="23"/>
+      <c r="QL33" s="23"/>
+      <c r="QM33" s="23"/>
+      <c r="QN33" s="23"/>
+      <c r="QO33" s="23"/>
+      <c r="QP33" s="23"/>
+      <c r="QQ33" s="23"/>
+      <c r="QR33" s="23"/>
+      <c r="QS33" s="23"/>
+      <c r="QT33" s="23"/>
+      <c r="QU33" s="23"/>
+      <c r="QV33" s="23"/>
+      <c r="QW33" s="23"/>
+      <c r="QX33" s="23"/>
+      <c r="QY33" s="23"/>
+      <c r="QZ33" s="23"/>
+      <c r="RA33" s="23"/>
+      <c r="RB33" s="23"/>
+      <c r="RC33" s="23"/>
+      <c r="RD33" s="23"/>
+      <c r="RE33" s="23"/>
+      <c r="RF33" s="23"/>
+      <c r="RG33" s="23"/>
+      <c r="RH33" s="23"/>
+      <c r="RI33" s="23"/>
+      <c r="RJ33" s="23"/>
+      <c r="RK33" s="23"/>
+      <c r="RL33" s="23"/>
+      <c r="RM33" s="23"/>
+      <c r="RN33" s="23"/>
+      <c r="RO33" s="23"/>
+      <c r="RP33" s="23"/>
+      <c r="RQ33" s="23"/>
+      <c r="RR33" s="23"/>
+      <c r="RS33" s="23"/>
+      <c r="RT33" s="23"/>
+      <c r="RU33" s="23"/>
+      <c r="RV33" s="23"/>
+      <c r="RW33" s="23"/>
+      <c r="RX33" s="23"/>
+      <c r="RY33" s="23"/>
+      <c r="RZ33" s="23"/>
+      <c r="SA33" s="23"/>
+      <c r="SB33" s="23"/>
+      <c r="SC33" s="23"/>
+      <c r="SD33" s="23"/>
+      <c r="SE33" s="23"/>
+      <c r="SF33" s="23"/>
+      <c r="SG33" s="23"/>
+      <c r="SH33" s="23"/>
+      <c r="SI33" s="23"/>
+      <c r="SJ33" s="23"/>
+      <c r="SK33" s="23"/>
+      <c r="SL33" s="23"/>
+      <c r="SM33" s="23"/>
+      <c r="SN33" s="23"/>
+      <c r="SO33" s="23"/>
+      <c r="SP33" s="23"/>
+      <c r="SQ33" s="23"/>
+      <c r="SR33" s="23"/>
+      <c r="SS33" s="23"/>
+      <c r="ST33" s="23"/>
+      <c r="SU33" s="23"/>
+      <c r="SV33" s="23"/>
+      <c r="SW33" s="23"/>
+      <c r="SX33" s="23"/>
+      <c r="SY33" s="23"/>
+      <c r="SZ33" s="23"/>
+      <c r="TA33" s="23"/>
+      <c r="TB33" s="23"/>
+      <c r="TC33" s="23"/>
+      <c r="TD33" s="23"/>
+      <c r="TE33" s="23"/>
+      <c r="TF33" s="23"/>
+      <c r="TG33" s="23"/>
+      <c r="TH33" s="23"/>
+      <c r="TI33" s="23"/>
+      <c r="TJ33" s="23"/>
+      <c r="TK33" s="23"/>
+      <c r="TL33" s="23"/>
+      <c r="TM33" s="23"/>
+      <c r="TN33" s="23"/>
+      <c r="TO33" s="23"/>
+      <c r="TP33" s="23"/>
+      <c r="TQ33" s="23"/>
+      <c r="TR33" s="23"/>
+      <c r="TS33" s="23"/>
+      <c r="TT33" s="23"/>
+      <c r="TU33" s="23"/>
+      <c r="TV33" s="23"/>
+      <c r="TW33" s="23"/>
+      <c r="TX33" s="23"/>
+      <c r="TY33" s="23"/>
+      <c r="TZ33" s="23"/>
+      <c r="UA33" s="23"/>
+      <c r="UB33" s="23"/>
+      <c r="UC33" s="23"/>
+      <c r="UD33" s="23"/>
+      <c r="UE33" s="23"/>
+      <c r="UF33" s="23"/>
+      <c r="UG33" s="23"/>
+      <c r="UH33" s="23"/>
+      <c r="UI33" s="23"/>
+      <c r="UJ33" s="23"/>
+      <c r="UK33" s="23"/>
+      <c r="UL33" s="23"/>
+      <c r="UM33" s="23"/>
+      <c r="UN33" s="23"/>
+      <c r="UO33" s="23"/>
+      <c r="UP33" s="23"/>
+      <c r="UQ33" s="23"/>
+      <c r="UR33" s="23"/>
+      <c r="US33" s="23"/>
+      <c r="UT33" s="23"/>
+      <c r="UU33" s="23"/>
+      <c r="UV33" s="23"/>
+      <c r="UW33" s="23"/>
+      <c r="UX33" s="23"/>
+      <c r="UY33" s="23"/>
+      <c r="UZ33" s="23"/>
+      <c r="VA33" s="23"/>
+      <c r="VB33" s="23"/>
+      <c r="VC33" s="23"/>
+      <c r="VD33" s="23"/>
+      <c r="VE33" s="23"/>
+      <c r="VF33" s="23"/>
+      <c r="VG33" s="23"/>
+      <c r="VH33" s="23"/>
+      <c r="VI33" s="23"/>
+      <c r="VJ33" s="23"/>
+      <c r="VK33" s="23"/>
+      <c r="VL33" s="23"/>
+      <c r="VM33" s="23"/>
+      <c r="VN33" s="23"/>
+      <c r="VO33" s="23"/>
+      <c r="VP33" s="23"/>
+      <c r="VQ33" s="23"/>
+      <c r="VR33" s="23"/>
+      <c r="VS33" s="23"/>
+      <c r="VT33" s="23"/>
+      <c r="VU33" s="23"/>
+      <c r="VV33" s="23"/>
+      <c r="VW33" s="23"/>
+      <c r="VX33" s="23"/>
+      <c r="VY33" s="23"/>
+      <c r="VZ33" s="23"/>
+      <c r="WA33" s="23"/>
+      <c r="WB33" s="23"/>
+      <c r="WC33" s="23"/>
+      <c r="WD33" s="23"/>
+      <c r="WE33" s="23"/>
+      <c r="WF33" s="23"/>
+      <c r="WG33" s="23"/>
+      <c r="WH33" s="23"/>
+      <c r="WI33" s="23"/>
+      <c r="WJ33" s="23"/>
+      <c r="WK33" s="23"/>
+      <c r="WL33" s="23"/>
+      <c r="WM33" s="23"/>
+      <c r="WN33" s="23"/>
+      <c r="WO33" s="23"/>
+      <c r="WP33" s="23"/>
+      <c r="WQ33" s="23"/>
+      <c r="WR33" s="23"/>
+      <c r="WS33" s="23"/>
+      <c r="WT33" s="23"/>
+      <c r="WU33" s="23"/>
+      <c r="WV33" s="23"/>
+      <c r="WW33" s="23"/>
+      <c r="WX33" s="23"/>
+      <c r="WY33" s="23"/>
+      <c r="WZ33" s="23"/>
+      <c r="XA33" s="23"/>
+      <c r="XB33" s="23"/>
+      <c r="XC33" s="23"/>
+      <c r="XD33" s="23"/>
+      <c r="XE33" s="23"/>
+      <c r="XF33" s="23"/>
+      <c r="XG33" s="23"/>
+      <c r="XH33" s="23"/>
+      <c r="XI33" s="23"/>
+      <c r="XJ33" s="23"/>
+      <c r="XK33" s="23"/>
+      <c r="XL33" s="23"/>
+      <c r="XM33" s="23"/>
+      <c r="XN33" s="23"/>
+      <c r="XO33" s="23"/>
+      <c r="XP33" s="23"/>
+      <c r="XQ33" s="23"/>
+      <c r="XR33" s="23"/>
+      <c r="XS33" s="23"/>
+      <c r="XT33" s="23"/>
+      <c r="XU33" s="23"/>
+      <c r="XV33" s="23"/>
+      <c r="XW33" s="23"/>
+      <c r="XX33" s="23"/>
+      <c r="XY33" s="23"/>
+      <c r="XZ33" s="23"/>
+      <c r="YA33" s="23"/>
+      <c r="YB33" s="23"/>
+      <c r="YC33" s="23"/>
+      <c r="YD33" s="23"/>
+      <c r="YE33" s="23"/>
+      <c r="YF33" s="23"/>
+      <c r="YG33" s="23"/>
+      <c r="YH33" s="23"/>
+      <c r="YI33" s="23"/>
+      <c r="YJ33" s="23"/>
+      <c r="YK33" s="23"/>
+      <c r="YL33" s="23"/>
+      <c r="YM33" s="23"/>
+      <c r="YN33" s="23"/>
+      <c r="YO33" s="23"/>
+      <c r="YP33" s="23"/>
+      <c r="YQ33" s="23"/>
+      <c r="YR33" s="23"/>
+      <c r="YS33" s="23"/>
+      <c r="YT33" s="23"/>
+      <c r="YU33" s="23"/>
+      <c r="YV33" s="23"/>
+      <c r="YW33" s="23"/>
+      <c r="YX33" s="23"/>
+      <c r="YY33" s="23"/>
+      <c r="YZ33" s="23"/>
+      <c r="ZA33" s="23"/>
+      <c r="ZB33" s="23"/>
+      <c r="ZC33" s="23"/>
+      <c r="ZD33" s="23"/>
+      <c r="ZE33" s="23"/>
+      <c r="ZF33" s="23"/>
+      <c r="ZG33" s="23"/>
+      <c r="ZH33" s="23"/>
+      <c r="ZI33" s="23"/>
+      <c r="ZJ33" s="23"/>
+      <c r="ZK33" s="23"/>
+      <c r="ZL33" s="23"/>
+      <c r="ZM33" s="23"/>
+      <c r="ZN33" s="23"/>
+      <c r="ZO33" s="23"/>
+      <c r="ZP33" s="23"/>
+      <c r="ZQ33" s="23"/>
+      <c r="ZR33" s="23"/>
+      <c r="ZS33" s="23"/>
+      <c r="ZT33" s="23"/>
+      <c r="ZU33" s="23"/>
+      <c r="ZV33" s="23"/>
+      <c r="ZW33" s="23"/>
+      <c r="ZX33" s="23"/>
+      <c r="ZY33" s="23"/>
+      <c r="ZZ33" s="23"/>
+      <c r="AAA33" s="23"/>
+      <c r="AAB33" s="23"/>
+      <c r="AAC33" s="23"/>
+      <c r="AAD33" s="23"/>
+      <c r="AAE33" s="23"/>
+      <c r="AAF33" s="23"/>
+      <c r="AAG33" s="23"/>
+      <c r="AAH33" s="23"/>
+      <c r="AAI33" s="23"/>
+      <c r="AAJ33" s="23"/>
+      <c r="AAK33" s="23"/>
+      <c r="AAL33" s="23"/>
+      <c r="AAM33" s="23"/>
+      <c r="AAN33" s="23"/>
+      <c r="AAO33" s="23"/>
+      <c r="AAP33" s="23"/>
+      <c r="AAQ33" s="23"/>
+      <c r="AAR33" s="23"/>
+      <c r="AAS33" s="23"/>
+      <c r="AAT33" s="23"/>
+      <c r="AAU33" s="23"/>
+      <c r="AAV33" s="23"/>
+      <c r="AAW33" s="23"/>
+      <c r="AAX33" s="23"/>
+      <c r="AAY33" s="23"/>
+      <c r="AAZ33" s="23"/>
+      <c r="ABA33" s="23"/>
+      <c r="ABB33" s="23"/>
+      <c r="ABC33" s="23"/>
+      <c r="ABD33" s="23"/>
+      <c r="ABE33" s="23"/>
+      <c r="ABF33" s="23"/>
+      <c r="ABG33" s="23"/>
+      <c r="ABH33" s="23"/>
+      <c r="ABI33" s="23"/>
+      <c r="ABJ33" s="23"/>
+      <c r="ABK33" s="23"/>
+      <c r="ABL33" s="23"/>
+      <c r="ABM33" s="23"/>
+      <c r="ABN33" s="23"/>
+      <c r="ABO33" s="23"/>
+      <c r="ABP33" s="23"/>
+      <c r="ABQ33" s="23"/>
+      <c r="ABR33" s="23"/>
+      <c r="ABS33" s="23"/>
+      <c r="ABT33" s="23"/>
+      <c r="ABU33" s="23"/>
+      <c r="ABV33" s="23"/>
+      <c r="ABW33" s="23"/>
+      <c r="ABX33" s="23"/>
+      <c r="ABY33" s="23"/>
+      <c r="ABZ33" s="23"/>
+      <c r="ACA33" s="23"/>
+      <c r="ACB33" s="23"/>
+      <c r="ACC33" s="23"/>
+      <c r="ACD33" s="23"/>
+      <c r="ACE33" s="23"/>
+      <c r="ACF33" s="23"/>
+      <c r="ACG33" s="23"/>
+      <c r="ACH33" s="23"/>
+      <c r="ACI33" s="23"/>
+      <c r="ACJ33" s="23"/>
+      <c r="ACK33" s="23"/>
+      <c r="ACL33" s="23"/>
+      <c r="ACM33" s="23"/>
+      <c r="ACN33" s="23"/>
+      <c r="ACO33" s="23"/>
+      <c r="ACP33" s="23"/>
+      <c r="ACQ33" s="23"/>
+      <c r="ACR33" s="23"/>
+      <c r="ACS33" s="23"/>
+      <c r="ACT33" s="23"/>
+      <c r="ACU33" s="23"/>
+      <c r="ACV33" s="23"/>
+      <c r="ACW33" s="23"/>
+      <c r="ACX33" s="23"/>
+      <c r="ACY33" s="23"/>
+      <c r="ACZ33" s="23"/>
+      <c r="ADA33" s="23"/>
+      <c r="ADB33" s="23"/>
+      <c r="ADC33" s="23"/>
+      <c r="ADD33" s="23"/>
+      <c r="ADE33" s="23"/>
+      <c r="ADF33" s="23"/>
+      <c r="ADG33" s="23"/>
+      <c r="ADH33" s="23"/>
+      <c r="ADI33" s="23"/>
+      <c r="ADJ33" s="23"/>
+      <c r="ADK33" s="23"/>
+      <c r="ADL33" s="23"/>
+      <c r="ADM33" s="23"/>
+      <c r="ADN33" s="23"/>
+      <c r="ADO33" s="23"/>
+      <c r="ADP33" s="23"/>
+      <c r="ADQ33" s="23"/>
+      <c r="ADR33" s="23"/>
+      <c r="ADS33" s="23"/>
+      <c r="ADT33" s="23"/>
+      <c r="ADU33" s="23"/>
+      <c r="ADV33" s="23"/>
+      <c r="ADW33" s="23"/>
+      <c r="ADX33" s="23"/>
+      <c r="ADY33" s="23"/>
+      <c r="ADZ33" s="23"/>
+      <c r="AEA33" s="23"/>
+      <c r="AEB33" s="23"/>
+      <c r="AEC33" s="23"/>
+      <c r="AED33" s="23"/>
+      <c r="AEE33" s="23"/>
+      <c r="AEF33" s="23"/>
+      <c r="AEG33" s="23"/>
+      <c r="AEH33" s="23"/>
+      <c r="AEI33" s="23"/>
+      <c r="AEJ33" s="23"/>
+      <c r="AEK33" s="23"/>
+      <c r="AEL33" s="23"/>
+      <c r="AEM33" s="23"/>
+      <c r="AEN33" s="23"/>
+      <c r="AEO33" s="23"/>
+      <c r="AEP33" s="23"/>
+      <c r="AEQ33" s="23"/>
+      <c r="AER33" s="23"/>
+      <c r="AES33" s="23"/>
+      <c r="AET33" s="23"/>
+      <c r="AEU33" s="23"/>
+      <c r="AEV33" s="23"/>
+      <c r="AEW33" s="23"/>
+      <c r="AEX33" s="23"/>
+      <c r="AEY33" s="23"/>
+      <c r="AEZ33" s="23"/>
+      <c r="AFA33" s="23"/>
+      <c r="AFB33" s="23"/>
+      <c r="AFC33" s="23"/>
+      <c r="AFD33" s="23"/>
+      <c r="AFE33" s="23"/>
+      <c r="AFF33" s="23"/>
+      <c r="AFG33" s="23"/>
+      <c r="AFH33" s="23"/>
+      <c r="AFI33" s="23"/>
+      <c r="AFJ33" s="23"/>
+      <c r="AFK33" s="23"/>
+      <c r="AFL33" s="23"/>
+      <c r="AFM33" s="23"/>
+      <c r="AFN33" s="23"/>
+      <c r="AFO33" s="23"/>
+      <c r="AFP33" s="23"/>
+      <c r="AFQ33" s="23"/>
+      <c r="AFR33" s="23"/>
+      <c r="AFS33" s="23"/>
+      <c r="AFT33" s="23"/>
+      <c r="AFU33" s="23"/>
+      <c r="AFV33" s="23"/>
+      <c r="AFW33" s="23"/>
+      <c r="AFX33" s="23"/>
+      <c r="AFY33" s="23"/>
+      <c r="AFZ33" s="23"/>
+      <c r="AGA33" s="23"/>
+      <c r="AGB33" s="23"/>
+      <c r="AGC33" s="23"/>
+      <c r="AGD33" s="23"/>
+      <c r="AGE33" s="23"/>
+      <c r="AGF33" s="23"/>
+      <c r="AGG33" s="23"/>
+      <c r="AGH33" s="23"/>
+      <c r="AGI33" s="23"/>
+      <c r="AGJ33" s="23"/>
+      <c r="AGK33" s="23"/>
+      <c r="AGL33" s="23"/>
+      <c r="AGM33" s="23"/>
+      <c r="AGN33" s="23"/>
+      <c r="AGO33" s="23"/>
+      <c r="AGP33" s="23"/>
+      <c r="AGQ33" s="23"/>
+      <c r="AGR33" s="23"/>
+      <c r="AGS33" s="23"/>
+      <c r="AGT33" s="23"/>
+      <c r="AGU33" s="23"/>
+      <c r="AGV33" s="23"/>
+      <c r="AGW33" s="23"/>
+      <c r="AGX33" s="23"/>
+      <c r="AGY33" s="23"/>
+      <c r="AGZ33" s="23"/>
+      <c r="AHA33" s="23"/>
+      <c r="AHB33" s="23"/>
+      <c r="AHC33" s="23"/>
+      <c r="AHD33" s="23"/>
+      <c r="AHE33" s="23"/>
+      <c r="AHF33" s="23"/>
+      <c r="AHG33" s="23"/>
+      <c r="AHH33" s="23"/>
+      <c r="AHI33" s="23"/>
+      <c r="AHJ33" s="23"/>
+      <c r="AHK33" s="23"/>
+      <c r="AHL33" s="23"/>
+      <c r="AHM33" s="23"/>
+      <c r="AHN33" s="23"/>
+      <c r="AHO33" s="23"/>
+      <c r="AHP33" s="23"/>
+      <c r="AHQ33" s="23"/>
+      <c r="AHR33" s="23"/>
+      <c r="AHS33" s="23"/>
+      <c r="AHT33" s="23"/>
+      <c r="AHU33" s="23"/>
+      <c r="AHV33" s="23"/>
+      <c r="AHW33" s="23"/>
+      <c r="AHX33" s="23"/>
+      <c r="AHY33" s="23"/>
+      <c r="AHZ33" s="23"/>
+      <c r="AIA33" s="23"/>
+      <c r="AIB33" s="23"/>
+      <c r="AIC33" s="23"/>
+      <c r="AID33" s="23"/>
+      <c r="AIE33" s="23"/>
+      <c r="AIF33" s="23"/>
+      <c r="AIG33" s="23"/>
+      <c r="AIH33" s="23"/>
+      <c r="AII33" s="23"/>
+      <c r="AIJ33" s="23"/>
+      <c r="AIK33" s="23"/>
+      <c r="AIL33" s="23"/>
+      <c r="AIM33" s="23"/>
+      <c r="AIN33" s="23"/>
+      <c r="AIO33" s="23"/>
+      <c r="AIP33" s="23"/>
+      <c r="AIQ33" s="23"/>
+      <c r="AIR33" s="23"/>
+      <c r="AIS33" s="23"/>
+      <c r="AIT33" s="23"/>
+      <c r="AIU33" s="23"/>
+      <c r="AIV33" s="23"/>
+      <c r="AIW33" s="23"/>
+      <c r="AIX33" s="23"/>
+      <c r="AIY33" s="23"/>
+      <c r="AIZ33" s="23"/>
+      <c r="AJA33" s="23"/>
+      <c r="AJB33" s="23"/>
+      <c r="AJC33" s="23"/>
+      <c r="AJD33" s="23"/>
+      <c r="AJE33" s="23"/>
+      <c r="AJF33" s="23"/>
+      <c r="AJG33" s="23"/>
+      <c r="AJH33" s="23"/>
+      <c r="AJI33" s="23"/>
+      <c r="AJJ33" s="23"/>
+      <c r="AJK33" s="23"/>
+      <c r="AJL33" s="23"/>
+      <c r="AJM33" s="23"/>
+      <c r="AJN33" s="23"/>
+      <c r="AJO33" s="23"/>
+      <c r="AJP33" s="23"/>
+      <c r="AJQ33" s="23"/>
+      <c r="AJR33" s="23"/>
+      <c r="AJS33" s="23"/>
+      <c r="AJT33" s="23"/>
+      <c r="AJU33" s="23"/>
+      <c r="AJV33" s="23"/>
+      <c r="AJW33" s="23"/>
+      <c r="AJX33" s="23"/>
+      <c r="AJY33" s="23"/>
+      <c r="AJZ33" s="23"/>
+      <c r="AKA33" s="23"/>
+      <c r="AKB33" s="23"/>
+      <c r="AKC33" s="23"/>
+      <c r="AKD33" s="23"/>
+      <c r="AKE33" s="23"/>
+      <c r="AKF33" s="23"/>
+      <c r="AKG33" s="23"/>
+      <c r="AKH33" s="23"/>
+      <c r="AKI33" s="23"/>
+      <c r="AKJ33" s="23"/>
+      <c r="AKK33" s="23"/>
+      <c r="AKL33" s="23"/>
+      <c r="AKM33" s="23"/>
+      <c r="AKN33" s="23"/>
+      <c r="AKO33" s="23"/>
+      <c r="AKP33" s="23"/>
+      <c r="AKQ33" s="23"/>
+      <c r="AKR33" s="23"/>
+      <c r="AKS33" s="23"/>
+      <c r="AKT33" s="23"/>
+      <c r="AKU33" s="23"/>
+      <c r="AKV33" s="23"/>
+      <c r="AKW33" s="23"/>
+      <c r="AKX33" s="23"/>
+      <c r="AKY33" s="23"/>
+      <c r="AKZ33" s="23"/>
+      <c r="ALA33" s="23"/>
+      <c r="ALB33" s="23"/>
+      <c r="ALC33" s="23"/>
+      <c r="ALD33" s="23"/>
+      <c r="ALE33" s="23"/>
+      <c r="ALF33" s="23"/>
+      <c r="ALG33" s="23"/>
+      <c r="ALH33" s="23"/>
+      <c r="ALI33" s="23"/>
+      <c r="ALJ33" s="23"/>
+      <c r="ALK33" s="23"/>
+      <c r="ALL33" s="23"/>
+      <c r="ALM33" s="23"/>
+      <c r="ALN33" s="23"/>
+      <c r="ALO33" s="23"/>
+      <c r="ALP33" s="23"/>
+      <c r="ALQ33" s="23"/>
+      <c r="ALR33" s="23"/>
+      <c r="ALS33" s="23"/>
+      <c r="ALT33" s="23"/>
+      <c r="ALU33" s="23"/>
+      <c r="ALV33" s="23"/>
+      <c r="ALW33" s="23"/>
+      <c r="ALX33" s="23"/>
+      <c r="ALY33" s="23"/>
+      <c r="ALZ33" s="23"/>
+      <c r="AMA33" s="23"/>
+      <c r="AMB33" s="23"/>
+      <c r="AMC33" s="23"/>
+      <c r="AMD33" s="23"/>
+      <c r="AME33" s="23"/>
+      <c r="AMF33" s="23"/>
+      <c r="AMG33" s="23"/>
+      <c r="AMH33" s="23"/>
+      <c r="AMI33" s="23"/>
+      <c r="AMJ33" s="23"/>
     </row>
     <row r="34" spans="1:1024" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>11</v>
@@ -6019,1023 +6105,1023 @@
         <v>8</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="25"/>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="25"/>
-      <c r="AY34" s="25"/>
-      <c r="AZ34" s="25"/>
-      <c r="BA34" s="25"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="25"/>
-      <c r="BD34" s="25"/>
-      <c r="BE34" s="25"/>
-      <c r="BF34" s="25"/>
-      <c r="BG34" s="25"/>
-      <c r="BH34" s="25"/>
-      <c r="BI34" s="25"/>
-      <c r="BJ34" s="25"/>
-      <c r="BK34" s="25"/>
-      <c r="BL34" s="25"/>
-      <c r="BM34" s="25"/>
-      <c r="BN34" s="25"/>
-      <c r="BO34" s="25"/>
-      <c r="BP34" s="25"/>
-      <c r="BQ34" s="25"/>
-      <c r="BR34" s="25"/>
-      <c r="BS34" s="25"/>
-      <c r="BT34" s="25"/>
-      <c r="BU34" s="25"/>
-      <c r="BV34" s="25"/>
-      <c r="BW34" s="25"/>
-      <c r="BX34" s="25"/>
-      <c r="BY34" s="25"/>
-      <c r="BZ34" s="25"/>
-      <c r="CA34" s="25"/>
-      <c r="CB34" s="25"/>
-      <c r="CC34" s="25"/>
-      <c r="CD34" s="25"/>
-      <c r="CE34" s="25"/>
-      <c r="CF34" s="25"/>
-      <c r="CG34" s="25"/>
-      <c r="CH34" s="25"/>
-      <c r="CI34" s="25"/>
-      <c r="CJ34" s="25"/>
-      <c r="CK34" s="25"/>
-      <c r="CL34" s="25"/>
-      <c r="CM34" s="25"/>
-      <c r="CN34" s="25"/>
-      <c r="CO34" s="25"/>
-      <c r="CP34" s="25"/>
-      <c r="CQ34" s="25"/>
-      <c r="CR34" s="25"/>
-      <c r="CS34" s="25"/>
-      <c r="CT34" s="25"/>
-      <c r="CU34" s="25"/>
-      <c r="CV34" s="25"/>
-      <c r="CW34" s="25"/>
-      <c r="CX34" s="25"/>
-      <c r="CY34" s="25"/>
-      <c r="CZ34" s="25"/>
-      <c r="DA34" s="25"/>
-      <c r="DB34" s="25"/>
-      <c r="DC34" s="25"/>
-      <c r="DD34" s="25"/>
-      <c r="DE34" s="25"/>
-      <c r="DF34" s="25"/>
-      <c r="DG34" s="25"/>
-      <c r="DH34" s="25"/>
-      <c r="DI34" s="25"/>
-      <c r="DJ34" s="25"/>
-      <c r="DK34" s="25"/>
-      <c r="DL34" s="25"/>
-      <c r="DM34" s="25"/>
-      <c r="DN34" s="25"/>
-      <c r="DO34" s="25"/>
-      <c r="DP34" s="25"/>
-      <c r="DQ34" s="25"/>
-      <c r="DR34" s="25"/>
-      <c r="DS34" s="25"/>
-      <c r="DT34" s="25"/>
-      <c r="DU34" s="25"/>
-      <c r="DV34" s="25"/>
-      <c r="DW34" s="25"/>
-      <c r="DX34" s="25"/>
-      <c r="DY34" s="25"/>
-      <c r="DZ34" s="25"/>
-      <c r="EA34" s="25"/>
-      <c r="EB34" s="25"/>
-      <c r="EC34" s="25"/>
-      <c r="ED34" s="25"/>
-      <c r="EE34" s="25"/>
-      <c r="EF34" s="25"/>
-      <c r="EG34" s="25"/>
-      <c r="EH34" s="25"/>
-      <c r="EI34" s="25"/>
-      <c r="EJ34" s="25"/>
-      <c r="EK34" s="25"/>
-      <c r="EL34" s="25"/>
-      <c r="EM34" s="25"/>
-      <c r="EN34" s="25"/>
-      <c r="EO34" s="25"/>
-      <c r="EP34" s="25"/>
-      <c r="EQ34" s="25"/>
-      <c r="ER34" s="25"/>
-      <c r="ES34" s="25"/>
-      <c r="ET34" s="25"/>
-      <c r="EU34" s="25"/>
-      <c r="EV34" s="25"/>
-      <c r="EW34" s="25"/>
-      <c r="EX34" s="25"/>
-      <c r="EY34" s="25"/>
-      <c r="EZ34" s="25"/>
-      <c r="FA34" s="25"/>
-      <c r="FB34" s="25"/>
-      <c r="FC34" s="25"/>
-      <c r="FD34" s="25"/>
-      <c r="FE34" s="25"/>
-      <c r="FF34" s="25"/>
-      <c r="FG34" s="25"/>
-      <c r="FH34" s="25"/>
-      <c r="FI34" s="25"/>
-      <c r="FJ34" s="25"/>
-      <c r="FK34" s="25"/>
-      <c r="FL34" s="25"/>
-      <c r="FM34" s="25"/>
-      <c r="FN34" s="25"/>
-      <c r="FO34" s="25"/>
-      <c r="FP34" s="25"/>
-      <c r="FQ34" s="25"/>
-      <c r="FR34" s="25"/>
-      <c r="FS34" s="25"/>
-      <c r="FT34" s="25"/>
-      <c r="FU34" s="25"/>
-      <c r="FV34" s="25"/>
-      <c r="FW34" s="25"/>
-      <c r="FX34" s="25"/>
-      <c r="FY34" s="25"/>
-      <c r="FZ34" s="25"/>
-      <c r="GA34" s="25"/>
-      <c r="GB34" s="25"/>
-      <c r="GC34" s="25"/>
-      <c r="GD34" s="25"/>
-      <c r="GE34" s="25"/>
-      <c r="GF34" s="25"/>
-      <c r="GG34" s="25"/>
-      <c r="GH34" s="25"/>
-      <c r="GI34" s="25"/>
-      <c r="GJ34" s="25"/>
-      <c r="GK34" s="25"/>
-      <c r="GL34" s="25"/>
-      <c r="GM34" s="25"/>
-      <c r="GN34" s="25"/>
-      <c r="GO34" s="25"/>
-      <c r="GP34" s="25"/>
-      <c r="GQ34" s="25"/>
-      <c r="GR34" s="25"/>
-      <c r="GS34" s="25"/>
-      <c r="GT34" s="25"/>
-      <c r="GU34" s="25"/>
-      <c r="GV34" s="25"/>
-      <c r="GW34" s="25"/>
-      <c r="GX34" s="25"/>
-      <c r="GY34" s="25"/>
-      <c r="GZ34" s="25"/>
-      <c r="HA34" s="25"/>
-      <c r="HB34" s="25"/>
-      <c r="HC34" s="25"/>
-      <c r="HD34" s="25"/>
-      <c r="HE34" s="25"/>
-      <c r="HF34" s="25"/>
-      <c r="HG34" s="25"/>
-      <c r="HH34" s="25"/>
-      <c r="HI34" s="25"/>
-      <c r="HJ34" s="25"/>
-      <c r="HK34" s="25"/>
-      <c r="HL34" s="25"/>
-      <c r="HM34" s="25"/>
-      <c r="HN34" s="25"/>
-      <c r="HO34" s="25"/>
-      <c r="HP34" s="25"/>
-      <c r="HQ34" s="25"/>
-      <c r="HR34" s="25"/>
-      <c r="HS34" s="25"/>
-      <c r="HT34" s="25"/>
-      <c r="HU34" s="25"/>
-      <c r="HV34" s="25"/>
-      <c r="HW34" s="25"/>
-      <c r="HX34" s="25"/>
-      <c r="HY34" s="25"/>
-      <c r="HZ34" s="25"/>
-      <c r="IA34" s="25"/>
-      <c r="IB34" s="25"/>
-      <c r="IC34" s="25"/>
-      <c r="ID34" s="25"/>
-      <c r="IE34" s="25"/>
-      <c r="IF34" s="25"/>
-      <c r="IG34" s="25"/>
-      <c r="IH34" s="25"/>
-      <c r="II34" s="25"/>
-      <c r="IJ34" s="25"/>
-      <c r="IK34" s="25"/>
-      <c r="IL34" s="25"/>
-      <c r="IM34" s="25"/>
-      <c r="IN34" s="25"/>
-      <c r="IO34" s="25"/>
-      <c r="IP34" s="25"/>
-      <c r="IQ34" s="25"/>
-      <c r="IR34" s="25"/>
-      <c r="IS34" s="25"/>
-      <c r="IT34" s="25"/>
-      <c r="IU34" s="25"/>
-      <c r="IV34" s="25"/>
-      <c r="IW34" s="25"/>
-      <c r="IX34" s="25"/>
-      <c r="IY34" s="25"/>
-      <c r="IZ34" s="25"/>
-      <c r="JA34" s="25"/>
-      <c r="JB34" s="25"/>
-      <c r="JC34" s="25"/>
-      <c r="JD34" s="25"/>
-      <c r="JE34" s="25"/>
-      <c r="JF34" s="25"/>
-      <c r="JG34" s="25"/>
-      <c r="JH34" s="25"/>
-      <c r="JI34" s="25"/>
-      <c r="JJ34" s="25"/>
-      <c r="JK34" s="25"/>
-      <c r="JL34" s="25"/>
-      <c r="JM34" s="25"/>
-      <c r="JN34" s="25"/>
-      <c r="JO34" s="25"/>
-      <c r="JP34" s="25"/>
-      <c r="JQ34" s="25"/>
-      <c r="JR34" s="25"/>
-      <c r="JS34" s="25"/>
-      <c r="JT34" s="25"/>
-      <c r="JU34" s="25"/>
-      <c r="JV34" s="25"/>
-      <c r="JW34" s="25"/>
-      <c r="JX34" s="25"/>
-      <c r="JY34" s="25"/>
-      <c r="JZ34" s="25"/>
-      <c r="KA34" s="25"/>
-      <c r="KB34" s="25"/>
-      <c r="KC34" s="25"/>
-      <c r="KD34" s="25"/>
-      <c r="KE34" s="25"/>
-      <c r="KF34" s="25"/>
-      <c r="KG34" s="25"/>
-      <c r="KH34" s="25"/>
-      <c r="KI34" s="25"/>
-      <c r="KJ34" s="25"/>
-      <c r="KK34" s="25"/>
-      <c r="KL34" s="25"/>
-      <c r="KM34" s="25"/>
-      <c r="KN34" s="25"/>
-      <c r="KO34" s="25"/>
-      <c r="KP34" s="25"/>
-      <c r="KQ34" s="25"/>
-      <c r="KR34" s="25"/>
-      <c r="KS34" s="25"/>
-      <c r="KT34" s="25"/>
-      <c r="KU34" s="25"/>
-      <c r="KV34" s="25"/>
-      <c r="KW34" s="25"/>
-      <c r="KX34" s="25"/>
-      <c r="KY34" s="25"/>
-      <c r="KZ34" s="25"/>
-      <c r="LA34" s="25"/>
-      <c r="LB34" s="25"/>
-      <c r="LC34" s="25"/>
-      <c r="LD34" s="25"/>
-      <c r="LE34" s="25"/>
-      <c r="LF34" s="25"/>
-      <c r="LG34" s="25"/>
-      <c r="LH34" s="25"/>
-      <c r="LI34" s="25"/>
-      <c r="LJ34" s="25"/>
-      <c r="LK34" s="25"/>
-      <c r="LL34" s="25"/>
-      <c r="LM34" s="25"/>
-      <c r="LN34" s="25"/>
-      <c r="LO34" s="25"/>
-      <c r="LP34" s="25"/>
-      <c r="LQ34" s="25"/>
-      <c r="LR34" s="25"/>
-      <c r="LS34" s="25"/>
-      <c r="LT34" s="25"/>
-      <c r="LU34" s="25"/>
-      <c r="LV34" s="25"/>
-      <c r="LW34" s="25"/>
-      <c r="LX34" s="25"/>
-      <c r="LY34" s="25"/>
-      <c r="LZ34" s="25"/>
-      <c r="MA34" s="25"/>
-      <c r="MB34" s="25"/>
-      <c r="MC34" s="25"/>
-      <c r="MD34" s="25"/>
-      <c r="ME34" s="25"/>
-      <c r="MF34" s="25"/>
-      <c r="MG34" s="25"/>
-      <c r="MH34" s="25"/>
-      <c r="MI34" s="25"/>
-      <c r="MJ34" s="25"/>
-      <c r="MK34" s="25"/>
-      <c r="ML34" s="25"/>
-      <c r="MM34" s="25"/>
-      <c r="MN34" s="25"/>
-      <c r="MO34" s="25"/>
-      <c r="MP34" s="25"/>
-      <c r="MQ34" s="25"/>
-      <c r="MR34" s="25"/>
-      <c r="MS34" s="25"/>
-      <c r="MT34" s="25"/>
-      <c r="MU34" s="25"/>
-      <c r="MV34" s="25"/>
-      <c r="MW34" s="25"/>
-      <c r="MX34" s="25"/>
-      <c r="MY34" s="25"/>
-      <c r="MZ34" s="25"/>
-      <c r="NA34" s="25"/>
-      <c r="NB34" s="25"/>
-      <c r="NC34" s="25"/>
-      <c r="ND34" s="25"/>
-      <c r="NE34" s="25"/>
-      <c r="NF34" s="25"/>
-      <c r="NG34" s="25"/>
-      <c r="NH34" s="25"/>
-      <c r="NI34" s="25"/>
-      <c r="NJ34" s="25"/>
-      <c r="NK34" s="25"/>
-      <c r="NL34" s="25"/>
-      <c r="NM34" s="25"/>
-      <c r="NN34" s="25"/>
-      <c r="NO34" s="25"/>
-      <c r="NP34" s="25"/>
-      <c r="NQ34" s="25"/>
-      <c r="NR34" s="25"/>
-      <c r="NS34" s="25"/>
-      <c r="NT34" s="25"/>
-      <c r="NU34" s="25"/>
-      <c r="NV34" s="25"/>
-      <c r="NW34" s="25"/>
-      <c r="NX34" s="25"/>
-      <c r="NY34" s="25"/>
-      <c r="NZ34" s="25"/>
-      <c r="OA34" s="25"/>
-      <c r="OB34" s="25"/>
-      <c r="OC34" s="25"/>
-      <c r="OD34" s="25"/>
-      <c r="OE34" s="25"/>
-      <c r="OF34" s="25"/>
-      <c r="OG34" s="25"/>
-      <c r="OH34" s="25"/>
-      <c r="OI34" s="25"/>
-      <c r="OJ34" s="25"/>
-      <c r="OK34" s="25"/>
-      <c r="OL34" s="25"/>
-      <c r="OM34" s="25"/>
-      <c r="ON34" s="25"/>
-      <c r="OO34" s="25"/>
-      <c r="OP34" s="25"/>
-      <c r="OQ34" s="25"/>
-      <c r="OR34" s="25"/>
-      <c r="OS34" s="25"/>
-      <c r="OT34" s="25"/>
-      <c r="OU34" s="25"/>
-      <c r="OV34" s="25"/>
-      <c r="OW34" s="25"/>
-      <c r="OX34" s="25"/>
-      <c r="OY34" s="25"/>
-      <c r="OZ34" s="25"/>
-      <c r="PA34" s="25"/>
-      <c r="PB34" s="25"/>
-      <c r="PC34" s="25"/>
-      <c r="PD34" s="25"/>
-      <c r="PE34" s="25"/>
-      <c r="PF34" s="25"/>
-      <c r="PG34" s="25"/>
-      <c r="PH34" s="25"/>
-      <c r="PI34" s="25"/>
-      <c r="PJ34" s="25"/>
-      <c r="PK34" s="25"/>
-      <c r="PL34" s="25"/>
-      <c r="PM34" s="25"/>
-      <c r="PN34" s="25"/>
-      <c r="PO34" s="25"/>
-      <c r="PP34" s="25"/>
-      <c r="PQ34" s="25"/>
-      <c r="PR34" s="25"/>
-      <c r="PS34" s="25"/>
-      <c r="PT34" s="25"/>
-      <c r="PU34" s="25"/>
-      <c r="PV34" s="25"/>
-      <c r="PW34" s="25"/>
-      <c r="PX34" s="25"/>
-      <c r="PY34" s="25"/>
-      <c r="PZ34" s="25"/>
-      <c r="QA34" s="25"/>
-      <c r="QB34" s="25"/>
-      <c r="QC34" s="25"/>
-      <c r="QD34" s="25"/>
-      <c r="QE34" s="25"/>
-      <c r="QF34" s="25"/>
-      <c r="QG34" s="25"/>
-      <c r="QH34" s="25"/>
-      <c r="QI34" s="25"/>
-      <c r="QJ34" s="25"/>
-      <c r="QK34" s="25"/>
-      <c r="QL34" s="25"/>
-      <c r="QM34" s="25"/>
-      <c r="QN34" s="25"/>
-      <c r="QO34" s="25"/>
-      <c r="QP34" s="25"/>
-      <c r="QQ34" s="25"/>
-      <c r="QR34" s="25"/>
-      <c r="QS34" s="25"/>
-      <c r="QT34" s="25"/>
-      <c r="QU34" s="25"/>
-      <c r="QV34" s="25"/>
-      <c r="QW34" s="25"/>
-      <c r="QX34" s="25"/>
-      <c r="QY34" s="25"/>
-      <c r="QZ34" s="25"/>
-      <c r="RA34" s="25"/>
-      <c r="RB34" s="25"/>
-      <c r="RC34" s="25"/>
-      <c r="RD34" s="25"/>
-      <c r="RE34" s="25"/>
-      <c r="RF34" s="25"/>
-      <c r="RG34" s="25"/>
-      <c r="RH34" s="25"/>
-      <c r="RI34" s="25"/>
-      <c r="RJ34" s="25"/>
-      <c r="RK34" s="25"/>
-      <c r="RL34" s="25"/>
-      <c r="RM34" s="25"/>
-      <c r="RN34" s="25"/>
-      <c r="RO34" s="25"/>
-      <c r="RP34" s="25"/>
-      <c r="RQ34" s="25"/>
-      <c r="RR34" s="25"/>
-      <c r="RS34" s="25"/>
-      <c r="RT34" s="25"/>
-      <c r="RU34" s="25"/>
-      <c r="RV34" s="25"/>
-      <c r="RW34" s="25"/>
-      <c r="RX34" s="25"/>
-      <c r="RY34" s="25"/>
-      <c r="RZ34" s="25"/>
-      <c r="SA34" s="25"/>
-      <c r="SB34" s="25"/>
-      <c r="SC34" s="25"/>
-      <c r="SD34" s="25"/>
-      <c r="SE34" s="25"/>
-      <c r="SF34" s="25"/>
-      <c r="SG34" s="25"/>
-      <c r="SH34" s="25"/>
-      <c r="SI34" s="25"/>
-      <c r="SJ34" s="25"/>
-      <c r="SK34" s="25"/>
-      <c r="SL34" s="25"/>
-      <c r="SM34" s="25"/>
-      <c r="SN34" s="25"/>
-      <c r="SO34" s="25"/>
-      <c r="SP34" s="25"/>
-      <c r="SQ34" s="25"/>
-      <c r="SR34" s="25"/>
-      <c r="SS34" s="25"/>
-      <c r="ST34" s="25"/>
-      <c r="SU34" s="25"/>
-      <c r="SV34" s="25"/>
-      <c r="SW34" s="25"/>
-      <c r="SX34" s="25"/>
-      <c r="SY34" s="25"/>
-      <c r="SZ34" s="25"/>
-      <c r="TA34" s="25"/>
-      <c r="TB34" s="25"/>
-      <c r="TC34" s="25"/>
-      <c r="TD34" s="25"/>
-      <c r="TE34" s="25"/>
-      <c r="TF34" s="25"/>
-      <c r="TG34" s="25"/>
-      <c r="TH34" s="25"/>
-      <c r="TI34" s="25"/>
-      <c r="TJ34" s="25"/>
-      <c r="TK34" s="25"/>
-      <c r="TL34" s="25"/>
-      <c r="TM34" s="25"/>
-      <c r="TN34" s="25"/>
-      <c r="TO34" s="25"/>
-      <c r="TP34" s="25"/>
-      <c r="TQ34" s="25"/>
-      <c r="TR34" s="25"/>
-      <c r="TS34" s="25"/>
-      <c r="TT34" s="25"/>
-      <c r="TU34" s="25"/>
-      <c r="TV34" s="25"/>
-      <c r="TW34" s="25"/>
-      <c r="TX34" s="25"/>
-      <c r="TY34" s="25"/>
-      <c r="TZ34" s="25"/>
-      <c r="UA34" s="25"/>
-      <c r="UB34" s="25"/>
-      <c r="UC34" s="25"/>
-      <c r="UD34" s="25"/>
-      <c r="UE34" s="25"/>
-      <c r="UF34" s="25"/>
-      <c r="UG34" s="25"/>
-      <c r="UH34" s="25"/>
-      <c r="UI34" s="25"/>
-      <c r="UJ34" s="25"/>
-      <c r="UK34" s="25"/>
-      <c r="UL34" s="25"/>
-      <c r="UM34" s="25"/>
-      <c r="UN34" s="25"/>
-      <c r="UO34" s="25"/>
-      <c r="UP34" s="25"/>
-      <c r="UQ34" s="25"/>
-      <c r="UR34" s="25"/>
-      <c r="US34" s="25"/>
-      <c r="UT34" s="25"/>
-      <c r="UU34" s="25"/>
-      <c r="UV34" s="25"/>
-      <c r="UW34" s="25"/>
-      <c r="UX34" s="25"/>
-      <c r="UY34" s="25"/>
-      <c r="UZ34" s="25"/>
-      <c r="VA34" s="25"/>
-      <c r="VB34" s="25"/>
-      <c r="VC34" s="25"/>
-      <c r="VD34" s="25"/>
-      <c r="VE34" s="25"/>
-      <c r="VF34" s="25"/>
-      <c r="VG34" s="25"/>
-      <c r="VH34" s="25"/>
-      <c r="VI34" s="25"/>
-      <c r="VJ34" s="25"/>
-      <c r="VK34" s="25"/>
-      <c r="VL34" s="25"/>
-      <c r="VM34" s="25"/>
-      <c r="VN34" s="25"/>
-      <c r="VO34" s="25"/>
-      <c r="VP34" s="25"/>
-      <c r="VQ34" s="25"/>
-      <c r="VR34" s="25"/>
-      <c r="VS34" s="25"/>
-      <c r="VT34" s="25"/>
-      <c r="VU34" s="25"/>
-      <c r="VV34" s="25"/>
-      <c r="VW34" s="25"/>
-      <c r="VX34" s="25"/>
-      <c r="VY34" s="25"/>
-      <c r="VZ34" s="25"/>
-      <c r="WA34" s="25"/>
-      <c r="WB34" s="25"/>
-      <c r="WC34" s="25"/>
-      <c r="WD34" s="25"/>
-      <c r="WE34" s="25"/>
-      <c r="WF34" s="25"/>
-      <c r="WG34" s="25"/>
-      <c r="WH34" s="25"/>
-      <c r="WI34" s="25"/>
-      <c r="WJ34" s="25"/>
-      <c r="WK34" s="25"/>
-      <c r="WL34" s="25"/>
-      <c r="WM34" s="25"/>
-      <c r="WN34" s="25"/>
-      <c r="WO34" s="25"/>
-      <c r="WP34" s="25"/>
-      <c r="WQ34" s="25"/>
-      <c r="WR34" s="25"/>
-      <c r="WS34" s="25"/>
-      <c r="WT34" s="25"/>
-      <c r="WU34" s="25"/>
-      <c r="WV34" s="25"/>
-      <c r="WW34" s="25"/>
-      <c r="WX34" s="25"/>
-      <c r="WY34" s="25"/>
-      <c r="WZ34" s="25"/>
-      <c r="XA34" s="25"/>
-      <c r="XB34" s="25"/>
-      <c r="XC34" s="25"/>
-      <c r="XD34" s="25"/>
-      <c r="XE34" s="25"/>
-      <c r="XF34" s="25"/>
-      <c r="XG34" s="25"/>
-      <c r="XH34" s="25"/>
-      <c r="XI34" s="25"/>
-      <c r="XJ34" s="25"/>
-      <c r="XK34" s="25"/>
-      <c r="XL34" s="25"/>
-      <c r="XM34" s="25"/>
-      <c r="XN34" s="25"/>
-      <c r="XO34" s="25"/>
-      <c r="XP34" s="25"/>
-      <c r="XQ34" s="25"/>
-      <c r="XR34" s="25"/>
-      <c r="XS34" s="25"/>
-      <c r="XT34" s="25"/>
-      <c r="XU34" s="25"/>
-      <c r="XV34" s="25"/>
-      <c r="XW34" s="25"/>
-      <c r="XX34" s="25"/>
-      <c r="XY34" s="25"/>
-      <c r="XZ34" s="25"/>
-      <c r="YA34" s="25"/>
-      <c r="YB34" s="25"/>
-      <c r="YC34" s="25"/>
-      <c r="YD34" s="25"/>
-      <c r="YE34" s="25"/>
-      <c r="YF34" s="25"/>
-      <c r="YG34" s="25"/>
-      <c r="YH34" s="25"/>
-      <c r="YI34" s="25"/>
-      <c r="YJ34" s="25"/>
-      <c r="YK34" s="25"/>
-      <c r="YL34" s="25"/>
-      <c r="YM34" s="25"/>
-      <c r="YN34" s="25"/>
-      <c r="YO34" s="25"/>
-      <c r="YP34" s="25"/>
-      <c r="YQ34" s="25"/>
-      <c r="YR34" s="25"/>
-      <c r="YS34" s="25"/>
-      <c r="YT34" s="25"/>
-      <c r="YU34" s="25"/>
-      <c r="YV34" s="25"/>
-      <c r="YW34" s="25"/>
-      <c r="YX34" s="25"/>
-      <c r="YY34" s="25"/>
-      <c r="YZ34" s="25"/>
-      <c r="ZA34" s="25"/>
-      <c r="ZB34" s="25"/>
-      <c r="ZC34" s="25"/>
-      <c r="ZD34" s="25"/>
-      <c r="ZE34" s="25"/>
-      <c r="ZF34" s="25"/>
-      <c r="ZG34" s="25"/>
-      <c r="ZH34" s="25"/>
-      <c r="ZI34" s="25"/>
-      <c r="ZJ34" s="25"/>
-      <c r="ZK34" s="25"/>
-      <c r="ZL34" s="25"/>
-      <c r="ZM34" s="25"/>
-      <c r="ZN34" s="25"/>
-      <c r="ZO34" s="25"/>
-      <c r="ZP34" s="25"/>
-      <c r="ZQ34" s="25"/>
-      <c r="ZR34" s="25"/>
-      <c r="ZS34" s="25"/>
-      <c r="ZT34" s="25"/>
-      <c r="ZU34" s="25"/>
-      <c r="ZV34" s="25"/>
-      <c r="ZW34" s="25"/>
-      <c r="ZX34" s="25"/>
-      <c r="ZY34" s="25"/>
-      <c r="ZZ34" s="25"/>
-      <c r="AAA34" s="25"/>
-      <c r="AAB34" s="25"/>
-      <c r="AAC34" s="25"/>
-      <c r="AAD34" s="25"/>
-      <c r="AAE34" s="25"/>
-      <c r="AAF34" s="25"/>
-      <c r="AAG34" s="25"/>
-      <c r="AAH34" s="25"/>
-      <c r="AAI34" s="25"/>
-      <c r="AAJ34" s="25"/>
-      <c r="AAK34" s="25"/>
-      <c r="AAL34" s="25"/>
-      <c r="AAM34" s="25"/>
-      <c r="AAN34" s="25"/>
-      <c r="AAO34" s="25"/>
-      <c r="AAP34" s="25"/>
-      <c r="AAQ34" s="25"/>
-      <c r="AAR34" s="25"/>
-      <c r="AAS34" s="25"/>
-      <c r="AAT34" s="25"/>
-      <c r="AAU34" s="25"/>
-      <c r="AAV34" s="25"/>
-      <c r="AAW34" s="25"/>
-      <c r="AAX34" s="25"/>
-      <c r="AAY34" s="25"/>
-      <c r="AAZ34" s="25"/>
-      <c r="ABA34" s="25"/>
-      <c r="ABB34" s="25"/>
-      <c r="ABC34" s="25"/>
-      <c r="ABD34" s="25"/>
-      <c r="ABE34" s="25"/>
-      <c r="ABF34" s="25"/>
-      <c r="ABG34" s="25"/>
-      <c r="ABH34" s="25"/>
-      <c r="ABI34" s="25"/>
-      <c r="ABJ34" s="25"/>
-      <c r="ABK34" s="25"/>
-      <c r="ABL34" s="25"/>
-      <c r="ABM34" s="25"/>
-      <c r="ABN34" s="25"/>
-      <c r="ABO34" s="25"/>
-      <c r="ABP34" s="25"/>
-      <c r="ABQ34" s="25"/>
-      <c r="ABR34" s="25"/>
-      <c r="ABS34" s="25"/>
-      <c r="ABT34" s="25"/>
-      <c r="ABU34" s="25"/>
-      <c r="ABV34" s="25"/>
-      <c r="ABW34" s="25"/>
-      <c r="ABX34" s="25"/>
-      <c r="ABY34" s="25"/>
-      <c r="ABZ34" s="25"/>
-      <c r="ACA34" s="25"/>
-      <c r="ACB34" s="25"/>
-      <c r="ACC34" s="25"/>
-      <c r="ACD34" s="25"/>
-      <c r="ACE34" s="25"/>
-      <c r="ACF34" s="25"/>
-      <c r="ACG34" s="25"/>
-      <c r="ACH34" s="25"/>
-      <c r="ACI34" s="25"/>
-      <c r="ACJ34" s="25"/>
-      <c r="ACK34" s="25"/>
-      <c r="ACL34" s="25"/>
-      <c r="ACM34" s="25"/>
-      <c r="ACN34" s="25"/>
-      <c r="ACO34" s="25"/>
-      <c r="ACP34" s="25"/>
-      <c r="ACQ34" s="25"/>
-      <c r="ACR34" s="25"/>
-      <c r="ACS34" s="25"/>
-      <c r="ACT34" s="25"/>
-      <c r="ACU34" s="25"/>
-      <c r="ACV34" s="25"/>
-      <c r="ACW34" s="25"/>
-      <c r="ACX34" s="25"/>
-      <c r="ACY34" s="25"/>
-      <c r="ACZ34" s="25"/>
-      <c r="ADA34" s="25"/>
-      <c r="ADB34" s="25"/>
-      <c r="ADC34" s="25"/>
-      <c r="ADD34" s="25"/>
-      <c r="ADE34" s="25"/>
-      <c r="ADF34" s="25"/>
-      <c r="ADG34" s="25"/>
-      <c r="ADH34" s="25"/>
-      <c r="ADI34" s="25"/>
-      <c r="ADJ34" s="25"/>
-      <c r="ADK34" s="25"/>
-      <c r="ADL34" s="25"/>
-      <c r="ADM34" s="25"/>
-      <c r="ADN34" s="25"/>
-      <c r="ADO34" s="25"/>
-      <c r="ADP34" s="25"/>
-      <c r="ADQ34" s="25"/>
-      <c r="ADR34" s="25"/>
-      <c r="ADS34" s="25"/>
-      <c r="ADT34" s="25"/>
-      <c r="ADU34" s="25"/>
-      <c r="ADV34" s="25"/>
-      <c r="ADW34" s="25"/>
-      <c r="ADX34" s="25"/>
-      <c r="ADY34" s="25"/>
-      <c r="ADZ34" s="25"/>
-      <c r="AEA34" s="25"/>
-      <c r="AEB34" s="25"/>
-      <c r="AEC34" s="25"/>
-      <c r="AED34" s="25"/>
-      <c r="AEE34" s="25"/>
-      <c r="AEF34" s="25"/>
-      <c r="AEG34" s="25"/>
-      <c r="AEH34" s="25"/>
-      <c r="AEI34" s="25"/>
-      <c r="AEJ34" s="25"/>
-      <c r="AEK34" s="25"/>
-      <c r="AEL34" s="25"/>
-      <c r="AEM34" s="25"/>
-      <c r="AEN34" s="25"/>
-      <c r="AEO34" s="25"/>
-      <c r="AEP34" s="25"/>
-      <c r="AEQ34" s="25"/>
-      <c r="AER34" s="25"/>
-      <c r="AES34" s="25"/>
-      <c r="AET34" s="25"/>
-      <c r="AEU34" s="25"/>
-      <c r="AEV34" s="25"/>
-      <c r="AEW34" s="25"/>
-      <c r="AEX34" s="25"/>
-      <c r="AEY34" s="25"/>
-      <c r="AEZ34" s="25"/>
-      <c r="AFA34" s="25"/>
-      <c r="AFB34" s="25"/>
-      <c r="AFC34" s="25"/>
-      <c r="AFD34" s="25"/>
-      <c r="AFE34" s="25"/>
-      <c r="AFF34" s="25"/>
-      <c r="AFG34" s="25"/>
-      <c r="AFH34" s="25"/>
-      <c r="AFI34" s="25"/>
-      <c r="AFJ34" s="25"/>
-      <c r="AFK34" s="25"/>
-      <c r="AFL34" s="25"/>
-      <c r="AFM34" s="25"/>
-      <c r="AFN34" s="25"/>
-      <c r="AFO34" s="25"/>
-      <c r="AFP34" s="25"/>
-      <c r="AFQ34" s="25"/>
-      <c r="AFR34" s="25"/>
-      <c r="AFS34" s="25"/>
-      <c r="AFT34" s="25"/>
-      <c r="AFU34" s="25"/>
-      <c r="AFV34" s="25"/>
-      <c r="AFW34" s="25"/>
-      <c r="AFX34" s="25"/>
-      <c r="AFY34" s="25"/>
-      <c r="AFZ34" s="25"/>
-      <c r="AGA34" s="25"/>
-      <c r="AGB34" s="25"/>
-      <c r="AGC34" s="25"/>
-      <c r="AGD34" s="25"/>
-      <c r="AGE34" s="25"/>
-      <c r="AGF34" s="25"/>
-      <c r="AGG34" s="25"/>
-      <c r="AGH34" s="25"/>
-      <c r="AGI34" s="25"/>
-      <c r="AGJ34" s="25"/>
-      <c r="AGK34" s="25"/>
-      <c r="AGL34" s="25"/>
-      <c r="AGM34" s="25"/>
-      <c r="AGN34" s="25"/>
-      <c r="AGO34" s="25"/>
-      <c r="AGP34" s="25"/>
-      <c r="AGQ34" s="25"/>
-      <c r="AGR34" s="25"/>
-      <c r="AGS34" s="25"/>
-      <c r="AGT34" s="25"/>
-      <c r="AGU34" s="25"/>
-      <c r="AGV34" s="25"/>
-      <c r="AGW34" s="25"/>
-      <c r="AGX34" s="25"/>
-      <c r="AGY34" s="25"/>
-      <c r="AGZ34" s="25"/>
-      <c r="AHA34" s="25"/>
-      <c r="AHB34" s="25"/>
-      <c r="AHC34" s="25"/>
-      <c r="AHD34" s="25"/>
-      <c r="AHE34" s="25"/>
-      <c r="AHF34" s="25"/>
-      <c r="AHG34" s="25"/>
-      <c r="AHH34" s="25"/>
-      <c r="AHI34" s="25"/>
-      <c r="AHJ34" s="25"/>
-      <c r="AHK34" s="25"/>
-      <c r="AHL34" s="25"/>
-      <c r="AHM34" s="25"/>
-      <c r="AHN34" s="25"/>
-      <c r="AHO34" s="25"/>
-      <c r="AHP34" s="25"/>
-      <c r="AHQ34" s="25"/>
-      <c r="AHR34" s="25"/>
-      <c r="AHS34" s="25"/>
-      <c r="AHT34" s="25"/>
-      <c r="AHU34" s="25"/>
-      <c r="AHV34" s="25"/>
-      <c r="AHW34" s="25"/>
-      <c r="AHX34" s="25"/>
-      <c r="AHY34" s="25"/>
-      <c r="AHZ34" s="25"/>
-      <c r="AIA34" s="25"/>
-      <c r="AIB34" s="25"/>
-      <c r="AIC34" s="25"/>
-      <c r="AID34" s="25"/>
-      <c r="AIE34" s="25"/>
-      <c r="AIF34" s="25"/>
-      <c r="AIG34" s="25"/>
-      <c r="AIH34" s="25"/>
-      <c r="AII34" s="25"/>
-      <c r="AIJ34" s="25"/>
-      <c r="AIK34" s="25"/>
-      <c r="AIL34" s="25"/>
-      <c r="AIM34" s="25"/>
-      <c r="AIN34" s="25"/>
-      <c r="AIO34" s="25"/>
-      <c r="AIP34" s="25"/>
-      <c r="AIQ34" s="25"/>
-      <c r="AIR34" s="25"/>
-      <c r="AIS34" s="25"/>
-      <c r="AIT34" s="25"/>
-      <c r="AIU34" s="25"/>
-      <c r="AIV34" s="25"/>
-      <c r="AIW34" s="25"/>
-      <c r="AIX34" s="25"/>
-      <c r="AIY34" s="25"/>
-      <c r="AIZ34" s="25"/>
-      <c r="AJA34" s="25"/>
-      <c r="AJB34" s="25"/>
-      <c r="AJC34" s="25"/>
-      <c r="AJD34" s="25"/>
-      <c r="AJE34" s="25"/>
-      <c r="AJF34" s="25"/>
-      <c r="AJG34" s="25"/>
-      <c r="AJH34" s="25"/>
-      <c r="AJI34" s="25"/>
-      <c r="AJJ34" s="25"/>
-      <c r="AJK34" s="25"/>
-      <c r="AJL34" s="25"/>
-      <c r="AJM34" s="25"/>
-      <c r="AJN34" s="25"/>
-      <c r="AJO34" s="25"/>
-      <c r="AJP34" s="25"/>
-      <c r="AJQ34" s="25"/>
-      <c r="AJR34" s="25"/>
-      <c r="AJS34" s="25"/>
-      <c r="AJT34" s="25"/>
-      <c r="AJU34" s="25"/>
-      <c r="AJV34" s="25"/>
-      <c r="AJW34" s="25"/>
-      <c r="AJX34" s="25"/>
-      <c r="AJY34" s="25"/>
-      <c r="AJZ34" s="25"/>
-      <c r="AKA34" s="25"/>
-      <c r="AKB34" s="25"/>
-      <c r="AKC34" s="25"/>
-      <c r="AKD34" s="25"/>
-      <c r="AKE34" s="25"/>
-      <c r="AKF34" s="25"/>
-      <c r="AKG34" s="25"/>
-      <c r="AKH34" s="25"/>
-      <c r="AKI34" s="25"/>
-      <c r="AKJ34" s="25"/>
-      <c r="AKK34" s="25"/>
-      <c r="AKL34" s="25"/>
-      <c r="AKM34" s="25"/>
-      <c r="AKN34" s="25"/>
-      <c r="AKO34" s="25"/>
-      <c r="AKP34" s="25"/>
-      <c r="AKQ34" s="25"/>
-      <c r="AKR34" s="25"/>
-      <c r="AKS34" s="25"/>
-      <c r="AKT34" s="25"/>
-      <c r="AKU34" s="25"/>
-      <c r="AKV34" s="25"/>
-      <c r="AKW34" s="25"/>
-      <c r="AKX34" s="25"/>
-      <c r="AKY34" s="25"/>
-      <c r="AKZ34" s="25"/>
-      <c r="ALA34" s="25"/>
-      <c r="ALB34" s="25"/>
-      <c r="ALC34" s="25"/>
-      <c r="ALD34" s="25"/>
-      <c r="ALE34" s="25"/>
-      <c r="ALF34" s="25"/>
-      <c r="ALG34" s="25"/>
-      <c r="ALH34" s="25"/>
-      <c r="ALI34" s="25"/>
-      <c r="ALJ34" s="25"/>
-      <c r="ALK34" s="25"/>
-      <c r="ALL34" s="25"/>
-      <c r="ALM34" s="25"/>
-      <c r="ALN34" s="25"/>
-      <c r="ALO34" s="25"/>
-      <c r="ALP34" s="25"/>
-      <c r="ALQ34" s="25"/>
-      <c r="ALR34" s="25"/>
-      <c r="ALS34" s="25"/>
-      <c r="ALT34" s="25"/>
-      <c r="ALU34" s="25"/>
-      <c r="ALV34" s="25"/>
-      <c r="ALW34" s="25"/>
-      <c r="ALX34" s="25"/>
-      <c r="ALY34" s="25"/>
-      <c r="ALZ34" s="25"/>
-      <c r="AMA34" s="25"/>
-      <c r="AMB34" s="25"/>
-      <c r="AMC34" s="25"/>
-      <c r="AMD34" s="25"/>
-      <c r="AME34" s="25"/>
-      <c r="AMF34" s="25"/>
-      <c r="AMG34" s="25"/>
-      <c r="AMH34" s="25"/>
-      <c r="AMI34" s="25"/>
-      <c r="AMJ34" s="25"/>
+        <v>209</v>
+      </c>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23"/>
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="23"/>
+      <c r="BN34" s="23"/>
+      <c r="BO34" s="23"/>
+      <c r="BP34" s="23"/>
+      <c r="BQ34" s="23"/>
+      <c r="BR34" s="23"/>
+      <c r="BS34" s="23"/>
+      <c r="BT34" s="23"/>
+      <c r="BU34" s="23"/>
+      <c r="BV34" s="23"/>
+      <c r="BW34" s="23"/>
+      <c r="BX34" s="23"/>
+      <c r="BY34" s="23"/>
+      <c r="BZ34" s="23"/>
+      <c r="CA34" s="23"/>
+      <c r="CB34" s="23"/>
+      <c r="CC34" s="23"/>
+      <c r="CD34" s="23"/>
+      <c r="CE34" s="23"/>
+      <c r="CF34" s="23"/>
+      <c r="CG34" s="23"/>
+      <c r="CH34" s="23"/>
+      <c r="CI34" s="23"/>
+      <c r="CJ34" s="23"/>
+      <c r="CK34" s="23"/>
+      <c r="CL34" s="23"/>
+      <c r="CM34" s="23"/>
+      <c r="CN34" s="23"/>
+      <c r="CO34" s="23"/>
+      <c r="CP34" s="23"/>
+      <c r="CQ34" s="23"/>
+      <c r="CR34" s="23"/>
+      <c r="CS34" s="23"/>
+      <c r="CT34" s="23"/>
+      <c r="CU34" s="23"/>
+      <c r="CV34" s="23"/>
+      <c r="CW34" s="23"/>
+      <c r="CX34" s="23"/>
+      <c r="CY34" s="23"/>
+      <c r="CZ34" s="23"/>
+      <c r="DA34" s="23"/>
+      <c r="DB34" s="23"/>
+      <c r="DC34" s="23"/>
+      <c r="DD34" s="23"/>
+      <c r="DE34" s="23"/>
+      <c r="DF34" s="23"/>
+      <c r="DG34" s="23"/>
+      <c r="DH34" s="23"/>
+      <c r="DI34" s="23"/>
+      <c r="DJ34" s="23"/>
+      <c r="DK34" s="23"/>
+      <c r="DL34" s="23"/>
+      <c r="DM34" s="23"/>
+      <c r="DN34" s="23"/>
+      <c r="DO34" s="23"/>
+      <c r="DP34" s="23"/>
+      <c r="DQ34" s="23"/>
+      <c r="DR34" s="23"/>
+      <c r="DS34" s="23"/>
+      <c r="DT34" s="23"/>
+      <c r="DU34" s="23"/>
+      <c r="DV34" s="23"/>
+      <c r="DW34" s="23"/>
+      <c r="DX34" s="23"/>
+      <c r="DY34" s="23"/>
+      <c r="DZ34" s="23"/>
+      <c r="EA34" s="23"/>
+      <c r="EB34" s="23"/>
+      <c r="EC34" s="23"/>
+      <c r="ED34" s="23"/>
+      <c r="EE34" s="23"/>
+      <c r="EF34" s="23"/>
+      <c r="EG34" s="23"/>
+      <c r="EH34" s="23"/>
+      <c r="EI34" s="23"/>
+      <c r="EJ34" s="23"/>
+      <c r="EK34" s="23"/>
+      <c r="EL34" s="23"/>
+      <c r="EM34" s="23"/>
+      <c r="EN34" s="23"/>
+      <c r="EO34" s="23"/>
+      <c r="EP34" s="23"/>
+      <c r="EQ34" s="23"/>
+      <c r="ER34" s="23"/>
+      <c r="ES34" s="23"/>
+      <c r="ET34" s="23"/>
+      <c r="EU34" s="23"/>
+      <c r="EV34" s="23"/>
+      <c r="EW34" s="23"/>
+      <c r="EX34" s="23"/>
+      <c r="EY34" s="23"/>
+      <c r="EZ34" s="23"/>
+      <c r="FA34" s="23"/>
+      <c r="FB34" s="23"/>
+      <c r="FC34" s="23"/>
+      <c r="FD34" s="23"/>
+      <c r="FE34" s="23"/>
+      <c r="FF34" s="23"/>
+      <c r="FG34" s="23"/>
+      <c r="FH34" s="23"/>
+      <c r="FI34" s="23"/>
+      <c r="FJ34" s="23"/>
+      <c r="FK34" s="23"/>
+      <c r="FL34" s="23"/>
+      <c r="FM34" s="23"/>
+      <c r="FN34" s="23"/>
+      <c r="FO34" s="23"/>
+      <c r="FP34" s="23"/>
+      <c r="FQ34" s="23"/>
+      <c r="FR34" s="23"/>
+      <c r="FS34" s="23"/>
+      <c r="FT34" s="23"/>
+      <c r="FU34" s="23"/>
+      <c r="FV34" s="23"/>
+      <c r="FW34" s="23"/>
+      <c r="FX34" s="23"/>
+      <c r="FY34" s="23"/>
+      <c r="FZ34" s="23"/>
+      <c r="GA34" s="23"/>
+      <c r="GB34" s="23"/>
+      <c r="GC34" s="23"/>
+      <c r="GD34" s="23"/>
+      <c r="GE34" s="23"/>
+      <c r="GF34" s="23"/>
+      <c r="GG34" s="23"/>
+      <c r="GH34" s="23"/>
+      <c r="GI34" s="23"/>
+      <c r="GJ34" s="23"/>
+      <c r="GK34" s="23"/>
+      <c r="GL34" s="23"/>
+      <c r="GM34" s="23"/>
+      <c r="GN34" s="23"/>
+      <c r="GO34" s="23"/>
+      <c r="GP34" s="23"/>
+      <c r="GQ34" s="23"/>
+      <c r="GR34" s="23"/>
+      <c r="GS34" s="23"/>
+      <c r="GT34" s="23"/>
+      <c r="GU34" s="23"/>
+      <c r="GV34" s="23"/>
+      <c r="GW34" s="23"/>
+      <c r="GX34" s="23"/>
+      <c r="GY34" s="23"/>
+      <c r="GZ34" s="23"/>
+      <c r="HA34" s="23"/>
+      <c r="HB34" s="23"/>
+      <c r="HC34" s="23"/>
+      <c r="HD34" s="23"/>
+      <c r="HE34" s="23"/>
+      <c r="HF34" s="23"/>
+      <c r="HG34" s="23"/>
+      <c r="HH34" s="23"/>
+      <c r="HI34" s="23"/>
+      <c r="HJ34" s="23"/>
+      <c r="HK34" s="23"/>
+      <c r="HL34" s="23"/>
+      <c r="HM34" s="23"/>
+      <c r="HN34" s="23"/>
+      <c r="HO34" s="23"/>
+      <c r="HP34" s="23"/>
+      <c r="HQ34" s="23"/>
+      <c r="HR34" s="23"/>
+      <c r="HS34" s="23"/>
+      <c r="HT34" s="23"/>
+      <c r="HU34" s="23"/>
+      <c r="HV34" s="23"/>
+      <c r="HW34" s="23"/>
+      <c r="HX34" s="23"/>
+      <c r="HY34" s="23"/>
+      <c r="HZ34" s="23"/>
+      <c r="IA34" s="23"/>
+      <c r="IB34" s="23"/>
+      <c r="IC34" s="23"/>
+      <c r="ID34" s="23"/>
+      <c r="IE34" s="23"/>
+      <c r="IF34" s="23"/>
+      <c r="IG34" s="23"/>
+      <c r="IH34" s="23"/>
+      <c r="II34" s="23"/>
+      <c r="IJ34" s="23"/>
+      <c r="IK34" s="23"/>
+      <c r="IL34" s="23"/>
+      <c r="IM34" s="23"/>
+      <c r="IN34" s="23"/>
+      <c r="IO34" s="23"/>
+      <c r="IP34" s="23"/>
+      <c r="IQ34" s="23"/>
+      <c r="IR34" s="23"/>
+      <c r="IS34" s="23"/>
+      <c r="IT34" s="23"/>
+      <c r="IU34" s="23"/>
+      <c r="IV34" s="23"/>
+      <c r="IW34" s="23"/>
+      <c r="IX34" s="23"/>
+      <c r="IY34" s="23"/>
+      <c r="IZ34" s="23"/>
+      <c r="JA34" s="23"/>
+      <c r="JB34" s="23"/>
+      <c r="JC34" s="23"/>
+      <c r="JD34" s="23"/>
+      <c r="JE34" s="23"/>
+      <c r="JF34" s="23"/>
+      <c r="JG34" s="23"/>
+      <c r="JH34" s="23"/>
+      <c r="JI34" s="23"/>
+      <c r="JJ34" s="23"/>
+      <c r="JK34" s="23"/>
+      <c r="JL34" s="23"/>
+      <c r="JM34" s="23"/>
+      <c r="JN34" s="23"/>
+      <c r="JO34" s="23"/>
+      <c r="JP34" s="23"/>
+      <c r="JQ34" s="23"/>
+      <c r="JR34" s="23"/>
+      <c r="JS34" s="23"/>
+      <c r="JT34" s="23"/>
+      <c r="JU34" s="23"/>
+      <c r="JV34" s="23"/>
+      <c r="JW34" s="23"/>
+      <c r="JX34" s="23"/>
+      <c r="JY34" s="23"/>
+      <c r="JZ34" s="23"/>
+      <c r="KA34" s="23"/>
+      <c r="KB34" s="23"/>
+      <c r="KC34" s="23"/>
+      <c r="KD34" s="23"/>
+      <c r="KE34" s="23"/>
+      <c r="KF34" s="23"/>
+      <c r="KG34" s="23"/>
+      <c r="KH34" s="23"/>
+      <c r="KI34" s="23"/>
+      <c r="KJ34" s="23"/>
+      <c r="KK34" s="23"/>
+      <c r="KL34" s="23"/>
+      <c r="KM34" s="23"/>
+      <c r="KN34" s="23"/>
+      <c r="KO34" s="23"/>
+      <c r="KP34" s="23"/>
+      <c r="KQ34" s="23"/>
+      <c r="KR34" s="23"/>
+      <c r="KS34" s="23"/>
+      <c r="KT34" s="23"/>
+      <c r="KU34" s="23"/>
+      <c r="KV34" s="23"/>
+      <c r="KW34" s="23"/>
+      <c r="KX34" s="23"/>
+      <c r="KY34" s="23"/>
+      <c r="KZ34" s="23"/>
+      <c r="LA34" s="23"/>
+      <c r="LB34" s="23"/>
+      <c r="LC34" s="23"/>
+      <c r="LD34" s="23"/>
+      <c r="LE34" s="23"/>
+      <c r="LF34" s="23"/>
+      <c r="LG34" s="23"/>
+      <c r="LH34" s="23"/>
+      <c r="LI34" s="23"/>
+      <c r="LJ34" s="23"/>
+      <c r="LK34" s="23"/>
+      <c r="LL34" s="23"/>
+      <c r="LM34" s="23"/>
+      <c r="LN34" s="23"/>
+      <c r="LO34" s="23"/>
+      <c r="LP34" s="23"/>
+      <c r="LQ34" s="23"/>
+      <c r="LR34" s="23"/>
+      <c r="LS34" s="23"/>
+      <c r="LT34" s="23"/>
+      <c r="LU34" s="23"/>
+      <c r="LV34" s="23"/>
+      <c r="LW34" s="23"/>
+      <c r="LX34" s="23"/>
+      <c r="LY34" s="23"/>
+      <c r="LZ34" s="23"/>
+      <c r="MA34" s="23"/>
+      <c r="MB34" s="23"/>
+      <c r="MC34" s="23"/>
+      <c r="MD34" s="23"/>
+      <c r="ME34" s="23"/>
+      <c r="MF34" s="23"/>
+      <c r="MG34" s="23"/>
+      <c r="MH34" s="23"/>
+      <c r="MI34" s="23"/>
+      <c r="MJ34" s="23"/>
+      <c r="MK34" s="23"/>
+      <c r="ML34" s="23"/>
+      <c r="MM34" s="23"/>
+      <c r="MN34" s="23"/>
+      <c r="MO34" s="23"/>
+      <c r="MP34" s="23"/>
+      <c r="MQ34" s="23"/>
+      <c r="MR34" s="23"/>
+      <c r="MS34" s="23"/>
+      <c r="MT34" s="23"/>
+      <c r="MU34" s="23"/>
+      <c r="MV34" s="23"/>
+      <c r="MW34" s="23"/>
+      <c r="MX34" s="23"/>
+      <c r="MY34" s="23"/>
+      <c r="MZ34" s="23"/>
+      <c r="NA34" s="23"/>
+      <c r="NB34" s="23"/>
+      <c r="NC34" s="23"/>
+      <c r="ND34" s="23"/>
+      <c r="NE34" s="23"/>
+      <c r="NF34" s="23"/>
+      <c r="NG34" s="23"/>
+      <c r="NH34" s="23"/>
+      <c r="NI34" s="23"/>
+      <c r="NJ34" s="23"/>
+      <c r="NK34" s="23"/>
+      <c r="NL34" s="23"/>
+      <c r="NM34" s="23"/>
+      <c r="NN34" s="23"/>
+      <c r="NO34" s="23"/>
+      <c r="NP34" s="23"/>
+      <c r="NQ34" s="23"/>
+      <c r="NR34" s="23"/>
+      <c r="NS34" s="23"/>
+      <c r="NT34" s="23"/>
+      <c r="NU34" s="23"/>
+      <c r="NV34" s="23"/>
+      <c r="NW34" s="23"/>
+      <c r="NX34" s="23"/>
+      <c r="NY34" s="23"/>
+      <c r="NZ34" s="23"/>
+      <c r="OA34" s="23"/>
+      <c r="OB34" s="23"/>
+      <c r="OC34" s="23"/>
+      <c r="OD34" s="23"/>
+      <c r="OE34" s="23"/>
+      <c r="OF34" s="23"/>
+      <c r="OG34" s="23"/>
+      <c r="OH34" s="23"/>
+      <c r="OI34" s="23"/>
+      <c r="OJ34" s="23"/>
+      <c r="OK34" s="23"/>
+      <c r="OL34" s="23"/>
+      <c r="OM34" s="23"/>
+      <c r="ON34" s="23"/>
+      <c r="OO34" s="23"/>
+      <c r="OP34" s="23"/>
+      <c r="OQ34" s="23"/>
+      <c r="OR34" s="23"/>
+      <c r="OS34" s="23"/>
+      <c r="OT34" s="23"/>
+      <c r="OU34" s="23"/>
+      <c r="OV34" s="23"/>
+      <c r="OW34" s="23"/>
+      <c r="OX34" s="23"/>
+      <c r="OY34" s="23"/>
+      <c r="OZ34" s="23"/>
+      <c r="PA34" s="23"/>
+      <c r="PB34" s="23"/>
+      <c r="PC34" s="23"/>
+      <c r="PD34" s="23"/>
+      <c r="PE34" s="23"/>
+      <c r="PF34" s="23"/>
+      <c r="PG34" s="23"/>
+      <c r="PH34" s="23"/>
+      <c r="PI34" s="23"/>
+      <c r="PJ34" s="23"/>
+      <c r="PK34" s="23"/>
+      <c r="PL34" s="23"/>
+      <c r="PM34" s="23"/>
+      <c r="PN34" s="23"/>
+      <c r="PO34" s="23"/>
+      <c r="PP34" s="23"/>
+      <c r="PQ34" s="23"/>
+      <c r="PR34" s="23"/>
+      <c r="PS34" s="23"/>
+      <c r="PT34" s="23"/>
+      <c r="PU34" s="23"/>
+      <c r="PV34" s="23"/>
+      <c r="PW34" s="23"/>
+      <c r="PX34" s="23"/>
+      <c r="PY34" s="23"/>
+      <c r="PZ34" s="23"/>
+      <c r="QA34" s="23"/>
+      <c r="QB34" s="23"/>
+      <c r="QC34" s="23"/>
+      <c r="QD34" s="23"/>
+      <c r="QE34" s="23"/>
+      <c r="QF34" s="23"/>
+      <c r="QG34" s="23"/>
+      <c r="QH34" s="23"/>
+      <c r="QI34" s="23"/>
+      <c r="QJ34" s="23"/>
+      <c r="QK34" s="23"/>
+      <c r="QL34" s="23"/>
+      <c r="QM34" s="23"/>
+      <c r="QN34" s="23"/>
+      <c r="QO34" s="23"/>
+      <c r="QP34" s="23"/>
+      <c r="QQ34" s="23"/>
+      <c r="QR34" s="23"/>
+      <c r="QS34" s="23"/>
+      <c r="QT34" s="23"/>
+      <c r="QU34" s="23"/>
+      <c r="QV34" s="23"/>
+      <c r="QW34" s="23"/>
+      <c r="QX34" s="23"/>
+      <c r="QY34" s="23"/>
+      <c r="QZ34" s="23"/>
+      <c r="RA34" s="23"/>
+      <c r="RB34" s="23"/>
+      <c r="RC34" s="23"/>
+      <c r="RD34" s="23"/>
+      <c r="RE34" s="23"/>
+      <c r="RF34" s="23"/>
+      <c r="RG34" s="23"/>
+      <c r="RH34" s="23"/>
+      <c r="RI34" s="23"/>
+      <c r="RJ34" s="23"/>
+      <c r="RK34" s="23"/>
+      <c r="RL34" s="23"/>
+      <c r="RM34" s="23"/>
+      <c r="RN34" s="23"/>
+      <c r="RO34" s="23"/>
+      <c r="RP34" s="23"/>
+      <c r="RQ34" s="23"/>
+      <c r="RR34" s="23"/>
+      <c r="RS34" s="23"/>
+      <c r="RT34" s="23"/>
+      <c r="RU34" s="23"/>
+      <c r="RV34" s="23"/>
+      <c r="RW34" s="23"/>
+      <c r="RX34" s="23"/>
+      <c r="RY34" s="23"/>
+      <c r="RZ34" s="23"/>
+      <c r="SA34" s="23"/>
+      <c r="SB34" s="23"/>
+      <c r="SC34" s="23"/>
+      <c r="SD34" s="23"/>
+      <c r="SE34" s="23"/>
+      <c r="SF34" s="23"/>
+      <c r="SG34" s="23"/>
+      <c r="SH34" s="23"/>
+      <c r="SI34" s="23"/>
+      <c r="SJ34" s="23"/>
+      <c r="SK34" s="23"/>
+      <c r="SL34" s="23"/>
+      <c r="SM34" s="23"/>
+      <c r="SN34" s="23"/>
+      <c r="SO34" s="23"/>
+      <c r="SP34" s="23"/>
+      <c r="SQ34" s="23"/>
+      <c r="SR34" s="23"/>
+      <c r="SS34" s="23"/>
+      <c r="ST34" s="23"/>
+      <c r="SU34" s="23"/>
+      <c r="SV34" s="23"/>
+      <c r="SW34" s="23"/>
+      <c r="SX34" s="23"/>
+      <c r="SY34" s="23"/>
+      <c r="SZ34" s="23"/>
+      <c r="TA34" s="23"/>
+      <c r="TB34" s="23"/>
+      <c r="TC34" s="23"/>
+      <c r="TD34" s="23"/>
+      <c r="TE34" s="23"/>
+      <c r="TF34" s="23"/>
+      <c r="TG34" s="23"/>
+      <c r="TH34" s="23"/>
+      <c r="TI34" s="23"/>
+      <c r="TJ34" s="23"/>
+      <c r="TK34" s="23"/>
+      <c r="TL34" s="23"/>
+      <c r="TM34" s="23"/>
+      <c r="TN34" s="23"/>
+      <c r="TO34" s="23"/>
+      <c r="TP34" s="23"/>
+      <c r="TQ34" s="23"/>
+      <c r="TR34" s="23"/>
+      <c r="TS34" s="23"/>
+      <c r="TT34" s="23"/>
+      <c r="TU34" s="23"/>
+      <c r="TV34" s="23"/>
+      <c r="TW34" s="23"/>
+      <c r="TX34" s="23"/>
+      <c r="TY34" s="23"/>
+      <c r="TZ34" s="23"/>
+      <c r="UA34" s="23"/>
+      <c r="UB34" s="23"/>
+      <c r="UC34" s="23"/>
+      <c r="UD34" s="23"/>
+      <c r="UE34" s="23"/>
+      <c r="UF34" s="23"/>
+      <c r="UG34" s="23"/>
+      <c r="UH34" s="23"/>
+      <c r="UI34" s="23"/>
+      <c r="UJ34" s="23"/>
+      <c r="UK34" s="23"/>
+      <c r="UL34" s="23"/>
+      <c r="UM34" s="23"/>
+      <c r="UN34" s="23"/>
+      <c r="UO34" s="23"/>
+      <c r="UP34" s="23"/>
+      <c r="UQ34" s="23"/>
+      <c r="UR34" s="23"/>
+      <c r="US34" s="23"/>
+      <c r="UT34" s="23"/>
+      <c r="UU34" s="23"/>
+      <c r="UV34" s="23"/>
+      <c r="UW34" s="23"/>
+      <c r="UX34" s="23"/>
+      <c r="UY34" s="23"/>
+      <c r="UZ34" s="23"/>
+      <c r="VA34" s="23"/>
+      <c r="VB34" s="23"/>
+      <c r="VC34" s="23"/>
+      <c r="VD34" s="23"/>
+      <c r="VE34" s="23"/>
+      <c r="VF34" s="23"/>
+      <c r="VG34" s="23"/>
+      <c r="VH34" s="23"/>
+      <c r="VI34" s="23"/>
+      <c r="VJ34" s="23"/>
+      <c r="VK34" s="23"/>
+      <c r="VL34" s="23"/>
+      <c r="VM34" s="23"/>
+      <c r="VN34" s="23"/>
+      <c r="VO34" s="23"/>
+      <c r="VP34" s="23"/>
+      <c r="VQ34" s="23"/>
+      <c r="VR34" s="23"/>
+      <c r="VS34" s="23"/>
+      <c r="VT34" s="23"/>
+      <c r="VU34" s="23"/>
+      <c r="VV34" s="23"/>
+      <c r="VW34" s="23"/>
+      <c r="VX34" s="23"/>
+      <c r="VY34" s="23"/>
+      <c r="VZ34" s="23"/>
+      <c r="WA34" s="23"/>
+      <c r="WB34" s="23"/>
+      <c r="WC34" s="23"/>
+      <c r="WD34" s="23"/>
+      <c r="WE34" s="23"/>
+      <c r="WF34" s="23"/>
+      <c r="WG34" s="23"/>
+      <c r="WH34" s="23"/>
+      <c r="WI34" s="23"/>
+      <c r="WJ34" s="23"/>
+      <c r="WK34" s="23"/>
+      <c r="WL34" s="23"/>
+      <c r="WM34" s="23"/>
+      <c r="WN34" s="23"/>
+      <c r="WO34" s="23"/>
+      <c r="WP34" s="23"/>
+      <c r="WQ34" s="23"/>
+      <c r="WR34" s="23"/>
+      <c r="WS34" s="23"/>
+      <c r="WT34" s="23"/>
+      <c r="WU34" s="23"/>
+      <c r="WV34" s="23"/>
+      <c r="WW34" s="23"/>
+      <c r="WX34" s="23"/>
+      <c r="WY34" s="23"/>
+      <c r="WZ34" s="23"/>
+      <c r="XA34" s="23"/>
+      <c r="XB34" s="23"/>
+      <c r="XC34" s="23"/>
+      <c r="XD34" s="23"/>
+      <c r="XE34" s="23"/>
+      <c r="XF34" s="23"/>
+      <c r="XG34" s="23"/>
+      <c r="XH34" s="23"/>
+      <c r="XI34" s="23"/>
+      <c r="XJ34" s="23"/>
+      <c r="XK34" s="23"/>
+      <c r="XL34" s="23"/>
+      <c r="XM34" s="23"/>
+      <c r="XN34" s="23"/>
+      <c r="XO34" s="23"/>
+      <c r="XP34" s="23"/>
+      <c r="XQ34" s="23"/>
+      <c r="XR34" s="23"/>
+      <c r="XS34" s="23"/>
+      <c r="XT34" s="23"/>
+      <c r="XU34" s="23"/>
+      <c r="XV34" s="23"/>
+      <c r="XW34" s="23"/>
+      <c r="XX34" s="23"/>
+      <c r="XY34" s="23"/>
+      <c r="XZ34" s="23"/>
+      <c r="YA34" s="23"/>
+      <c r="YB34" s="23"/>
+      <c r="YC34" s="23"/>
+      <c r="YD34" s="23"/>
+      <c r="YE34" s="23"/>
+      <c r="YF34" s="23"/>
+      <c r="YG34" s="23"/>
+      <c r="YH34" s="23"/>
+      <c r="YI34" s="23"/>
+      <c r="YJ34" s="23"/>
+      <c r="YK34" s="23"/>
+      <c r="YL34" s="23"/>
+      <c r="YM34" s="23"/>
+      <c r="YN34" s="23"/>
+      <c r="YO34" s="23"/>
+      <c r="YP34" s="23"/>
+      <c r="YQ34" s="23"/>
+      <c r="YR34" s="23"/>
+      <c r="YS34" s="23"/>
+      <c r="YT34" s="23"/>
+      <c r="YU34" s="23"/>
+      <c r="YV34" s="23"/>
+      <c r="YW34" s="23"/>
+      <c r="YX34" s="23"/>
+      <c r="YY34" s="23"/>
+      <c r="YZ34" s="23"/>
+      <c r="ZA34" s="23"/>
+      <c r="ZB34" s="23"/>
+      <c r="ZC34" s="23"/>
+      <c r="ZD34" s="23"/>
+      <c r="ZE34" s="23"/>
+      <c r="ZF34" s="23"/>
+      <c r="ZG34" s="23"/>
+      <c r="ZH34" s="23"/>
+      <c r="ZI34" s="23"/>
+      <c r="ZJ34" s="23"/>
+      <c r="ZK34" s="23"/>
+      <c r="ZL34" s="23"/>
+      <c r="ZM34" s="23"/>
+      <c r="ZN34" s="23"/>
+      <c r="ZO34" s="23"/>
+      <c r="ZP34" s="23"/>
+      <c r="ZQ34" s="23"/>
+      <c r="ZR34" s="23"/>
+      <c r="ZS34" s="23"/>
+      <c r="ZT34" s="23"/>
+      <c r="ZU34" s="23"/>
+      <c r="ZV34" s="23"/>
+      <c r="ZW34" s="23"/>
+      <c r="ZX34" s="23"/>
+      <c r="ZY34" s="23"/>
+      <c r="ZZ34" s="23"/>
+      <c r="AAA34" s="23"/>
+      <c r="AAB34" s="23"/>
+      <c r="AAC34" s="23"/>
+      <c r="AAD34" s="23"/>
+      <c r="AAE34" s="23"/>
+      <c r="AAF34" s="23"/>
+      <c r="AAG34" s="23"/>
+      <c r="AAH34" s="23"/>
+      <c r="AAI34" s="23"/>
+      <c r="AAJ34" s="23"/>
+      <c r="AAK34" s="23"/>
+      <c r="AAL34" s="23"/>
+      <c r="AAM34" s="23"/>
+      <c r="AAN34" s="23"/>
+      <c r="AAO34" s="23"/>
+      <c r="AAP34" s="23"/>
+      <c r="AAQ34" s="23"/>
+      <c r="AAR34" s="23"/>
+      <c r="AAS34" s="23"/>
+      <c r="AAT34" s="23"/>
+      <c r="AAU34" s="23"/>
+      <c r="AAV34" s="23"/>
+      <c r="AAW34" s="23"/>
+      <c r="AAX34" s="23"/>
+      <c r="AAY34" s="23"/>
+      <c r="AAZ34" s="23"/>
+      <c r="ABA34" s="23"/>
+      <c r="ABB34" s="23"/>
+      <c r="ABC34" s="23"/>
+      <c r="ABD34" s="23"/>
+      <c r="ABE34" s="23"/>
+      <c r="ABF34" s="23"/>
+      <c r="ABG34" s="23"/>
+      <c r="ABH34" s="23"/>
+      <c r="ABI34" s="23"/>
+      <c r="ABJ34" s="23"/>
+      <c r="ABK34" s="23"/>
+      <c r="ABL34" s="23"/>
+      <c r="ABM34" s="23"/>
+      <c r="ABN34" s="23"/>
+      <c r="ABO34" s="23"/>
+      <c r="ABP34" s="23"/>
+      <c r="ABQ34" s="23"/>
+      <c r="ABR34" s="23"/>
+      <c r="ABS34" s="23"/>
+      <c r="ABT34" s="23"/>
+      <c r="ABU34" s="23"/>
+      <c r="ABV34" s="23"/>
+      <c r="ABW34" s="23"/>
+      <c r="ABX34" s="23"/>
+      <c r="ABY34" s="23"/>
+      <c r="ABZ34" s="23"/>
+      <c r="ACA34" s="23"/>
+      <c r="ACB34" s="23"/>
+      <c r="ACC34" s="23"/>
+      <c r="ACD34" s="23"/>
+      <c r="ACE34" s="23"/>
+      <c r="ACF34" s="23"/>
+      <c r="ACG34" s="23"/>
+      <c r="ACH34" s="23"/>
+      <c r="ACI34" s="23"/>
+      <c r="ACJ34" s="23"/>
+      <c r="ACK34" s="23"/>
+      <c r="ACL34" s="23"/>
+      <c r="ACM34" s="23"/>
+      <c r="ACN34" s="23"/>
+      <c r="ACO34" s="23"/>
+      <c r="ACP34" s="23"/>
+      <c r="ACQ34" s="23"/>
+      <c r="ACR34" s="23"/>
+      <c r="ACS34" s="23"/>
+      <c r="ACT34" s="23"/>
+      <c r="ACU34" s="23"/>
+      <c r="ACV34" s="23"/>
+      <c r="ACW34" s="23"/>
+      <c r="ACX34" s="23"/>
+      <c r="ACY34" s="23"/>
+      <c r="ACZ34" s="23"/>
+      <c r="ADA34" s="23"/>
+      <c r="ADB34" s="23"/>
+      <c r="ADC34" s="23"/>
+      <c r="ADD34" s="23"/>
+      <c r="ADE34" s="23"/>
+      <c r="ADF34" s="23"/>
+      <c r="ADG34" s="23"/>
+      <c r="ADH34" s="23"/>
+      <c r="ADI34" s="23"/>
+      <c r="ADJ34" s="23"/>
+      <c r="ADK34" s="23"/>
+      <c r="ADL34" s="23"/>
+      <c r="ADM34" s="23"/>
+      <c r="ADN34" s="23"/>
+      <c r="ADO34" s="23"/>
+      <c r="ADP34" s="23"/>
+      <c r="ADQ34" s="23"/>
+      <c r="ADR34" s="23"/>
+      <c r="ADS34" s="23"/>
+      <c r="ADT34" s="23"/>
+      <c r="ADU34" s="23"/>
+      <c r="ADV34" s="23"/>
+      <c r="ADW34" s="23"/>
+      <c r="ADX34" s="23"/>
+      <c r="ADY34" s="23"/>
+      <c r="ADZ34" s="23"/>
+      <c r="AEA34" s="23"/>
+      <c r="AEB34" s="23"/>
+      <c r="AEC34" s="23"/>
+      <c r="AED34" s="23"/>
+      <c r="AEE34" s="23"/>
+      <c r="AEF34" s="23"/>
+      <c r="AEG34" s="23"/>
+      <c r="AEH34" s="23"/>
+      <c r="AEI34" s="23"/>
+      <c r="AEJ34" s="23"/>
+      <c r="AEK34" s="23"/>
+      <c r="AEL34" s="23"/>
+      <c r="AEM34" s="23"/>
+      <c r="AEN34" s="23"/>
+      <c r="AEO34" s="23"/>
+      <c r="AEP34" s="23"/>
+      <c r="AEQ34" s="23"/>
+      <c r="AER34" s="23"/>
+      <c r="AES34" s="23"/>
+      <c r="AET34" s="23"/>
+      <c r="AEU34" s="23"/>
+      <c r="AEV34" s="23"/>
+      <c r="AEW34" s="23"/>
+      <c r="AEX34" s="23"/>
+      <c r="AEY34" s="23"/>
+      <c r="AEZ34" s="23"/>
+      <c r="AFA34" s="23"/>
+      <c r="AFB34" s="23"/>
+      <c r="AFC34" s="23"/>
+      <c r="AFD34" s="23"/>
+      <c r="AFE34" s="23"/>
+      <c r="AFF34" s="23"/>
+      <c r="AFG34" s="23"/>
+      <c r="AFH34" s="23"/>
+      <c r="AFI34" s="23"/>
+      <c r="AFJ34" s="23"/>
+      <c r="AFK34" s="23"/>
+      <c r="AFL34" s="23"/>
+      <c r="AFM34" s="23"/>
+      <c r="AFN34" s="23"/>
+      <c r="AFO34" s="23"/>
+      <c r="AFP34" s="23"/>
+      <c r="AFQ34" s="23"/>
+      <c r="AFR34" s="23"/>
+      <c r="AFS34" s="23"/>
+      <c r="AFT34" s="23"/>
+      <c r="AFU34" s="23"/>
+      <c r="AFV34" s="23"/>
+      <c r="AFW34" s="23"/>
+      <c r="AFX34" s="23"/>
+      <c r="AFY34" s="23"/>
+      <c r="AFZ34" s="23"/>
+      <c r="AGA34" s="23"/>
+      <c r="AGB34" s="23"/>
+      <c r="AGC34" s="23"/>
+      <c r="AGD34" s="23"/>
+      <c r="AGE34" s="23"/>
+      <c r="AGF34" s="23"/>
+      <c r="AGG34" s="23"/>
+      <c r="AGH34" s="23"/>
+      <c r="AGI34" s="23"/>
+      <c r="AGJ34" s="23"/>
+      <c r="AGK34" s="23"/>
+      <c r="AGL34" s="23"/>
+      <c r="AGM34" s="23"/>
+      <c r="AGN34" s="23"/>
+      <c r="AGO34" s="23"/>
+      <c r="AGP34" s="23"/>
+      <c r="AGQ34" s="23"/>
+      <c r="AGR34" s="23"/>
+      <c r="AGS34" s="23"/>
+      <c r="AGT34" s="23"/>
+      <c r="AGU34" s="23"/>
+      <c r="AGV34" s="23"/>
+      <c r="AGW34" s="23"/>
+      <c r="AGX34" s="23"/>
+      <c r="AGY34" s="23"/>
+      <c r="AGZ34" s="23"/>
+      <c r="AHA34" s="23"/>
+      <c r="AHB34" s="23"/>
+      <c r="AHC34" s="23"/>
+      <c r="AHD34" s="23"/>
+      <c r="AHE34" s="23"/>
+      <c r="AHF34" s="23"/>
+      <c r="AHG34" s="23"/>
+      <c r="AHH34" s="23"/>
+      <c r="AHI34" s="23"/>
+      <c r="AHJ34" s="23"/>
+      <c r="AHK34" s="23"/>
+      <c r="AHL34" s="23"/>
+      <c r="AHM34" s="23"/>
+      <c r="AHN34" s="23"/>
+      <c r="AHO34" s="23"/>
+      <c r="AHP34" s="23"/>
+      <c r="AHQ34" s="23"/>
+      <c r="AHR34" s="23"/>
+      <c r="AHS34" s="23"/>
+      <c r="AHT34" s="23"/>
+      <c r="AHU34" s="23"/>
+      <c r="AHV34" s="23"/>
+      <c r="AHW34" s="23"/>
+      <c r="AHX34" s="23"/>
+      <c r="AHY34" s="23"/>
+      <c r="AHZ34" s="23"/>
+      <c r="AIA34" s="23"/>
+      <c r="AIB34" s="23"/>
+      <c r="AIC34" s="23"/>
+      <c r="AID34" s="23"/>
+      <c r="AIE34" s="23"/>
+      <c r="AIF34" s="23"/>
+      <c r="AIG34" s="23"/>
+      <c r="AIH34" s="23"/>
+      <c r="AII34" s="23"/>
+      <c r="AIJ34" s="23"/>
+      <c r="AIK34" s="23"/>
+      <c r="AIL34" s="23"/>
+      <c r="AIM34" s="23"/>
+      <c r="AIN34" s="23"/>
+      <c r="AIO34" s="23"/>
+      <c r="AIP34" s="23"/>
+      <c r="AIQ34" s="23"/>
+      <c r="AIR34" s="23"/>
+      <c r="AIS34" s="23"/>
+      <c r="AIT34" s="23"/>
+      <c r="AIU34" s="23"/>
+      <c r="AIV34" s="23"/>
+      <c r="AIW34" s="23"/>
+      <c r="AIX34" s="23"/>
+      <c r="AIY34" s="23"/>
+      <c r="AIZ34" s="23"/>
+      <c r="AJA34" s="23"/>
+      <c r="AJB34" s="23"/>
+      <c r="AJC34" s="23"/>
+      <c r="AJD34" s="23"/>
+      <c r="AJE34" s="23"/>
+      <c r="AJF34" s="23"/>
+      <c r="AJG34" s="23"/>
+      <c r="AJH34" s="23"/>
+      <c r="AJI34" s="23"/>
+      <c r="AJJ34" s="23"/>
+      <c r="AJK34" s="23"/>
+      <c r="AJL34" s="23"/>
+      <c r="AJM34" s="23"/>
+      <c r="AJN34" s="23"/>
+      <c r="AJO34" s="23"/>
+      <c r="AJP34" s="23"/>
+      <c r="AJQ34" s="23"/>
+      <c r="AJR34" s="23"/>
+      <c r="AJS34" s="23"/>
+      <c r="AJT34" s="23"/>
+      <c r="AJU34" s="23"/>
+      <c r="AJV34" s="23"/>
+      <c r="AJW34" s="23"/>
+      <c r="AJX34" s="23"/>
+      <c r="AJY34" s="23"/>
+      <c r="AJZ34" s="23"/>
+      <c r="AKA34" s="23"/>
+      <c r="AKB34" s="23"/>
+      <c r="AKC34" s="23"/>
+      <c r="AKD34" s="23"/>
+      <c r="AKE34" s="23"/>
+      <c r="AKF34" s="23"/>
+      <c r="AKG34" s="23"/>
+      <c r="AKH34" s="23"/>
+      <c r="AKI34" s="23"/>
+      <c r="AKJ34" s="23"/>
+      <c r="AKK34" s="23"/>
+      <c r="AKL34" s="23"/>
+      <c r="AKM34" s="23"/>
+      <c r="AKN34" s="23"/>
+      <c r="AKO34" s="23"/>
+      <c r="AKP34" s="23"/>
+      <c r="AKQ34" s="23"/>
+      <c r="AKR34" s="23"/>
+      <c r="AKS34" s="23"/>
+      <c r="AKT34" s="23"/>
+      <c r="AKU34" s="23"/>
+      <c r="AKV34" s="23"/>
+      <c r="AKW34" s="23"/>
+      <c r="AKX34" s="23"/>
+      <c r="AKY34" s="23"/>
+      <c r="AKZ34" s="23"/>
+      <c r="ALA34" s="23"/>
+      <c r="ALB34" s="23"/>
+      <c r="ALC34" s="23"/>
+      <c r="ALD34" s="23"/>
+      <c r="ALE34" s="23"/>
+      <c r="ALF34" s="23"/>
+      <c r="ALG34" s="23"/>
+      <c r="ALH34" s="23"/>
+      <c r="ALI34" s="23"/>
+      <c r="ALJ34" s="23"/>
+      <c r="ALK34" s="23"/>
+      <c r="ALL34" s="23"/>
+      <c r="ALM34" s="23"/>
+      <c r="ALN34" s="23"/>
+      <c r="ALO34" s="23"/>
+      <c r="ALP34" s="23"/>
+      <c r="ALQ34" s="23"/>
+      <c r="ALR34" s="23"/>
+      <c r="ALS34" s="23"/>
+      <c r="ALT34" s="23"/>
+      <c r="ALU34" s="23"/>
+      <c r="ALV34" s="23"/>
+      <c r="ALW34" s="23"/>
+      <c r="ALX34" s="23"/>
+      <c r="ALY34" s="23"/>
+      <c r="ALZ34" s="23"/>
+      <c r="AMA34" s="23"/>
+      <c r="AMB34" s="23"/>
+      <c r="AMC34" s="23"/>
+      <c r="AMD34" s="23"/>
+      <c r="AME34" s="23"/>
+      <c r="AMF34" s="23"/>
+      <c r="AMG34" s="23"/>
+      <c r="AMH34" s="23"/>
+      <c r="AMI34" s="23"/>
+      <c r="AMJ34" s="23"/>
     </row>
     <row r="35" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B35" s="19">
         <v>100</v>
@@ -8067,10 +8153,10 @@
     </row>
     <row r="36" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>21</v>
@@ -9103,10 +9189,10 @@
     </row>
     <row r="37" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>21</v>
@@ -9115,10 +9201,10 @@
         <v>24</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>29</v>
@@ -10145,6 +10231,44 @@
       <c r="AMI37" s="18"/>
       <c r="AMJ37" s="18"/>
     </row>
+    <row r="38" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="K38">
+        <v>300.48590000000002</v>
+      </c>
+      <c r="L38">
+        <v>200.23423</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G29:H29"/>
@@ -10161,9 +10285,13 @@
     <hyperlink ref="L1" r:id="rId9" display="mailto:automationctpl8@gmail.com"/>
     <hyperlink ref="M1" r:id="rId10" display="mailto:qwerty@123"/>
     <hyperlink ref="O1" r:id="rId11" display="mailto:qwerty@123"/>
+    <hyperlink ref="P1" r:id="rId12"/>
+    <hyperlink ref="Q1" r:id="rId13"/>
+    <hyperlink ref="R1" r:id="rId14"/>
+    <hyperlink ref="S1" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/NetConnect-NetChain2/TestData.xlsx
+++ b/NetConnect-NetChain2/TestData.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="239">
   <si>
     <t>NetchainTest.Login</t>
   </si>
@@ -730,6 +731,9 @@
   </si>
   <si>
     <t>ab</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="I27" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4580,7 +4584,7 @@
         <v>141</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5047,7 +5051,9 @@
       <c r="K33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
